--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975C0BE-2EDB-4849-B5FF-D2AC26F547A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2F2FE-02BA-2247-AE15-59DF2146879F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,24 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$108</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$125</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
   <si>
     <t>实验报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +136,10 @@
   </si>
   <si>
     <t>平均值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉最高最低平均：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +536,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>性能分-30（百分比）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,16 +560,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUDA（s=1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open MP（s=2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总有效人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>09f300dec4b3499a260b65070ede68e4</t>
   </si>
 </sst>
 </file>
@@ -787,10 +794,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -801,10 +808,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3416,10 +3423,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II125"/>
+  <dimension ref="A1:II128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3443,61 +3450,61 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+        <v>122</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="6">
         <v>100</v>
@@ -3505,7 +3512,7 @@
     </row>
     <row r="3" spans="1:12" ht="25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <v>10</v>
@@ -3522,7 +3529,7 @@
       <c r="F3" s="23">
         <v>29.774000000000001</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <f>IF(F3&gt;0, IF(F3&lt;2, 30, IF(F3&gt;100, 10, (1-(F3-2)/(100-2))*20+10)), 0)</f>
         <v>24.331836734693876</v>
       </c>
@@ -3539,19 +3546,19 @@
         <v>5</v>
       </c>
       <c r="L3" s="4">
-        <f>IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L34" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -3562,8 +3569,8 @@
       <c r="F4" s="23">
         <v>136.96</v>
       </c>
-      <c r="G4" s="29">
-        <f t="shared" ref="G4:G67" si="0">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G67" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="5">
@@ -3579,19 +3586,19 @@
         <v>5</v>
       </c>
       <c r="L4" s="4">
-        <f>IF(SUM(B4:E4,G4,H4:I4,K4)&lt;100, SUM(B4:E4,G4,H4:I4,K4),  100)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -3602,8 +3609,8 @@
       <c r="F5" s="23">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G5" s="29">
-        <f t="shared" si="0"/>
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H5" s="5">
@@ -3619,19 +3626,19 @@
         <v>5</v>
       </c>
       <c r="L5" s="4">
-        <f>IF(SUM(B5:E5,G5,H5:I5,K5)&lt;100, SUM(B5:E5,G5,H5:I5,K5),  100)</f>
+        <f t="shared" si="0"/>
         <v>84.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3642,36 +3649,36 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <f>IF(SUM(B6:E6,G6,H6:I6,K6)&lt;100, SUM(B6:E6,G6,H6:I6,K6),  100)</f>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -3682,36 +3689,36 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <f>IF(SUM(B7:E7,G7,H7:I7,K7)&lt;100, SUM(B7:E7,G7,H7:I7,K7),  100)</f>
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -3722,8 +3729,8 @@
       <c r="F8" s="23">
         <v>53.58</v>
       </c>
-      <c r="G8" s="29">
-        <f t="shared" si="0"/>
+      <c r="G8" s="25">
+        <f t="shared" si="1"/>
         <v>19.473469387755102</v>
       </c>
       <c r="H8" s="5">
@@ -3739,19 +3746,19 @@
         <v>5</v>
       </c>
       <c r="L8" s="4">
-        <f>IF(SUM(B8:E8,G8,H8:I8,K8)&lt;100, SUM(B8:E8,G8,H8:I8,K8),  100)</f>
+        <f t="shared" si="0"/>
         <v>77.473469387755102</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3762,8 +3769,8 @@
       <c r="F9" s="23">
         <v>1.1835</v>
       </c>
-      <c r="G9" s="29">
-        <f t="shared" si="0"/>
+      <c r="G9" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H9" s="5">
@@ -3779,19 +3786,19 @@
         <v>5</v>
       </c>
       <c r="L9" s="4">
-        <f>IF(SUM(B9:E9,G9,H9:I9,K9)&lt;100, SUM(B9:E9,G9,H9:I9,K9),  100)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3802,8 +3809,8 @@
       <c r="F10" s="23">
         <v>116.31</v>
       </c>
-      <c r="G10" s="29">
-        <f t="shared" si="0"/>
+      <c r="G10" s="25">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H10" s="5">
@@ -3819,19 +3826,19 @@
         <v>5</v>
       </c>
       <c r="L10" s="4">
-        <f>IF(SUM(B10:E10,G10,H10:I10,K10)&lt;100, SUM(B10:E10,G10,H10:I10,K10),  100)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -3842,8 +3849,8 @@
       <c r="F11" s="23">
         <v>5.6810999999999998</v>
       </c>
-      <c r="G11" s="29">
-        <f t="shared" si="0"/>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
         <v>29.248755102040814</v>
       </c>
       <c r="H11" s="5">
@@ -3859,19 +3866,19 @@
         <v>5</v>
       </c>
       <c r="L11" s="4">
-        <f>IF(SUM(B11:E11,G11,H11:I11,K11)&lt;100, SUM(B11:E11,G11,H11:I11,K11),  100)</f>
+        <f t="shared" si="0"/>
         <v>84.248755102040818</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="25" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -3882,36 +3889,36 @@
       <c r="F12" s="23">
         <v>1.0487</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>IF(SUM(B12:E12,G12,H12:I12,K12)&lt;100, SUM(B12:E12,G12,H12:I12,K12),  100)</f>
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3922,8 +3929,8 @@
       <c r="F13" s="23">
         <v>1.0538000000000001</v>
       </c>
-      <c r="G13" s="29">
-        <f t="shared" si="0"/>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H13" s="5">
@@ -3939,19 +3946,19 @@
         <v>5</v>
       </c>
       <c r="L13" s="4">
-        <f>IF(SUM(B13:E13,G13,H13:I13,K13)&lt;100, SUM(B13:E13,G13,H13:I13,K13),  100)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -3962,8 +3969,8 @@
       <c r="F14" s="23">
         <v>15.304</v>
       </c>
-      <c r="G14" s="29">
-        <f t="shared" si="0"/>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
         <v>27.284897959183674</v>
       </c>
       <c r="H14" s="5">
@@ -3979,19 +3986,19 @@
         <v>5</v>
       </c>
       <c r="L14" s="4">
-        <f>IF(SUM(B14:E14,G14,H14:I14,K14)&lt;100, SUM(B14:E14,G14,H14:I14,K14),  100)</f>
+        <f t="shared" si="0"/>
         <v>85.284897959183667</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -4002,36 +4009,36 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f>IF(SUM(B15:E15,G15,H15:I15,K15)&lt;100, SUM(B15:E15,G15,H15:I15,K15),  100)</f>
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -4042,8 +4049,8 @@
       <c r="F16" s="23">
         <v>1.5833999999999999</v>
       </c>
-      <c r="G16" s="29">
-        <f t="shared" si="0"/>
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H16" s="5">
@@ -4059,19 +4066,19 @@
         <v>5</v>
       </c>
       <c r="L16" s="4">
-        <f>IF(SUM(B16:E16,G16,H16:I16,K16)&lt;100, SUM(B16:E16,G16,H16:I16,K16),  100)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
@@ -4082,8 +4089,8 @@
       <c r="F17" s="23">
         <v>1.0692999999999999</v>
       </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H17" s="5">
@@ -4099,59 +4106,59 @@
         <v>5</v>
       </c>
       <c r="L17" s="4">
-        <f>IF(SUM(B17:E17,G17,H17:I17,K17)&lt;100, SUM(B17:E17,G17,H17:I17,K17),  100)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="6">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>22.295999999999999</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>25.857959183673469</v>
+      </c>
+      <c r="H18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="K18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <f>IF(SUM(B18:E18,G18,H18:I18,K18)&lt;100, SUM(B18:E18,G18,H18:I18,K18),  100)</f>
-        <v>15</v>
+        <v>99.857959183673472</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="25" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -4162,36 +4169,36 @@
       <c r="F19" s="23">
         <v>39.323999999999998</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>22.382857142857144</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>22.382857142857144</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <f>IF(SUM(B19:E19,G19,H19:I19,K19)&lt;100, SUM(B19:E19,G19,H19:I19,K19),  100)</f>
         <v>57.382857142857148</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -4202,36 +4209,36 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <f>IF(SUM(B20:E20,G20,H20:I20,K20)&lt;100, SUM(B20:E20,G20,H20:I20,K20),  100)</f>
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -4242,8 +4249,8 @@
       <c r="F21" s="23">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G21" s="29">
-        <f t="shared" si="0"/>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H21" s="5">
@@ -4259,19 +4266,19 @@
         <v>5</v>
       </c>
       <c r="L21" s="4">
-        <f>IF(SUM(B21:E21,G21,H21:I21,K21)&lt;100, SUM(B21:E21,G21,H21:I21,K21),  100)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -4282,8 +4289,8 @@
       <c r="F22" s="23">
         <v>1.6819999999999999</v>
       </c>
-      <c r="G22" s="29">
-        <f t="shared" si="0"/>
+      <c r="G22" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H22" s="5">
@@ -4299,19 +4306,19 @@
         <v>5</v>
       </c>
       <c r="L22" s="4">
-        <f>IF(SUM(B22:E22,G22,H22:I22,K22)&lt;100, SUM(B22:E22,G22,H22:I22,K22),  100)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -4322,8 +4329,8 @@
       <c r="F23" s="23">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G23" s="29">
-        <f t="shared" si="0"/>
+      <c r="G23" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H23" s="5">
@@ -4339,19 +4346,19 @@
         <v>5</v>
       </c>
       <c r="L23" s="4">
-        <f>IF(SUM(B23:E23,G23,H23:I23,K23)&lt;100, SUM(B23:E23,G23,H23:I23,K23),  100)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -4362,8 +4369,8 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="29">
-        <f t="shared" si="0"/>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="5">
@@ -4379,19 +4386,19 @@
         <v>5</v>
       </c>
       <c r="L24" s="4">
-        <f>IF(SUM(B24:E24,G24,H24:I24,K24)&lt;100, SUM(B24:E24,G24,H24:I24,K24),  100)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -4402,8 +4409,8 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="29">
-        <f t="shared" si="0"/>
+      <c r="G25" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="5">
@@ -4419,19 +4426,19 @@
         <v>5</v>
       </c>
       <c r="L25" s="4">
-        <f>IF(SUM(B25:E25,G25,H25:I25,K25)&lt;100, SUM(B25:E25,G25,H25:I25,K25),  100)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -4442,36 +4449,36 @@
       <c r="F26" s="23">
         <v>2.0127999999999999</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="25">
+        <f t="shared" si="1"/>
+        <v>29.997387755102039</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>29.997387755102039</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f>IF(SUM(B26:E26,G26,H26:I26,K26)&lt;100, SUM(B26:E26,G26,H26:I26,K26),  100)</f>
         <v>67.997387755102039</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -4482,36 +4489,36 @@
       <c r="F27" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <f>IF(SUM(B27:E27,G27,H27:I27,K27)&lt;100, SUM(B27:E27,G27,H27:I27,K27),  100)</f>
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -4522,8 +4529,8 @@
       <c r="F28" s="23">
         <v>1.0944</v>
       </c>
-      <c r="G28" s="29">
-        <f t="shared" si="0"/>
+      <c r="G28" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H28" s="5">
@@ -4539,19 +4546,19 @@
         <v>5</v>
       </c>
       <c r="L28" s="4">
-        <f>IF(SUM(B28:E28,G28,H28:I28,K28)&lt;100, SUM(B28:E28,G28,H28:I28,K28),  100)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -4562,8 +4569,8 @@
       <c r="F29" s="23">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G29" s="29">
-        <f t="shared" si="0"/>
+      <c r="G29" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H29" s="5">
@@ -4579,19 +4586,19 @@
         <v>5</v>
       </c>
       <c r="L29" s="4">
-        <f>IF(SUM(B29:E29,G29,H29:I29,K29)&lt;100, SUM(B29:E29,G29,H29:I29,K29),  100)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -4602,36 +4609,36 @@
       <c r="F30" s="23">
         <v>108.16</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <f>IF(SUM(B30:E30,G30,H30:I30,K30)&lt;100, SUM(B30:E30,G30,H30:I30,K30),  100)</f>
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
         <v>10</v>
@@ -4642,36 +4649,36 @@
       <c r="F31" s="23">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H31" s="5">
-        <v>5</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <f>IF(SUM(B31:E31,G31,H31:I31,K31)&lt;100, SUM(B31:E31,G31,H31:I31,K31),  100)</f>
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -4682,8 +4689,8 @@
       <c r="F32" s="23">
         <v>119.53</v>
       </c>
-      <c r="G32" s="29">
-        <f t="shared" si="0"/>
+      <c r="G32" s="25">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H32" s="5">
@@ -4699,19 +4706,19 @@
         <v>5</v>
       </c>
       <c r="L32" s="4">
-        <f>IF(SUM(B32:E32,G32,H32:I32,K32)&lt;100, SUM(B32:E32,G32,H32:I32,K32),  100)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>10</v>
@@ -4722,8 +4729,8 @@
       <c r="F33" s="23">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G33" s="29">
-        <f t="shared" si="0"/>
+      <c r="G33" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H33" s="5">
@@ -4739,19 +4746,19 @@
         <v>5</v>
       </c>
       <c r="L33" s="4">
-        <f>IF(SUM(B33:E33,G33,H33:I33,K33)&lt;100, SUM(B33:E33,G33,H33:I33,K33),  100)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -4762,8 +4769,8 @@
       <c r="F34" s="23">
         <v>40.957999999999998</v>
       </c>
-      <c r="G34" s="29">
-        <f t="shared" si="0"/>
+      <c r="G34" s="25">
+        <f t="shared" si="1"/>
         <v>22.049387755102039</v>
       </c>
       <c r="H34" s="5">
@@ -4779,19 +4786,19 @@
         <v>5</v>
       </c>
       <c r="L34" s="4">
-        <f>IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
+        <f t="shared" si="0"/>
         <v>72.049387755102032</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
@@ -4802,8 +4809,8 @@
       <c r="F35" s="23">
         <v>1.0691999999999999</v>
       </c>
-      <c r="G35" s="29">
-        <f t="shared" si="0"/>
+      <c r="G35" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H35" s="5">
@@ -4819,19 +4826,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f>IF(SUM(B35:E35,G35,H35:I35,K35)&lt;100, SUM(B35:E35,G35,H35:I35,K35),  100)</f>
+        <f t="shared" ref="L35:L66" si="2">IF(SUM(B35:E35,G35,H35:I35,K35)&lt;100, SUM(B35:E35,G35,H35:I35,K35),  100)</f>
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -4842,8 +4849,8 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="29">
-        <f t="shared" si="0"/>
+      <c r="G36" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="5">
@@ -4859,19 +4866,19 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <f>IF(SUM(B36:E36,G36,H36:I36,K36)&lt;100, SUM(B36:E36,G36,H36:I36,K36),  100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -4882,8 +4889,8 @@
       <c r="F37" s="23">
         <v>83.143000000000001</v>
       </c>
-      <c r="G37" s="29">
-        <f t="shared" si="0"/>
+      <c r="G37" s="25">
+        <f t="shared" si="1"/>
         <v>13.440204081632654</v>
       </c>
       <c r="H37" s="5">
@@ -4899,19 +4906,19 @@
         <v>5</v>
       </c>
       <c r="L37" s="4">
-        <f>IF(SUM(B37:E37,G37,H37:I37,K37)&lt;100, SUM(B37:E37,G37,H37:I37,K37),  100)</f>
+        <f t="shared" si="2"/>
         <v>63.440204081632658</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -4922,8 +4929,8 @@
       <c r="F38" s="23">
         <v>1.6818</v>
       </c>
-      <c r="G38" s="29">
-        <f t="shared" si="0"/>
+      <c r="G38" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H38" s="5">
@@ -4939,19 +4946,19 @@
         <v>5</v>
       </c>
       <c r="L38" s="4">
-        <f>IF(SUM(B38:E38,G38,H38:I38,K38)&lt;100, SUM(B38:E38,G38,H38:I38,K38),  100)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
@@ -4962,8 +4969,8 @@
       <c r="F39" s="23">
         <v>12.138</v>
       </c>
-      <c r="G39" s="29">
-        <f t="shared" si="0"/>
+      <c r="G39" s="25">
+        <f t="shared" si="1"/>
         <v>27.931020408163263</v>
       </c>
       <c r="H39" s="5">
@@ -4979,19 +4986,19 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <f>IF(SUM(B39:E39,G39,H39:I39,K39)&lt;100, SUM(B39:E39,G39,H39:I39,K39),  100)</f>
+        <f t="shared" si="2"/>
         <v>72.931020408163263</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
@@ -5002,8 +5009,8 @@
       <c r="F40" s="23">
         <v>0.85</v>
       </c>
-      <c r="G40" s="29">
-        <f t="shared" si="0"/>
+      <c r="G40" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H40" s="5">
@@ -5019,19 +5026,19 @@
         <v>5</v>
       </c>
       <c r="L40" s="4">
-        <f>IF(SUM(B40:E40,G40,H40:I40,K40)&lt;100, SUM(B40:E40,G40,H40:I40,K40),  100)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
@@ -5042,8 +5049,8 @@
       <c r="F41" s="4">
         <v>0</v>
       </c>
-      <c r="G41" s="29">
-        <f t="shared" si="0"/>
+      <c r="G41" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="5">
@@ -5059,19 +5066,19 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <f>IF(SUM(B41:E41,G41,H41:I41,K41)&lt;100, SUM(B41:E41,G41,H41:I41,K41),  100)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -5082,8 +5089,8 @@
       <c r="F42" s="23">
         <v>13.052</v>
       </c>
-      <c r="G42" s="29">
-        <f t="shared" si="0"/>
+      <c r="G42" s="25">
+        <f t="shared" si="1"/>
         <v>27.744489795918369</v>
       </c>
       <c r="H42" s="5">
@@ -5099,19 +5106,19 @@
         <v>5</v>
       </c>
       <c r="L42" s="4">
-        <f>IF(SUM(B42:E42,G42,H42:I42,K42)&lt;100, SUM(B42:E42,G42,H42:I42,K42),  100)</f>
+        <f t="shared" si="2"/>
         <v>85.744489795918369</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -5122,8 +5129,8 @@
       <c r="F43" s="23">
         <v>1.7337</v>
       </c>
-      <c r="G43" s="29">
-        <f t="shared" si="0"/>
+      <c r="G43" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H43" s="5">
@@ -5139,19 +5146,19 @@
         <v>5</v>
       </c>
       <c r="L43" s="4">
-        <f>IF(SUM(B43:E43,G43,H43:I43,K43)&lt;100, SUM(B43:E43,G43,H43:I43,K43),  100)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>8</v>
@@ -5162,8 +5169,8 @@
       <c r="F44" s="23">
         <v>56.232999999999997</v>
       </c>
-      <c r="G44" s="29">
-        <f t="shared" si="0"/>
+      <c r="G44" s="25">
+        <f t="shared" si="1"/>
         <v>18.932040816326534</v>
       </c>
       <c r="H44" s="5">
@@ -5179,19 +5186,19 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <f>IF(SUM(B44:E44,G44,H44:I44,K44)&lt;100, SUM(B44:E44,G44,H44:I44,K44),  100)</f>
+        <f t="shared" si="2"/>
         <v>61.932040816326534</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -5202,8 +5209,8 @@
       <c r="F45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="29">
-        <f t="shared" si="0"/>
+      <c r="G45" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="5">
@@ -5219,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <f>IF(SUM(B45:E45,G45,H45:I45,K45)&lt;100, SUM(B45:E45,G45,H45:I45,K45),  100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
         <v>8</v>
@@ -5242,8 +5249,8 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="29">
-        <f t="shared" si="0"/>
+      <c r="G46" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" s="5">
@@ -5259,19 +5266,19 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <f>IF(SUM(B46:E46,G46,H46:I46,K46)&lt;100, SUM(B46:E46,G46,H46:I46,K46),  100)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
@@ -5282,8 +5289,8 @@
       <c r="F47" s="23">
         <v>1.1318999999999999</v>
       </c>
-      <c r="G47" s="29">
-        <f t="shared" si="0"/>
+      <c r="G47" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H47" s="5">
@@ -5299,19 +5306,19 @@
         <v>5</v>
       </c>
       <c r="L47" s="4">
-        <f>IF(SUM(B47:E47,G47,H47:I47,K47)&lt;100, SUM(B47:E47,G47,H47:I47,K47),  100)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
@@ -5322,8 +5329,8 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="29">
-        <f t="shared" si="0"/>
+      <c r="G48" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="5">
@@ -5339,19 +5346,19 @@
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <f>IF(SUM(B48:E48,G48,H48:I48,K48)&lt;100, SUM(B48:E48,G48,H48:I48,K48),  100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:243" ht="25" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -5362,8 +5369,8 @@
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="29">
-        <f t="shared" si="0"/>
+      <c r="G49" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="5">
@@ -5379,19 +5386,19 @@
         <v>5</v>
       </c>
       <c r="L49" s="4">
-        <f>IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -5402,8 +5409,8 @@
       <c r="F50" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="29">
-        <f t="shared" si="0"/>
+      <c r="G50" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="5">
@@ -5419,19 +5426,19 @@
         <v>3</v>
       </c>
       <c r="L50" s="4">
-        <f>IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
         <v>8</v>
@@ -5442,8 +5449,8 @@
       <c r="F51" s="23">
         <v>14.272</v>
       </c>
-      <c r="G51" s="29">
-        <f t="shared" si="0"/>
+      <c r="G51" s="25">
+        <f t="shared" si="1"/>
         <v>27.495510204081633</v>
       </c>
       <c r="H51" s="5">
@@ -5459,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="4">
-        <f>IF(SUM(B51:E51,G51,H51:I51,K51)&lt;100, SUM(B51:E51,G51,H51:I51,K51),  100)</f>
+        <f t="shared" si="2"/>
         <v>85.495510204081626</v>
       </c>
       <c r="IG51" s="8"/>
@@ -5468,13 +5475,13 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
@@ -5485,8 +5492,8 @@
       <c r="F52" s="23">
         <v>110.16</v>
       </c>
-      <c r="G52" s="29">
-        <f t="shared" si="0"/>
+      <c r="G52" s="25">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H52" s="5">
@@ -5502,7 +5509,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="4">
-        <f>IF(SUM(B52:E52,G52,H52:I52,K52)&lt;100, SUM(B52:E52,G52,H52:I52,K52),  100)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="IG52" s="8"/>
@@ -5511,13 +5518,13 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -5528,8 +5535,8 @@
       <c r="F53" s="23">
         <v>1.0031000000000001</v>
       </c>
-      <c r="G53" s="29">
-        <f t="shared" si="0"/>
+      <c r="G53" s="25">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H53" s="5">
@@ -5545,7 +5552,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="4">
-        <f>IF(SUM(B53:E53,G53,H53:I53,K53)&lt;100, SUM(B53:E53,G53,H53:I53,K53),  100)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="IG53" s="8"/>
@@ -5554,13 +5561,13 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
         <v>10</v>
@@ -5571,8 +5578,8 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="G54" s="29">
-        <f t="shared" si="0"/>
+      <c r="G54" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="5">
@@ -5588,7 +5595,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="4">
-        <f>IF(SUM(B54:E54,G54,H54:I54,K54)&lt;100, SUM(B54:E54,G54,H54:I54,K54),  100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="IG54" s="8"/>
@@ -5597,14 +5604,14 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
@@ -5614,8 +5621,8 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="29">
-        <f t="shared" si="0"/>
+      <c r="G55" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="5">
@@ -5631,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <f>IF(SUM(B55:E55,G55,H55:I55,K55)&lt;100, SUM(B55:E55,G55,H55:I55,K55),  100)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="IG55" s="8"/>
@@ -5640,13 +5647,13 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
@@ -5657,8 +5664,8 @@
       <c r="F56" s="23">
         <v>79.941000000000003</v>
       </c>
-      <c r="G56" s="29">
-        <f t="shared" si="0"/>
+      <c r="G56" s="25">
+        <f t="shared" si="1"/>
         <v>14.093673469387756</v>
       </c>
       <c r="H56" s="5">
@@ -5674,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="4">
-        <f>IF(SUM(B56:E56,G56,H56:I56,K56)&lt;100, SUM(B56:E56,G56,H56:I56,K56),  100)</f>
+        <f t="shared" si="2"/>
         <v>69.093673469387753</v>
       </c>
       <c r="IG56" s="8"/>
@@ -5683,13 +5690,13 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
@@ -5700,8 +5707,8 @@
       <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="29">
-        <f t="shared" si="0"/>
+      <c r="G57" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" s="5">
@@ -5717,7 +5724,7 @@
         <v>5</v>
       </c>
       <c r="L57" s="4">
-        <f>IF(SUM(B57:E57,G57,H57:I57,K57)&lt;100, SUM(B57:E57,G57,H57:I57,K57),  100)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="IG57" s="8"/>
@@ -5726,7 +5733,7 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B58" s="26">
         <v>27</v>
@@ -5739,8 +5746,8 @@
       <c r="F58" s="19">
         <v>83.125</v>
       </c>
-      <c r="G58" s="29">
-        <f t="shared" si="0"/>
+      <c r="G58" s="25">
+        <f t="shared" si="1"/>
         <v>13.443877551020408</v>
       </c>
       <c r="H58" s="5">
@@ -5756,7 +5763,7 @@
         <v>4.5</v>
       </c>
       <c r="L58" s="4">
-        <f>IF(SUM(B58:E58,G58,H58:I58,K58)&lt;100, SUM(B58:E58,G58,H58:I58,K58),  100)</f>
+        <f t="shared" si="2"/>
         <v>89.443877551020407</v>
       </c>
       <c r="IG58" s="8"/>
@@ -5765,7 +5772,7 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="26">
         <v>30</v>
@@ -5778,8 +5785,8 @@
       <c r="F59" s="19">
         <v>86.150999999999996</v>
       </c>
-      <c r="G59" s="29">
-        <f t="shared" si="0"/>
+      <c r="G59" s="25">
+        <f t="shared" si="1"/>
         <v>12.826326530612246</v>
       </c>
       <c r="H59" s="5">
@@ -5795,7 +5802,7 @@
         <v>4.5</v>
       </c>
       <c r="L59" s="4">
-        <f>IF(SUM(B59:E59,G59,H59:I59,K59)&lt;100, SUM(B59:E59,G59,H59:I59,K59),  100)</f>
+        <f t="shared" si="2"/>
         <v>92.326326530612249</v>
       </c>
       <c r="IG59" s="8"/>
@@ -5804,7 +5811,7 @@
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B60" s="26">
         <v>30</v>
@@ -5817,8 +5824,8 @@
       <c r="F60" s="19">
         <v>11.093</v>
       </c>
-      <c r="G60" s="29">
-        <f t="shared" si="0"/>
+      <c r="G60" s="25">
+        <f t="shared" si="1"/>
         <v>28.144285714285715</v>
       </c>
       <c r="H60" s="5">
@@ -5834,7 +5841,7 @@
         <v>2.5</v>
       </c>
       <c r="L60" s="4">
-        <f>IF(SUM(B60:E60,G60,H60:I60,K60)&lt;100, SUM(B60:E60,G60,H60:I60,K60),  100)</f>
+        <f t="shared" si="2"/>
         <v>95.644285714285715</v>
       </c>
       <c r="IG60" s="8"/>
@@ -5843,7 +5850,7 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B61" s="26">
         <v>24</v>
@@ -5856,8 +5863,8 @@
       <c r="F61" s="19">
         <v>157.71</v>
       </c>
-      <c r="G61" s="29">
-        <f t="shared" si="0"/>
+      <c r="G61" s="25">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H61" s="5">
@@ -5873,7 +5880,7 @@
         <v>2.5</v>
       </c>
       <c r="L61" s="4">
-        <f>IF(SUM(B61:E61,G61,H61:I61,K61)&lt;100, SUM(B61:E61,G61,H61:I61,K61),  100)</f>
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
       <c r="IG61" s="8"/>
@@ -5882,7 +5889,7 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B62" s="26">
         <v>24</v>
@@ -5895,8 +5902,8 @@
       <c r="F62" s="19">
         <v>0</v>
       </c>
-      <c r="G62" s="29">
-        <f t="shared" si="0"/>
+      <c r="G62" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H62" s="5">
@@ -5912,7 +5919,7 @@
         <v>2.5</v>
       </c>
       <c r="L62" s="4">
-        <f>IF(SUM(B62:E62,G62,H62:I62,K62)&lt;100, SUM(B62:E62,G62,H62:I62,K62),  100)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="IG62" s="8"/>
@@ -5921,7 +5928,7 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B63" s="26">
         <v>24</v>
@@ -5934,8 +5941,8 @@
       <c r="F63" s="19">
         <v>0</v>
       </c>
-      <c r="G63" s="29">
-        <f t="shared" si="0"/>
+      <c r="G63" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="5">
@@ -5951,7 +5958,7 @@
         <v>2.5</v>
       </c>
       <c r="L63" s="4">
-        <f>IF(SUM(B63:E63,G63,H63:I63,K63)&lt;100, SUM(B63:E63,G63,H63:I63,K63),  100)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="IG63" s="8"/>
@@ -5960,7 +5967,7 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B64" s="26">
         <v>21</v>
@@ -5973,8 +5980,8 @@
       <c r="F64" s="19">
         <v>0</v>
       </c>
-      <c r="G64" s="29">
-        <f t="shared" si="0"/>
+      <c r="G64" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H64" s="5">
@@ -5990,7 +5997,7 @@
         <v>2.5</v>
       </c>
       <c r="L64" s="4">
-        <f>IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="IG64" s="8"/>
@@ -5999,7 +6006,7 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B65" s="26">
         <v>24</v>
@@ -6012,8 +6019,8 @@
       <c r="F65" s="19">
         <v>82.278999999999996</v>
       </c>
-      <c r="G65" s="29">
-        <f t="shared" si="0"/>
+      <c r="G65" s="25">
+        <f t="shared" si="1"/>
         <v>13.616530612244899</v>
       </c>
       <c r="H65" s="5">
@@ -6029,7 +6036,7 @@
         <v>2.5</v>
       </c>
       <c r="L65" s="4">
-        <f>IF(SUM(B65:E65,G65,H65:I65,K65)&lt;100, SUM(B65:E65,G65,H65:I65,K65),  100)</f>
+        <f t="shared" si="2"/>
         <v>74.616530612244901</v>
       </c>
       <c r="IG65" s="8"/>
@@ -6038,7 +6045,7 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B66" s="26">
         <v>27</v>
@@ -6051,8 +6058,8 @@
       <c r="F66" s="19">
         <v>85.936999999999998</v>
       </c>
-      <c r="G66" s="29">
-        <f t="shared" si="0"/>
+      <c r="G66" s="25">
+        <f t="shared" si="1"/>
         <v>12.870000000000001</v>
       </c>
       <c r="H66" s="5">
@@ -6068,7 +6075,7 @@
         <v>2.5</v>
       </c>
       <c r="L66" s="4">
-        <f>IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
+        <f t="shared" si="2"/>
         <v>76.37</v>
       </c>
       <c r="IG66" s="8"/>
@@ -6077,7 +6084,7 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" s="26">
         <v>24</v>
@@ -6090,8 +6097,8 @@
       <c r="F67" s="19">
         <v>160.13</v>
       </c>
-      <c r="G67" s="29">
-        <f t="shared" si="0"/>
+      <c r="G67" s="25">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H67" s="5">
@@ -6107,7 +6114,7 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="4">
-        <f>IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
+        <f t="shared" ref="L67:L98" si="3">IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
         <v>71</v>
       </c>
       <c r="IG67" s="8"/>
@@ -6116,7 +6123,7 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B68" s="26">
         <v>21</v>
@@ -6129,8 +6136,8 @@
       <c r="F68" s="19">
         <v>0</v>
       </c>
-      <c r="G68" s="29">
-        <f t="shared" ref="G68:G108" si="1">IF(F68&gt;0, IF(F68&lt;2, 30, IF(F68&gt;100, 10, (1-(F68-2)/(100-2))*20+10)), 0)</f>
+      <c r="G68" s="25">
+        <f t="shared" ref="G68:G108" si="4">IF(F68&gt;0, IF(F68&lt;2, 30, IF(F68&gt;100, 10, (1-(F68-2)/(100-2))*20+10)), 0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="5">
@@ -6146,7 +6153,7 @@
         <v>2.5</v>
       </c>
       <c r="L68" s="4">
-        <f>IF(SUM(B68:E68,G68,H68:I68,K68)&lt;100, SUM(B68:E68,G68,H68:I68,K68),  100)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="IG68" s="8"/>
@@ -6155,7 +6162,7 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="26">
         <v>30</v>
@@ -6168,8 +6175,8 @@
       <c r="F69" s="19">
         <v>22.228999999999999</v>
       </c>
-      <c r="G69" s="29">
-        <f t="shared" si="1"/>
+      <c r="G69" s="25">
+        <f t="shared" si="4"/>
         <v>25.871632653061226</v>
       </c>
       <c r="H69" s="5">
@@ -6185,7 +6192,7 @@
         <v>4</v>
       </c>
       <c r="L69" s="4">
-        <f>IF(SUM(B69:E69,G69,H69:I69,K69)&lt;100, SUM(B69:E69,G69,H69:I69,K69),  100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="IG69" s="8"/>
@@ -6194,7 +6201,7 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B70" s="26">
         <v>27</v>
@@ -6207,8 +6214,8 @@
       <c r="F70" s="19">
         <v>0</v>
       </c>
-      <c r="G70" s="29">
-        <f t="shared" si="1"/>
+      <c r="G70" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="5">
@@ -6224,7 +6231,7 @@
         <v>2.5</v>
       </c>
       <c r="L70" s="4">
-        <f>IF(SUM(B70:E70,G70,H70:I70,K70)&lt;100, SUM(B70:E70,G70,H70:I70,K70),  100)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="IG70" s="8"/>
@@ -6233,7 +6240,7 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="26">
         <v>30</v>
@@ -6246,8 +6253,8 @@
       <c r="F71" s="19">
         <v>22.785</v>
       </c>
-      <c r="G71" s="29">
-        <f t="shared" si="1"/>
+      <c r="G71" s="25">
+        <f t="shared" si="4"/>
         <v>25.758163265306123</v>
       </c>
       <c r="H71" s="5">
@@ -6263,7 +6270,7 @@
         <v>4.5</v>
       </c>
       <c r="L71" s="4">
-        <f>IF(SUM(B71:E71,G71,H71:I71,K71)&lt;100, SUM(B71:E71,G71,H71:I71,K71),  100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="IG71" s="8"/>
@@ -6272,7 +6279,7 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B72" s="26">
         <v>24</v>
@@ -6285,8 +6292,8 @@
       <c r="F72" s="19">
         <v>0</v>
       </c>
-      <c r="G72" s="29">
-        <f t="shared" si="1"/>
+      <c r="G72" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="5">
@@ -6302,7 +6309,7 @@
         <v>2.5</v>
       </c>
       <c r="L72" s="4">
-        <f>IF(SUM(B72:E72,G72,H72:I72,K72)&lt;100, SUM(B72:E72,G72,H72:I72,K72),  100)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="IG72" s="8"/>
@@ -6311,7 +6318,7 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="26">
         <v>24</v>
@@ -6324,8 +6331,8 @@
       <c r="F73" s="19">
         <v>89.034999999999997</v>
       </c>
-      <c r="G73" s="29">
-        <f t="shared" si="1"/>
+      <c r="G73" s="25">
+        <f t="shared" si="4"/>
         <v>12.237755102040817</v>
       </c>
       <c r="H73" s="5">
@@ -6341,7 +6348,7 @@
         <v>3.5</v>
       </c>
       <c r="L73" s="4">
-        <f>IF(SUM(B73:E73,G73,H73:I73,K73)&lt;100, SUM(B73:E73,G73,H73:I73,K73),  100)</f>
+        <f t="shared" si="3"/>
         <v>83.737755102040822</v>
       </c>
       <c r="IG73" s="8"/>
@@ -6350,7 +6357,7 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B74" s="26">
         <v>27</v>
@@ -6363,8 +6370,8 @@
       <c r="F74" s="19">
         <v>0</v>
       </c>
-      <c r="G74" s="29">
-        <f t="shared" si="1"/>
+      <c r="G74" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="5">
@@ -6380,7 +6387,7 @@
         <v>2.5</v>
       </c>
       <c r="L74" s="4">
-        <f>IF(SUM(B74:E74,G74,H74:I74,K74)&lt;100, SUM(B74:E74,G74,H74:I74,K74),  100)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="IG74" s="8"/>
@@ -6389,7 +6396,7 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B75" s="26">
         <v>24</v>
@@ -6402,8 +6409,8 @@
       <c r="F75" s="19">
         <v>0</v>
       </c>
-      <c r="G75" s="29">
-        <f t="shared" si="1"/>
+      <c r="G75" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="5">
@@ -6419,7 +6426,7 @@
         <v>2.5</v>
       </c>
       <c r="L75" s="4">
-        <f>IF(SUM(B75:E75,G75,H75:I75,K75)&lt;100, SUM(B75:E75,G75,H75:I75,K75),  100)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="IG75" s="8"/>
@@ -6428,7 +6435,7 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B76" s="26">
         <v>21</v>
@@ -6441,8 +6448,8 @@
       <c r="F76" s="19">
         <v>0</v>
       </c>
-      <c r="G76" s="29">
-        <f t="shared" si="1"/>
+      <c r="G76" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="5">
@@ -6458,7 +6465,7 @@
         <v>2.5</v>
       </c>
       <c r="L76" s="4">
-        <f>IF(SUM(B76:E76,G76,H76:I76,K76)&lt;100, SUM(B76:E76,G76,H76:I76,K76),  100)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="IG76" s="8"/>
@@ -6467,7 +6474,7 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B77" s="26">
         <v>24</v>
@@ -6480,8 +6487,8 @@
       <c r="F77" s="19">
         <v>76.835999999999999</v>
       </c>
-      <c r="G77" s="29">
-        <f t="shared" si="1"/>
+      <c r="G77" s="25">
+        <f t="shared" si="4"/>
         <v>14.72734693877551</v>
       </c>
       <c r="H77" s="5">
@@ -6497,7 +6504,7 @@
         <v>3.5</v>
       </c>
       <c r="L77" s="4">
-        <f>IF(SUM(B77:E77,G77,H77:I77,K77)&lt;100, SUM(B77:E77,G77,H77:I77,K77),  100)</f>
+        <f t="shared" si="3"/>
         <v>86.727346938775511</v>
       </c>
       <c r="IG77" s="8"/>
@@ -6506,7 +6513,7 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B78" s="26">
         <v>30</v>
@@ -6519,8 +6526,8 @@
       <c r="F78" s="19">
         <v>0</v>
       </c>
-      <c r="G78" s="29">
-        <f t="shared" si="1"/>
+      <c r="G78" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="5">
@@ -6536,7 +6543,7 @@
         <v>2.5</v>
       </c>
       <c r="L78" s="4">
-        <f>IF(SUM(B78:E78,G78,H78:I78,K78)&lt;100, SUM(B78:E78,G78,H78:I78,K78),  100)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="IG78" s="8"/>
@@ -6545,7 +6552,7 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B79" s="26">
         <v>24</v>
@@ -6558,8 +6565,8 @@
       <c r="F79" s="19">
         <v>0</v>
       </c>
-      <c r="G79" s="29">
-        <f t="shared" si="1"/>
+      <c r="G79" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="5">
@@ -6575,7 +6582,7 @@
         <v>2.5</v>
       </c>
       <c r="L79" s="4">
-        <f>IF(SUM(B79:E79,G79,H79:I79,K79)&lt;100, SUM(B79:E79,G79,H79:I79,K79),  100)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="IG79" s="8"/>
@@ -6584,7 +6591,7 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B80" s="26">
         <v>21</v>
@@ -6597,8 +6604,8 @@
       <c r="F80" s="19">
         <v>76.659000000000006</v>
       </c>
-      <c r="G80" s="29">
-        <f t="shared" si="1"/>
+      <c r="G80" s="25">
+        <f t="shared" si="4"/>
         <v>14.763469387755102</v>
       </c>
       <c r="H80" s="5">
@@ -6614,7 +6621,7 @@
         <v>3.5</v>
       </c>
       <c r="L80" s="4">
-        <f>IF(SUM(B80:E80,G80,H80:I80,K80)&lt;100, SUM(B80:E80,G80,H80:I80,K80),  100)</f>
+        <f t="shared" si="3"/>
         <v>82.763469387755094</v>
       </c>
       <c r="IG80" s="8"/>
@@ -6623,7 +6630,7 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B81" s="26">
         <v>24</v>
@@ -6636,8 +6643,8 @@
       <c r="F81" s="19">
         <v>75.662000000000006</v>
       </c>
-      <c r="G81" s="29">
-        <f t="shared" si="1"/>
+      <c r="G81" s="25">
+        <f t="shared" si="4"/>
         <v>14.966938775510204</v>
       </c>
       <c r="H81" s="5">
@@ -6653,7 +6660,7 @@
         <v>4.5</v>
       </c>
       <c r="L81" s="4">
-        <f>IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
+        <f t="shared" si="3"/>
         <v>87.966938775510201</v>
       </c>
       <c r="IG81" s="8"/>
@@ -6662,7 +6669,7 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B82" s="26">
         <v>30</v>
@@ -6675,8 +6682,8 @@
       <c r="F82" s="19">
         <v>18.93</v>
       </c>
-      <c r="G82" s="29">
-        <f t="shared" si="1"/>
+      <c r="G82" s="25">
+        <f t="shared" si="4"/>
         <v>26.544897959183672</v>
       </c>
       <c r="H82" s="5">
@@ -6692,7 +6699,7 @@
         <v>5</v>
       </c>
       <c r="L82" s="4">
-        <f>IF(SUM(B82:E82,G82,H82:I82,K82)&lt;100, SUM(B82:E82,G82,H82:I82,K82),  100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="IG82" s="8"/>
@@ -6701,7 +6708,7 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B83" s="26">
         <v>24</v>
@@ -6714,8 +6721,8 @@
       <c r="F83" s="19">
         <v>19.364000000000001</v>
       </c>
-      <c r="G83" s="29">
-        <f t="shared" si="1"/>
+      <c r="G83" s="25">
+        <f t="shared" si="4"/>
         <v>26.456326530612245</v>
       </c>
       <c r="H83" s="5">
@@ -6731,7 +6738,7 @@
         <v>4.5</v>
       </c>
       <c r="L83" s="4">
-        <f>IF(SUM(B83:E83,G83,H83:I83,K83)&lt;100, SUM(B83:E83,G83,H83:I83,K83),  100)</f>
+        <f t="shared" si="3"/>
         <v>99.456326530612245</v>
       </c>
       <c r="IG83" s="8"/>
@@ -6740,7 +6747,7 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B84" s="26">
         <v>27</v>
@@ -6753,8 +6760,8 @@
       <c r="F84" s="19">
         <v>0</v>
       </c>
-      <c r="G84" s="29">
-        <f t="shared" si="1"/>
+      <c r="G84" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="5">
@@ -6770,7 +6777,7 @@
         <v>2.5</v>
       </c>
       <c r="L84" s="4">
-        <f>IF(SUM(B84:E84,G84,H84:I84,K84)&lt;100, SUM(B84:E84,G84,H84:I84,K84),  100)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="IG84" s="8"/>
@@ -6779,7 +6786,7 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B85" s="26">
         <v>21</v>
@@ -6792,8 +6799,8 @@
       <c r="F85" s="19">
         <v>0</v>
       </c>
-      <c r="G85" s="29">
-        <f t="shared" si="1"/>
+      <c r="G85" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="5">
@@ -6809,7 +6816,7 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="4">
-        <f>IF(SUM(B85:E85,G85,H85:I85,K85)&lt;100, SUM(B85:E85,G85,H85:I85,K85),  100)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="IG85" s="8"/>
@@ -6818,7 +6825,7 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B86" s="26">
         <v>27</v>
@@ -6831,8 +6838,8 @@
       <c r="F86" s="19">
         <v>0</v>
       </c>
-      <c r="G86" s="29">
-        <f t="shared" si="1"/>
+      <c r="G86" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="5">
@@ -6848,7 +6855,7 @@
         <v>2.5</v>
       </c>
       <c r="L86" s="4">
-        <f>IF(SUM(B86:E86,G86,H86:I86,K86)&lt;100, SUM(B86:E86,G86,H86:I86,K86),  100)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="IG86" s="8"/>
@@ -6857,7 +6864,7 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B87" s="26">
         <v>30</v>
@@ -6870,8 +6877,8 @@
       <c r="F87" s="19">
         <v>80.263999999999996</v>
       </c>
-      <c r="G87" s="29">
-        <f t="shared" si="1"/>
+      <c r="G87" s="25">
+        <f t="shared" si="4"/>
         <v>14.027755102040818</v>
       </c>
       <c r="H87" s="5">
@@ -6887,7 +6894,7 @@
         <v>4.5</v>
       </c>
       <c r="L87" s="4">
-        <f>IF(SUM(B87:E87,G87,H87:I87,K87)&lt;100, SUM(B87:E87,G87,H87:I87,K87),  100)</f>
+        <f t="shared" si="3"/>
         <v>92.527755102040814</v>
       </c>
       <c r="IG87" s="8"/>
@@ -6896,7 +6903,7 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B88" s="26">
         <v>21</v>
@@ -6909,8 +6916,8 @@
       <c r="F88" s="19">
         <v>0</v>
       </c>
-      <c r="G88" s="29">
-        <f t="shared" si="1"/>
+      <c r="G88" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88" s="5">
@@ -6926,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="4">
-        <f>IF(SUM(B88:E88,G88,H88:I88,K88)&lt;100, SUM(B88:E88,G88,H88:I88,K88),  100)</f>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="IG88" s="8"/>
@@ -6935,7 +6942,7 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B89" s="26">
         <v>0</v>
@@ -6948,8 +6955,8 @@
       <c r="F89" s="19">
         <v>0</v>
       </c>
-      <c r="G89" s="29">
-        <f t="shared" si="1"/>
+      <c r="G89" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89" s="5">
@@ -6965,7 +6972,7 @@
         <v>2.5</v>
       </c>
       <c r="L89" s="4">
-        <f>IF(SUM(B89:E89,G89,H89:I89,K89)&lt;100, SUM(B89:E89,G89,H89:I89,K89),  100)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="IG89" s="8"/>
@@ -6974,7 +6981,7 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B90" s="26">
         <v>27</v>
@@ -6987,8 +6994,8 @@
       <c r="F90" s="19">
         <v>20.995999999999999</v>
       </c>
-      <c r="G90" s="29">
-        <f t="shared" si="1"/>
+      <c r="G90" s="25">
+        <f t="shared" si="4"/>
         <v>26.123265306122448</v>
       </c>
       <c r="H90" s="5">
@@ -7004,7 +7011,7 @@
         <v>4.5</v>
       </c>
       <c r="L90" s="4">
-        <f>IF(SUM(B90:E90,G90,H90:I90,K90)&lt;100, SUM(B90:E90,G90,H90:I90,K90),  100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="IG90" s="8"/>
@@ -7013,7 +7020,7 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B91" s="26">
         <v>21</v>
@@ -7026,8 +7033,8 @@
       <c r="F91" s="19">
         <v>156</v>
       </c>
-      <c r="G91" s="29">
-        <f t="shared" si="1"/>
+      <c r="G91" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H91" s="5">
@@ -7043,7 +7050,7 @@
         <v>4.5</v>
       </c>
       <c r="L91" s="4">
-        <f>IF(SUM(B91:E91,G91,H91:I91,K91)&lt;100, SUM(B91:E91,G91,H91:I91,K91),  100)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="IG91" s="8"/>
@@ -7052,7 +7059,7 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B92" s="26">
         <v>24</v>
@@ -7065,8 +7072,8 @@
       <c r="F92" s="19">
         <v>78.983999999999995</v>
       </c>
-      <c r="G92" s="29">
-        <f t="shared" si="1"/>
+      <c r="G92" s="25">
+        <f t="shared" si="4"/>
         <v>14.288979591836737</v>
       </c>
       <c r="H92" s="5">
@@ -7082,7 +7089,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="4">
-        <f>IF(SUM(B92:E92,G92,H92:I92,K92)&lt;100, SUM(B92:E92,G92,H92:I92,K92),  100)</f>
+        <f t="shared" si="3"/>
         <v>87.288979591836735</v>
       </c>
       <c r="IG92" s="8"/>
@@ -7091,7 +7098,7 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B93" s="26">
         <v>30</v>
@@ -7104,8 +7111,8 @@
       <c r="F93" s="19">
         <v>158.24</v>
       </c>
-      <c r="G93" s="29">
-        <f t="shared" si="1"/>
+      <c r="G93" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H93" s="5">
@@ -7121,7 +7128,7 @@
         <v>4.5</v>
       </c>
       <c r="L93" s="4">
-        <f>IF(SUM(B93:E93,G93,H93:I93,K93)&lt;100, SUM(B93:E93,G93,H93:I93,K93),  100)</f>
+        <f t="shared" si="3"/>
         <v>89.5</v>
       </c>
       <c r="IG93" s="8"/>
@@ -7130,7 +7137,7 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B94" s="26">
         <v>30</v>
@@ -7143,8 +7150,8 @@
       <c r="F94" s="19">
         <v>80.319000000000003</v>
       </c>
-      <c r="G94" s="29">
-        <f t="shared" si="1"/>
+      <c r="G94" s="25">
+        <f t="shared" si="4"/>
         <v>14.016530612244898</v>
       </c>
       <c r="H94" s="5">
@@ -7160,7 +7167,7 @@
         <v>4.5</v>
       </c>
       <c r="L94" s="4">
-        <f>IF(SUM(B94:E94,G94,H94:I94,K94)&lt;100, SUM(B94:E94,G94,H94:I94,K94),  100)</f>
+        <f t="shared" si="3"/>
         <v>93.016530612244892</v>
       </c>
       <c r="IG94" s="8"/>
@@ -7169,7 +7176,7 @@
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B95" s="26">
         <v>21</v>
@@ -7182,8 +7189,8 @@
       <c r="F95" s="19">
         <v>0</v>
       </c>
-      <c r="G95" s="29">
-        <f t="shared" si="1"/>
+      <c r="G95" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95" s="5">
@@ -7199,13 +7206,13 @@
         <v>4.5</v>
       </c>
       <c r="L95" s="4">
-        <f>IF(SUM(B95:E95,G95,H95:I95,K95)&lt;100, SUM(B95:E95,G95,H95:I95,K95),  100)</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B96" s="26">
         <v>21</v>
@@ -7218,8 +7225,8 @@
       <c r="F96" s="19">
         <v>152.19</v>
       </c>
-      <c r="G96" s="29">
-        <f t="shared" si="1"/>
+      <c r="G96" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H96" s="5">
@@ -7235,13 +7242,13 @@
         <v>3.5</v>
       </c>
       <c r="L96" s="4">
-        <f>IF(SUM(B96:E96,G96,H96:I96,K96)&lt;100, SUM(B96:E96,G96,H96:I96,K96),  100)</f>
+        <f t="shared" si="3"/>
         <v>64.751479289940832</v>
       </c>
     </row>
-    <row r="97" spans="1:243" ht="25" customHeight="1">
+    <row r="97" spans="1:12" ht="25" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B97" s="26">
         <v>21</v>
@@ -7254,8 +7261,8 @@
       <c r="F97" s="19">
         <v>36.862000000000002</v>
       </c>
-      <c r="G97" s="29">
-        <f t="shared" si="1"/>
+      <c r="G97" s="25">
+        <f t="shared" si="4"/>
         <v>22.885306122448981</v>
       </c>
       <c r="H97" s="5">
@@ -7271,13 +7278,13 @@
         <v>2.5</v>
       </c>
       <c r="L97" s="4">
-        <f>IF(SUM(B97:E97,G97,H97:I97,K97)&lt;100, SUM(B97:E97,G97,H97:I97,K97),  100)</f>
+        <f t="shared" si="3"/>
         <v>78.707791329549565</v>
       </c>
     </row>
-    <row r="98" spans="1:243" ht="25" customHeight="1">
+    <row r="98" spans="1:12" ht="25" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B98" s="26">
         <v>24</v>
@@ -7290,8 +7297,8 @@
       <c r="F98" s="19">
         <v>156.38999999999999</v>
       </c>
-      <c r="G98" s="29">
-        <f t="shared" si="1"/>
+      <c r="G98" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H98" s="5">
@@ -7307,13 +7314,13 @@
         <v>4.5</v>
       </c>
       <c r="L98" s="4">
-        <f>IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:243" ht="25" customHeight="1">
+    <row r="99" spans="1:12" ht="25" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B99" s="26">
         <v>27</v>
@@ -7326,8 +7333,8 @@
       <c r="F99" s="19">
         <v>83.876000000000005</v>
       </c>
-      <c r="G99" s="29">
-        <f t="shared" si="1"/>
+      <c r="G99" s="25">
+        <f t="shared" si="4"/>
         <v>13.290612244897959</v>
       </c>
       <c r="H99" s="5">
@@ -7343,13 +7350,13 @@
         <v>2.5</v>
       </c>
       <c r="L99" s="4">
-        <f>IF(SUM(B99:E99,G99,H99:I99,K99)&lt;100, SUM(B99:E99,G99,H99:I99,K99),  100)</f>
+        <f t="shared" ref="L99:L130" si="5">IF(SUM(B99:E99,G99,H99:I99,K99)&lt;100, SUM(B99:E99,G99,H99:I99,K99),  100)</f>
         <v>77.290612244897957</v>
       </c>
     </row>
-    <row r="100" spans="1:243" ht="25" customHeight="1">
+    <row r="100" spans="1:12" ht="25" customHeight="1">
       <c r="A100" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B100" s="26">
         <v>24</v>
@@ -7362,8 +7369,8 @@
       <c r="F100" s="19">
         <v>0</v>
       </c>
-      <c r="G100" s="29">
-        <f t="shared" si="1"/>
+      <c r="G100" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100" s="5">
@@ -7379,13 +7386,13 @@
         <v>2.5</v>
       </c>
       <c r="L100" s="4">
-        <f>IF(SUM(B100:E100,G100,H100:I100,K100)&lt;100, SUM(B100:E100,G100,H100:I100,K100),  100)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:243" ht="25" customHeight="1">
+    <row r="101" spans="1:12" ht="25" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B101" s="26">
         <v>27</v>
@@ -7398,8 +7405,8 @@
       <c r="F101" s="19">
         <v>153.26</v>
       </c>
-      <c r="G101" s="29">
-        <f t="shared" si="1"/>
+      <c r="G101" s="25">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H101" s="5">
@@ -7415,13 +7422,13 @@
         <v>4.5</v>
       </c>
       <c r="L101" s="4">
-        <f>IF(SUM(B101:E101,G101,H101:I101,K101)&lt;100, SUM(B101:E101,G101,H101:I101,K101),  100)</f>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:243" ht="25" customHeight="1">
+    <row r="102" spans="1:12" ht="25" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B102" s="26">
         <v>30</v>
@@ -7434,8 +7441,8 @@
       <c r="F102" s="19">
         <v>74.911000000000001</v>
       </c>
-      <c r="G102" s="29">
-        <f t="shared" si="1"/>
+      <c r="G102" s="25">
+        <f t="shared" si="4"/>
         <v>15.120204081632654</v>
       </c>
       <c r="H102" s="5">
@@ -7451,13 +7458,13 @@
         <v>4.5</v>
       </c>
       <c r="L102" s="4">
-        <f>IF(SUM(B102:E102,G102,H102:I102,K102)&lt;100, SUM(B102:E102,G102,H102:I102,K102),  100)</f>
+        <f t="shared" si="5"/>
         <v>94.12020408163265</v>
       </c>
     </row>
-    <row r="103" spans="1:243" ht="25" customHeight="1">
+    <row r="103" spans="1:12" ht="25" customHeight="1">
       <c r="A103" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B103" s="26">
         <v>21</v>
@@ -7470,8 +7477,8 @@
       <c r="F103" s="19">
         <v>11.08</v>
       </c>
-      <c r="G103" s="29">
-        <f t="shared" si="1"/>
+      <c r="G103" s="25">
+        <f t="shared" si="4"/>
         <v>28.146938775510204</v>
       </c>
       <c r="H103" s="5">
@@ -7487,13 +7494,13 @@
         <v>4</v>
       </c>
       <c r="L103" s="4">
-        <f>IF(SUM(B103:E103,G103,H103:I103,K103)&lt;100, SUM(B103:E103,G103,H103:I103,K103),  100)</f>
+        <f t="shared" si="5"/>
         <v>97.646938775510208</v>
       </c>
     </row>
-    <row r="104" spans="1:243" ht="25" customHeight="1">
+    <row r="104" spans="1:12" ht="25" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B104" s="26">
         <v>24</v>
@@ -7506,8 +7513,8 @@
       <c r="F104" s="19">
         <v>0</v>
       </c>
-      <c r="G104" s="29">
-        <f t="shared" si="1"/>
+      <c r="G104" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H104" s="5">
@@ -7523,13 +7530,13 @@
         <v>2.5</v>
       </c>
       <c r="L104" s="4">
-        <f>IF(SUM(B104:E104,G104,H104:I104,K104)&lt;100, SUM(B104:E104,G104,H104:I104,K104),  100)</f>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
     </row>
-    <row r="105" spans="1:243" ht="25" customHeight="1">
+    <row r="105" spans="1:12" ht="25" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B105" s="26">
         <v>15</v>
@@ -7542,8 +7549,8 @@
       <c r="F105" s="19">
         <v>0</v>
       </c>
-      <c r="G105" s="29">
-        <f t="shared" si="1"/>
+      <c r="G105" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105" s="5">
@@ -7559,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <f>IF(SUM(B105:E105,G105,H105:I105,K105)&lt;100, SUM(B105:E105,G105,H105:I105,K105),  100)</f>
+        <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
     </row>
-    <row r="106" spans="1:243" ht="25" customHeight="1">
+    <row r="106" spans="1:12" ht="25" customHeight="1">
       <c r="A106" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B106" s="26">
         <v>21</v>
@@ -7578,8 +7585,8 @@
       <c r="F106" s="19">
         <v>0</v>
       </c>
-      <c r="G106" s="29">
-        <f t="shared" si="1"/>
+      <c r="G106" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106" s="5">
@@ -7595,13 +7602,13 @@
         <v>2.5</v>
       </c>
       <c r="L106" s="4">
-        <f>IF(SUM(B106:E106,G106,H106:I106,K106)&lt;100, SUM(B106:E106,G106,H106:I106,K106),  100)</f>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
     </row>
-    <row r="107" spans="1:243" ht="25" customHeight="1">
+    <row r="107" spans="1:12" ht="25" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B107" s="26">
         <v>21</v>
@@ -7614,8 +7621,8 @@
       <c r="F107" s="19">
         <v>15.122</v>
       </c>
-      <c r="G107" s="29">
-        <f t="shared" si="1"/>
+      <c r="G107" s="25">
+        <f t="shared" si="4"/>
         <v>27.322040816326528</v>
       </c>
       <c r="H107" s="5">
@@ -7631,13 +7638,13 @@
         <v>2.2928994082840237</v>
       </c>
       <c r="L107" s="4">
-        <f>IF(SUM(B107:E107,G107,H107:I107,K107)&lt;100, SUM(B107:E107,G107,H107:I107,K107),  100)</f>
+        <f t="shared" si="5"/>
         <v>94.286537857746652</v>
       </c>
     </row>
-    <row r="108" spans="1:243" ht="25" customHeight="1">
+    <row r="108" spans="1:12" ht="25" customHeight="1">
       <c r="A108" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" s="26">
         <v>27</v>
@@ -7650,8 +7657,8 @@
       <c r="F108" s="19">
         <v>11.878</v>
       </c>
-      <c r="G108" s="29">
-        <f t="shared" si="1"/>
+      <c r="G108" s="25">
+        <f t="shared" si="4"/>
         <v>27.984081632653062</v>
       </c>
       <c r="H108" s="5">
@@ -7667,80 +7674,70 @@
         <v>2.5</v>
       </c>
       <c r="L108" s="4">
-        <f>IF(SUM(B108:E108,G108,H108:I108,K108)&lt;100, SUM(B108:E108,G108,H108:I108,K108),  100)</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:243" ht="25" customHeight="1">
+    <row r="110" spans="1:12" ht="25" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="4">
-        <f>AVERAGE(F3:F108)</f>
-        <v>32.019459433962268</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="20">
         <f>SUM(J3:J108)/COUNTIF(J3:J108,"&lt;&gt;0")</f>
-        <v>0.1645497648126403</v>
+        <v>0.16273579768304264</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="1:243" ht="20">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F111" s="15">
+    <row r="111" spans="1:12" ht="42">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" ht="21">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="15">
         <f>COUNTIF(F3:F108, "&gt;0")</f>
-        <v>67</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-    </row>
-    <row r="112" spans="1:243" ht="25" customHeight="1">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F112" s="4">
-        <v>160.13</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="IE112" s="8"/>
-      <c r="IF112" s="8"/>
-      <c r="IG112" s="8"/>
-      <c r="IH112" s="8"/>
-      <c r="II112" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="G112" s="15"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
     </row>
     <row r="113" spans="2:243" ht="25" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="F113" s="4">
+        <v>160.13</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6"/>
@@ -7755,21 +7752,21 @@
       <c r="II113" s="8"/>
     </row>
     <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="4">
-        <v>30</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
       <c r="IE114" s="8"/>
       <c r="IF114" s="8"/>
       <c r="IG114" s="8"/>
@@ -7781,12 +7778,12 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F115" s="4">
-        <v>10</v>
-      </c>
-      <c r="G115" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G115" s="22"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -7803,10 +7800,10 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="F116" s="4">
+        <v>10</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -7821,8 +7818,21 @@
       <c r="II116" s="8"/>
     </row>
     <row r="117" spans="2:243" ht="25" customHeight="1">
-      <c r="K117" s="11"/>
-      <c r="L117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
       <c r="IE117" s="8"/>
       <c r="IF117" s="8"/>
       <c r="IG117" s="8"/>
@@ -7830,8 +7840,17 @@
       <c r="II117" s="8"/>
     </row>
     <row r="118" spans="2:243" ht="25" customHeight="1">
-      <c r="K118" s="11"/>
-      <c r="L118" s="7"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
       <c r="IE118" s="8"/>
       <c r="IF118" s="8"/>
       <c r="IG118" s="8"/>
@@ -7839,6 +7858,9 @@
       <c r="II118" s="8"/>
     </row>
     <row r="119" spans="2:243" ht="25" customHeight="1">
+      <c r="E119" s="5"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="5"/>
       <c r="K119" s="11"/>
       <c r="L119" s="7"/>
       <c r="IE119" s="8"/>
@@ -7901,8 +7923,74 @@
       <c r="IH125" s="8"/>
       <c r="II125" s="8"/>
     </row>
+    <row r="126" spans="2:243" ht="25" customHeight="1">
+      <c r="K126" s="11"/>
+      <c r="L126" s="7"/>
+      <c r="IE126" s="8"/>
+      <c r="IF126" s="8"/>
+      <c r="IG126" s="8"/>
+      <c r="IH126" s="8"/>
+      <c r="II126" s="8"/>
+    </row>
+    <row r="127" spans="2:243" ht="25" customHeight="1">
+      <c r="K127" s="11"/>
+      <c r="L127" s="7"/>
+      <c r="IE127" s="8"/>
+      <c r="IF127" s="8"/>
+      <c r="IG127" s="8"/>
+      <c r="IH127" s="8"/>
+      <c r="II127" s="8"/>
+    </row>
+    <row r="128" spans="2:243" ht="25" customHeight="1">
+      <c r="K128" s="11"/>
+      <c r="L128" s="7"/>
+      <c r="IE128" s="8"/>
+      <c r="IF128" s="8"/>
+      <c r="IG128" s="8"/>
+      <c r="IH128" s="8"/>
+      <c r="II128" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
@@ -7918,45 +8006,6 @@
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2F2FE-02BA-2247-AE15-59DF2146879F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB808C1-5070-F543-8190-3793E1CBA5EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$108</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$128</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$127</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="133">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,11 +567,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -720,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -799,6 +800,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -808,11 +815,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,7 +909,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -997,7 +1001,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1026,7 +1030,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1072,7 +1076,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2199,7 +2203,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>154878</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2271,13 +2275,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>269488</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>231387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>480123</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>139389</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3423,10 +3427,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II128"/>
+  <dimension ref="A1:II127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3452,22 +3456,22 @@
       <c r="A1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L34" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L33" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
@@ -3570,7 +3574,7 @@
         <v>136.96</v>
       </c>
       <c r="G4" s="25">
-        <f t="shared" ref="G4:G67" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G4:G66" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="5">
@@ -4204,30 +4208,30 @@
         <v>10</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1.175</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H20" s="5">
         <v>5</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="K20" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1">
@@ -4352,16 +4356,16 @@
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="5">
         <v>30</v>
@@ -4380,78 +4384,78 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>6.1552524566650304E-3</v>
+        <v>5.2700519561767502E-2</v>
       </c>
       <c r="K24" s="5">
         <v>5</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="5">
         <v>30</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
+      <c r="F25" s="23">
+        <v>2.0127999999999999</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.997387755102039</v>
       </c>
       <c r="H25" s="5">
         <v>5</v>
       </c>
       <c r="I25" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>5.2700519561767502E-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>67.997387755102039</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>30</v>
-      </c>
-      <c r="F26" s="23">
-        <v>2.0127999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="1"/>
-        <v>29.997387755102039</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
         <v>5</v>
@@ -4467,67 +4471,67 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
-        <v>67.997387755102039</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="23">
+        <v>1.0944</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H27" s="5">
         <v>5</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>8.8646411895751901E-3</v>
       </c>
       <c r="K27" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5">
         <v>30</v>
       </c>
       <c r="F28" s="23">
-        <v>1.0944</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="1"/>
@@ -4540,25 +4544,25 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <v>8.8646411895751901E-3</v>
+        <v>0.138386011123657</v>
       </c>
       <c r="K28" s="5">
         <v>5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -4567,51 +4571,51 @@
         <v>30</v>
       </c>
       <c r="F29" s="23">
-        <v>0.99399999999999999</v>
+        <v>108.16</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H29" s="5">
         <v>5</v>
       </c>
       <c r="I29" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>0.138386011123657</v>
+        <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5">
         <v>30</v>
       </c>
       <c r="F30" s="23">
-        <v>108.16</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H30" s="5">
         <v>5</v>
@@ -4627,71 +4631,71 @@
       </c>
       <c r="L30" s="4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E31" s="5">
         <v>30</v>
       </c>
       <c r="F31" s="23">
-        <v>0.40200000000000002</v>
+        <v>119.53</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H31" s="5">
         <v>5</v>
       </c>
       <c r="I31" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>0.17986798286437899</v>
       </c>
       <c r="K31" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
         <v>30</v>
       </c>
       <c r="F32" s="23">
-        <v>119.53</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H32" s="5">
         <v>5</v>
@@ -4700,38 +4704,38 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <v>0.17986798286437899</v>
+        <v>4.9546718597412102E-2</v>
       </c>
       <c r="K32" s="5">
         <v>5</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5">
         <v>30</v>
       </c>
       <c r="F33" s="23">
-        <v>0.34499999999999997</v>
+        <v>40.957999999999998</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>22.049387755102039</v>
       </c>
       <c r="H33" s="5">
         <v>5</v>
@@ -4740,78 +4744,78 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <v>4.9546718597412102E-2</v>
+        <v>2.69570350646972E-2</v>
       </c>
       <c r="K33" s="5">
         <v>5</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>72.049387755102032</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5">
         <v>30</v>
       </c>
       <c r="F34" s="23">
-        <v>40.957999999999998</v>
+        <v>1.0691999999999999</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="1"/>
-        <v>22.049387755102039</v>
+        <v>30</v>
       </c>
       <c r="H34" s="5">
         <v>5</v>
       </c>
       <c r="I34" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>2.69570350646972E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="0"/>
-        <v>72.049387755102032</v>
+        <f t="shared" ref="L34:L65" si="2">IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E35" s="5">
-        <v>30</v>
-      </c>
-      <c r="F35" s="23">
-        <v>1.0691999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H35" s="5">
         <v>5</v>
@@ -4826,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" ref="L35:L66" si="2">IF(SUM(B35:E35,G35,H35:I35,K35)&lt;100, SUM(B35:E35,G35,H35:I35,K35),  100)</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
@@ -4841,44 +4845,44 @@
         <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F36" s="23">
+        <v>83.143000000000001</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.440204081632654</v>
       </c>
       <c r="H36" s="5">
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>4.2366027832031201E-2</v>
       </c>
       <c r="K36" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>63.440204081632658</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -4887,11 +4891,11 @@
         <v>30</v>
       </c>
       <c r="F37" s="23">
-        <v>83.143000000000001</v>
+        <v>1.6818</v>
       </c>
       <c r="G37" s="25">
         <f t="shared" si="1"/>
-        <v>13.440204081632654</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <v>5</v>
@@ -4900,59 +4904,59 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <v>4.2366027832031201E-2</v>
+        <v>2.32050418853759E-2</v>
       </c>
       <c r="K37" s="5">
         <v>5</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
-        <v>63.440204081632658</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5">
         <v>30</v>
       </c>
       <c r="F38" s="23">
-        <v>1.6818</v>
+        <v>12.138</v>
       </c>
       <c r="G38" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>27.931020408163263</v>
       </c>
       <c r="H38" s="5">
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>2.32050418853759E-2</v>
+        <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>72.931020408163263</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
@@ -4967,32 +4971,32 @@
         <v>30</v>
       </c>
       <c r="F39" s="23">
-        <v>12.138</v>
+        <v>0.85</v>
       </c>
       <c r="G39" s="25">
         <f t="shared" si="1"/>
-        <v>27.931020408163263</v>
+        <v>30</v>
       </c>
       <c r="H39" s="5">
         <v>5</v>
       </c>
       <c r="I39" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>5.8892011642455999E-2</v>
       </c>
       <c r="K39" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
-        <v>72.931020408163263</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
@@ -5001,38 +5005,38 @@
         <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5">
         <v>30</v>
       </c>
-      <c r="F40" s="23">
-        <v>0.85</v>
+      <c r="F40" s="4">
+        <v>0</v>
       </c>
       <c r="G40" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
         <v>5</v>
       </c>
       <c r="I40" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>5.8892011642455999E-2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
@@ -5046,52 +5050,52 @@
       <c r="E41" s="5">
         <v>30</v>
       </c>
-      <c r="F41" s="4">
-        <v>0</v>
+      <c r="F41" s="23">
+        <v>13.052</v>
       </c>
       <c r="G41" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.744489795918369</v>
       </c>
       <c r="H41" s="5">
         <v>5</v>
       </c>
       <c r="I41" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>5.8627367019653299E-2</v>
       </c>
       <c r="K41" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>85.744489795918369</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
         <v>30</v>
       </c>
       <c r="F42" s="23">
-        <v>13.052</v>
+        <v>1.7337</v>
       </c>
       <c r="G42" s="25">
         <f t="shared" si="1"/>
-        <v>27.744489795918369</v>
+        <v>30</v>
       </c>
       <c r="H42" s="5">
         <v>5</v>
@@ -5100,78 +5104,78 @@
         <v>10</v>
       </c>
       <c r="J42" s="2">
-        <v>5.8627367019653299E-2</v>
+        <v>7.2960853576660104E-3</v>
       </c>
       <c r="K42" s="5">
         <v>5</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
-        <v>85.744489795918369</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E43" s="5">
         <v>30</v>
       </c>
       <c r="F43" s="23">
-        <v>1.7337</v>
+        <v>56.232999999999997</v>
       </c>
       <c r="G43" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>18.932040816326534</v>
       </c>
       <c r="H43" s="5">
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>7.2960853576660104E-3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>61.932040816326534</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" s="5">
-        <v>30</v>
-      </c>
-      <c r="F44" s="23">
-        <v>56.232999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
       </c>
       <c r="G44" s="25">
         <f t="shared" si="1"/>
-        <v>18.932040816326534</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
         <v>5</v>
@@ -5187,21 +5191,21 @@
       </c>
       <c r="L44" s="4">
         <f t="shared" si="2"/>
-        <v>61.932040816326534</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -5227,12 +5231,12 @@
       </c>
       <c r="L45" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
@@ -5241,90 +5245,90 @@
         <v>6</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F46" s="23">
+        <v>1.1318999999999999</v>
       </c>
       <c r="G46" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H46" s="5">
         <v>5</v>
       </c>
       <c r="I46" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="K46" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E47" s="5">
-        <v>30</v>
-      </c>
-      <c r="F47" s="23">
-        <v>1.1318999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
       </c>
       <c r="G47" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H47" s="5">
         <v>5</v>
       </c>
       <c r="I47" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>4.5100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
       <c r="E48" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -5337,34 +5341,34 @@
         <v>5</v>
       </c>
       <c r="I48" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
       <c r="K48" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:243" ht="25" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -5374,84 +5378,87 @@
         <v>0</v>
       </c>
       <c r="H49" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
       <c r="K49" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F50" s="23">
+        <v>14.272</v>
       </c>
       <c r="G50" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.495510204081633</v>
       </c>
       <c r="H50" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="K50" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+        <v>85.495510204081626</v>
+      </c>
+      <c r="IG50" s="8"/>
+      <c r="IH50" s="8"/>
+      <c r="II50" s="8"/>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D51" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5">
         <v>30</v>
       </c>
       <c r="F51" s="23">
-        <v>14.272</v>
+        <v>110.16</v>
       </c>
       <c r="G51" s="25">
         <f t="shared" si="1"/>
-        <v>27.495510204081633</v>
+        <v>10</v>
       </c>
       <c r="H51" s="5">
         <v>5</v>
@@ -5460,14 +5467,14 @@
         <v>10</v>
       </c>
       <c r="J51" s="2">
-        <v>0.48080000000000001</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="K51" s="5">
         <v>5</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="2"/>
-        <v>85.495510204081626</v>
+        <v>65</v>
       </c>
       <c r="IG51" s="8"/>
       <c r="IH51" s="8"/>
@@ -5475,26 +5482,26 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="5">
         <v>30</v>
       </c>
       <c r="F52" s="23">
-        <v>110.16</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="G52" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H52" s="5">
         <v>5</v>
@@ -5503,14 +5510,14 @@
         <v>10</v>
       </c>
       <c r="J52" s="2">
-        <v>0.72140000000000004</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K52" s="5">
         <v>5</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="IG52" s="8"/>
       <c r="IH52" s="8"/>
@@ -5518,42 +5525,42 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5">
-        <v>30</v>
-      </c>
-      <c r="F53" s="23">
-        <v>1.0031000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
       </c>
       <c r="G53" s="25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H53" s="5">
         <v>5</v>
       </c>
       <c r="I53" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="K53" s="5">
         <v>5</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="IG53" s="8"/>
       <c r="IH53" s="8"/>
@@ -5561,16 +5568,16 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -5592,11 +5599,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="IG54" s="8"/>
       <c r="IH54" s="8"/>
@@ -5604,42 +5611,42 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F55" s="23">
+        <v>79.941000000000003</v>
       </c>
       <c r="G55" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.093673469387756</v>
       </c>
       <c r="H55" s="5">
         <v>5</v>
       </c>
       <c r="I55" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>4.24E-2</v>
       </c>
       <c r="K55" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>69.093673469387753</v>
       </c>
       <c r="IG55" s="8"/>
       <c r="IH55" s="8"/>
@@ -5647,12 +5654,12 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1">
@@ -5661,12 +5668,12 @@
       <c r="E56" s="5">
         <v>30</v>
       </c>
-      <c r="F56" s="23">
-        <v>79.941000000000003</v>
+      <c r="F56" s="4">
+        <v>0</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
+        <v>0</v>
       </c>
       <c r="H56" s="5">
         <v>5</v>
@@ -5675,14 +5682,14 @@
         <v>10</v>
       </c>
       <c r="J56" s="2">
-        <v>4.24E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K56" s="5">
         <v>5</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="2"/>
-        <v>69.093673469387753</v>
+        <v>55</v>
       </c>
       <c r="IG56" s="8"/>
       <c r="IH56" s="8"/>
@@ -5690,42 +5697,38 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B57" s="28">
+        <v>27</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="5">
         <v>30</v>
       </c>
-      <c r="F57" s="4">
-        <v>0</v>
+      <c r="F57" s="19">
+        <v>83.125</v>
       </c>
       <c r="G57" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H57" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I57" s="5">
         <v>10</v>
       </c>
       <c r="J57" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>1.0281439999999999</v>
       </c>
       <c r="K57" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>89.443877551020407</v>
       </c>
       <c r="IG57" s="8"/>
       <c r="IH57" s="8"/>
@@ -5733,38 +5736,38 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="26">
-        <v>27</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="B58" s="28">
+        <v>30</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="5">
         <v>30</v>
       </c>
       <c r="F58" s="19">
-        <v>83.125</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="G58" s="25">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H58" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I58" s="5">
         <v>10</v>
       </c>
       <c r="J58" s="2">
-        <v>1.0281439999999999</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K58" s="5">
         <v>4.5</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="2"/>
-        <v>89.443877551020407</v>
+        <v>92.326326530612249</v>
       </c>
       <c r="IG58" s="8"/>
       <c r="IH58" s="8"/>
@@ -5772,38 +5775,38 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="26">
-        <v>30</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="B59" s="28">
+        <v>30</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="5">
         <v>30</v>
       </c>
       <c r="F59" s="19">
-        <v>86.150999999999996</v>
+        <v>11.093</v>
       </c>
       <c r="G59" s="25">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H59" s="5">
         <v>5</v>
       </c>
       <c r="I59" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>0.16397200000000001</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K59" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="2"/>
-        <v>92.326326530612249</v>
+        <v>95.644285714285715</v>
       </c>
       <c r="IG59" s="8"/>
       <c r="IH59" s="8"/>
@@ -5811,22 +5814,22 @@
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="26">
-        <v>30</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="B60" s="28">
+        <v>24</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="5">
         <v>30</v>
       </c>
       <c r="F60" s="19">
-        <v>11.093</v>
+        <v>157.71</v>
       </c>
       <c r="G60" s="25">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>10</v>
       </c>
       <c r="H60" s="5">
         <v>5</v>
@@ -5835,14 +5838,14 @@
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>0.79987600000000003</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K60" s="5">
         <v>2.5</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="2"/>
-        <v>95.644285714285715</v>
+        <v>71.5</v>
       </c>
       <c r="IG60" s="8"/>
       <c r="IH60" s="8"/>
@@ -5850,38 +5853,38 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="26">
+        <v>82</v>
+      </c>
+      <c r="B61" s="28">
         <v>24</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F61" s="19">
-        <v>157.71</v>
+        <v>0</v>
       </c>
       <c r="G61" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H61" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I61" s="5">
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>5.2023E-2</v>
+        <v>0</v>
       </c>
       <c r="K61" s="5">
         <v>2.5</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="2"/>
-        <v>71.5</v>
+        <v>29</v>
       </c>
       <c r="IG61" s="8"/>
       <c r="IH61" s="8"/>
@@ -5889,13 +5892,13 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="26">
+        <v>83</v>
+      </c>
+      <c r="B62" s="28">
         <v>24</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="5">
         <v>0</v>
       </c>
@@ -5928,13 +5931,13 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="26">
-        <v>24</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="B63" s="28">
+        <v>21</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -5952,14 +5955,14 @@
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K63" s="5">
         <v>2.5</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="IG63" s="8"/>
       <c r="IH63" s="8"/>
@@ -5967,38 +5970,38 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="26">
-        <v>21</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="B64" s="28">
+        <v>24</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F64" s="19">
-        <v>0</v>
+        <v>82.278999999999996</v>
       </c>
       <c r="G64" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.616530612244899</v>
       </c>
       <c r="H64" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>1.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="K64" s="5">
         <v>2.5</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>74.616530612244901</v>
       </c>
       <c r="IG64" s="8"/>
       <c r="IH64" s="8"/>
@@ -6006,38 +6009,38 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="26">
-        <v>24</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="B65" s="28">
+        <v>27</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="5">
         <v>30</v>
       </c>
       <c r="F65" s="19">
-        <v>82.278999999999996</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="G65" s="25">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="H65" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>3.6273E-2</v>
       </c>
       <c r="K65" s="5">
         <v>2.5</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="2"/>
-        <v>74.616530612244901</v>
+        <v>76.37</v>
       </c>
       <c r="IG65" s="8"/>
       <c r="IH65" s="8"/>
@@ -6045,38 +6048,38 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="26">
-        <v>27</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="B66" s="28">
+        <v>24</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="5">
         <v>30</v>
       </c>
       <c r="F66" s="19">
-        <v>85.936999999999998</v>
+        <v>160.13</v>
       </c>
       <c r="G66" s="25">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>10</v>
       </c>
       <c r="H66" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>3.6273E-2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="5">
         <v>2.5</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="2"/>
-        <v>76.37</v>
+        <f t="shared" ref="L66:L97" si="3">IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
+        <v>71</v>
       </c>
       <c r="IG66" s="8"/>
       <c r="IH66" s="8"/>
@@ -6084,25 +6087,25 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="26">
-        <v>24</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="B67" s="28">
+        <v>21</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F67" s="19">
-        <v>160.13</v>
+        <v>0</v>
       </c>
       <c r="G67" s="25">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="G67:G107" si="4">IF(F67&gt;0, IF(F67&lt;2, 30, IF(F67&gt;100, 10, (1-(F67-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H67" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I67" s="5">
         <v>0</v>
@@ -6114,8 +6117,8 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" ref="L67:L98" si="3">IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="IG67" s="8"/>
       <c r="IH67" s="8"/>
@@ -6123,38 +6126,38 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="26">
-        <v>21</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="B68" s="28">
+        <v>30</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68" s="19">
-        <v>0</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="G68" s="25">
-        <f t="shared" ref="G68:G108" si="4">IF(F68&gt;0, IF(F68&lt;2, 30, IF(F68&gt;100, 10, (1-(F68-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>25.871632653061226</v>
       </c>
       <c r="H68" s="5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I68" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>8.7390000000000002E-3</v>
       </c>
       <c r="K68" s="5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="IG68" s="8"/>
       <c r="IH68" s="8"/>
@@ -6162,38 +6165,38 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="26">
-        <v>30</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="B69" s="28">
+        <v>27</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F69" s="19">
-        <v>22.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="G69" s="25">
         <f t="shared" si="4"/>
-        <v>25.871632653061226</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I69" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>8.7390000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="K69" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="IG69" s="8"/>
       <c r="IH69" s="8"/>
@@ -6201,38 +6204,38 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="26">
-        <v>27</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="B70" s="28">
+        <v>30</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70" s="19">
-        <v>0</v>
+        <v>22.785</v>
       </c>
       <c r="G70" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25.758163265306123</v>
       </c>
       <c r="H70" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I70" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K70" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="IG70" s="8"/>
       <c r="IH70" s="8"/>
@@ -6240,38 +6243,38 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="26">
-        <v>30</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
+        <v>92</v>
+      </c>
+      <c r="B71" s="28">
+        <v>24</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F71" s="19">
-        <v>22.785</v>
+        <v>0</v>
       </c>
       <c r="G71" s="25">
         <f t="shared" si="4"/>
-        <v>25.758163265306123</v>
+        <v>0</v>
       </c>
       <c r="H71" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I71" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>0.25622400000000001</v>
+        <v>0</v>
       </c>
       <c r="K71" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="IG71" s="8"/>
       <c r="IH71" s="8"/>
@@ -6279,38 +6282,38 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="26">
+        <v>93</v>
+      </c>
+      <c r="B72" s="28">
         <v>24</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F72" s="19">
-        <v>0</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G72" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.237755102040817</v>
       </c>
       <c r="H72" s="5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I72" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K72" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>83.737755102040822</v>
       </c>
       <c r="IG72" s="8"/>
       <c r="IH72" s="8"/>
@@ -6318,38 +6321,38 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B73" s="26">
-        <v>24</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="B73" s="28">
+        <v>27</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F73" s="19">
-        <v>89.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="G73" s="25">
         <f t="shared" si="4"/>
-        <v>12.237755102040817</v>
+        <v>0</v>
       </c>
       <c r="H73" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I73" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>0.25599100000000002</v>
+        <v>0</v>
       </c>
       <c r="K73" s="5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="3"/>
-        <v>83.737755102040822</v>
+        <v>32</v>
       </c>
       <c r="IG73" s="8"/>
       <c r="IH73" s="8"/>
@@ -6357,13 +6360,13 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="26">
-        <v>27</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="B74" s="28">
+        <v>24</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="5">
         <v>0</v>
       </c>
@@ -6381,14 +6384,14 @@
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K74" s="5">
         <v>2.5</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="IG74" s="8"/>
       <c r="IH74" s="8"/>
@@ -6396,13 +6399,13 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="26">
-        <v>24</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="B75" s="28">
+        <v>21</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="5">
         <v>0</v>
       </c>
@@ -6420,14 +6423,14 @@
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>0.11136799999999999</v>
+        <v>0</v>
       </c>
       <c r="K75" s="5">
         <v>2.5</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="IG75" s="8"/>
       <c r="IH75" s="8"/>
@@ -6435,38 +6438,38 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="26">
-        <v>21</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="B76" s="28">
+        <v>24</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F76" s="19">
-        <v>0</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="G76" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.72734693877551</v>
       </c>
       <c r="H76" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I76" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K76" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>86.727346938775511</v>
       </c>
       <c r="IG76" s="8"/>
       <c r="IH76" s="8"/>
@@ -6474,38 +6477,38 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="26">
-        <v>24</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="B77" s="28">
+        <v>30</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F77" s="19">
-        <v>76.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="G77" s="25">
         <f t="shared" si="4"/>
-        <v>14.72734693877551</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I77" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0.23594999999999999</v>
+        <v>0</v>
       </c>
       <c r="K77" s="5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L77" s="4">
         <f t="shared" si="3"/>
-        <v>86.727346938775511</v>
+        <v>35</v>
       </c>
       <c r="IG77" s="8"/>
       <c r="IH77" s="8"/>
@@ -6513,13 +6516,13 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="26">
-        <v>30</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="28"/>
+        <v>95</v>
+      </c>
+      <c r="B78" s="28">
+        <v>24</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="5">
         <v>0</v>
       </c>
@@ -6537,14 +6540,14 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>0</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K78" s="5">
         <v>2.5</v>
       </c>
       <c r="L78" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="IG78" s="8"/>
       <c r="IH78" s="8"/>
@@ -6552,38 +6555,38 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="26">
-        <v>24</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="B79" s="28">
+        <v>21</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F79" s="19">
-        <v>0</v>
+        <v>76.659000000000006</v>
       </c>
       <c r="G79" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.763469387755102</v>
       </c>
       <c r="H79" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I79" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J79" s="2">
-        <v>1.6031E-2</v>
+        <v>0.36402000000000001</v>
       </c>
       <c r="K79" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L79" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>82.763469387755094</v>
       </c>
       <c r="IG79" s="8"/>
       <c r="IH79" s="8"/>
@@ -6591,38 +6594,38 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="26">
-        <v>21</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="B80" s="28">
+        <v>24</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="5">
         <v>30</v>
       </c>
       <c r="F80" s="19">
-        <v>76.659000000000006</v>
+        <v>75.662000000000006</v>
       </c>
       <c r="G80" s="25">
         <f t="shared" si="4"/>
-        <v>14.763469387755102</v>
+        <v>14.966938775510204</v>
       </c>
       <c r="H80" s="5">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I80" s="5">
         <v>10</v>
       </c>
       <c r="J80" s="2">
-        <v>0.36402000000000001</v>
+        <v>0.18420700000000001</v>
       </c>
       <c r="K80" s="5">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L80" s="4">
         <f t="shared" si="3"/>
-        <v>82.763469387755094</v>
+        <v>87.966938775510201</v>
       </c>
       <c r="IG80" s="8"/>
       <c r="IH80" s="8"/>
@@ -6630,38 +6633,38 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="26">
-        <v>24</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="28"/>
+        <v>98</v>
+      </c>
+      <c r="B81" s="28">
+        <v>30</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="5">
         <v>30</v>
       </c>
       <c r="F81" s="19">
-        <v>75.662000000000006</v>
+        <v>18.93</v>
       </c>
       <c r="G81" s="25">
         <f t="shared" si="4"/>
-        <v>14.966938775510204</v>
+        <v>26.544897959183672</v>
       </c>
       <c r="H81" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I81" s="5">
         <v>10</v>
       </c>
       <c r="J81" s="2">
-        <v>0.18420700000000001</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K81" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" si="3"/>
-        <v>87.966938775510201</v>
+        <v>100</v>
       </c>
       <c r="IG81" s="8"/>
       <c r="IH81" s="8"/>
@@ -6669,38 +6672,38 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="26">
-        <v>30</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="B82" s="28">
+        <v>24</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="5">
         <v>30</v>
       </c>
       <c r="F82" s="19">
-        <v>18.93</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="G82" s="25">
         <f t="shared" si="4"/>
-        <v>26.544897959183672</v>
+        <v>26.456326530612245</v>
       </c>
       <c r="H82" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I82" s="5">
         <v>10</v>
       </c>
       <c r="J82" s="2">
-        <v>0.29575899999999999</v>
+        <v>2.3715E-2</v>
       </c>
       <c r="K82" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L82" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>99.456326530612245</v>
       </c>
       <c r="IG82" s="8"/>
       <c r="IH82" s="8"/>
@@ -6708,38 +6711,38 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="26">
-        <v>24</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="B83" s="28">
+        <v>27</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F83" s="19">
-        <v>19.364000000000001</v>
+        <v>0</v>
       </c>
       <c r="G83" s="25">
         <f t="shared" si="4"/>
-        <v>26.456326530612245</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I83" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2">
-        <v>2.3715E-2</v>
+        <v>0</v>
       </c>
       <c r="K83" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" si="3"/>
-        <v>99.456326530612245</v>
+        <v>32</v>
       </c>
       <c r="IG83" s="8"/>
       <c r="IH83" s="8"/>
@@ -6747,13 +6750,13 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="26">
-        <v>27</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="B84" s="28">
+        <v>21</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -6778,7 +6781,7 @@
       </c>
       <c r="L84" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="IG84" s="8"/>
       <c r="IH84" s="8"/>
@@ -6786,13 +6789,13 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="26">
-        <v>21</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="B85" s="28">
+        <v>27</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="5">
         <v>0</v>
       </c>
@@ -6817,7 +6820,7 @@
       </c>
       <c r="L85" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="IG85" s="8"/>
       <c r="IH85" s="8"/>
@@ -6825,38 +6828,38 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="26">
-        <v>27</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="B86" s="28">
+        <v>30</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F86" s="19">
-        <v>0</v>
+        <v>80.263999999999996</v>
       </c>
       <c r="G86" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.027755102040818</v>
       </c>
       <c r="H86" s="5">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I86" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>0.616757</v>
       </c>
       <c r="K86" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L86" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>92.527755102040814</v>
       </c>
       <c r="IG86" s="8"/>
       <c r="IH86" s="8"/>
@@ -6864,38 +6867,38 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="26">
-        <v>30</v>
-      </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="28">
+        <v>21</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F87" s="19">
-        <v>80.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="G87" s="25">
         <f t="shared" si="4"/>
-        <v>14.027755102040818</v>
+        <v>0</v>
       </c>
       <c r="H87" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I87" s="5">
+        <v>10</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2.2478000000000001E-2</v>
+      </c>
+      <c r="K87" s="5">
         <v>4</v>
-      </c>
-      <c r="I87" s="5">
-        <v>10</v>
-      </c>
-      <c r="J87" s="2">
-        <v>0.616757</v>
-      </c>
-      <c r="K87" s="5">
-        <v>4.5</v>
       </c>
       <c r="L87" s="4">
         <f t="shared" si="3"/>
-        <v>92.527755102040814</v>
+        <v>37.5</v>
       </c>
       <c r="IG87" s="8"/>
       <c r="IH87" s="8"/>
@@ -6903,13 +6906,13 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="26">
-        <v>21</v>
-      </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="B88" s="28">
+        <v>0</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="5">
         <v>0</v>
       </c>
@@ -6924,17 +6927,17 @@
         <v>2.5</v>
       </c>
       <c r="I88" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K88" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>5</v>
       </c>
       <c r="IG88" s="8"/>
       <c r="IH88" s="8"/>
@@ -6942,38 +6945,38 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="26">
-        <v>0</v>
-      </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="B89" s="28">
+        <v>27</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F89" s="19">
-        <v>0</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="G89" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>26.123265306122448</v>
       </c>
       <c r="H89" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I89" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>1.7333999999999999E-2</v>
       </c>
       <c r="K89" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="IG89" s="8"/>
       <c r="IH89" s="8"/>
@@ -6981,22 +6984,22 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="26">
-        <v>27</v>
-      </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="B90" s="28">
+        <v>21</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="5">
         <v>30</v>
       </c>
       <c r="F90" s="19">
-        <v>20.995999999999999</v>
+        <v>156</v>
       </c>
       <c r="G90" s="25">
         <f t="shared" si="4"/>
-        <v>26.123265306122448</v>
+        <v>10</v>
       </c>
       <c r="H90" s="5">
         <v>4.5</v>
@@ -7005,14 +7008,14 @@
         <v>10</v>
       </c>
       <c r="J90" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K90" s="5">
         <v>4.5</v>
       </c>
       <c r="L90" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="IG90" s="8"/>
       <c r="IH90" s="8"/>
@@ -7020,38 +7023,38 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="26">
-        <v>21</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="B91" s="28">
+        <v>24</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="5">
         <v>30</v>
       </c>
       <c r="F91" s="19">
-        <v>156</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="G91" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>14.288979591836737</v>
       </c>
       <c r="H91" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I91" s="5">
         <v>10</v>
       </c>
       <c r="J91" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>0.197292</v>
       </c>
       <c r="K91" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L91" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>87.288979591836735</v>
       </c>
       <c r="IG91" s="8"/>
       <c r="IH91" s="8"/>
@@ -7059,22 +7062,22 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="26">
-        <v>24</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="28"/>
+        <v>106</v>
+      </c>
+      <c r="B92" s="28">
+        <v>30</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="5">
         <v>30</v>
       </c>
       <c r="F92" s="19">
-        <v>78.983999999999995</v>
+        <v>158.24</v>
       </c>
       <c r="G92" s="25">
         <f t="shared" si="4"/>
-        <v>14.288979591836737</v>
+        <v>10</v>
       </c>
       <c r="H92" s="5">
         <v>5</v>
@@ -7083,14 +7086,14 @@
         <v>10</v>
       </c>
       <c r="J92" s="2">
-        <v>0.197292</v>
+        <v>2.8327999999999999E-2</v>
       </c>
       <c r="K92" s="5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L92" s="4">
         <f t="shared" si="3"/>
-        <v>87.288979591836735</v>
+        <v>89.5</v>
       </c>
       <c r="IG92" s="8"/>
       <c r="IH92" s="8"/>
@@ -7098,38 +7101,38 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="26">
-        <v>30</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="B93" s="28">
+        <v>30</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="5">
         <v>30</v>
       </c>
       <c r="F93" s="19">
-        <v>158.24</v>
+        <v>80.319000000000003</v>
       </c>
       <c r="G93" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>14.016530612244898</v>
       </c>
       <c r="H93" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I93" s="5">
         <v>10</v>
       </c>
       <c r="J93" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>0.44423499999999999</v>
       </c>
       <c r="K93" s="5">
         <v>4.5</v>
       </c>
       <c r="L93" s="4">
         <f t="shared" si="3"/>
-        <v>89.5</v>
+        <v>93.016530612244892</v>
       </c>
       <c r="IG93" s="8"/>
       <c r="IH93" s="8"/>
@@ -7137,61 +7140,58 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="26">
-        <v>30</v>
-      </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="B94" s="28">
+        <v>21</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="5">
         <v>30</v>
       </c>
       <c r="F94" s="19">
-        <v>80.319000000000003</v>
+        <v>0</v>
       </c>
       <c r="G94" s="25">
         <f t="shared" si="4"/>
-        <v>14.016530612244898</v>
+        <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I94" s="5">
         <v>10</v>
       </c>
       <c r="J94" s="2">
-        <v>0.44423499999999999</v>
+        <v>0.33158300000000002</v>
       </c>
       <c r="K94" s="5">
         <v>4.5</v>
       </c>
       <c r="L94" s="4">
         <f t="shared" si="3"/>
-        <v>93.016530612244892</v>
-      </c>
-      <c r="IG94" s="8"/>
-      <c r="IH94" s="8"/>
-      <c r="II94" s="8"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B95" s="26">
+        <v>109</v>
+      </c>
+      <c r="B95" s="28">
         <v>21</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="5">
-        <v>30</v>
+        <v>17.751479289940828</v>
       </c>
       <c r="F95" s="19">
-        <v>0</v>
+        <v>152.19</v>
       </c>
       <c r="G95" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H95" s="5">
         <v>2.5</v>
@@ -7200,214 +7200,214 @@
         <v>10</v>
       </c>
       <c r="J95" s="2">
-        <v>0.33158300000000002</v>
+        <v>8.4103999999999998E-2</v>
       </c>
       <c r="K95" s="5">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>64.751479289940832</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" s="26">
+        <v>110</v>
+      </c>
+      <c r="B96" s="28">
         <v>21</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="5">
-        <v>17.751479289940828</v>
+        <v>29.822485207100591</v>
       </c>
       <c r="F96" s="19">
-        <v>152.19</v>
+        <v>36.862000000000002</v>
       </c>
       <c r="G96" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22.885306122448981</v>
       </c>
       <c r="H96" s="5">
         <v>2.5</v>
       </c>
       <c r="I96" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2">
-        <v>8.4103999999999998E-2</v>
+        <v>1.9650999999999998E-2</v>
       </c>
       <c r="K96" s="5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L96" s="4">
         <f t="shared" si="3"/>
-        <v>64.751479289940832</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="25" customHeight="1">
+        <v>78.707791329549565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:243" ht="25" customHeight="1">
       <c r="A97" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" s="26">
-        <v>21</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="28"/>
+        <v>111</v>
+      </c>
+      <c r="B97" s="28">
+        <v>24</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="5">
-        <v>29.822485207100591</v>
+        <v>30</v>
       </c>
       <c r="F97" s="19">
-        <v>36.862000000000002</v>
+        <v>156.38999999999999</v>
       </c>
       <c r="G97" s="25">
         <f t="shared" si="4"/>
-        <v>22.885306122448981</v>
+        <v>10</v>
       </c>
       <c r="H97" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I97" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J97" s="2">
-        <v>1.9650999999999998E-2</v>
+        <v>9.5962000000000006E-2</v>
       </c>
       <c r="K97" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L97" s="4">
         <f t="shared" si="3"/>
-        <v>78.707791329549565</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:243" ht="25" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="26">
-        <v>24</v>
-      </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="28"/>
+        <v>112</v>
+      </c>
+      <c r="B98" s="28">
+        <v>27</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="5">
         <v>30</v>
       </c>
       <c r="F98" s="19">
-        <v>156.38999999999999</v>
+        <v>83.876000000000005</v>
       </c>
       <c r="G98" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>13.290612244897959</v>
       </c>
       <c r="H98" s="5">
         <v>4.5</v>
       </c>
       <c r="I98" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J98" s="2">
-        <v>9.5962000000000006E-2</v>
+        <v>0.11998499999999999</v>
       </c>
       <c r="K98" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="25" customHeight="1">
+        <f t="shared" ref="L98:L107" si="5">IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
+        <v>77.290612244897957</v>
+      </c>
+    </row>
+    <row r="99" spans="1:243" ht="25" customHeight="1">
       <c r="A99" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="26">
-        <v>27</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="28"/>
+        <v>113</v>
+      </c>
+      <c r="B99" s="28">
+        <v>24</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F99" s="19">
-        <v>83.876000000000005</v>
+        <v>0</v>
       </c>
       <c r="G99" s="25">
         <f t="shared" si="4"/>
-        <v>13.290612244897959</v>
+        <v>0</v>
       </c>
       <c r="H99" s="5">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
       </c>
       <c r="J99" s="2">
-        <v>0.11998499999999999</v>
+        <v>0</v>
       </c>
       <c r="K99" s="5">
         <v>2.5</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" ref="L99:L130" si="5">IF(SUM(B99:E99,G99,H99:I99,K99)&lt;100, SUM(B99:E99,G99,H99:I99,K99),  100)</f>
-        <v>77.290612244897957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="25" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:243" ht="25" customHeight="1">
       <c r="A100" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="26">
-        <v>24</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="B100" s="28">
+        <v>27</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F100" s="19">
-        <v>0</v>
+        <v>153.26</v>
       </c>
       <c r="G100" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H100" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I100" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J100" s="2">
-        <v>0</v>
+        <v>1.952367</v>
       </c>
       <c r="K100" s="5">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="25" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:243" ht="25" customHeight="1">
       <c r="A101" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="26">
-        <v>27</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="B101" s="28">
+        <v>30</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="5">
         <v>30</v>
       </c>
       <c r="F101" s="19">
-        <v>153.26</v>
+        <v>74.911000000000001</v>
       </c>
       <c r="G101" s="25">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15.120204081632654</v>
       </c>
       <c r="H101" s="5">
         <v>4.5</v>
@@ -7416,34 +7416,34 @@
         <v>10</v>
       </c>
       <c r="J101" s="2">
-        <v>1.952367</v>
+        <v>0.29591299999999998</v>
       </c>
       <c r="K101" s="5">
         <v>4.5</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="25" customHeight="1">
+        <v>94.12020408163265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:243" ht="25" customHeight="1">
       <c r="A102" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B102" s="26">
-        <v>30</v>
-      </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="B102" s="28">
+        <v>21</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="5">
         <v>30</v>
       </c>
       <c r="F102" s="19">
-        <v>74.911000000000001</v>
+        <v>11.08</v>
       </c>
       <c r="G102" s="25">
         <f t="shared" si="4"/>
-        <v>15.120204081632654</v>
+        <v>28.146938775510204</v>
       </c>
       <c r="H102" s="5">
         <v>4.5</v>
@@ -7452,61 +7452,61 @@
         <v>10</v>
       </c>
       <c r="J102" s="2">
-        <v>0.29591299999999998</v>
+        <v>1.5566E-2</v>
       </c>
       <c r="K102" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" si="5"/>
-        <v>94.12020408163265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="25" customHeight="1">
+        <v>97.646938775510208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" s="26">
-        <v>21</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="28"/>
+        <v>117</v>
+      </c>
+      <c r="B103" s="28">
+        <v>24</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F103" s="19">
-        <v>11.08</v>
+        <v>0</v>
       </c>
       <c r="G103" s="25">
         <f t="shared" si="4"/>
-        <v>28.146938775510204</v>
+        <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I103" s="5">
         <v>10</v>
       </c>
       <c r="J103" s="2">
-        <v>1.5566E-2</v>
+        <v>7.6779999999999999E-3</v>
       </c>
       <c r="K103" s="5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" si="5"/>
-        <v>97.646938775510208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="25" customHeight="1">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:243" ht="25" customHeight="1">
       <c r="A104" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" s="26">
-        <v>24</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="B104" s="28">
+        <v>15</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7518,33 +7518,33 @@
         <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I104" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J104" s="2">
-        <v>7.6779999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="K104" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" si="5"/>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="25" customHeight="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:243" ht="25" customHeight="1">
       <c r="A105" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" s="26">
-        <v>15</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="B105" s="28">
+        <v>21</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="30"/>
       <c r="E105" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F105" s="19">
         <v>0</v>
@@ -7554,190 +7554,176 @@
         <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I105" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2">
-        <v>0</v>
+        <v>7.175E-3</v>
       </c>
       <c r="K105" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L105" s="4">
         <f t="shared" si="5"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="25" customHeight="1">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="26">
+        <v>120</v>
+      </c>
+      <c r="B106" s="28">
         <v>21</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
       <c r="E106" s="5">
         <v>30</v>
       </c>
       <c r="F106" s="19">
-        <v>0</v>
+        <v>15.122</v>
       </c>
       <c r="G106" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27.322040816326528</v>
       </c>
       <c r="H106" s="5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I106" s="5">
-        <v>10</v>
+        <v>9.1715976331360949</v>
       </c>
       <c r="J106" s="2">
-        <v>7.175E-3</v>
+        <v>6.9841E-2</v>
       </c>
       <c r="K106" s="5">
-        <v>2.5</v>
+        <v>2.2928994082840237</v>
       </c>
       <c r="L106" s="4">
         <f t="shared" si="5"/>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="25" customHeight="1">
+        <v>94.286537857746652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:243" ht="25" customHeight="1">
       <c r="A107" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" s="26">
-        <v>21</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="B107" s="28">
+        <v>27</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
       <c r="E107" s="5">
-        <v>30</v>
+        <v>29.644970414201186</v>
       </c>
       <c r="F107" s="19">
-        <v>15.122</v>
+        <v>11.878</v>
       </c>
       <c r="G107" s="25">
         <f t="shared" si="4"/>
-        <v>27.322040816326528</v>
+        <v>27.984081632653062</v>
       </c>
       <c r="H107" s="5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I107" s="5">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J107" s="2">
-        <v>6.9841E-2</v>
+        <v>2.3165999999999999E-2</v>
       </c>
       <c r="K107" s="5">
-        <v>2.2928994082840237</v>
+        <v>2.5</v>
       </c>
       <c r="L107" s="4">
         <f t="shared" si="5"/>
-        <v>94.286537857746652</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="25" customHeight="1">
-      <c r="A108" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" s="26">
-        <v>27</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="5">
-        <v>29.644970414201186</v>
-      </c>
-      <c r="F108" s="19">
-        <v>11.878</v>
-      </c>
-      <c r="G108" s="25">
-        <f t="shared" si="4"/>
-        <v>27.984081632653062</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5</v>
-      </c>
-      <c r="I108" s="5">
-        <v>10</v>
-      </c>
-      <c r="J108" s="2">
-        <v>2.3165999999999999E-2</v>
-      </c>
-      <c r="K108" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="L108" s="4">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="25" customHeight="1">
+    <row r="109" spans="1:243" ht="25" customHeight="1">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="20">
+        <f>SUM(J3:J107)/COUNTIF(J3:J107,"&lt;&gt;0")</f>
+        <v>0.16384674985279757</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:243" ht="42">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="E110" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="20">
-        <f>SUM(J3:J108)/COUNTIF(J3:J108,"&lt;&gt;0")</f>
-        <v>0.16273579768304264</v>
-      </c>
+      <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="1:12" ht="42">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+    <row r="111" spans="1:243" ht="21">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-    </row>
-    <row r="112" spans="1:12" ht="21">
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F112" s="15">
-        <f>COUNTIF(F3:F108, "&gt;0")</f>
-        <v>68</v>
-      </c>
-      <c r="G112" s="15"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
+      <c r="F111" s="15">
+        <f>COUNTIF(F3:F107, "&gt;0")</f>
+        <v>69</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+    </row>
+    <row r="112" spans="1:243" ht="25" customHeight="1">
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="4">
+        <v>160.13</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="IE112" s="8"/>
+      <c r="IF112" s="8"/>
+      <c r="IG112" s="8"/>
+      <c r="IH112" s="8"/>
+      <c r="II112" s="8"/>
     </row>
     <row r="113" spans="2:243" ht="25" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F113" s="4">
-        <v>160.13</v>
+        <v>125</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6"/>
@@ -7752,21 +7738,21 @@
       <c r="II113" s="8"/>
     </row>
     <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="F114" s="4">
+        <v>30</v>
+      </c>
+      <c r="G114" s="22"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
       <c r="IE114" s="8"/>
       <c r="IF114" s="8"/>
       <c r="IG114" s="8"/>
@@ -7778,12 +7764,12 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F115" s="4">
-        <v>30</v>
-      </c>
-      <c r="G115" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -7800,10 +7786,10 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="4">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -7820,13 +7806,9 @@
     <row r="117" spans="2:243" ht="25" customHeight="1">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -7840,17 +7822,11 @@
       <c r="II117" s="8"/>
     </row>
     <row r="118" spans="2:243" ht="25" customHeight="1">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="2"/>
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="7"/>
       <c r="IE118" s="8"/>
       <c r="IF118" s="8"/>
       <c r="IG118" s="8"/>
@@ -7858,9 +7834,6 @@
       <c r="II118" s="8"/>
     </row>
     <row r="119" spans="2:243" ht="25" customHeight="1">
-      <c r="E119" s="5"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="5"/>
       <c r="K119" s="11"/>
       <c r="L119" s="7"/>
       <c r="IE119" s="8"/>
@@ -7941,71 +7914,62 @@
       <c r="IH127" s="8"/>
       <c r="II127" s="8"/>
     </row>
-    <row r="128" spans="2:243" ht="25" customHeight="1">
-      <c r="K128" s="11"/>
-      <c r="L128" s="7"/>
-      <c r="IE128" s="8"/>
-      <c r="IF128" s="8"/>
-      <c r="IG128" s="8"/>
-      <c r="IH128" s="8"/>
-      <c r="II128" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB808C1-5070-F543-8190-3793E1CBA5EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56134B9-FF58-B144-AA2E-39EABF6D8192}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,34 +100,6 @@
       </rPr>
       <t>-10 extra</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -731,9 +703,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -748,9 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -800,11 +766,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -815,7 +778,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2241,7 +2213,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="24898193" y="595351"/>
-              <a:ext cx="10788807" cy="7814527"/>
+              <a:ext cx="10788807" cy="7497027"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2318,7 +2290,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24361388" y="9121387"/>
+              <a:off x="24361388" y="8803887"/>
               <a:ext cx="9900735" cy="5940502"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3429,96 +3401,96 @@
   </sheetPr>
   <dimension ref="A1:II127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.6640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="243" width="8.33203125" style="7" customWidth="1"/>
-    <col min="244" max="16384" width="8.33203125" style="8"/>
+    <col min="1" max="1" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="243" width="8.33203125" style="6" customWidth="1"/>
+    <col min="244" max="16384" width="8.33203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="A1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
       <c r="C3" s="1">
@@ -3527,4395 +3499,4434 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
-        <v>30</v>
-      </c>
-      <c r="F3" s="23">
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
+      <c r="F3" s="21">
         <v>29.774000000000001</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="23">
         <f>IF(F3&gt;0, IF(F3&lt;2, 30, IF(F3&gt;100, 10, (1-(F3-2)/(100-2))*20+10)), 0)</f>
         <v>24.331836734693876</v>
       </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
         <v>0.39451265335083002</v>
       </c>
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
         <f t="shared" ref="L3:L33" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="21">
         <v>8</v>
       </c>
+      <c r="C4" s="21">
+        <v>5</v>
+      </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
-        <v>30</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="21">
         <v>136.96</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="23">
         <f t="shared" ref="G4:G66" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
-      <c r="H4" s="5">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
         <v>10</v>
       </c>
       <c r="J4" s="2">
         <v>4.8898220062255797E-2</v>
       </c>
-      <c r="K4" s="5">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="21">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.58665180206298E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="21">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="21">
+        <v>53.58</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>19.473469387755102</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.4695816040038993E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="0"/>
+        <v>93.473469387755102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="25" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1.1835</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5.3303003311157199E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21">
+        <v>10</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="21">
+        <v>116.31</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.7192583084106397E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="21">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="21">
+        <v>5.6810999999999998</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="1"/>
+        <v>29.248755102040814</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.6050577163696199E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="0"/>
+        <v>94.248755102040818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="21">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1.0487</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="21">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5.37314414978027E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="25" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="21">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30</v>
+      </c>
+      <c r="F14" s="21">
+        <v>15.304</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="1"/>
+        <v>27.284897959183674</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3.3642530441284103E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21">
+        <v>10</v>
+      </c>
+      <c r="C15" s="21">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="16" spans="1:12" ht="25" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1.5833999999999999</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.5737743377685498E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <f>IF(SUM(B16:E16,G16,H16:I16,K16)&lt;100, SUM(B16:E16,G16,H16:I16,K16),  100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="25" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="21">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1.0692999999999999</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3.9601087570190402E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="25" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
+        <v>22.295999999999999</v>
+      </c>
+      <c r="G18" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="I5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.58665180206298E-2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4">
+        <v>25.857959183673469</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
-        <v>84.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
+        <v>99.857959183673472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="21">
+        <v>8</v>
+      </c>
+      <c r="C19" s="21">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>30</v>
+      </c>
+      <c r="F19" s="21">
+        <v>39.323999999999998</v>
+      </c>
+      <c r="G19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
+        <v>22.382857142857144</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
+        <v>73.382857142857148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="25" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="21">
+        <v>8</v>
+      </c>
+      <c r="C20" s="21">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1.175</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="25" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.7133922576904297E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="25" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B22" s="21">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>30</v>
+      </c>
+      <c r="F22" s="21">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4.0718317031860303E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="25" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="21">
+        <v>10</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4">
+        <v>30</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.6353368759155201E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="25" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="21">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="C24" s="21">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5.2700519561767502E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="25" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="21">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21">
         <v>8</v>
       </c>
-      <c r="E8" s="5">
-        <v>30</v>
-      </c>
-      <c r="F8" s="23">
-        <v>53.58</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>30</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2.0127999999999999</v>
+      </c>
+      <c r="G25" s="23">
         <f t="shared" si="1"/>
-        <v>19.473469387755102</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
-        <v>8.4695816040038993E-3</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
+        <v>29.997387755102039</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
         <f t="shared" si="0"/>
-        <v>77.473469387755102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>30</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1.1835</v>
-      </c>
-      <c r="G9" s="25">
+        <v>80.997387755102039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="25" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="21">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5.3303003311157199E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>30</v>
-      </c>
-      <c r="F10" s="23">
-        <v>116.31</v>
-      </c>
-      <c r="G10" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="21">
+        <v>3</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>30</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1.0944</v>
+      </c>
+      <c r="G27" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.7192583084106397E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4">
+        <v>30</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8.8646411895751901E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="25" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="21">
+        <v>10</v>
+      </c>
+      <c r="C28" s="21">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>30</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G28" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.138386011123657</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="25" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="21">
+        <v>5</v>
+      </c>
+      <c r="C29" s="21">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>30</v>
+      </c>
+      <c r="F29" s="21">
+        <v>108.16</v>
+      </c>
+      <c r="G29" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23">
-        <v>5.6810999999999998</v>
-      </c>
-      <c r="G11" s="25">
+    <row r="30" spans="1:12" ht="25" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="21">
+        <v>10</v>
+      </c>
+      <c r="C30" s="21">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4">
+        <v>30</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G30" s="23">
         <f t="shared" si="1"/>
-        <v>29.248755102040814</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.6050577163696199E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="0"/>
-        <v>84.248755102040818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>30</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1.0487</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="25" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1.0538000000000001</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5.37314414978027E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>30</v>
-      </c>
-      <c r="F14" s="23">
-        <v>15.304</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="1"/>
-        <v>27.284897959183674</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3.3642530441284103E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>85.284897959183667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="25" customHeight="1">
+      <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>30</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1.5833999999999999</v>
-      </c>
-      <c r="G16" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H16" s="5">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <v>4.5737743377685498E-2</v>
-      </c>
-      <c r="K16" s="5">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="25" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>30</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1.0692999999999999</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H17" s="5">
-        <v>5</v>
-      </c>
-      <c r="I17" s="5">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
-        <v>3.9601087570190402E-2</v>
-      </c>
-      <c r="K17" s="5">
-        <v>5</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="25" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="6">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4">
-        <v>22.295999999999999</v>
-      </c>
-      <c r="G18" s="25">
-        <f t="shared" si="1"/>
-        <v>25.857959183673469</v>
-      </c>
-      <c r="H18" s="5">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>99.857959183673472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="25" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-      <c r="F19" s="23">
-        <v>39.323999999999998</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" si="1"/>
-        <v>22.382857142857144</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>57.382857142857148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="25" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5">
-        <v>30</v>
-      </c>
-      <c r="F20" s="31">
-        <v>1.175</v>
-      </c>
-      <c r="G20" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="25" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B31" s="21">
+        <v>5</v>
+      </c>
+      <c r="C31" s="21">
         <v>3</v>
-      </c>
-      <c r="E21" s="5">
-        <v>30</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
-        <v>4.7133922576904297E-2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="25" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>30</v>
-      </c>
-      <c r="F22" s="23">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="G22" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H22" s="5">
-        <v>5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4.0718317031860303E-2</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="25" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H23" s="5">
-        <v>5</v>
-      </c>
-      <c r="I23" s="5">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1.6353368759155201E-2</v>
-      </c>
-      <c r="K23" s="5">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="25" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5.2700519561767502E-2</v>
-      </c>
-      <c r="K24" s="5">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="25" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5">
-        <v>30</v>
-      </c>
-      <c r="F25" s="23">
-        <v>2.0127999999999999</v>
-      </c>
-      <c r="G25" s="25">
-        <f t="shared" si="1"/>
-        <v>29.997387755102039</v>
-      </c>
-      <c r="H25" s="5">
-        <v>5</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" si="0"/>
-        <v>67.997387755102039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="25" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="25" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5">
-        <v>30</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1.0944</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="I27" s="5">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
-        <v>8.8646411895751901E-3</v>
-      </c>
-      <c r="K27" s="5">
-        <v>5</v>
-      </c>
-      <c r="L27" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="25" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H28" s="5">
-        <v>5</v>
-      </c>
-      <c r="I28" s="5">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.138386011123657</v>
-      </c>
-      <c r="K28" s="5">
-        <v>5</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="25" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5">
-        <v>30</v>
-      </c>
-      <c r="F29" s="23">
-        <v>108.16</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H29" s="5">
-        <v>5</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="25" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
-        <v>30</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="25" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="5">
-        <v>30</v>
-      </c>
-      <c r="F31" s="23">
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="21">
         <v>119.53</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H31" s="5">
-        <v>5</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
         <v>10</v>
       </c>
       <c r="J31" s="2">
         <v>0.17986798286437899</v>
       </c>
-      <c r="K31" s="5">
-        <v>5</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" s="4">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
+      <c r="A32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="21">
+        <v>10</v>
+      </c>
+      <c r="C32" s="21">
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="5">
-        <v>30</v>
-      </c>
-      <c r="F32" s="23">
+      <c r="E32" s="4">
+        <v>30</v>
+      </c>
+      <c r="F32" s="21">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H32" s="5">
-        <v>5</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
         <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>4.9546718597412102E-2</v>
       </c>
-      <c r="K32" s="5">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" s="4">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="21">
         <v>8</v>
       </c>
+      <c r="C33" s="21">
+        <v>5</v>
+      </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="5">
-        <v>30</v>
-      </c>
-      <c r="F33" s="23">
+      <c r="E33" s="4">
+        <v>30</v>
+      </c>
+      <c r="F33" s="21">
         <v>40.957999999999998</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="23">
         <f t="shared" si="1"/>
         <v>22.049387755102039</v>
       </c>
-      <c r="H33" s="5">
-        <v>5</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4">
         <v>10</v>
       </c>
       <c r="J33" s="2">
         <v>2.69570350646972E-2</v>
       </c>
-      <c r="K33" s="5">
-        <v>5</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="K33" s="4">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="0"/>
-        <v>72.049387755102032</v>
+        <v>85.049387755102032</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
+      <c r="A34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="21">
+        <v>10</v>
+      </c>
+      <c r="C34" s="21">
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
-      <c r="E34" s="5">
-        <v>30</v>
-      </c>
-      <c r="F34" s="23">
+      <c r="E34" s="4">
+        <v>30</v>
+      </c>
+      <c r="F34" s="21">
         <v>1.0691999999999999</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H34" s="5">
-        <v>5</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
         <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <f t="shared" ref="L34:L65" si="2">IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
+      <c r="A35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="21">
+        <v>10</v>
+      </c>
+      <c r="C35" s="21">
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="5">
-        <v>5</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4">
         <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
+      <c r="A36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="21">
+        <v>10</v>
+      </c>
+      <c r="C36" s="21">
+        <v>8</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="5">
-        <v>30</v>
-      </c>
-      <c r="F36" s="23">
+      <c r="E36" s="4">
+        <v>30</v>
+      </c>
+      <c r="F36" s="21">
         <v>83.143000000000001</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="23">
         <f t="shared" si="1"/>
         <v>13.440204081632654</v>
       </c>
-      <c r="H36" s="5">
-        <v>5</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4">
         <v>10</v>
       </c>
       <c r="J36" s="2">
         <v>4.2366027832031201E-2</v>
       </c>
-      <c r="K36" s="5">
-        <v>5</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" s="4">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="2"/>
-        <v>63.440204081632658</v>
+        <v>81.440204081632658</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="25" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="21">
         <v>8</v>
       </c>
+      <c r="C37" s="21">
+        <v>5</v>
+      </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="5">
-        <v>30</v>
-      </c>
-      <c r="F37" s="23">
+      <c r="E37" s="4">
+        <v>30</v>
+      </c>
+      <c r="F37" s="21">
         <v>1.6818</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H37" s="5">
-        <v>5</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
         <v>10</v>
       </c>
       <c r="J37" s="2">
         <v>2.32050418853759E-2</v>
       </c>
-      <c r="K37" s="5">
-        <v>5</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="K37" s="4">
+        <v>5</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="25" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="21">
+        <v>10</v>
+      </c>
+      <c r="C38" s="21">
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
-      <c r="E38" s="5">
-        <v>30</v>
-      </c>
-      <c r="F38" s="23">
+      <c r="E38" s="4">
+        <v>30</v>
+      </c>
+      <c r="F38" s="21">
         <v>12.138</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="23">
         <f t="shared" si="1"/>
         <v>27.931020408163263</v>
       </c>
-      <c r="H38" s="5">
-        <v>5</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
         <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="2"/>
-        <v>72.931020408163263</v>
+        <v>92.931020408163263</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
+      <c r="A39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="21">
+        <v>10</v>
+      </c>
+      <c r="C39" s="21">
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
       </c>
-      <c r="E39" s="5">
-        <v>30</v>
-      </c>
-      <c r="F39" s="23">
+      <c r="E39" s="4">
+        <v>30</v>
+      </c>
+      <c r="F39" s="21">
         <v>0.85</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H39" s="5">
-        <v>5</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="H39" s="4">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
         <v>10</v>
       </c>
       <c r="J39" s="2">
         <v>5.8892011642455999E-2</v>
       </c>
-      <c r="K39" s="5">
-        <v>5</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="2"/>
-        <v>90</v>
+      <c r="K39" s="4">
+        <v>5</v>
+      </c>
+      <c r="L39" s="3">
+        <f>IF(SUM(B39:E39,G39,H39:I39,K39)&lt;100, SUM(B39:E39,G39,H39:I39,K39),  100)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="25" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
+      <c r="A40" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="21">
+        <v>10</v>
+      </c>
+      <c r="C40" s="21">
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
       </c>
-      <c r="E40" s="5">
-        <v>30</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
+      <c r="E40" s="4">
+        <v>30</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="5">
-        <v>5</v>
-      </c>
-      <c r="I40" s="5">
+      <c r="H40" s="4">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4">
         <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
+      <c r="A41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="21">
+        <v>10</v>
+      </c>
+      <c r="C41" s="21">
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
       </c>
-      <c r="E41" s="5">
-        <v>30</v>
-      </c>
-      <c r="F41" s="23">
+      <c r="E41" s="4">
+        <v>30</v>
+      </c>
+      <c r="F41" s="21">
         <v>13.052</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="23">
         <f t="shared" si="1"/>
         <v>27.744489795918369</v>
       </c>
-      <c r="H41" s="5">
-        <v>5</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="H41" s="4">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
         <v>10</v>
       </c>
       <c r="J41" s="2">
         <v>5.8627367019653299E-2</v>
       </c>
-      <c r="K41" s="5">
-        <v>5</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="K41" s="4">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="2"/>
-        <v>85.744489795918369</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="25" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>9</v>
+      <c r="A42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="21">
+        <v>10</v>
+      </c>
+      <c r="C42" s="21">
+        <v>8</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="5">
-        <v>30</v>
-      </c>
-      <c r="F42" s="23">
+      <c r="E42" s="4">
+        <v>30</v>
+      </c>
+      <c r="F42" s="21">
         <v>1.7337</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H42" s="5">
-        <v>5</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="H42" s="4">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
         <v>10</v>
       </c>
       <c r="J42" s="2">
         <v>7.2960853576660104E-3</v>
       </c>
-      <c r="K42" s="5">
-        <v>5</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="K42" s="4">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="25" customHeight="1">
-      <c r="A43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
+      <c r="A43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="21">
+        <v>10</v>
+      </c>
+      <c r="C43" s="21">
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>8</v>
       </c>
-      <c r="E43" s="5">
-        <v>30</v>
-      </c>
-      <c r="F43" s="23">
+      <c r="E43" s="4">
+        <v>30</v>
+      </c>
+      <c r="F43" s="21">
         <v>56.232999999999997</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="23">
         <f t="shared" si="1"/>
         <v>18.932040816326534</v>
       </c>
-      <c r="H43" s="5">
-        <v>5</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
         <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="2"/>
-        <v>61.932040816326534</v>
+        <v>81.932040816326534</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
+      <c r="A44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="21">
+        <v>8</v>
+      </c>
+      <c r="C44" s="21">
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
       </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="25">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="5">
-        <v>5</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="H44" s="4">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
         <v>0</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
+      <c r="A45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="21">
+        <v>10</v>
+      </c>
+      <c r="C45" s="21">
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
       </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="25">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="5">
-        <v>5</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="H45" s="4">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
         <v>0</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="25" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="21">
+        <v>10</v>
+      </c>
+      <c r="C46" s="21">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4">
+        <v>30</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1.1318999999999999</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>10</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="25" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="21">
+        <v>10</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="25" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="21">
+        <v>10</v>
+      </c>
+      <c r="C48" s="21">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>30</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
+        <v>10</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:243" ht="25" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="21">
+        <v>8</v>
+      </c>
+      <c r="C49" s="21">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>3</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:243" ht="25" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="21">
+        <v>10</v>
+      </c>
+      <c r="C50" s="30">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4">
+        <v>30</v>
+      </c>
+      <c r="F50" s="21">
+        <v>14.272</v>
+      </c>
+      <c r="G50" s="23">
+        <f t="shared" si="1"/>
+        <v>27.495510204081633</v>
+      </c>
+      <c r="H50" s="4">
+        <v>5</v>
+      </c>
+      <c r="I50" s="4">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="K50" s="4">
+        <v>5</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="IG50" s="7"/>
+      <c r="IH50" s="7"/>
+      <c r="II50" s="7"/>
+    </row>
+    <row r="51" spans="1:243" ht="25" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="21">
+        <v>8</v>
+      </c>
+      <c r="C51" s="31">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>30</v>
+      </c>
+      <c r="F51" s="21">
+        <v>110.16</v>
+      </c>
+      <c r="G51" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H51" s="4">
+        <v>5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="K51" s="4">
+        <v>5</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="IG51" s="7"/>
+      <c r="IH51" s="7"/>
+      <c r="II51" s="7"/>
+    </row>
+    <row r="52" spans="1:243" ht="25" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="21">
+        <v>5</v>
+      </c>
+      <c r="C52" s="30">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>30</v>
+      </c>
+      <c r="F52" s="21">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="G52" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="K52" s="4">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="IG52" s="7"/>
+      <c r="IH52" s="7"/>
+      <c r="II52" s="7"/>
+    </row>
+    <row r="53" spans="1:243" ht="25" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="21">
+        <v>10</v>
+      </c>
+      <c r="C53" s="30">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>5</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>5</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="IG53" s="7"/>
+      <c r="IH53" s="7"/>
+      <c r="II53" s="7"/>
+    </row>
+    <row r="54" spans="1:243" ht="25" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="21">
+        <v>8</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>5</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="25" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1">
-        <v>10</v>
-      </c>
-      <c r="E46" s="5">
-        <v>30</v>
-      </c>
-      <c r="F46" s="23">
-        <v>1.1318999999999999</v>
-      </c>
-      <c r="G46" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H46" s="5">
-        <v>5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>10</v>
-      </c>
-      <c r="J46" s="2">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="K46" s="5">
-        <v>5</v>
-      </c>
-      <c r="L46" s="4">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="25" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>5</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="25" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="IG54" s="7"/>
+      <c r="IH54" s="7"/>
+      <c r="II54" s="7"/>
+    </row>
+    <row r="55" spans="1:243" ht="25" customHeight="1">
+      <c r="A55" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B55" s="21">
         <v>8</v>
       </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="5">
-        <v>30</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>5</v>
-      </c>
-      <c r="I48" s="5">
-        <v>10</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="5">
-        <v>5</v>
-      </c>
-      <c r="L48" s="4">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:243" ht="25" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="5">
-        <v>3</v>
-      </c>
-      <c r="L49" s="4">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:243" ht="25" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="1">
-        <v>8</v>
-      </c>
-      <c r="E50" s="5">
-        <v>30</v>
-      </c>
-      <c r="F50" s="23">
-        <v>14.272</v>
-      </c>
-      <c r="G50" s="25">
-        <f t="shared" si="1"/>
-        <v>27.495510204081633</v>
-      </c>
-      <c r="H50" s="5">
-        <v>5</v>
-      </c>
-      <c r="I50" s="5">
-        <v>10</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.48080000000000001</v>
-      </c>
-      <c r="K50" s="5">
-        <v>5</v>
-      </c>
-      <c r="L50" s="4">
-        <f t="shared" si="2"/>
-        <v>85.495510204081626</v>
-      </c>
-      <c r="IG50" s="8"/>
-      <c r="IH50" s="8"/>
-      <c r="II50" s="8"/>
-    </row>
-    <row r="51" spans="1:243" ht="25" customHeight="1">
-      <c r="A51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-      <c r="E51" s="5">
-        <v>30</v>
-      </c>
-      <c r="F51" s="23">
-        <v>110.16</v>
-      </c>
-      <c r="G51" s="25">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H51" s="5">
-        <v>5</v>
-      </c>
-      <c r="I51" s="5">
-        <v>10</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.72140000000000004</v>
-      </c>
-      <c r="K51" s="5">
-        <v>5</v>
-      </c>
-      <c r="L51" s="4">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="IG51" s="8"/>
-      <c r="IH51" s="8"/>
-      <c r="II51" s="8"/>
-    </row>
-    <row r="52" spans="1:243" ht="25" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="5">
-        <v>30</v>
-      </c>
-      <c r="F52" s="23">
-        <v>1.0031000000000001</v>
-      </c>
-      <c r="G52" s="25">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H52" s="5">
-        <v>5</v>
-      </c>
-      <c r="I52" s="5">
-        <v>10</v>
-      </c>
-      <c r="J52" s="2">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K52" s="5">
-        <v>5</v>
-      </c>
-      <c r="L52" s="4">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="IG52" s="8"/>
-      <c r="IH52" s="8"/>
-      <c r="II52" s="8"/>
-    </row>
-    <row r="53" spans="1:243" ht="25" customHeight="1">
-      <c r="A53" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1">
-        <v>10</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>5</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>5</v>
-      </c>
-      <c r="L53" s="4">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="IG53" s="8"/>
-      <c r="IH53" s="8"/>
-      <c r="II53" s="8"/>
-    </row>
-    <row r="54" spans="1:243" ht="25" customHeight="1">
-      <c r="A54" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>5</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="IG54" s="8"/>
-      <c r="IH54" s="8"/>
-      <c r="II54" s="8"/>
-    </row>
-    <row r="55" spans="1:243" ht="25" customHeight="1">
-      <c r="A55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>8</v>
+      <c r="C55" s="21">
+        <v>5</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="5">
-        <v>30</v>
-      </c>
-      <c r="F55" s="23">
+      <c r="E55" s="4">
+        <v>30</v>
+      </c>
+      <c r="F55" s="21">
         <v>79.941000000000003</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="23">
         <f t="shared" si="1"/>
         <v>14.093673469387756</v>
       </c>
-      <c r="H55" s="5">
-        <v>5</v>
-      </c>
-      <c r="I55" s="5">
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
         <v>10</v>
       </c>
       <c r="J55" s="2">
         <v>4.24E-2</v>
       </c>
-      <c r="K55" s="5">
-        <v>5</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="K55" s="4">
+        <v>5</v>
+      </c>
+      <c r="L55" s="3">
         <f t="shared" si="2"/>
-        <v>69.093673469387753</v>
-      </c>
-      <c r="IG55" s="8"/>
-      <c r="IH55" s="8"/>
-      <c r="II55" s="8"/>
+        <v>82.093673469387753</v>
+      </c>
+      <c r="IG55" s="7"/>
+      <c r="IH55" s="7"/>
+      <c r="II55" s="7"/>
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
-      <c r="A56" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="21">
         <v>8</v>
       </c>
+      <c r="C56" s="30">
+        <v>5</v>
+      </c>
       <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="E56" s="5">
-        <v>30</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="25">
+      <c r="E56" s="4">
+        <v>30</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H56" s="5">
-        <v>5</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="H56" s="4">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4">
         <v>10</v>
       </c>
       <c r="J56" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="K56" s="5">
-        <v>5</v>
-      </c>
-      <c r="L56" s="4">
+      <c r="K56" s="4">
+        <v>5</v>
+      </c>
+      <c r="L56" s="3">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="IG56" s="8"/>
-      <c r="IH56" s="8"/>
-      <c r="II56" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="IG56" s="7"/>
+      <c r="IH56" s="7"/>
+      <c r="II56" s="7"/>
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
-      <c r="A57" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="28">
+      <c r="A57" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="25">
         <v>27</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="5">
-        <v>30</v>
-      </c>
-      <c r="F57" s="19">
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="4">
+        <v>30</v>
+      </c>
+      <c r="F57" s="17">
         <v>83.125</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="23">
         <f t="shared" si="1"/>
         <v>13.443877551020408</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>4.5</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <v>10</v>
       </c>
       <c r="J57" s="2">
         <v>1.0281439999999999</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>4.5</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="3">
         <f t="shared" si="2"/>
         <v>89.443877551020407</v>
       </c>
-      <c r="IG57" s="8"/>
-      <c r="IH57" s="8"/>
-      <c r="II57" s="8"/>
+      <c r="IG57" s="7"/>
+      <c r="IH57" s="7"/>
+      <c r="II57" s="7"/>
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
-      <c r="A58" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="28">
-        <v>30</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="5">
-        <v>30</v>
-      </c>
-      <c r="F58" s="19">
+      <c r="A58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="25">
+        <v>30</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="4">
+        <v>30</v>
+      </c>
+      <c r="F58" s="17">
         <v>86.150999999999996</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="23">
         <f t="shared" si="1"/>
         <v>12.826326530612246</v>
       </c>
-      <c r="H58" s="5">
-        <v>5</v>
-      </c>
-      <c r="I58" s="5">
+      <c r="H58" s="4">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
         <v>10</v>
       </c>
       <c r="J58" s="2">
         <v>0.16397200000000001</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>4.5</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="3">
         <f t="shared" si="2"/>
         <v>92.326326530612249</v>
       </c>
-      <c r="IG58" s="8"/>
-      <c r="IH58" s="8"/>
-      <c r="II58" s="8"/>
+      <c r="IG58" s="7"/>
+      <c r="IH58" s="7"/>
+      <c r="II58" s="7"/>
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
-      <c r="A59" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="28">
-        <v>30</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="5">
-        <v>30</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="A59" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="25">
+        <v>30</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="4">
+        <v>30</v>
+      </c>
+      <c r="F59" s="17">
         <v>11.093</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="23">
         <f t="shared" si="1"/>
         <v>28.144285714285715</v>
       </c>
-      <c r="H59" s="5">
-        <v>5</v>
-      </c>
-      <c r="I59" s="5">
+      <c r="H59" s="4">
+        <v>5</v>
+      </c>
+      <c r="I59" s="4">
         <v>0</v>
       </c>
       <c r="J59" s="2">
         <v>0.79987600000000003</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>2.5</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="3">
         <f t="shared" si="2"/>
         <v>95.644285714285715</v>
       </c>
-      <c r="IG59" s="8"/>
-      <c r="IH59" s="8"/>
-      <c r="II59" s="8"/>
+      <c r="IG59" s="7"/>
+      <c r="IH59" s="7"/>
+      <c r="II59" s="7"/>
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
-      <c r="A60" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="28">
+      <c r="A60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="25">
         <v>24</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="5">
-        <v>30</v>
-      </c>
-      <c r="F60" s="19">
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="4">
+        <v>30</v>
+      </c>
+      <c r="F60" s="17">
         <v>157.71</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H60" s="5">
-        <v>5</v>
-      </c>
-      <c r="I60" s="5">
+      <c r="H60" s="4">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4">
         <v>0</v>
       </c>
       <c r="J60" s="2">
         <v>5.2023E-2</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="4">
         <v>2.5</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="3">
         <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="IG60" s="8"/>
-      <c r="IH60" s="8"/>
-      <c r="II60" s="8"/>
+      <c r="IG60" s="7"/>
+      <c r="IH60" s="7"/>
+      <c r="II60" s="7"/>
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
-      <c r="A61" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="28">
+      <c r="A61" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="25">
         <v>24</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="19">
-        <v>0</v>
-      </c>
-      <c r="G61" s="25">
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>2.5</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="4">
         <v>0</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>2.5</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="IG61" s="8"/>
-      <c r="IH61" s="8"/>
-      <c r="II61" s="8"/>
+      <c r="IG61" s="7"/>
+      <c r="IH61" s="7"/>
+      <c r="II61" s="7"/>
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
-      <c r="A62" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="28">
+      <c r="A62" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="25">
         <v>24</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="19">
-        <v>0</v>
-      </c>
-      <c r="G62" s="25">
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>2.5</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="4">
         <v>0</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="4">
         <v>2.5</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="3">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="IG62" s="8"/>
-      <c r="IH62" s="8"/>
-      <c r="II62" s="8"/>
+      <c r="IG62" s="7"/>
+      <c r="IH62" s="7"/>
+      <c r="II62" s="7"/>
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="28">
+      <c r="A63" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="25">
         <v>21</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="19">
-        <v>0</v>
-      </c>
-      <c r="G63" s="25">
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <v>2.5</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="4">
         <v>0</v>
       </c>
       <c r="J63" s="2">
         <v>1.0291E-2</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="4">
         <v>2.5</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="IG63" s="8"/>
-      <c r="IH63" s="8"/>
-      <c r="II63" s="8"/>
+      <c r="IG63" s="7"/>
+      <c r="IH63" s="7"/>
+      <c r="II63" s="7"/>
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="28">
+      <c r="A64" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="25">
         <v>24</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="5">
-        <v>30</v>
-      </c>
-      <c r="F64" s="19">
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="4">
+        <v>30</v>
+      </c>
+      <c r="F64" s="17">
         <v>82.278999999999996</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="23">
         <f t="shared" si="1"/>
         <v>13.616530612244899</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>4.5</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="4">
         <v>0</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="4">
         <v>2.5</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="3">
         <f t="shared" si="2"/>
         <v>74.616530612244901</v>
       </c>
-      <c r="IG64" s="8"/>
-      <c r="IH64" s="8"/>
-      <c r="II64" s="8"/>
+      <c r="IG64" s="7"/>
+      <c r="IH64" s="7"/>
+      <c r="II64" s="7"/>
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
-      <c r="A65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="28">
+      <c r="A65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="25">
         <v>27</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="5">
-        <v>30</v>
-      </c>
-      <c r="F65" s="19">
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="4">
+        <v>30</v>
+      </c>
+      <c r="F65" s="17">
         <v>85.936999999999998</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="23">
         <f t="shared" si="1"/>
         <v>12.870000000000001</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>4</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="4">
         <v>0</v>
       </c>
       <c r="J65" s="2">
         <v>3.6273E-2</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <v>2.5</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="3">
         <f t="shared" si="2"/>
         <v>76.37</v>
       </c>
-      <c r="IG65" s="8"/>
-      <c r="IH65" s="8"/>
-      <c r="II65" s="8"/>
+      <c r="IG65" s="7"/>
+      <c r="IH65" s="7"/>
+      <c r="II65" s="7"/>
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
-      <c r="A66" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="28">
+      <c r="A66" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="25">
         <v>24</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="5">
-        <v>30</v>
-      </c>
-      <c r="F66" s="19">
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="4">
+        <v>30</v>
+      </c>
+      <c r="F66" s="17">
         <v>160.13</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <v>4.5</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="4">
         <v>0</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>2.5</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="3">
         <f t="shared" ref="L66:L97" si="3">IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
         <v>71</v>
       </c>
-      <c r="IG66" s="8"/>
-      <c r="IH66" s="8"/>
-      <c r="II66" s="8"/>
+      <c r="IG66" s="7"/>
+      <c r="IH66" s="7"/>
+      <c r="II66" s="7"/>
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="28">
+      <c r="A67" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="25">
         <v>21</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="19">
-        <v>0</v>
-      </c>
-      <c r="G67" s="25">
+      <c r="C67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0</v>
+      </c>
+      <c r="G67" s="23">
         <f t="shared" ref="G67:G107" si="4">IF(F67&gt;0, IF(F67&lt;2, 30, IF(F67&gt;100, 10, (1-(F67-2)/(100-2))*20+10)), 0)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>2.5</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="4">
         <v>0</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="4">
         <v>2.5</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="3">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="IG67" s="8"/>
-      <c r="IH67" s="8"/>
-      <c r="II67" s="8"/>
+      <c r="IG67" s="7"/>
+      <c r="IH67" s="7"/>
+      <c r="II67" s="7"/>
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
-      <c r="A68" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="28">
-        <v>30</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="5">
-        <v>30</v>
-      </c>
-      <c r="F68" s="19">
+      <c r="A68" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="25">
+        <v>30</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="4">
+        <v>30</v>
+      </c>
+      <c r="F68" s="17">
         <v>22.228999999999999</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="23">
         <f t="shared" si="4"/>
         <v>25.871632653061226</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>4</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="4">
         <v>10</v>
       </c>
       <c r="J68" s="2">
         <v>8.7390000000000002E-3</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="4">
         <v>4</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="IG68" s="8"/>
-      <c r="IH68" s="8"/>
-      <c r="II68" s="8"/>
+      <c r="IG68" s="7"/>
+      <c r="IH68" s="7"/>
+      <c r="II68" s="7"/>
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
-      <c r="A69" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="28">
+      <c r="A69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="25">
         <v>27</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="19">
-        <v>0</v>
-      </c>
-      <c r="G69" s="25">
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0</v>
+      </c>
+      <c r="G69" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>2.5</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="4">
         <v>0</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>2.5</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="IG69" s="8"/>
-      <c r="IH69" s="8"/>
-      <c r="II69" s="8"/>
+      <c r="IG69" s="7"/>
+      <c r="IH69" s="7"/>
+      <c r="II69" s="7"/>
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="28">
-        <v>30</v>
-      </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="5">
-        <v>30</v>
-      </c>
-      <c r="F70" s="19">
+      <c r="A70" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="25">
+        <v>30</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="4">
+        <v>30</v>
+      </c>
+      <c r="F70" s="17">
         <v>22.785</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="23">
         <f t="shared" si="4"/>
         <v>25.758163265306123</v>
       </c>
-      <c r="H70" s="5">
-        <v>5</v>
-      </c>
-      <c r="I70" s="5">
+      <c r="H70" s="4">
+        <v>5</v>
+      </c>
+      <c r="I70" s="4">
         <v>10</v>
       </c>
       <c r="J70" s="2">
         <v>0.25622400000000001</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>4.5</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="IG70" s="8"/>
-      <c r="IH70" s="8"/>
-      <c r="II70" s="8"/>
+      <c r="IG70" s="7"/>
+      <c r="IH70" s="7"/>
+      <c r="II70" s="7"/>
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
-      <c r="A71" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="28">
+      <c r="A71" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="25">
         <v>24</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="19">
-        <v>0</v>
-      </c>
-      <c r="G71" s="25">
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0</v>
+      </c>
+      <c r="G71" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>2.5</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="4">
         <v>0</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>2.5</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="3">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="IG71" s="8"/>
-      <c r="IH71" s="8"/>
-      <c r="II71" s="8"/>
+      <c r="IG71" s="7"/>
+      <c r="IH71" s="7"/>
+      <c r="II71" s="7"/>
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="28">
+      <c r="A72" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="25">
         <v>24</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="5">
-        <v>30</v>
-      </c>
-      <c r="F72" s="19">
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="4">
+        <v>30</v>
+      </c>
+      <c r="F72" s="17">
         <v>89.034999999999997</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="23">
         <f t="shared" si="4"/>
         <v>12.237755102040817</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <v>4</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="4">
         <v>10</v>
       </c>
       <c r="J72" s="2">
         <v>0.25599100000000002</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>3.5</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="3">
         <f t="shared" si="3"/>
         <v>83.737755102040822</v>
       </c>
-      <c r="IG72" s="8"/>
-      <c r="IH72" s="8"/>
-      <c r="II72" s="8"/>
+      <c r="IG72" s="7"/>
+      <c r="IH72" s="7"/>
+      <c r="II72" s="7"/>
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
-      <c r="A73" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="28">
+      <c r="A73" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="25">
         <v>27</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="19">
-        <v>0</v>
-      </c>
-      <c r="G73" s="25">
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="4">
         <v>2.5</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="4">
         <v>0</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="4">
         <v>2.5</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="IG73" s="8"/>
-      <c r="IH73" s="8"/>
-      <c r="II73" s="8"/>
+      <c r="IG73" s="7"/>
+      <c r="IH73" s="7"/>
+      <c r="II73" s="7"/>
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="28">
+      <c r="A74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="25">
         <v>24</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="19">
-        <v>0</v>
-      </c>
-      <c r="G74" s="25">
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0</v>
+      </c>
+      <c r="G74" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="4">
         <v>2.5</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="4">
         <v>0</v>
       </c>
       <c r="J74" s="2">
         <v>0.11136799999999999</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="4">
         <v>2.5</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="3">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="IG74" s="8"/>
-      <c r="IH74" s="8"/>
-      <c r="II74" s="8"/>
+      <c r="IG74" s="7"/>
+      <c r="IH74" s="7"/>
+      <c r="II74" s="7"/>
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="28">
+      <c r="A75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="25">
         <v>21</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="19">
-        <v>0</v>
-      </c>
-      <c r="G75" s="25">
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0</v>
+      </c>
+      <c r="G75" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="4">
         <v>2.5</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="4">
         <v>0</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="4">
         <v>2.5</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="3">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="IG75" s="8"/>
-      <c r="IH75" s="8"/>
-      <c r="II75" s="8"/>
+      <c r="IG75" s="7"/>
+      <c r="IH75" s="7"/>
+      <c r="II75" s="7"/>
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
-      <c r="A76" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="28">
+      <c r="A76" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="25">
         <v>24</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="5">
-        <v>30</v>
-      </c>
-      <c r="F76" s="19">
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="4">
+        <v>30</v>
+      </c>
+      <c r="F76" s="17">
         <v>76.835999999999999</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="23">
         <f t="shared" si="4"/>
         <v>14.72734693877551</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="4">
         <v>4.5</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="4">
         <v>10</v>
       </c>
       <c r="J76" s="2">
         <v>0.23594999999999999</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="4">
         <v>3.5</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="3">
         <f t="shared" si="3"/>
         <v>86.727346938775511</v>
       </c>
-      <c r="IG76" s="8"/>
-      <c r="IH76" s="8"/>
-      <c r="II76" s="8"/>
+      <c r="IG76" s="7"/>
+      <c r="IH76" s="7"/>
+      <c r="II76" s="7"/>
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
-      <c r="A77" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="28">
-        <v>30</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="19">
-        <v>0</v>
-      </c>
-      <c r="G77" s="25">
+      <c r="A77" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="25">
+        <v>30</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="17">
+        <v>0</v>
+      </c>
+      <c r="G77" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>2.5</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="4">
         <v>0</v>
       </c>
       <c r="J77" s="2">
         <v>0</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="4">
         <v>2.5</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="3">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="IG77" s="8"/>
-      <c r="IH77" s="8"/>
-      <c r="II77" s="8"/>
+      <c r="IG77" s="7"/>
+      <c r="IH77" s="7"/>
+      <c r="II77" s="7"/>
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
-      <c r="A78" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="28">
+      <c r="A78" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="25">
         <v>24</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="19">
-        <v>0</v>
-      </c>
-      <c r="G78" s="25">
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0</v>
+      </c>
+      <c r="G78" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>2.5</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="4">
         <v>0</v>
       </c>
       <c r="J78" s="2">
         <v>1.6031E-2</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="4">
         <v>2.5</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="3">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="IG78" s="8"/>
-      <c r="IH78" s="8"/>
-      <c r="II78" s="8"/>
+      <c r="IG78" s="7"/>
+      <c r="IH78" s="7"/>
+      <c r="II78" s="7"/>
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="28">
+      <c r="A79" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="25">
         <v>21</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="5">
-        <v>30</v>
-      </c>
-      <c r="F79" s="19">
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="4">
+        <v>30</v>
+      </c>
+      <c r="F79" s="17">
         <v>76.659000000000006</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="23">
         <f t="shared" si="4"/>
         <v>14.763469387755102</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <v>3.5</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="4">
         <v>10</v>
       </c>
       <c r="J79" s="2">
         <v>0.36402000000000001</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="4">
         <v>3.5</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="3">
         <f t="shared" si="3"/>
         <v>82.763469387755094</v>
       </c>
-      <c r="IG79" s="8"/>
-      <c r="IH79" s="8"/>
-      <c r="II79" s="8"/>
+      <c r="IG79" s="7"/>
+      <c r="IH79" s="7"/>
+      <c r="II79" s="7"/>
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
-      <c r="A80" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="28">
+      <c r="A80" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="25">
         <v>24</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="5">
-        <v>30</v>
-      </c>
-      <c r="F80" s="19">
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="4">
+        <v>30</v>
+      </c>
+      <c r="F80" s="17">
         <v>75.662000000000006</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="23">
         <f t="shared" si="4"/>
         <v>14.966938775510204</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <v>4.5</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="4">
         <v>10</v>
       </c>
       <c r="J80" s="2">
         <v>0.18420700000000001</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="4">
         <v>4.5</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="3">
         <f t="shared" si="3"/>
         <v>87.966938775510201</v>
       </c>
-      <c r="IG80" s="8"/>
-      <c r="IH80" s="8"/>
-      <c r="II80" s="8"/>
+      <c r="IG80" s="7"/>
+      <c r="IH80" s="7"/>
+      <c r="II80" s="7"/>
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="28">
-        <v>30</v>
-      </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="5">
-        <v>30</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="A81" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="25">
+        <v>30</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="4">
+        <v>30</v>
+      </c>
+      <c r="F81" s="17">
         <v>18.93</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="23">
         <f t="shared" si="4"/>
         <v>26.544897959183672</v>
       </c>
-      <c r="H81" s="5">
-        <v>5</v>
-      </c>
-      <c r="I81" s="5">
+      <c r="H81" s="4">
+        <v>5</v>
+      </c>
+      <c r="I81" s="4">
         <v>10</v>
       </c>
       <c r="J81" s="2">
         <v>0.29575899999999999</v>
       </c>
-      <c r="K81" s="5">
-        <v>5</v>
-      </c>
-      <c r="L81" s="4">
+      <c r="K81" s="4">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="IG81" s="8"/>
-      <c r="IH81" s="8"/>
-      <c r="II81" s="8"/>
+      <c r="IG81" s="7"/>
+      <c r="IH81" s="7"/>
+      <c r="II81" s="7"/>
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="28">
+      <c r="A82" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="25">
         <v>24</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="5">
-        <v>30</v>
-      </c>
-      <c r="F82" s="19">
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="4">
+        <v>30</v>
+      </c>
+      <c r="F82" s="17">
         <v>19.364000000000001</v>
       </c>
-      <c r="G82" s="25">
+      <c r="G82" s="23">
         <f t="shared" si="4"/>
         <v>26.456326530612245</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>4.5</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="4">
         <v>10</v>
       </c>
       <c r="J82" s="2">
         <v>2.3715E-2</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>4.5</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="3">
         <f t="shared" si="3"/>
         <v>99.456326530612245</v>
       </c>
-      <c r="IG82" s="8"/>
-      <c r="IH82" s="8"/>
-      <c r="II82" s="8"/>
+      <c r="IG82" s="7"/>
+      <c r="IH82" s="7"/>
+      <c r="II82" s="7"/>
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
-      <c r="A83" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="28">
+      <c r="A83" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="25">
         <v>27</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="19">
-        <v>0</v>
-      </c>
-      <c r="G83" s="25">
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0</v>
+      </c>
+      <c r="G83" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="4">
         <v>2.5</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="4">
         <v>0</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="4">
         <v>2.5</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="IG83" s="8"/>
-      <c r="IH83" s="8"/>
-      <c r="II83" s="8"/>
+      <c r="IG83" s="7"/>
+      <c r="IH83" s="7"/>
+      <c r="II83" s="7"/>
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
-      <c r="A84" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="28">
+      <c r="A84" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="25">
         <v>21</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="19">
-        <v>0</v>
-      </c>
-      <c r="G84" s="25">
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
+      <c r="G84" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>2.5</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="4">
         <v>0</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="4">
         <v>2.5</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L84" s="3">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="IG84" s="8"/>
-      <c r="IH84" s="8"/>
-      <c r="II84" s="8"/>
+      <c r="IG84" s="7"/>
+      <c r="IH84" s="7"/>
+      <c r="II84" s="7"/>
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
-      <c r="A85" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" s="28">
+      <c r="A85" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="25">
         <v>27</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="19">
-        <v>0</v>
-      </c>
-      <c r="G85" s="25">
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0</v>
+      </c>
+      <c r="G85" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>2.5</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="4">
         <v>0</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="4">
         <v>2.5</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L85" s="3">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="IG85" s="8"/>
-      <c r="IH85" s="8"/>
-      <c r="II85" s="8"/>
+      <c r="IG85" s="7"/>
+      <c r="IH85" s="7"/>
+      <c r="II85" s="7"/>
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
-      <c r="A86" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="28">
-        <v>30</v>
-      </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="5">
-        <v>30</v>
-      </c>
-      <c r="F86" s="19">
+      <c r="A86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="25">
+        <v>30</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="4">
+        <v>30</v>
+      </c>
+      <c r="F86" s="17">
         <v>80.263999999999996</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="23">
         <f t="shared" si="4"/>
         <v>14.027755102040818</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>4</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="4">
         <v>10</v>
       </c>
       <c r="J86" s="2">
         <v>0.616757</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="4">
         <v>4.5</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="3">
         <f t="shared" si="3"/>
         <v>92.527755102040814</v>
       </c>
-      <c r="IG86" s="8"/>
-      <c r="IH86" s="8"/>
-      <c r="II86" s="8"/>
+      <c r="IG86" s="7"/>
+      <c r="IH86" s="7"/>
+      <c r="II86" s="7"/>
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
-      <c r="A87" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="28">
+      <c r="A87" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="25">
         <v>21</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="19">
-        <v>0</v>
-      </c>
-      <c r="G87" s="25">
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0</v>
+      </c>
+      <c r="G87" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>2.5</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="4">
         <v>10</v>
       </c>
       <c r="J87" s="2">
         <v>2.2478000000000001E-2</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="4">
         <v>4</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="3">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="IG87" s="8"/>
-      <c r="IH87" s="8"/>
-      <c r="II87" s="8"/>
+      <c r="IG87" s="7"/>
+      <c r="IH87" s="7"/>
+      <c r="II87" s="7"/>
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
-      <c r="A88" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="28">
-        <v>0</v>
-      </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
-      <c r="F88" s="19">
-        <v>0</v>
-      </c>
-      <c r="G88" s="25">
+      <c r="A88" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="25">
+        <v>0</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0</v>
+      </c>
+      <c r="G88" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>2.5</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="4">
         <v>0</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="4">
         <v>2.5</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="IG88" s="8"/>
-      <c r="IH88" s="8"/>
-      <c r="II88" s="8"/>
+      <c r="IG88" s="7"/>
+      <c r="IH88" s="7"/>
+      <c r="II88" s="7"/>
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
-      <c r="A89" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="28">
+      <c r="A89" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="25">
         <v>27</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="5">
-        <v>30</v>
-      </c>
-      <c r="F89" s="19">
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="4">
+        <v>30</v>
+      </c>
+      <c r="F89" s="17">
         <v>20.995999999999999</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="23">
         <f t="shared" si="4"/>
         <v>26.123265306122448</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>4.5</v>
       </c>
-      <c r="I89" s="5">
+      <c r="I89" s="4">
         <v>10</v>
       </c>
       <c r="J89" s="2">
         <v>1.7333999999999999E-2</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="4">
         <v>4.5</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="IG89" s="8"/>
-      <c r="IH89" s="8"/>
-      <c r="II89" s="8"/>
+      <c r="IG89" s="7"/>
+      <c r="IH89" s="7"/>
+      <c r="II89" s="7"/>
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
-      <c r="A90" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="28">
+      <c r="A90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="25">
         <v>21</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="5">
-        <v>30</v>
-      </c>
-      <c r="F90" s="19">
+      <c r="C90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="4">
+        <v>30</v>
+      </c>
+      <c r="F90" s="17">
         <v>156</v>
       </c>
-      <c r="G90" s="25">
+      <c r="G90" s="23">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>4.5</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="4">
         <v>10</v>
       </c>
       <c r="J90" s="2">
         <v>2.4060000000000002E-2</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="4">
         <v>4.5</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="IG90" s="8"/>
-      <c r="IH90" s="8"/>
-      <c r="II90" s="8"/>
+      <c r="IG90" s="7"/>
+      <c r="IH90" s="7"/>
+      <c r="II90" s="7"/>
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
-      <c r="A91" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="28">
+      <c r="A91" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="25">
         <v>24</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="5">
-        <v>30</v>
-      </c>
-      <c r="F91" s="19">
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="4">
+        <v>30</v>
+      </c>
+      <c r="F91" s="17">
         <v>78.983999999999995</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="23">
         <f t="shared" si="4"/>
         <v>14.288979591836737</v>
       </c>
-      <c r="H91" s="5">
-        <v>5</v>
-      </c>
-      <c r="I91" s="5">
+      <c r="H91" s="4">
+        <v>5</v>
+      </c>
+      <c r="I91" s="4">
         <v>10</v>
       </c>
       <c r="J91" s="2">
         <v>0.197292</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="4">
         <v>4</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="3">
         <f t="shared" si="3"/>
         <v>87.288979591836735</v>
       </c>
-      <c r="IG91" s="8"/>
-      <c r="IH91" s="8"/>
-      <c r="II91" s="8"/>
+      <c r="IG91" s="7"/>
+      <c r="IH91" s="7"/>
+      <c r="II91" s="7"/>
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
-      <c r="A92" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="28">
-        <v>30</v>
-      </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="5">
-        <v>30</v>
-      </c>
-      <c r="F92" s="19">
+      <c r="A92" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="25">
+        <v>30</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="4">
+        <v>30</v>
+      </c>
+      <c r="F92" s="17">
         <v>158.24</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="23">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H92" s="5">
-        <v>5</v>
-      </c>
-      <c r="I92" s="5">
+      <c r="H92" s="4">
+        <v>5</v>
+      </c>
+      <c r="I92" s="4">
         <v>10</v>
       </c>
       <c r="J92" s="2">
         <v>2.8327999999999999E-2</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="4">
         <v>4.5</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="3">
         <f t="shared" si="3"/>
         <v>89.5</v>
       </c>
-      <c r="IG92" s="8"/>
-      <c r="IH92" s="8"/>
-      <c r="II92" s="8"/>
+      <c r="IG92" s="7"/>
+      <c r="IH92" s="7"/>
+      <c r="II92" s="7"/>
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
-      <c r="A93" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="28">
-        <v>30</v>
-      </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="5">
-        <v>30</v>
-      </c>
-      <c r="F93" s="19">
+      <c r="A93" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="25">
+        <v>30</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="4">
+        <v>30</v>
+      </c>
+      <c r="F93" s="17">
         <v>80.319000000000003</v>
       </c>
-      <c r="G93" s="25">
+      <c r="G93" s="23">
         <f t="shared" si="4"/>
         <v>14.016530612244898</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <v>4.5</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="4">
         <v>10</v>
       </c>
       <c r="J93" s="2">
         <v>0.44423499999999999</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="4">
         <v>4.5</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="3">
         <f t="shared" si="3"/>
         <v>93.016530612244892</v>
       </c>
-      <c r="IG93" s="8"/>
-      <c r="IH93" s="8"/>
-      <c r="II93" s="8"/>
+      <c r="IG93" s="7"/>
+      <c r="IH93" s="7"/>
+      <c r="II93" s="7"/>
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
-      <c r="A94" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="28">
+      <c r="A94" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="25">
         <v>21</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="5">
-        <v>30</v>
-      </c>
-      <c r="F94" s="19">
-        <v>0</v>
-      </c>
-      <c r="G94" s="25">
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="4">
+        <v>30</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0</v>
+      </c>
+      <c r="G94" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <v>2.5</v>
       </c>
-      <c r="I94" s="5">
+      <c r="I94" s="4">
         <v>10</v>
       </c>
       <c r="J94" s="2">
         <v>0.33158300000000002</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="4">
         <v>4.5</v>
       </c>
-      <c r="L94" s="4">
+      <c r="L94" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
-      <c r="A95" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" s="28">
+      <c r="A95" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="25">
         <v>21</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="5">
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="4">
         <v>17.751479289940828</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="17">
         <v>152.19</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="23">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="4">
         <v>2.5</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I95" s="4">
         <v>10</v>
       </c>
       <c r="J95" s="2">
         <v>8.4103999999999998E-2</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="4">
         <v>3.5</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="3">
         <f t="shared" si="3"/>
         <v>64.751479289940832</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
-      <c r="A96" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="28">
+      <c r="A96" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="25">
         <v>21</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="5">
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="4">
         <v>29.822485207100591</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="17">
         <v>36.862000000000002</v>
       </c>
-      <c r="G96" s="25">
+      <c r="G96" s="23">
         <f t="shared" si="4"/>
         <v>22.885306122448981</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="4">
         <v>2.5</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="4">
         <v>0</v>
       </c>
       <c r="J96" s="2">
         <v>1.9650999999999998E-2</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="4">
         <v>2.5</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="3">
         <f t="shared" si="3"/>
         <v>78.707791329549565</v>
       </c>
     </row>
     <row r="97" spans="1:243" ht="25" customHeight="1">
-      <c r="A97" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="28">
+      <c r="A97" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="25">
         <v>24</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="5">
-        <v>30</v>
-      </c>
-      <c r="F97" s="19">
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="4">
+        <v>30</v>
+      </c>
+      <c r="F97" s="17">
         <v>156.38999999999999</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G97" s="23">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="4">
         <v>4.5</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="4">
         <v>10</v>
       </c>
       <c r="J97" s="2">
         <v>9.5962000000000006E-2</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="4">
         <v>4.5</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="3">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:243" ht="25" customHeight="1">
-      <c r="A98" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="28">
+      <c r="A98" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="25">
         <v>27</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="5">
-        <v>30</v>
-      </c>
-      <c r="F98" s="19">
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="4">
+        <v>30</v>
+      </c>
+      <c r="F98" s="17">
         <v>83.876000000000005</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="23">
         <f t="shared" si="4"/>
         <v>13.290612244897959</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="4">
         <v>4.5</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="4">
         <v>0</v>
       </c>
       <c r="J98" s="2">
         <v>0.11998499999999999</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98" s="4">
         <v>2.5</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="3">
         <f t="shared" ref="L98:L107" si="5">IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
         <v>77.290612244897957</v>
       </c>
     </row>
     <row r="99" spans="1:243" ht="25" customHeight="1">
-      <c r="A99" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="28">
+      <c r="A99" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="25">
         <v>24</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="19">
-        <v>0</v>
-      </c>
-      <c r="G99" s="25">
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0</v>
+      </c>
+      <c r="G99" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="4">
         <v>2.5</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="4">
         <v>0</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99" s="4">
         <v>2.5</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="3">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:243" ht="25" customHeight="1">
-      <c r="A100" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="28">
+      <c r="A100" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="25">
         <v>27</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="5">
-        <v>30</v>
-      </c>
-      <c r="F100" s="19">
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="4">
+        <v>30</v>
+      </c>
+      <c r="F100" s="17">
         <v>153.26</v>
       </c>
-      <c r="G100" s="25">
+      <c r="G100" s="23">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="4">
         <v>4.5</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="4">
         <v>10</v>
       </c>
       <c r="J100" s="2">
         <v>1.952367</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100" s="4">
         <v>4.5</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L100" s="3">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:243" ht="25" customHeight="1">
-      <c r="A101" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="28">
-        <v>30</v>
-      </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="5">
-        <v>30</v>
-      </c>
-      <c r="F101" s="19">
+      <c r="A101" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="25">
+        <v>30</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="4">
+        <v>30</v>
+      </c>
+      <c r="F101" s="17">
         <v>74.911000000000001</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="23">
         <f t="shared" si="4"/>
         <v>15.120204081632654</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="4">
         <v>4.5</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="4">
         <v>10</v>
       </c>
       <c r="J101" s="2">
         <v>0.29591299999999998</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101" s="4">
         <v>4.5</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="3">
         <f t="shared" si="5"/>
         <v>94.12020408163265</v>
       </c>
     </row>
     <row r="102" spans="1:243" ht="25" customHeight="1">
-      <c r="A102" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B102" s="28">
+      <c r="A102" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="25">
         <v>21</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="5">
-        <v>30</v>
-      </c>
-      <c r="F102" s="19">
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="4">
+        <v>30</v>
+      </c>
+      <c r="F102" s="17">
         <v>11.08</v>
       </c>
-      <c r="G102" s="25">
+      <c r="G102" s="23">
         <f t="shared" si="4"/>
         <v>28.146938775510204</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="4">
         <v>4.5</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="4">
         <v>10</v>
       </c>
       <c r="J102" s="2">
         <v>1.5566E-2</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="4">
         <v>4</v>
       </c>
-      <c r="L102" s="4">
+      <c r="L102" s="3">
         <f t="shared" si="5"/>
         <v>97.646938775510208</v>
       </c>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
-      <c r="A103" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="28">
+      <c r="A103" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="25">
         <v>24</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
-      <c r="F103" s="19">
-        <v>0</v>
-      </c>
-      <c r="G103" s="25">
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="17">
+        <v>0</v>
+      </c>
+      <c r="G103" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="4">
         <v>4</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="4">
         <v>10</v>
       </c>
       <c r="J103" s="2">
         <v>7.6779999999999999E-3</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103" s="4">
         <v>2.5</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="3">
         <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
     </row>
     <row r="104" spans="1:243" ht="25" customHeight="1">
-      <c r="A104" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="28">
+      <c r="A104" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="25">
         <v>15</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="19">
-        <v>0</v>
-      </c>
-      <c r="G104" s="25">
+      <c r="C104" s="26"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="17">
+        <v>0</v>
+      </c>
+      <c r="G104" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="4">
         <v>3.5</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="4">
         <v>0</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
       </c>
-      <c r="K104" s="5">
-        <v>0</v>
-      </c>
-      <c r="L104" s="4">
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3">
         <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
     </row>
     <row r="105" spans="1:243" ht="25" customHeight="1">
-      <c r="A105" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="28">
+      <c r="A105" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="25">
         <v>21</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="5">
-        <v>30</v>
-      </c>
-      <c r="F105" s="19">
-        <v>0</v>
-      </c>
-      <c r="G105" s="25">
+      <c r="C105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="4">
+        <v>30</v>
+      </c>
+      <c r="F105" s="17">
+        <v>0</v>
+      </c>
+      <c r="G105" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H105" s="5">
-        <v>5</v>
-      </c>
-      <c r="I105" s="5">
+      <c r="H105" s="4">
+        <v>5</v>
+      </c>
+      <c r="I105" s="4">
         <v>10</v>
       </c>
       <c r="J105" s="2">
         <v>7.175E-3</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="4">
         <v>2.5</v>
       </c>
-      <c r="L105" s="4">
+      <c r="L105" s="3">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
-      <c r="A106" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="28">
+      <c r="A106" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="25">
         <v>21</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="5">
-        <v>30</v>
-      </c>
-      <c r="F106" s="19">
+      <c r="C106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="4">
+        <v>30</v>
+      </c>
+      <c r="F106" s="17">
         <v>15.122</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G106" s="23">
         <f t="shared" si="4"/>
         <v>27.322040816326528</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <v>4.5</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="4">
         <v>9.1715976331360949</v>
       </c>
       <c r="J106" s="2">
         <v>6.9841E-2</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106" s="4">
         <v>2.2928994082840237</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L106" s="3">
         <f t="shared" si="5"/>
         <v>94.286537857746652</v>
       </c>
     </row>
     <row r="107" spans="1:243" ht="25" customHeight="1">
-      <c r="A107" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="28">
+      <c r="A107" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="25">
         <v>27</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="5">
+      <c r="C107" s="26"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="17">
         <v>11.878</v>
       </c>
-      <c r="G107" s="25">
+      <c r="G107" s="23">
         <f t="shared" si="4"/>
         <v>27.984081632653062</v>
       </c>
-      <c r="H107" s="5">
-        <v>5</v>
-      </c>
-      <c r="I107" s="5">
+      <c r="H107" s="4">
+        <v>5</v>
+      </c>
+      <c r="I107" s="4">
         <v>10</v>
       </c>
       <c r="J107" s="2">
         <v>2.3165999999999999E-2</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107" s="4">
         <v>2.5</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L107" s="3">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:243" ht="25" customHeight="1">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="20">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="18">
         <f>SUM(J3:J107)/COUNTIF(J3:J107,"&lt;&gt;0")</f>
         <v>0.16384674985279757</v>
       </c>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:243" ht="42">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:243" ht="21">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F111" s="15">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" s="13">
         <f>COUNTIF(F3:F107, "&gt;0")</f>
         <v>69</v>
       </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="5" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="3">
+        <v>160.13</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="IE112" s="7"/>
+      <c r="IF112" s="7"/>
+      <c r="IG112" s="7"/>
+      <c r="IH112" s="7"/>
+      <c r="II112" s="7"/>
+    </row>
+    <row r="113" spans="2:243" ht="25" customHeight="1">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="IE113" s="7"/>
+      <c r="IF113" s="7"/>
+      <c r="IG113" s="7"/>
+      <c r="IH113" s="7"/>
+      <c r="II113" s="7"/>
+    </row>
+    <row r="114" spans="2:243" ht="25" customHeight="1">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="3">
+        <v>30</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="IE114" s="7"/>
+      <c r="IF114" s="7"/>
+      <c r="IG114" s="7"/>
+      <c r="IH114" s="7"/>
+      <c r="II114" s="7"/>
+    </row>
+    <row r="115" spans="2:243" ht="25" customHeight="1">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="3">
+        <v>10</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="IE115" s="7"/>
+      <c r="IF115" s="7"/>
+      <c r="IG115" s="7"/>
+      <c r="IH115" s="7"/>
+      <c r="II115" s="7"/>
+    </row>
+    <row r="116" spans="2:243" ht="25" customHeight="1">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F112" s="4">
-        <v>160.13</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="IE112" s="8"/>
-      <c r="IF112" s="8"/>
-      <c r="IG112" s="8"/>
-      <c r="IH112" s="8"/>
-      <c r="II112" s="8"/>
-    </row>
-    <row r="113" spans="2:243" ht="25" customHeight="1">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="IE113" s="8"/>
-      <c r="IF113" s="8"/>
-      <c r="IG113" s="8"/>
-      <c r="IH113" s="8"/>
-      <c r="II113" s="8"/>
-    </row>
-    <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F114" s="4">
-        <v>30</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="IE114" s="8"/>
-      <c r="IF114" s="8"/>
-      <c r="IG114" s="8"/>
-      <c r="IH114" s="8"/>
-      <c r="II114" s="8"/>
-    </row>
-    <row r="115" spans="2:243" ht="25" customHeight="1">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F115" s="4">
-        <v>10</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="IE115" s="8"/>
-      <c r="IF115" s="8"/>
-      <c r="IG115" s="8"/>
-      <c r="IH115" s="8"/>
-      <c r="II115" s="8"/>
-    </row>
-    <row r="116" spans="2:243" ht="25" customHeight="1">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="IE116" s="8"/>
-      <c r="IF116" s="8"/>
-      <c r="IG116" s="8"/>
-      <c r="IH116" s="8"/>
-      <c r="II116" s="8"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="IE116" s="7"/>
+      <c r="IF116" s="7"/>
+      <c r="IG116" s="7"/>
+      <c r="IH116" s="7"/>
+      <c r="II116" s="7"/>
     </row>
     <row r="117" spans="2:243" ht="25" customHeight="1">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="IE117" s="8"/>
-      <c r="IF117" s="8"/>
-      <c r="IG117" s="8"/>
-      <c r="IH117" s="8"/>
-      <c r="II117" s="8"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="IE117" s="7"/>
+      <c r="IF117" s="7"/>
+      <c r="IG117" s="7"/>
+      <c r="IH117" s="7"/>
+      <c r="II117" s="7"/>
     </row>
     <row r="118" spans="2:243" ht="25" customHeight="1">
-      <c r="E118" s="5"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="5"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="7"/>
-      <c r="IE118" s="8"/>
-      <c r="IF118" s="8"/>
-      <c r="IG118" s="8"/>
-      <c r="IH118" s="8"/>
-      <c r="II118" s="8"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="4"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="6"/>
+      <c r="IE118" s="7"/>
+      <c r="IF118" s="7"/>
+      <c r="IG118" s="7"/>
+      <c r="IH118" s="7"/>
+      <c r="II118" s="7"/>
     </row>
     <row r="119" spans="2:243" ht="25" customHeight="1">
-      <c r="K119" s="11"/>
-      <c r="L119" s="7"/>
-      <c r="IE119" s="8"/>
-      <c r="IF119" s="8"/>
-      <c r="IG119" s="8"/>
-      <c r="IH119" s="8"/>
-      <c r="II119" s="8"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="6"/>
+      <c r="IE119" s="7"/>
+      <c r="IF119" s="7"/>
+      <c r="IG119" s="7"/>
+      <c r="IH119" s="7"/>
+      <c r="II119" s="7"/>
     </row>
     <row r="120" spans="2:243" ht="25" customHeight="1">
-      <c r="K120" s="11"/>
-      <c r="L120" s="7"/>
-      <c r="IE120" s="8"/>
-      <c r="IF120" s="8"/>
-      <c r="IG120" s="8"/>
-      <c r="IH120" s="8"/>
-      <c r="II120" s="8"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="6"/>
+      <c r="IE120" s="7"/>
+      <c r="IF120" s="7"/>
+      <c r="IG120" s="7"/>
+      <c r="IH120" s="7"/>
+      <c r="II120" s="7"/>
     </row>
     <row r="121" spans="2:243" ht="25" customHeight="1">
-      <c r="K121" s="11"/>
-      <c r="L121" s="7"/>
-      <c r="IE121" s="8"/>
-      <c r="IF121" s="8"/>
-      <c r="IG121" s="8"/>
-      <c r="IH121" s="8"/>
-      <c r="II121" s="8"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="6"/>
+      <c r="IE121" s="7"/>
+      <c r="IF121" s="7"/>
+      <c r="IG121" s="7"/>
+      <c r="IH121" s="7"/>
+      <c r="II121" s="7"/>
     </row>
     <row r="122" spans="2:243" ht="25" customHeight="1">
-      <c r="K122" s="11"/>
-      <c r="L122" s="7"/>
-      <c r="IE122" s="8"/>
-      <c r="IF122" s="8"/>
-      <c r="IG122" s="8"/>
-      <c r="IH122" s="8"/>
-      <c r="II122" s="8"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="6"/>
+      <c r="IE122" s="7"/>
+      <c r="IF122" s="7"/>
+      <c r="IG122" s="7"/>
+      <c r="IH122" s="7"/>
+      <c r="II122" s="7"/>
     </row>
     <row r="123" spans="2:243" ht="25" customHeight="1">
-      <c r="K123" s="11"/>
-      <c r="L123" s="7"/>
-      <c r="IE123" s="8"/>
-      <c r="IF123" s="8"/>
-      <c r="IG123" s="8"/>
-      <c r="IH123" s="8"/>
-      <c r="II123" s="8"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="6"/>
+      <c r="IE123" s="7"/>
+      <c r="IF123" s="7"/>
+      <c r="IG123" s="7"/>
+      <c r="IH123" s="7"/>
+      <c r="II123" s="7"/>
     </row>
     <row r="124" spans="2:243" ht="25" customHeight="1">
-      <c r="K124" s="11"/>
-      <c r="L124" s="7"/>
-      <c r="IE124" s="8"/>
-      <c r="IF124" s="8"/>
-      <c r="IG124" s="8"/>
-      <c r="IH124" s="8"/>
-      <c r="II124" s="8"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="6"/>
+      <c r="IE124" s="7"/>
+      <c r="IF124" s="7"/>
+      <c r="IG124" s="7"/>
+      <c r="IH124" s="7"/>
+      <c r="II124" s="7"/>
     </row>
     <row r="125" spans="2:243" ht="25" customHeight="1">
-      <c r="K125" s="11"/>
-      <c r="L125" s="7"/>
-      <c r="IE125" s="8"/>
-      <c r="IF125" s="8"/>
-      <c r="IG125" s="8"/>
-      <c r="IH125" s="8"/>
-      <c r="II125" s="8"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="6"/>
+      <c r="IE125" s="7"/>
+      <c r="IF125" s="7"/>
+      <c r="IG125" s="7"/>
+      <c r="IH125" s="7"/>
+      <c r="II125" s="7"/>
     </row>
     <row r="126" spans="2:243" ht="25" customHeight="1">
-      <c r="K126" s="11"/>
-      <c r="L126" s="7"/>
-      <c r="IE126" s="8"/>
-      <c r="IF126" s="8"/>
-      <c r="IG126" s="8"/>
-      <c r="IH126" s="8"/>
-      <c r="II126" s="8"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="6"/>
+      <c r="IE126" s="7"/>
+      <c r="IF126" s="7"/>
+      <c r="IG126" s="7"/>
+      <c r="IH126" s="7"/>
+      <c r="II126" s="7"/>
     </row>
     <row r="127" spans="2:243" ht="25" customHeight="1">
-      <c r="K127" s="11"/>
-      <c r="L127" s="7"/>
-      <c r="IE127" s="8"/>
-      <c r="IF127" s="8"/>
-      <c r="IG127" s="8"/>
-      <c r="IH127" s="8"/>
-      <c r="II127" s="8"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="6"/>
+      <c r="IE127" s="7"/>
+      <c r="IF127" s="7"/>
+      <c r="IG127" s="7"/>
+      <c r="IH127" s="7"/>
+      <c r="II127" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
@@ -7931,45 +7942,6 @@
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56134B9-FF58-B144-AA2E-39EABF6D8192}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310061D8-B7D7-8B4F-BAB8-B3A68F4D12EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$127</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$107</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>09f300dec4b3499a260b65070ede68e4</t>
+  </si>
+  <si>
+    <t>4bf198d1c10727d0fbf73a0c7b208334</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -769,13 +772,13 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,10 +787,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3401,8 +3407,8 @@
   </sheetPr>
   <dimension ref="A1:II127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3546,7 +3552,7 @@
         <v>136.96</v>
       </c>
       <c r="G4" s="23">
-        <f t="shared" ref="G4:G66" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G4:G67" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="4">
@@ -4762,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" ref="L34:L65" si="2">IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
+        <f t="shared" ref="L34:L55" si="2">IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
         <v>95</v>
       </c>
     </row>
@@ -5373,7 +5379,7 @@
       <c r="B50" s="21">
         <v>10</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="26">
         <v>10</v>
       </c>
       <c r="D50" s="1">
@@ -5416,7 +5422,7 @@
       <c r="B51" s="21">
         <v>8</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="27">
         <v>8</v>
       </c>
       <c r="D51" s="1">
@@ -5459,7 +5465,7 @@
       <c r="B52" s="21">
         <v>5</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="26">
         <v>5</v>
       </c>
       <c r="D52" s="1">
@@ -5502,7 +5508,7 @@
       <c r="B53" s="21">
         <v>10</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="26">
         <v>10</v>
       </c>
       <c r="D53" s="1">
@@ -5545,7 +5551,7 @@
       <c r="B54" s="21">
         <v>8</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="26">
         <v>0</v>
       </c>
       <c r="D54" s="1">
@@ -5582,43 +5588,43 @@
       <c r="II54" s="7"/>
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="21">
+      <c r="A55" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="25">
+        <v>9</v>
+      </c>
+      <c r="C55" s="25">
+        <v>9</v>
+      </c>
+      <c r="D55" s="25">
         <v>8</v>
       </c>
-      <c r="C55" s="21">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-      <c r="E55" s="4">
-        <v>30</v>
-      </c>
-      <c r="F55" s="21">
-        <v>79.941000000000003</v>
+      <c r="E55" s="25">
+        <v>30</v>
+      </c>
+      <c r="F55" s="25">
+        <v>0.92820000000000003</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
-      </c>
-      <c r="H55" s="4">
-        <v>5</v>
-      </c>
-      <c r="I55" s="4">
-        <v>10</v>
-      </c>
-      <c r="J55" s="2">
-        <v>4.24E-2</v>
-      </c>
-      <c r="K55" s="4">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="H55" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="I55" s="25">
+        <v>10</v>
+      </c>
+      <c r="J55" s="25">
+        <v>0</v>
+      </c>
+      <c r="K55" s="25">
+        <v>4.5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="2"/>
-        <v>82.093673469387753</v>
+        <v>100</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
@@ -5626,12 +5632,12 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="21">
         <v>8</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="21">
         <v>5</v>
       </c>
       <c r="D56" s="1">
@@ -5640,12 +5646,12 @@
       <c r="E56" s="4">
         <v>30</v>
       </c>
-      <c r="F56" s="3">
-        <v>0</v>
+      <c r="F56" s="21">
+        <v>79.941000000000003</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.093673469387756</v>
       </c>
       <c r="H56" s="4">
         <v>5</v>
@@ -5660,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B57:E57,G57,H57:I57,K56)&lt;100, SUM(B57:E57,G57,H57:I57,K56),  100)</f>
         <v>68</v>
       </c>
       <c r="IG56" s="7"/>
@@ -5669,25 +5675,29 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="25">
-        <v>27</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="B57" s="21">
+        <v>8</v>
+      </c>
+      <c r="C57" s="26">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
       <c r="E57" s="4">
         <v>30</v>
       </c>
-      <c r="F57" s="17">
-        <v>83.125</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
+        <v>0</v>
       </c>
       <c r="H57" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I57" s="4">
         <v>10</v>
@@ -5699,7 +5709,7 @@
         <v>4.5</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B58:E58,G58,H58:I58,K57)&lt;100, SUM(B58:E58,G58,H58:I58,K57),  100)</f>
         <v>89.443877551020407</v>
       </c>
       <c r="IG57" s="7"/>
@@ -5708,25 +5718,25 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="25">
-        <v>30</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="B58" s="30">
+        <v>27</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="4">
         <v>30</v>
       </c>
       <c r="F58" s="17">
-        <v>86.150999999999996</v>
+        <v>83.125</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H58" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I58" s="4">
         <v>10</v>
@@ -5738,7 +5748,7 @@
         <v>4.5</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B59:E59,G59,H59:I59,K58)&lt;100, SUM(B59:E59,G59,H59:I59,K58),  100)</f>
         <v>92.326326530612249</v>
       </c>
       <c r="IG58" s="7"/>
@@ -5747,28 +5757,28 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="25">
-        <v>30</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="B59" s="30">
+        <v>30</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="4">
         <v>30</v>
       </c>
       <c r="F59" s="17">
-        <v>11.093</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H59" s="4">
         <v>5</v>
       </c>
       <c r="I59" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
         <v>0.79987600000000003</v>
@@ -5777,7 +5787,7 @@
         <v>2.5</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B60:E60,G60,H60:I60,K59)&lt;100, SUM(B60:E60,G60,H60:I60,K59),  100)</f>
         <v>95.644285714285715</v>
       </c>
       <c r="IG59" s="7"/>
@@ -5786,22 +5796,22 @@
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="25">
-        <v>24</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="B60" s="30">
+        <v>30</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
       <c r="F60" s="17">
-        <v>157.71</v>
+        <v>11.093</v>
       </c>
       <c r="G60" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H60" s="4">
         <v>5</v>
@@ -5816,7 +5826,7 @@
         <v>2.5</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B61:E61,G61,H61:I61,K60)&lt;100, SUM(B61:E61,G61,H61:I61,K60),  100)</f>
         <v>71.5</v>
       </c>
       <c r="IG60" s="7"/>
@@ -5825,25 +5835,25 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="25">
+        <v>74</v>
+      </c>
+      <c r="B61" s="30">
         <v>24</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F61" s="17">
-        <v>0</v>
+        <v>157.71</v>
       </c>
       <c r="G61" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H61" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I61" s="4">
         <v>0</v>
@@ -5855,7 +5865,7 @@
         <v>2.5</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B62:E62,G62,H62:I62,K61)&lt;100, SUM(B62:E62,G62,H62:I62,K61),  100)</f>
         <v>29</v>
       </c>
       <c r="IG61" s="7"/>
@@ -5864,13 +5874,13 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="25">
+        <v>75</v>
+      </c>
+      <c r="B62" s="30">
         <v>24</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="4">
         <v>0</v>
       </c>
@@ -5894,7 +5904,7 @@
         <v>2.5</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B63:E63,G63,H63:I63,K62)&lt;100, SUM(B63:E63,G63,H63:I63,K62),  100)</f>
         <v>29</v>
       </c>
       <c r="IG62" s="7"/>
@@ -5903,13 +5913,13 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="25">
-        <v>21</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="B63" s="30">
+        <v>24</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -5933,7 +5943,7 @@
         <v>2.5</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B64:E64,G64,H64:I64,K63)&lt;100, SUM(B64:E64,G64,H64:I64,K63),  100)</f>
         <v>26</v>
       </c>
       <c r="IG63" s="7"/>
@@ -5942,25 +5952,25 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="25">
-        <v>24</v>
-      </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="B64" s="30">
+        <v>21</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F64" s="17">
-        <v>82.278999999999996</v>
+        <v>0</v>
       </c>
       <c r="G64" s="23">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>0</v>
       </c>
       <c r="H64" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I64" s="4">
         <v>0</v>
@@ -5972,7 +5982,7 @@
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B65:E65,G65,H65:I65,K64)&lt;100, SUM(B65:E65,G65,H65:I65,K64),  100)</f>
         <v>74.616530612244901</v>
       </c>
       <c r="IG64" s="7"/>
@@ -5981,25 +5991,25 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="25">
-        <v>27</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="B65" s="30">
+        <v>24</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="4">
         <v>30</v>
       </c>
       <c r="F65" s="17">
-        <v>85.936999999999998</v>
+        <v>82.278999999999996</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>13.616530612244899</v>
       </c>
       <c r="H65" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
@@ -6011,7 +6021,7 @@
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B66:E66,G66,H66:I66,K65)&lt;100, SUM(B66:E66,G66,H66:I66,K65),  100)</f>
         <v>76.37</v>
       </c>
       <c r="IG65" s="7"/>
@@ -6020,25 +6030,25 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="25">
-        <v>24</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
+        <v>79</v>
+      </c>
+      <c r="B66" s="30">
+        <v>27</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="4">
         <v>30</v>
       </c>
       <c r="F66" s="17">
-        <v>160.13</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="H66" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
@@ -6050,7 +6060,7 @@
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" ref="L66:L97" si="3">IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
+        <f>IF(SUM(B67:E67,G67,H67:I67,K66)&lt;100, SUM(B67:E67,G67,H67:I67,K66),  100)</f>
         <v>71</v>
       </c>
       <c r="IG66" s="7"/>
@@ -6059,25 +6069,25 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="25">
-        <v>21</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
+        <v>80</v>
+      </c>
+      <c r="B67" s="30">
+        <v>24</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F67" s="17">
-        <v>0</v>
+        <v>160.13</v>
       </c>
       <c r="G67" s="23">
-        <f t="shared" ref="G67:G107" si="4">IF(F67&gt;0, IF(F67&lt;2, 30, IF(F67&gt;100, 10, (1-(F67-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="H67" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -6089,7 +6099,7 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B68:E68,G68,H68:I68,K67)&lt;100, SUM(B68:E68,G68,H68:I68,K67),  100)</f>
         <v>26</v>
       </c>
       <c r="IG67" s="7"/>
@@ -6098,28 +6108,28 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="25">
-        <v>30</v>
-      </c>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="B68" s="30">
+        <v>21</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F68" s="17">
-        <v>22.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="G68" s="23">
-        <f t="shared" si="4"/>
-        <v>25.871632653061226</v>
+        <f t="shared" ref="G68:G108" si="3">IF(F68&gt;0, IF(F68&lt;2, 30, IF(F68&gt;100, 10, (1-(F68-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I68" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
         <v>8.7390000000000002E-3</v>
@@ -6128,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B69:E69,G69,H69:I69,K68)&lt;100, SUM(B69:E69,G69,H69:I69,K68),  100)</f>
         <v>100</v>
       </c>
       <c r="IG68" s="7"/>
@@ -6137,28 +6147,28 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="25">
-        <v>27</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
+        <v>82</v>
+      </c>
+      <c r="B69" s="30">
+        <v>30</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F69" s="17">
-        <v>0</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="G69" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25.871632653061226</v>
       </c>
       <c r="H69" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I69" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -6167,7 +6177,7 @@
         <v>2.5</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B70:E70,G70,H70:I70,K69)&lt;100, SUM(B70:E70,G70,H70:I70,K69),  100)</f>
         <v>32</v>
       </c>
       <c r="IG69" s="7"/>
@@ -6176,28 +6186,28 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="25">
-        <v>30</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
+        <v>83</v>
+      </c>
+      <c r="B70" s="30">
+        <v>27</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F70" s="17">
-        <v>22.785</v>
+        <v>0</v>
       </c>
       <c r="G70" s="23">
-        <f t="shared" si="4"/>
-        <v>25.758163265306123</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H70" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I70" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J70" s="2">
         <v>0.25622400000000001</v>
@@ -6206,7 +6216,7 @@
         <v>4.5</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B71:E71,G71,H71:I71,K70)&lt;100, SUM(B71:E71,G71,H71:I71,K70),  100)</f>
         <v>100</v>
       </c>
       <c r="IG70" s="7"/>
@@ -6215,28 +6225,28 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="25">
-        <v>24</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
+        <v>84</v>
+      </c>
+      <c r="B71" s="30">
+        <v>30</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F71" s="17">
-        <v>0</v>
+        <v>22.785</v>
       </c>
       <c r="G71" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>25.758163265306123</v>
       </c>
       <c r="H71" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I71" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
@@ -6245,7 +6255,7 @@
         <v>2.5</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B72:E72,G72,H72:I72,K71)&lt;100, SUM(B72:E72,G72,H72:I72,K71),  100)</f>
         <v>29</v>
       </c>
       <c r="IG71" s="7"/>
@@ -6254,28 +6264,28 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="25">
+        <v>85</v>
+      </c>
+      <c r="B72" s="30">
         <v>24</v>
       </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F72" s="17">
-        <v>89.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="G72" s="23">
-        <f t="shared" si="4"/>
-        <v>12.237755102040817</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I72" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
         <v>0.25599100000000002</v>
@@ -6284,7 +6294,7 @@
         <v>3.5</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B73:E73,G73,H73:I73,K72)&lt;100, SUM(B73:E73,G73,H73:I73,K72),  100)</f>
         <v>83.737755102040822</v>
       </c>
       <c r="IG72" s="7"/>
@@ -6293,28 +6303,28 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="25">
-        <v>27</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="B73" s="30">
+        <v>24</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F73" s="17">
-        <v>0</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G73" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12.237755102040817</v>
       </c>
       <c r="H73" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I73" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -6323,7 +6333,7 @@
         <v>2.5</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B74:E74,G74,H74:I74,K73)&lt;100, SUM(B74:E74,G74,H74:I74,K73),  100)</f>
         <v>32</v>
       </c>
       <c r="IG73" s="7"/>
@@ -6332,13 +6342,13 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="25">
-        <v>24</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="B74" s="30">
+        <v>27</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
@@ -6346,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="4">
@@ -6362,7 +6372,7 @@
         <v>2.5</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B75:E75,G75,H75:I75,K74)&lt;100, SUM(B75:E75,G75,H75:I75,K74),  100)</f>
         <v>29</v>
       </c>
       <c r="IG74" s="7"/>
@@ -6371,13 +6381,13 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="25">
-        <v>21</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="B75" s="30">
+        <v>24</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="4">
         <v>0</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="4">
@@ -6401,7 +6411,7 @@
         <v>2.5</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B76:E76,G76,H76:I76,K75)&lt;100, SUM(B76:E76,G76,H76:I76,K75),  100)</f>
         <v>26</v>
       </c>
       <c r="IG75" s="7"/>
@@ -6410,28 +6420,28 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="25">
-        <v>24</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="B76" s="30">
+        <v>21</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F76" s="17">
-        <v>76.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="G76" s="23">
-        <f t="shared" si="4"/>
-        <v>14.72734693877551</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H76" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I76" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2">
         <v>0.23594999999999999</v>
@@ -6440,7 +6450,7 @@
         <v>3.5</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B77:E77,G77,H77:I77,K76)&lt;100, SUM(B77:E77,G77,H77:I77,K76),  100)</f>
         <v>86.727346938775511</v>
       </c>
       <c r="IG76" s="7"/>
@@ -6449,28 +6459,28 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="25">
-        <v>30</v>
-      </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="B77" s="30">
+        <v>24</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F77" s="17">
-        <v>0</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="G77" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14.72734693877551</v>
       </c>
       <c r="H77" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I77" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J77" s="2">
         <v>0</v>
@@ -6479,7 +6489,7 @@
         <v>2.5</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B78:E78,G78,H78:I78,K77)&lt;100, SUM(B78:E78,G78,H78:I78,K77),  100)</f>
         <v>35</v>
       </c>
       <c r="IG77" s="7"/>
@@ -6488,13 +6498,13 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="25">
-        <v>24</v>
-      </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="B78" s="30">
+        <v>30</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6502,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="4">
@@ -6518,7 +6528,7 @@
         <v>2.5</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B79:E79,G79,H79:I79,K78)&lt;100, SUM(B79:E79,G79,H79:I79,K78),  100)</f>
         <v>29</v>
       </c>
       <c r="IG78" s="7"/>
@@ -6527,28 +6537,28 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" s="25">
-        <v>21</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="B79" s="30">
+        <v>24</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F79" s="17">
-        <v>76.659000000000006</v>
+        <v>0</v>
       </c>
       <c r="G79" s="23">
-        <f t="shared" si="4"/>
-        <v>14.763469387755102</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I79" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2">
         <v>0.36402000000000001</v>
@@ -6557,7 +6567,7 @@
         <v>3.5</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B80:E80,G80,H80:I80,K79)&lt;100, SUM(B80:E80,G80,H80:I80,K79),  100)</f>
         <v>82.763469387755094</v>
       </c>
       <c r="IG79" s="7"/>
@@ -6566,25 +6576,25 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="25">
-        <v>24</v>
-      </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="B80" s="30">
+        <v>21</v>
+      </c>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="4">
         <v>30</v>
       </c>
       <c r="F80" s="17">
-        <v>75.662000000000006</v>
+        <v>76.659000000000006</v>
       </c>
       <c r="G80" s="23">
-        <f t="shared" si="4"/>
-        <v>14.966938775510204</v>
+        <f t="shared" si="3"/>
+        <v>14.763469387755102</v>
       </c>
       <c r="H80" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I80" s="4">
         <v>10</v>
@@ -6596,7 +6606,7 @@
         <v>4.5</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B81:E81,G81,H81:I81,K80)&lt;100, SUM(B81:E81,G81,H81:I81,K80),  100)</f>
         <v>87.966938775510201</v>
       </c>
       <c r="IG80" s="7"/>
@@ -6605,25 +6615,25 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="25">
-        <v>30</v>
-      </c>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="B81" s="30">
+        <v>24</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="4">
         <v>30</v>
       </c>
       <c r="F81" s="17">
-        <v>18.93</v>
+        <v>75.662000000000006</v>
       </c>
       <c r="G81" s="23">
-        <f t="shared" si="4"/>
-        <v>26.544897959183672</v>
+        <f t="shared" si="3"/>
+        <v>14.966938775510204</v>
       </c>
       <c r="H81" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I81" s="4">
         <v>10</v>
@@ -6635,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B82:E82,G82,H82:I82,K81)&lt;100, SUM(B82:E82,G82,H82:I82,K81),  100)</f>
         <v>100</v>
       </c>
       <c r="IG81" s="7"/>
@@ -6644,25 +6654,25 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="25">
-        <v>24</v>
-      </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
+        <v>91</v>
+      </c>
+      <c r="B82" s="30">
+        <v>30</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
       <c r="F82" s="17">
-        <v>19.364000000000001</v>
+        <v>18.93</v>
       </c>
       <c r="G82" s="23">
-        <f t="shared" si="4"/>
-        <v>26.456326530612245</v>
+        <f t="shared" si="3"/>
+        <v>26.544897959183672</v>
       </c>
       <c r="H82" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I82" s="4">
         <v>10</v>
@@ -6674,7 +6684,7 @@
         <v>4.5</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B83:E83,G83,H83:I83,K82)&lt;100, SUM(B83:E83,G83,H83:I83,K82),  100)</f>
         <v>99.456326530612245</v>
       </c>
       <c r="IG82" s="7"/>
@@ -6683,28 +6693,28 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="25">
-        <v>27</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
+        <v>92</v>
+      </c>
+      <c r="B83" s="30">
+        <v>24</v>
+      </c>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F83" s="17">
-        <v>0</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="G83" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>26.456326530612245</v>
       </c>
       <c r="H83" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I83" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
@@ -6713,7 +6723,7 @@
         <v>2.5</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B84:E84,G84,H84:I84,K83)&lt;100, SUM(B84:E84,G84,H84:I84,K83),  100)</f>
         <v>32</v>
       </c>
       <c r="IG83" s="7"/>
@@ -6722,13 +6732,13 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="25">
-        <v>21</v>
-      </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="B84" s="30">
+        <v>27</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="4">
         <v>0</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="4">
@@ -6752,7 +6762,7 @@
         <v>2.5</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B85:E85,G85,H85:I85,K84)&lt;100, SUM(B85:E85,G85,H85:I85,K84),  100)</f>
         <v>26</v>
       </c>
       <c r="IG84" s="7"/>
@@ -6761,13 +6771,13 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85" s="25">
-        <v>27</v>
-      </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="B85" s="30">
+        <v>21</v>
+      </c>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="4">
         <v>0</v>
       </c>
@@ -6775,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H85" s="4">
@@ -6791,7 +6801,7 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B86:E86,G86,H86:I86,K85)&lt;100, SUM(B86:E86,G86,H86:I86,K85),  100)</f>
         <v>32</v>
       </c>
       <c r="IG85" s="7"/>
@@ -6800,28 +6810,28 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="25">
-        <v>30</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="B86" s="30">
+        <v>27</v>
+      </c>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F86" s="17">
-        <v>80.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="G86" s="23">
-        <f t="shared" si="4"/>
-        <v>14.027755102040818</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H86" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I86" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2">
         <v>0.616757</v>
@@ -6830,7 +6840,7 @@
         <v>4.5</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B87:E87,G87,H87:I87,K86)&lt;100, SUM(B87:E87,G87,H87:I87,K86),  100)</f>
         <v>92.527755102040814</v>
       </c>
       <c r="IG86" s="7"/>
@@ -6839,25 +6849,25 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="25">
-        <v>21</v>
-      </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="B87" s="30">
+        <v>30</v>
+      </c>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F87" s="17">
-        <v>0</v>
+        <v>80.263999999999996</v>
       </c>
       <c r="G87" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14.027755102040818</v>
       </c>
       <c r="H87" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I87" s="4">
         <v>10</v>
@@ -6869,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B88:E88,G88,H88:I88,K87)&lt;100, SUM(B88:E88,G88,H88:I88,K87),  100)</f>
         <v>37.5</v>
       </c>
       <c r="IG87" s="7"/>
@@ -6878,13 +6888,13 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="25">
-        <v>0</v>
-      </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="B88" s="30">
+        <v>21</v>
+      </c>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6892,14 +6902,14 @@
         <v>0</v>
       </c>
       <c r="G88" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" s="4">
         <v>2.5</v>
       </c>
       <c r="I88" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -6908,7 +6918,7 @@
         <v>2.5</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B89:E89,G89,H89:I89,K88)&lt;100, SUM(B89:E89,G89,H89:I89,K88),  100)</f>
         <v>5</v>
       </c>
       <c r="IG88" s="7"/>
@@ -6917,28 +6927,28 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" s="25">
-        <v>27</v>
-      </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="B89" s="30">
+        <v>0</v>
+      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F89" s="17">
-        <v>20.995999999999999</v>
+        <v>0</v>
       </c>
       <c r="G89" s="23">
-        <f t="shared" si="4"/>
-        <v>26.123265306122448</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H89" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I89" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J89" s="2">
         <v>1.7333999999999999E-2</v>
@@ -6947,7 +6957,7 @@
         <v>4.5</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B90:E90,G90,H90:I90,K89)&lt;100, SUM(B90:E90,G90,H90:I90,K89),  100)</f>
         <v>100</v>
       </c>
       <c r="IG89" s="7"/>
@@ -6956,22 +6966,22 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="25">
-        <v>21</v>
-      </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="B90" s="30">
+        <v>27</v>
+      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
       <c r="F90" s="17">
-        <v>156</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="G90" s="23">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>26.123265306122448</v>
       </c>
       <c r="H90" s="4">
         <v>4.5</v>
@@ -6986,7 +6996,7 @@
         <v>4.5</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B91:E91,G91,H91:I91,K90)&lt;100, SUM(B91:E91,G91,H91:I91,K90),  100)</f>
         <v>80</v>
       </c>
       <c r="IG90" s="7"/>
@@ -6995,25 +7005,25 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="25">
-        <v>24</v>
-      </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="B91" s="30">
+        <v>21</v>
+      </c>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="4">
         <v>30</v>
       </c>
       <c r="F91" s="17">
-        <v>78.983999999999995</v>
+        <v>156</v>
       </c>
       <c r="G91" s="23">
-        <f t="shared" si="4"/>
-        <v>14.288979591836737</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H91" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I91" s="4">
         <v>10</v>
@@ -7025,7 +7035,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B92:E92,G92,H92:I92,K91)&lt;100, SUM(B92:E92,G92,H92:I92,K91),  100)</f>
         <v>87.288979591836735</v>
       </c>
       <c r="IG91" s="7"/>
@@ -7034,22 +7044,22 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="25">
-        <v>30</v>
-      </c>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
+        <v>98</v>
+      </c>
+      <c r="B92" s="30">
+        <v>24</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
       <c r="F92" s="17">
-        <v>158.24</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="G92" s="23">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>14.288979591836737</v>
       </c>
       <c r="H92" s="4">
         <v>5</v>
@@ -7064,7 +7074,7 @@
         <v>4.5</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B93:E93,G93,H93:I93,K92)&lt;100, SUM(B93:E93,G93,H93:I93,K92),  100)</f>
         <v>89.5</v>
       </c>
       <c r="IG92" s="7"/>
@@ -7073,25 +7083,25 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="25">
-        <v>30</v>
-      </c>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="B93" s="30">
+        <v>30</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
       <c r="F93" s="17">
-        <v>80.319000000000003</v>
+        <v>158.24</v>
       </c>
       <c r="G93" s="23">
-        <f t="shared" si="4"/>
-        <v>14.016530612244898</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H93" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I93" s="4">
         <v>10</v>
@@ -7103,7 +7113,7 @@
         <v>4.5</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B94:E94,G94,H94:I94,K93)&lt;100, SUM(B94:E94,G94,H94:I94,K93),  100)</f>
         <v>93.016530612244892</v>
       </c>
       <c r="IG93" s="7"/>
@@ -7112,25 +7122,25 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94" s="25">
-        <v>21</v>
-      </c>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="B94" s="30">
+        <v>30</v>
+      </c>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
       <c r="F94" s="17">
-        <v>0</v>
+        <v>80.319000000000003</v>
       </c>
       <c r="G94" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14.016530612244898</v>
       </c>
       <c r="H94" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I94" s="4">
         <v>10</v>
@@ -7142,28 +7152,28 @@
         <v>4.5</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B95:E95,G95,H95:I95,K94)&lt;100, SUM(B95:E95,G95,H95:I95,K94),  100)</f>
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="25">
+        <v>101</v>
+      </c>
+      <c r="B95" s="30">
         <v>21</v>
       </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="4">
-        <v>17.751479289940828</v>
+        <v>30</v>
       </c>
       <c r="F95" s="17">
-        <v>152.19</v>
+        <v>0</v>
       </c>
       <c r="G95" s="23">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H95" s="4">
         <v>2.5</v>
@@ -7178,34 +7188,34 @@
         <v>3.5</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B96:E96,G96,H96:I96,K95)&lt;100, SUM(B96:E96,G96,H96:I96,K95),  100)</f>
         <v>64.751479289940832</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="25">
+        <v>102</v>
+      </c>
+      <c r="B96" s="30">
         <v>21</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="4">
-        <v>29.822485207100591</v>
+        <v>17.751479289940828</v>
       </c>
       <c r="F96" s="17">
-        <v>36.862000000000002</v>
+        <v>152.19</v>
       </c>
       <c r="G96" s="23">
-        <f t="shared" si="4"/>
-        <v>22.885306122448981</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H96" s="4">
         <v>2.5</v>
       </c>
       <c r="I96" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J96" s="2">
         <v>1.9650999999999998E-2</v>
@@ -7214,34 +7224,34 @@
         <v>2.5</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B97:E97,G97,H97:I97,K96)&lt;100, SUM(B97:E97,G97,H97:I97,K96),  100)</f>
         <v>78.707791329549565</v>
       </c>
     </row>
     <row r="97" spans="1:243" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="25">
-        <v>24</v>
-      </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="B97" s="30">
+        <v>21</v>
+      </c>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="4">
-        <v>30</v>
+        <v>29.822485207100591</v>
       </c>
       <c r="F97" s="17">
-        <v>156.38999999999999</v>
+        <v>36.862000000000002</v>
       </c>
       <c r="G97" s="23">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>22.885306122448981</v>
       </c>
       <c r="H97" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I97" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J97" s="2">
         <v>9.5962000000000006E-2</v>
@@ -7250,34 +7260,34 @@
         <v>4.5</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(SUM(B98:E98,G98,H98:I98,K97)&lt;100, SUM(B98:E98,G98,H98:I98,K97),  100)</f>
         <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:243" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="25">
-        <v>27</v>
-      </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
+        <v>104</v>
+      </c>
+      <c r="B98" s="30">
+        <v>24</v>
+      </c>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="4">
         <v>30</v>
       </c>
       <c r="F98" s="17">
-        <v>83.876000000000005</v>
+        <v>156.38999999999999</v>
       </c>
       <c r="G98" s="23">
-        <f t="shared" si="4"/>
-        <v>13.290612244897959</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H98" s="4">
         <v>4.5</v>
       </c>
       <c r="I98" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J98" s="2">
         <v>0.11998499999999999</v>
@@ -7286,31 +7296,31 @@
         <v>2.5</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" ref="L98:L107" si="5">IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
+        <f>IF(SUM(B99:E99,G99,H99:I99,K98)&lt;100, SUM(B99:E99,G99,H99:I99,K98),  100)</f>
         <v>77.290612244897957</v>
       </c>
     </row>
     <row r="99" spans="1:243" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="25">
-        <v>24</v>
-      </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
+        <v>105</v>
+      </c>
+      <c r="B99" s="30">
+        <v>27</v>
+      </c>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F99" s="17">
-        <v>0</v>
+        <v>83.876000000000005</v>
       </c>
       <c r="G99" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>13.290612244897959</v>
       </c>
       <c r="H99" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I99" s="4">
         <v>0</v>
@@ -7322,34 +7332,34 @@
         <v>2.5</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B100:E100,G100,H100:I100,K99)&lt;100, SUM(B100:E100,G100,H100:I100,K99),  100)</f>
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:243" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="25">
-        <v>27</v>
-      </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="B100" s="30">
+        <v>24</v>
+      </c>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F100" s="17">
-        <v>153.26</v>
+        <v>0</v>
       </c>
       <c r="G100" s="23">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H100" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I100" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2">
         <v>1.952367</v>
@@ -7358,28 +7368,28 @@
         <v>4.5</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B101:E101,G101,H101:I101,K100)&lt;100, SUM(B101:E101,G101,H101:I101,K100),  100)</f>
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:243" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B101" s="25">
-        <v>30</v>
-      </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="B101" s="30">
+        <v>27</v>
+      </c>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
       <c r="F101" s="17">
-        <v>74.911000000000001</v>
+        <v>153.26</v>
       </c>
       <c r="G101" s="23">
-        <f t="shared" si="4"/>
-        <v>15.120204081632654</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="H101" s="4">
         <v>4.5</v>
@@ -7394,28 +7404,28 @@
         <v>4.5</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B102:E102,G102,H102:I102,K101)&lt;100, SUM(B102:E102,G102,H102:I102,K101),  100)</f>
         <v>94.12020408163265</v>
       </c>
     </row>
     <row r="102" spans="1:243" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" s="25">
-        <v>21</v>
-      </c>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
+        <v>108</v>
+      </c>
+      <c r="B102" s="30">
+        <v>30</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="4">
         <v>30</v>
       </c>
       <c r="F102" s="17">
-        <v>11.08</v>
+        <v>74.911000000000001</v>
       </c>
       <c r="G102" s="23">
-        <f t="shared" si="4"/>
-        <v>28.146938775510204</v>
+        <f t="shared" si="3"/>
+        <v>15.120204081632654</v>
       </c>
       <c r="H102" s="4">
         <v>4.5</v>
@@ -7430,31 +7440,31 @@
         <v>4</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B103:E103,G103,H103:I103,K102)&lt;100, SUM(B103:E103,G103,H103:I103,K102),  100)</f>
         <v>97.646938775510208</v>
       </c>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="25">
-        <v>24</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
+        <v>109</v>
+      </c>
+      <c r="B103" s="30">
+        <v>21</v>
+      </c>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F103" s="17">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="G103" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28.146938775510204</v>
       </c>
       <c r="H103" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I103" s="4">
         <v>10</v>
@@ -7466,19 +7476,19 @@
         <v>2.5</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B104:E104,G104,H104:I104,K103)&lt;100, SUM(B104:E104,G104,H104:I104,K103),  100)</f>
         <v>40.5</v>
       </c>
     </row>
     <row r="104" spans="1:243" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B104" s="25">
-        <v>15</v>
-      </c>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="B104" s="30">
+        <v>24</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="4">
         <v>0</v>
       </c>
@@ -7486,14 +7496,14 @@
         <v>0</v>
       </c>
       <c r="G104" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I104" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -7502,34 +7512,34 @@
         <v>0</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B105:E105,G105,H105:I105,K104)&lt;100, SUM(B105:E105,G105,H105:I105,K104),  100)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="105" spans="1:243" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="25">
-        <v>21</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
+        <v>111</v>
+      </c>
+      <c r="B105" s="30">
+        <v>15</v>
+      </c>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F105" s="17">
         <v>0</v>
       </c>
       <c r="G105" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I105" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J105" s="2">
         <v>7.175E-3</v>
@@ -7538,34 +7548,34 @@
         <v>2.5</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B106:E106,G106,H106:I106,K105)&lt;100, SUM(B106:E106,G106,H106:I106,K105),  100)</f>
         <v>68.5</v>
       </c>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="25">
+        <v>112</v>
+      </c>
+      <c r="B106" s="30">
         <v>21</v>
       </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="27"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="4">
         <v>30</v>
       </c>
       <c r="F106" s="17">
-        <v>15.122</v>
+        <v>0</v>
       </c>
       <c r="G106" s="23">
-        <f t="shared" si="4"/>
-        <v>27.322040816326528</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I106" s="4">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J106" s="2">
         <v>6.9841E-2</v>
@@ -7574,34 +7584,34 @@
         <v>2.2928994082840237</v>
       </c>
       <c r="L106" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B107:E107,G107,H107:I107,K106)&lt;100, SUM(B107:E107,G107,H107:I107,K106),  100)</f>
         <v>94.286537857746652</v>
       </c>
     </row>
     <row r="107" spans="1:243" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="25">
-        <v>27</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="B107" s="30">
+        <v>21</v>
+      </c>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="4">
-        <v>29.644970414201186</v>
+        <v>30</v>
       </c>
       <c r="F107" s="17">
-        <v>11.878</v>
+        <v>15.122</v>
       </c>
       <c r="G107" s="23">
-        <f t="shared" si="4"/>
-        <v>27.984081632653062</v>
+        <f t="shared" si="3"/>
+        <v>27.322040816326528</v>
       </c>
       <c r="H107" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I107" s="4">
-        <v>10</v>
+        <v>9.1715976331360949</v>
       </c>
       <c r="J107" s="2">
         <v>2.3165999999999999E-2</v>
@@ -7610,74 +7620,88 @@
         <v>2.5</v>
       </c>
       <c r="L107" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(SUM(B108:E108,G108,H108:I108,K107)&lt;100, SUM(B108:E108,G108,H108:I108,K107),  100)</f>
         <v>100</v>
       </c>
     </row>
+    <row r="108" spans="1:243" ht="25" customHeight="1">
+      <c r="A108" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="30">
+        <v>27</v>
+      </c>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="4">
+        <v>29.644970414201186</v>
+      </c>
+      <c r="F108" s="17">
+        <v>11.878</v>
+      </c>
+      <c r="G108" s="23">
+        <f t="shared" si="3"/>
+        <v>27.984081632653062</v>
+      </c>
+      <c r="H108" s="4">
+        <v>5</v>
+      </c>
+      <c r="I108" s="4">
+        <v>10</v>
+      </c>
+    </row>
     <row r="109" spans="1:243" ht="25" customHeight="1">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
       <c r="J109" s="18">
         <f>SUM(J3:J107)/COUNTIF(J3:J107,"&lt;&gt;0")</f>
-        <v>0.16384674985279757</v>
+        <v>0.16565938791030202</v>
       </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:243" ht="42">
+    <row r="110" spans="1:243" ht="20">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
+      <c r="E110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:243" ht="21">
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+    <row r="111" spans="1:243" ht="42">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F111" s="13">
-        <f>COUNTIF(F3:F107, "&gt;0")</f>
-        <v>69</v>
-      </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F112" s="3">
-        <v>160.13</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="13">
+        <f>COUNTIF(F3:F108, "&gt;0")</f>
+        <v>70</v>
+      </c>
+      <c r="G112" s="13"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -7692,10 +7716,10 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="F113" s="3">
+        <v>160.13</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="5"/>
@@ -7710,18 +7734,18 @@
       <c r="II113" s="7"/>
     </row>
     <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F114" s="3">
-        <v>30</v>
-      </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7736,12 +7760,12 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115" s="3">
-        <v>10</v>
-      </c>
-      <c r="G115" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G115" s="20"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -7758,10 +7782,10 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="F116" s="3">
+        <v>10</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -7778,9 +7802,13 @@
     <row r="117" spans="2:243" ht="25" customHeight="1">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -7794,9 +7822,14 @@
       <c r="II117" s="7"/>
     </row>
     <row r="118" spans="2:243" ht="25" customHeight="1">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
       <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="K118" s="9"/>
       <c r="L118" s="6"/>
       <c r="IE118" s="7"/>
@@ -7806,6 +7839,9 @@
       <c r="II118" s="7"/>
     </row>
     <row r="119" spans="2:243" ht="25" customHeight="1">
+      <c r="E119" s="4"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="4"/>
       <c r="K119" s="9"/>
       <c r="L119" s="6"/>
       <c r="IE119" s="7"/>
@@ -7888,60 +7924,60 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310061D8-B7D7-8B4F-BAB8-B3A68F4D12EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058DF68-F7E6-C641-8DCD-05217D67BDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,12 +781,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -795,6 +789,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:II127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3434,22 +3434,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L33" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L66" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <f>IF(SUM(B16:E16,G16,H16:I16,K16)&lt;100, SUM(B16:E16,G16,H16:I16,K16),  100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" ref="L34:L55" si="2">IF(SUM(B34:E34,G34,H34:I34,K34)&lt;100, SUM(B34:E34,G34,H34:I34,K34),  100)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>81.440204081632658</v>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>92.931020408163263</v>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="L39" s="3">
-        <f>IF(SUM(B39:E39,G39,H39:I39,K39)&lt;100, SUM(B39:E39,G39,H39:I39,K39),  100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
         <v>5</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>81.932040816326534</v>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
         <v>5</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
         <v>5</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="IG50" s="7"/>
@@ -5451,7 +5451,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="IG51" s="7"/>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="IG52" s="7"/>
@@ -5537,7 +5537,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="IG53" s="7"/>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="IG54" s="7"/>
@@ -5623,7 +5623,7 @@
         <v>4.5</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="IG55" s="7"/>
@@ -5666,8 +5666,8 @@
         <v>5</v>
       </c>
       <c r="L56" s="3">
-        <f>IF(SUM(B57:E57,G57,H57:I57,K56)&lt;100, SUM(B57:E57,G57,H57:I57,K56),  100)</f>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>82.093673469387753</v>
       </c>
       <c r="IG56" s="7"/>
       <c r="IH56" s="7"/>
@@ -5709,8 +5709,8 @@
         <v>4.5</v>
       </c>
       <c r="L57" s="3">
-        <f>IF(SUM(B58:E58,G58,H58:I58,K57)&lt;100, SUM(B58:E58,G58,H58:I58,K57),  100)</f>
-        <v>89.443877551020407</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="IG57" s="7"/>
       <c r="IH57" s="7"/>
@@ -5720,11 +5720,11 @@
       <c r="A58" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="28">
         <v>27</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="4">
         <v>30</v>
       </c>
@@ -5748,8 +5748,8 @@
         <v>4.5</v>
       </c>
       <c r="L58" s="3">
-        <f>IF(SUM(B59:E59,G59,H59:I59,K58)&lt;100, SUM(B59:E59,G59,H59:I59,K58),  100)</f>
-        <v>92.326326530612249</v>
+        <f t="shared" si="0"/>
+        <v>89.443877551020407</v>
       </c>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
@@ -5759,11 +5759,11 @@
       <c r="A59" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="30">
-        <v>30</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+      <c r="B59" s="28">
+        <v>30</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="4">
         <v>30</v>
       </c>
@@ -5787,8 +5787,8 @@
         <v>2.5</v>
       </c>
       <c r="L59" s="3">
-        <f>IF(SUM(B60:E60,G60,H60:I60,K59)&lt;100, SUM(B60:E60,G60,H60:I60,K59),  100)</f>
-        <v>95.644285714285715</v>
+        <f t="shared" si="0"/>
+        <v>90.326326530612249</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -5798,11 +5798,11 @@
       <c r="A60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="30">
-        <v>30</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="28">
+        <v>30</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
@@ -5826,8 +5826,8 @@
         <v>2.5</v>
       </c>
       <c r="L60" s="3">
-        <f>IF(SUM(B61:E61,G61,H61:I61,K60)&lt;100, SUM(B61:E61,G61,H61:I61,K60),  100)</f>
-        <v>71.5</v>
+        <f t="shared" si="0"/>
+        <v>95.644285714285715</v>
       </c>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
@@ -5837,11 +5837,11 @@
       <c r="A61" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="28">
         <v>24</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
@@ -5865,8 +5865,8 @@
         <v>2.5</v>
       </c>
       <c r="L61" s="3">
-        <f>IF(SUM(B62:E62,G62,H62:I62,K61)&lt;100, SUM(B62:E62,G62,H62:I62,K61),  100)</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>71.5</v>
       </c>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
@@ -5876,11 +5876,11 @@
       <c r="A62" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="28">
         <v>24</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="4">
         <v>0</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>2.5</v>
       </c>
       <c r="L62" s="3">
-        <f>IF(SUM(B63:E63,G63,H63:I63,K62)&lt;100, SUM(B63:E63,G63,H63:I63,K62),  100)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="IG62" s="7"/>
@@ -5915,11 +5915,11 @@
       <c r="A63" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="28">
         <v>24</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -5943,8 +5943,8 @@
         <v>2.5</v>
       </c>
       <c r="L63" s="3">
-        <f>IF(SUM(B64:E64,G64,H64:I64,K63)&lt;100, SUM(B64:E64,G64,H64:I64,K63),  100)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -5954,11 +5954,11 @@
       <c r="A64" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="28">
         <v>21</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -5982,8 +5982,8 @@
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
-        <f>IF(SUM(B65:E65,G65,H65:I65,K64)&lt;100, SUM(B65:E65,G65,H65:I65,K64),  100)</f>
-        <v>74.616530612244901</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="IG64" s="7"/>
       <c r="IH64" s="7"/>
@@ -5993,11 +5993,11 @@
       <c r="A65" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="28">
         <v>24</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="4">
         <v>30</v>
       </c>
@@ -6021,8 +6021,8 @@
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
-        <f>IF(SUM(B66:E66,G66,H66:I66,K65)&lt;100, SUM(B66:E66,G66,H66:I66,K65),  100)</f>
-        <v>76.37</v>
+        <f t="shared" si="0"/>
+        <v>74.616530612244901</v>
       </c>
       <c r="IG65" s="7"/>
       <c r="IH65" s="7"/>
@@ -6032,11 +6032,11 @@
       <c r="A66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="28">
         <v>27</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="4">
         <v>30</v>
       </c>
@@ -6060,8 +6060,8 @@
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
-        <f>IF(SUM(B67:E67,G67,H67:I67,K66)&lt;100, SUM(B67:E67,G67,H67:I67,K66),  100)</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>76.37</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -6071,11 +6071,11 @@
       <c r="A67" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="28">
         <v>24</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
@@ -6099,8 +6099,8 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
-        <f>IF(SUM(B68:E68,G68,H68:I68,K67)&lt;100, SUM(B68:E68,G68,H68:I68,K67),  100)</f>
-        <v>26</v>
+        <f t="shared" ref="L67:L107" si="2">IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
+        <v>71</v>
       </c>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
@@ -6110,11 +6110,11 @@
       <c r="A68" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="28">
         <v>21</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="4">
         <v>0</v>
       </c>
@@ -6138,8 +6138,8 @@
         <v>4</v>
       </c>
       <c r="L68" s="3">
-        <f>IF(SUM(B69:E69,G69,H69:I69,K68)&lt;100, SUM(B69:E69,G69,H69:I69,K68),  100)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>27.5</v>
       </c>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
@@ -6149,11 +6149,11 @@
       <c r="A69" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="30">
-        <v>30</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
+      <c r="B69" s="28">
+        <v>30</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
@@ -6177,8 +6177,8 @@
         <v>2.5</v>
       </c>
       <c r="L69" s="3">
-        <f>IF(SUM(B70:E70,G70,H70:I70,K69)&lt;100, SUM(B70:E70,G70,H70:I70,K69),  100)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
@@ -6188,11 +6188,11 @@
       <c r="A70" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="28">
         <v>27</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="4">
         <v>0</v>
       </c>
@@ -6216,8 +6216,8 @@
         <v>4.5</v>
       </c>
       <c r="L70" s="3">
-        <f>IF(SUM(B71:E71,G71,H71:I71,K70)&lt;100, SUM(B71:E71,G71,H71:I71,K70),  100)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -6227,11 +6227,11 @@
       <c r="A71" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="30">
-        <v>30</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
+      <c r="B71" s="28">
+        <v>30</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="4">
         <v>30</v>
       </c>
@@ -6255,8 +6255,8 @@
         <v>2.5</v>
       </c>
       <c r="L71" s="3">
-        <f>IF(SUM(B72:E72,G72,H72:I72,K71)&lt;100, SUM(B72:E72,G72,H72:I72,K71),  100)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -6266,11 +6266,11 @@
       <c r="A72" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="28">
         <v>24</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="4">
         <v>0</v>
       </c>
@@ -6294,8 +6294,8 @@
         <v>3.5</v>
       </c>
       <c r="L72" s="3">
-        <f>IF(SUM(B73:E73,G73,H73:I73,K72)&lt;100, SUM(B73:E73,G73,H73:I73,K72),  100)</f>
-        <v>83.737755102040822</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -6305,11 +6305,11 @@
       <c r="A73" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="28">
         <v>24</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="4">
         <v>30</v>
       </c>
@@ -6333,8 +6333,8 @@
         <v>2.5</v>
       </c>
       <c r="L73" s="3">
-        <f>IF(SUM(B74:E74,G74,H74:I74,K73)&lt;100, SUM(B74:E74,G74,H74:I74,K73),  100)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>82.737755102040822</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -6344,11 +6344,11 @@
       <c r="A74" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="28">
         <v>27</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
@@ -6372,8 +6372,8 @@
         <v>2.5</v>
       </c>
       <c r="L74" s="3">
-        <f>IF(SUM(B75:E75,G75,H75:I75,K74)&lt;100, SUM(B75:E75,G75,H75:I75,K74),  100)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
@@ -6383,11 +6383,11 @@
       <c r="A75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="28">
         <v>24</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="4">
         <v>0</v>
       </c>
@@ -6411,8 +6411,8 @@
         <v>2.5</v>
       </c>
       <c r="L75" s="3">
-        <f>IF(SUM(B76:E76,G76,H76:I76,K75)&lt;100, SUM(B76:E76,G76,H76:I76,K75),  100)</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -6422,11 +6422,11 @@
       <c r="A76" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="28">
         <v>21</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6450,8 +6450,8 @@
         <v>3.5</v>
       </c>
       <c r="L76" s="3">
-        <f>IF(SUM(B77:E77,G77,H77:I77,K76)&lt;100, SUM(B77:E77,G77,H77:I77,K76),  100)</f>
-        <v>86.727346938775511</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
@@ -6461,11 +6461,11 @@
       <c r="A77" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="28">
         <v>24</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="4">
         <v>30</v>
       </c>
@@ -6489,8 +6489,8 @@
         <v>2.5</v>
       </c>
       <c r="L77" s="3">
-        <f>IF(SUM(B78:E78,G78,H78:I78,K77)&lt;100, SUM(B78:E78,G78,H78:I78,K77),  100)</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>85.727346938775511</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -6500,11 +6500,11 @@
       <c r="A78" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="30">
-        <v>30</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
+      <c r="B78" s="28">
+        <v>30</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6528,8 +6528,8 @@
         <v>2.5</v>
       </c>
       <c r="L78" s="3">
-        <f>IF(SUM(B79:E79,G79,H79:I79,K78)&lt;100, SUM(B79:E79,G79,H79:I79,K78),  100)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
@@ -6539,11 +6539,11 @@
       <c r="A79" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="28">
         <v>24</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="4">
         <v>0</v>
       </c>
@@ -6567,8 +6567,8 @@
         <v>3.5</v>
       </c>
       <c r="L79" s="3">
-        <f>IF(SUM(B80:E80,G80,H80:I80,K79)&lt;100, SUM(B80:E80,G80,H80:I80,K79),  100)</f>
-        <v>82.763469387755094</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
@@ -6578,11 +6578,11 @@
       <c r="A80" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="28">
         <v>21</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="4">
         <v>30</v>
       </c>
@@ -6606,8 +6606,8 @@
         <v>4.5</v>
       </c>
       <c r="L80" s="3">
-        <f>IF(SUM(B81:E81,G81,H81:I81,K80)&lt;100, SUM(B81:E81,G81,H81:I81,K80),  100)</f>
-        <v>87.966938775510201</v>
+        <f t="shared" si="2"/>
+        <v>83.763469387755094</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -6617,11 +6617,11 @@
       <c r="A81" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="28">
         <v>24</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="4">
         <v>30</v>
       </c>
@@ -6645,8 +6645,8 @@
         <v>5</v>
       </c>
       <c r="L81" s="3">
-        <f>IF(SUM(B82:E82,G82,H82:I82,K81)&lt;100, SUM(B82:E82,G82,H82:I82,K81),  100)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>88.466938775510201</v>
       </c>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
@@ -6656,11 +6656,11 @@
       <c r="A82" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="30">
-        <v>30</v>
-      </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
+      <c r="B82" s="28">
+        <v>30</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
@@ -6684,8 +6684,8 @@
         <v>4.5</v>
       </c>
       <c r="L82" s="3">
-        <f>IF(SUM(B83:E83,G83,H83:I83,K82)&lt;100, SUM(B83:E83,G83,H83:I83,K82),  100)</f>
-        <v>99.456326530612245</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
@@ -6695,11 +6695,11 @@
       <c r="A83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="28">
         <v>24</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
@@ -6723,8 +6723,8 @@
         <v>2.5</v>
       </c>
       <c r="L83" s="3">
-        <f>IF(SUM(B84:E84,G84,H84:I84,K83)&lt;100, SUM(B84:E84,G84,H84:I84,K83),  100)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>97.456326530612245</v>
       </c>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
@@ -6734,11 +6734,11 @@
       <c r="A84" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="30">
+      <c r="B84" s="28">
         <v>27</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="4">
         <v>0</v>
       </c>
@@ -6762,8 +6762,8 @@
         <v>2.5</v>
       </c>
       <c r="L84" s="3">
-        <f>IF(SUM(B85:E85,G85,H85:I85,K84)&lt;100, SUM(B85:E85,G85,H85:I85,K84),  100)</f>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -6773,11 +6773,11 @@
       <c r="A85" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="28">
         <v>21</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="4">
         <v>0</v>
       </c>
@@ -6801,8 +6801,8 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="3">
-        <f>IF(SUM(B86:E86,G86,H86:I86,K85)&lt;100, SUM(B86:E86,G86,H86:I86,K85),  100)</f>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -6812,11 +6812,11 @@
       <c r="A86" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="28">
         <v>27</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6840,8 +6840,8 @@
         <v>4.5</v>
       </c>
       <c r="L86" s="3">
-        <f>IF(SUM(B87:E87,G87,H87:I87,K86)&lt;100, SUM(B87:E87,G87,H87:I87,K86),  100)</f>
-        <v>92.527755102040814</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
@@ -6851,11 +6851,11 @@
       <c r="A87" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="30">
-        <v>30</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="28">
+        <v>30</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="4">
         <v>30</v>
       </c>
@@ -6879,8 +6879,8 @@
         <v>4</v>
       </c>
       <c r="L87" s="3">
-        <f>IF(SUM(B88:E88,G88,H88:I88,K87)&lt;100, SUM(B88:E88,G88,H88:I88,K87),  100)</f>
-        <v>37.5</v>
+        <f t="shared" si="2"/>
+        <v>92.027755102040814</v>
       </c>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
@@ -6890,11 +6890,11 @@
       <c r="A88" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="30">
+      <c r="B88" s="28">
         <v>21</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6918,8 +6918,8 @@
         <v>2.5</v>
       </c>
       <c r="L88" s="3">
-        <f>IF(SUM(B89:E89,G89,H89:I89,K88)&lt;100, SUM(B89:E89,G89,H89:I89,K88),  100)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
@@ -6929,11 +6929,11 @@
       <c r="A89" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="30">
-        <v>0</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="28">
+        <v>0</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="4">
         <v>0</v>
       </c>
@@ -6957,8 +6957,8 @@
         <v>4.5</v>
       </c>
       <c r="L89" s="3">
-        <f>IF(SUM(B90:E90,G90,H90:I90,K89)&lt;100, SUM(B90:E90,G90,H90:I90,K89),  100)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -6968,11 +6968,11 @@
       <c r="A90" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="28">
         <v>27</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
@@ -6996,8 +6996,8 @@
         <v>4.5</v>
       </c>
       <c r="L90" s="3">
-        <f>IF(SUM(B91:E91,G91,H91:I91,K90)&lt;100, SUM(B91:E91,G91,H91:I91,K90),  100)</f>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
@@ -7007,11 +7007,11 @@
       <c r="A91" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="28">
         <v>21</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="4">
         <v>30</v>
       </c>
@@ -7035,8 +7035,8 @@
         <v>4</v>
       </c>
       <c r="L91" s="3">
-        <f>IF(SUM(B92:E92,G92,H92:I92,K91)&lt;100, SUM(B92:E92,G92,H92:I92,K91),  100)</f>
-        <v>87.288979591836735</v>
+        <f t="shared" si="2"/>
+        <v>79.5</v>
       </c>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
@@ -7046,11 +7046,11 @@
       <c r="A92" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="28">
         <v>24</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
@@ -7074,8 +7074,8 @@
         <v>4.5</v>
       </c>
       <c r="L92" s="3">
-        <f>IF(SUM(B93:E93,G93,H93:I93,K92)&lt;100, SUM(B93:E93,G93,H93:I93,K92),  100)</f>
-        <v>89.5</v>
+        <f t="shared" si="2"/>
+        <v>87.788979591836735</v>
       </c>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
@@ -7085,11 +7085,11 @@
       <c r="A93" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="30">
-        <v>30</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
+      <c r="B93" s="28">
+        <v>30</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
@@ -7113,8 +7113,8 @@
         <v>4.5</v>
       </c>
       <c r="L93" s="3">
-        <f>IF(SUM(B94:E94,G94,H94:I94,K93)&lt;100, SUM(B94:E94,G94,H94:I94,K93),  100)</f>
-        <v>93.016530612244892</v>
+        <f t="shared" si="2"/>
+        <v>89.5</v>
       </c>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
@@ -7124,11 +7124,11 @@
       <c r="A94" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="30">
-        <v>30</v>
-      </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
+      <c r="B94" s="28">
+        <v>30</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
@@ -7152,19 +7152,19 @@
         <v>4.5</v>
       </c>
       <c r="L94" s="3">
-        <f>IF(SUM(B95:E95,G95,H95:I95,K94)&lt;100, SUM(B95:E95,G95,H95:I95,K94),  100)</f>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>93.016530612244892</v>
       </c>
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="30">
+      <c r="B95" s="28">
         <v>21</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
@@ -7188,19 +7188,19 @@
         <v>3.5</v>
       </c>
       <c r="L95" s="3">
-        <f>IF(SUM(B96:E96,G96,H96:I96,K95)&lt;100, SUM(B96:E96,G96,H96:I96,K95),  100)</f>
-        <v>64.751479289940832</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" s="28">
         <v>21</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="4">
         <v>17.751479289940828</v>
       </c>
@@ -7224,19 +7224,19 @@
         <v>2.5</v>
       </c>
       <c r="L96" s="3">
-        <f>IF(SUM(B97:E97,G97,H97:I97,K96)&lt;100, SUM(B97:E97,G97,H97:I97,K96),  100)</f>
-        <v>78.707791329549565</v>
+        <f t="shared" si="2"/>
+        <v>63.751479289940832</v>
       </c>
     </row>
     <row r="97" spans="1:243" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" s="28">
         <v>21</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="4">
         <v>29.822485207100591</v>
       </c>
@@ -7260,19 +7260,19 @@
         <v>4.5</v>
       </c>
       <c r="L97" s="3">
-        <f>IF(SUM(B98:E98,G98,H98:I98,K97)&lt;100, SUM(B98:E98,G98,H98:I98,K97),  100)</f>
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>80.707791329549565</v>
       </c>
     </row>
     <row r="98" spans="1:243" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="28">
         <v>24</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="4">
         <v>30</v>
       </c>
@@ -7296,19 +7296,19 @@
         <v>2.5</v>
       </c>
       <c r="L98" s="3">
-        <f>IF(SUM(B99:E99,G99,H99:I99,K98)&lt;100, SUM(B99:E99,G99,H99:I99,K98),  100)</f>
-        <v>77.290612244897957</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:243" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="28">
         <v>27</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="4">
         <v>30</v>
       </c>
@@ -7332,19 +7332,19 @@
         <v>2.5</v>
       </c>
       <c r="L99" s="3">
-        <f>IF(SUM(B100:E100,G100,H100:I100,K99)&lt;100, SUM(B100:E100,G100,H100:I100,K99),  100)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>77.290612244897957</v>
       </c>
     </row>
     <row r="100" spans="1:243" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="28">
         <v>24</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="4">
         <v>0</v>
       </c>
@@ -7368,19 +7368,19 @@
         <v>4.5</v>
       </c>
       <c r="L100" s="3">
-        <f>IF(SUM(B101:E101,G101,H101:I101,K100)&lt;100, SUM(B101:E101,G101,H101:I101,K100),  100)</f>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:243" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="28">
         <v>27</v>
       </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
@@ -7404,19 +7404,19 @@
         <v>4.5</v>
       </c>
       <c r="L101" s="3">
-        <f>IF(SUM(B102:E102,G102,H102:I102,K101)&lt;100, SUM(B102:E102,G102,H102:I102,K101),  100)</f>
-        <v>94.12020408163265</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:243" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="30">
-        <v>30</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32"/>
+      <c r="B102" s="28">
+        <v>30</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="4">
         <v>30</v>
       </c>
@@ -7440,19 +7440,19 @@
         <v>4</v>
       </c>
       <c r="L102" s="3">
-        <f>IF(SUM(B103:E103,G103,H103:I103,K102)&lt;100, SUM(B103:E103,G103,H103:I103,K102),  100)</f>
-        <v>97.646938775510208</v>
+        <f t="shared" si="2"/>
+        <v>93.62020408163265</v>
       </c>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="28">
         <v>21</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
@@ -7476,19 +7476,19 @@
         <v>2.5</v>
       </c>
       <c r="L103" s="3">
-        <f>IF(SUM(B104:E104,G104,H104:I104,K103)&lt;100, SUM(B104:E104,G104,H104:I104,K103),  100)</f>
-        <v>40.5</v>
+        <f t="shared" si="2"/>
+        <v>96.146938775510208</v>
       </c>
     </row>
     <row r="104" spans="1:243" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="28">
         <v>24</v>
       </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="4">
         <v>0</v>
       </c>
@@ -7512,19 +7512,19 @@
         <v>0</v>
       </c>
       <c r="L104" s="3">
-        <f>IF(SUM(B105:E105,G105,H105:I105,K104)&lt;100, SUM(B105:E105,G105,H105:I105,K104),  100)</f>
-        <v>18.5</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:243" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="28">
         <v>15</v>
       </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="30"/>
       <c r="E105" s="4">
         <v>0</v>
       </c>
@@ -7548,19 +7548,19 @@
         <v>2.5</v>
       </c>
       <c r="L105" s="3">
-        <f>IF(SUM(B106:E106,G106,H106:I106,K105)&lt;100, SUM(B106:E106,G106,H106:I106,K105),  100)</f>
-        <v>68.5</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="28">
         <v>21</v>
       </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
       <c r="E106" s="4">
         <v>30</v>
       </c>
@@ -7584,19 +7584,19 @@
         <v>2.2928994082840237</v>
       </c>
       <c r="L106" s="3">
-        <f>IF(SUM(B107:E107,G107,H107:I107,K106)&lt;100, SUM(B107:E107,G107,H107:I107,K106),  100)</f>
-        <v>94.286537857746652</v>
+        <f t="shared" si="2"/>
+        <v>68.292899408284029</v>
       </c>
     </row>
     <row r="107" spans="1:243" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="28">
         <v>21</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
       <c r="E107" s="4">
         <v>30</v>
       </c>
@@ -7620,19 +7620,19 @@
         <v>2.5</v>
       </c>
       <c r="L107" s="3">
-        <f>IF(SUM(B108:E108,G108,H108:I108,K107)&lt;100, SUM(B108:E108,G108,H108:I108,K107),  100)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>94.493638449462622</v>
       </c>
     </row>
     <row r="108" spans="1:243" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="28">
         <v>27</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7924,6 +7924,45 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
@@ -7939,45 +7978,6 @@
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058DF68-F7E6-C641-8DCD-05217D67BDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31C603-F855-4945-AA29-8DE1FC05932E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,6 +781,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -789,12 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3408,7 +3408,7 @@
   <dimension ref="A1:II127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3434,22 +3434,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3629,11 +3629,11 @@
         <v>30</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1.4339</v>
       </c>
       <c r="G6" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -3645,11 +3645,11 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1">
@@ -5720,11 +5720,11 @@
       <c r="A58" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="30">
         <v>27</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="4">
         <v>30</v>
       </c>
@@ -5759,11 +5759,11 @@
       <c r="A59" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="28">
-        <v>30</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="30">
+        <v>30</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="4">
         <v>30</v>
       </c>
@@ -5798,11 +5798,11 @@
       <c r="A60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="28">
-        <v>30</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
+      <c r="B60" s="30">
+        <v>30</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
@@ -5837,11 +5837,11 @@
       <c r="A61" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="30">
         <v>24</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="A62" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B62" s="30">
         <v>24</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="4">
         <v>0</v>
       </c>
@@ -5915,11 +5915,11 @@
       <c r="A63" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="30">
         <v>24</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -5954,11 +5954,11 @@
       <c r="A64" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="30">
         <v>21</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="A65" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="30">
         <v>24</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="4">
         <v>30</v>
       </c>
@@ -6032,11 +6032,11 @@
       <c r="A66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="30">
         <v>27</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="4">
         <v>30</v>
       </c>
@@ -6071,11 +6071,11 @@
       <c r="A67" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="30">
         <v>24</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
@@ -6110,11 +6110,11 @@
       <c r="A68" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="30">
         <v>21</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="4">
         <v>0</v>
       </c>
@@ -6149,11 +6149,11 @@
       <c r="A69" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="28">
-        <v>30</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30"/>
+      <c r="B69" s="30">
+        <v>30</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
@@ -6188,11 +6188,11 @@
       <c r="A70" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="30">
         <v>27</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="4">
         <v>0</v>
       </c>
@@ -6227,11 +6227,11 @@
       <c r="A71" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="28">
-        <v>30</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
+      <c r="B71" s="30">
+        <v>30</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="4">
         <v>30</v>
       </c>
@@ -6266,11 +6266,11 @@
       <c r="A72" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B72" s="30">
         <v>24</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="4">
         <v>0</v>
       </c>
@@ -6305,11 +6305,11 @@
       <c r="A73" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="28">
+      <c r="B73" s="30">
         <v>24</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="4">
         <v>30</v>
       </c>
@@ -6344,11 +6344,11 @@
       <c r="A74" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="30">
         <v>27</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
@@ -6383,11 +6383,11 @@
       <c r="A75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B75" s="30">
         <v>24</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="4">
         <v>0</v>
       </c>
@@ -6422,11 +6422,11 @@
       <c r="A76" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B76" s="30">
         <v>21</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6461,11 +6461,11 @@
       <c r="A77" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B77" s="30">
         <v>24</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="4">
         <v>30</v>
       </c>
@@ -6500,11 +6500,11 @@
       <c r="A78" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="28">
-        <v>30</v>
-      </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
+      <c r="B78" s="30">
+        <v>30</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6539,11 +6539,11 @@
       <c r="A79" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="30">
         <v>24</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="4">
         <v>0</v>
       </c>
@@ -6578,11 +6578,11 @@
       <c r="A80" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B80" s="30">
         <v>21</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="4">
         <v>30</v>
       </c>
@@ -6617,11 +6617,11 @@
       <c r="A81" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B81" s="30">
         <v>24</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="4">
         <v>30</v>
       </c>
@@ -6656,11 +6656,11 @@
       <c r="A82" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="28">
-        <v>30</v>
-      </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="B82" s="30">
+        <v>30</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
@@ -6695,11 +6695,11 @@
       <c r="A83" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="30">
         <v>24</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
@@ -6734,11 +6734,11 @@
       <c r="A84" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="30">
         <v>27</v>
       </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="4">
         <v>0</v>
       </c>
@@ -6773,11 +6773,11 @@
       <c r="A85" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="30">
         <v>21</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="4">
         <v>0</v>
       </c>
@@ -6812,11 +6812,11 @@
       <c r="A86" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="30">
         <v>27</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6851,11 +6851,11 @@
       <c r="A87" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="28">
-        <v>30</v>
-      </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
+      <c r="B87" s="30">
+        <v>30</v>
+      </c>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="4">
         <v>30</v>
       </c>
@@ -6890,11 +6890,11 @@
       <c r="A88" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="30">
         <v>21</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6929,11 +6929,11 @@
       <c r="A89" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="28">
-        <v>0</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="30">
+        <v>0</v>
+      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="4">
         <v>0</v>
       </c>
@@ -6968,11 +6968,11 @@
       <c r="A90" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="30">
         <v>27</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
@@ -7007,11 +7007,11 @@
       <c r="A91" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="28">
+      <c r="B91" s="30">
         <v>21</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="4">
         <v>30</v>
       </c>
@@ -7046,11 +7046,11 @@
       <c r="A92" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="30">
         <v>24</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
@@ -7085,11 +7085,11 @@
       <c r="A93" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="28">
-        <v>30</v>
-      </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
+      <c r="B93" s="30">
+        <v>30</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
@@ -7124,11 +7124,11 @@
       <c r="A94" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="28">
-        <v>30</v>
-      </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
+      <c r="B94" s="30">
+        <v>30</v>
+      </c>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
@@ -7160,11 +7160,11 @@
       <c r="A95" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="30">
         <v>21</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
@@ -7196,11 +7196,11 @@
       <c r="A96" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="30">
         <v>21</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="4">
         <v>17.751479289940828</v>
       </c>
@@ -7232,11 +7232,11 @@
       <c r="A97" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="30">
         <v>21</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="4">
         <v>29.822485207100591</v>
       </c>
@@ -7268,11 +7268,11 @@
       <c r="A98" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="30">
         <v>24</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="4">
         <v>30</v>
       </c>
@@ -7304,11 +7304,11 @@
       <c r="A99" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="30">
         <v>27</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="4">
         <v>30</v>
       </c>
@@ -7340,11 +7340,11 @@
       <c r="A100" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="30">
         <v>24</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="4">
         <v>0</v>
       </c>
@@ -7376,11 +7376,11 @@
       <c r="A101" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="30">
         <v>27</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
@@ -7412,11 +7412,11 @@
       <c r="A102" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="28">
-        <v>30</v>
-      </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="30"/>
+      <c r="B102" s="30">
+        <v>30</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="4">
         <v>30</v>
       </c>
@@ -7448,11 +7448,11 @@
       <c r="A103" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B103" s="30">
         <v>21</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
@@ -7484,11 +7484,11 @@
       <c r="A104" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B104" s="30">
         <v>24</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="4">
         <v>0</v>
       </c>
@@ -7520,11 +7520,11 @@
       <c r="A105" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="28">
+      <c r="B105" s="30">
         <v>15</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="30"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="4">
         <v>0</v>
       </c>
@@ -7556,11 +7556,11 @@
       <c r="A106" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="30">
         <v>21</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="4">
         <v>30</v>
       </c>
@@ -7592,11 +7592,11 @@
       <c r="A107" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="30">
         <v>21</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="4">
         <v>30</v>
       </c>
@@ -7628,11 +7628,11 @@
       <c r="A108" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="30">
         <v>27</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="F112" s="13">
         <f>COUNTIF(F3:F108, "&gt;0")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
@@ -7924,45 +7924,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
@@ -7978,6 +7939,45 @@
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31C603-F855-4945-AA29-8DE1FC05932E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E806F-7FAA-4D4F-8EF8-DBF04426FBA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$127</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$108</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$109</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>4bf198d1c10727d0fbf73a0c7b208334</t>
+  </si>
+  <si>
+    <t>b59960996df62a572997fd1c6d34f966</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -784,9 +787,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -795,6 +795,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,7 +893,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -979,7 +985,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1008,7 +1014,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1054,7 +1060,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3405,10 +3411,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II127"/>
+  <dimension ref="A1:II128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3434,22 +3440,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L67" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
@@ -3552,7 +3558,7 @@
         <v>136.96</v>
       </c>
       <c r="G4" s="23">
-        <f t="shared" ref="G4:G67" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G4:G68" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="4">
@@ -5616,7 +5622,7 @@
       <c r="I55" s="25">
         <v>10</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="18">
         <v>0</v>
       </c>
       <c r="K55" s="25">
@@ -5717,39 +5723,43 @@
       <c r="II57" s="7"/>
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
-      <c r="A58" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="30">
-        <v>27</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="4">
-        <v>30</v>
-      </c>
-      <c r="F58" s="17">
-        <v>83.125</v>
+      <c r="A58" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="28">
+        <v>7</v>
+      </c>
+      <c r="C58" s="28">
+        <v>5</v>
+      </c>
+      <c r="D58" s="28">
+        <v>5</v>
+      </c>
+      <c r="E58" s="28">
+        <v>30</v>
+      </c>
+      <c r="F58" s="28">
+        <v>5.9455999999999998</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
-      </c>
-      <c r="H58" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I58" s="4">
-        <v>10</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0.16397200000000001</v>
-      </c>
-      <c r="K58" s="4">
-        <v>4.5</v>
+        <v>29.194775510204082</v>
+      </c>
+      <c r="H58" s="28">
+        <v>5</v>
+      </c>
+      <c r="I58" s="28">
+        <v>10</v>
+      </c>
+      <c r="J58" s="18">
+        <v>0</v>
+      </c>
+      <c r="K58" s="28">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="0"/>
-        <v>89.443877551020407</v>
+        <v>96.194775510204082</v>
       </c>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
@@ -5757,38 +5767,38 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="30">
-        <v>30</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
+        <v>71</v>
+      </c>
+      <c r="B59" s="29">
+        <v>27</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="4">
         <v>30</v>
       </c>
       <c r="F59" s="17">
-        <v>86.150999999999996</v>
+        <v>83.125</v>
       </c>
       <c r="G59" s="23">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H59" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I59" s="4">
         <v>10</v>
       </c>
       <c r="J59" s="2">
-        <v>0.79987600000000003</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K59" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="0"/>
-        <v>90.326326530612249</v>
+        <v>89.443877551020407</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -5796,38 +5806,38 @@
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="30">
-        <v>30</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+        <v>72</v>
+      </c>
+      <c r="B60" s="29">
+        <v>30</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
       <c r="F60" s="17">
-        <v>11.093</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="G60" s="23">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H60" s="4">
         <v>5</v>
       </c>
       <c r="I60" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J60" s="2">
-        <v>5.2023E-2</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K60" s="4">
         <v>2.5</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="0"/>
-        <v>95.644285714285715</v>
+        <v>90.326326530612249</v>
       </c>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
@@ -5835,22 +5845,22 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="30">
-        <v>24</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="B61" s="29">
+        <v>30</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
       <c r="F61" s="17">
-        <v>157.71</v>
+        <v>11.093</v>
       </c>
       <c r="G61" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H61" s="4">
         <v>5</v>
@@ -5859,14 +5869,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>0</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K61" s="4">
         <v>2.5</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="0"/>
-        <v>71.5</v>
+        <v>95.644285714285715</v>
       </c>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
@@ -5874,25 +5884,25 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="30">
+        <v>74</v>
+      </c>
+      <c r="B62" s="29">
         <v>24</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F62" s="17">
-        <v>0</v>
+        <v>157.71</v>
       </c>
       <c r="G62" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I62" s="4">
         <v>0</v>
@@ -5905,7 +5915,7 @@
       </c>
       <c r="L62" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>71.5</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -5913,13 +5923,13 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="30">
+        <v>75</v>
+      </c>
+      <c r="B63" s="29">
         <v>24</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -5937,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>1.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4">
         <v>2.5</v>
@@ -5952,13 +5962,13 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="30">
-        <v>21</v>
-      </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="B64" s="29">
+        <v>24</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -5976,14 +5986,14 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K64" s="4">
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="IG64" s="7"/>
       <c r="IH64" s="7"/>
@@ -5991,38 +6001,38 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="30">
-        <v>24</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
+        <v>77</v>
+      </c>
+      <c r="B65" s="29">
+        <v>21</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F65" s="17">
-        <v>82.278999999999996</v>
+        <v>0</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>0</v>
       </c>
       <c r="H65" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>3.6273E-2</v>
+        <v>0</v>
       </c>
       <c r="K65" s="4">
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" si="0"/>
-        <v>74.616530612244901</v>
+        <v>26</v>
       </c>
       <c r="IG65" s="7"/>
       <c r="IH65" s="7"/>
@@ -6030,38 +6040,38 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="30">
-        <v>27</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="B66" s="29">
+        <v>24</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="4">
         <v>30</v>
       </c>
       <c r="F66" s="17">
-        <v>85.936999999999998</v>
+        <v>82.278999999999996</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>13.616530612244899</v>
       </c>
       <c r="H66" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>3.6273E-2</v>
       </c>
       <c r="K66" s="4">
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="0"/>
-        <v>76.37</v>
+        <v>74.616530612244901</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -6069,25 +6079,25 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="30">
-        <v>24</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="B67" s="29">
+        <v>27</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
       <c r="F67" s="17">
-        <v>160.13</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="G67" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="H67" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -6099,8 +6109,8 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" ref="L67:L107" si="2">IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>76.37</v>
       </c>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
@@ -6108,38 +6118,38 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="30">
-        <v>21</v>
-      </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="B68" s="29">
+        <v>24</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68" s="17">
-        <v>0</v>
+        <v>160.13</v>
       </c>
       <c r="G68" s="23">
-        <f t="shared" ref="G68:G108" si="3">IF(F68&gt;0, IF(F68&lt;2, 30, IF(F68&gt;100, 10, (1-(F68-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="H68" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
         <v>2.5</v>
       </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2">
-        <v>8.7390000000000002E-3</v>
-      </c>
-      <c r="K68" s="4">
-        <v>4</v>
-      </c>
       <c r="L68" s="3">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f t="shared" ref="L68:L108" si="2">IF(SUM(B68:E68,G68,H68:I68,K68)&lt;100, SUM(B68:E68,G68,H68:I68,K68),  100)</f>
+        <v>71</v>
       </c>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
@@ -6147,38 +6157,38 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="30">
-        <v>30</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
+        <v>81</v>
+      </c>
+      <c r="B69" s="29">
+        <v>21</v>
+      </c>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F69" s="17">
-        <v>22.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="G69" s="23">
-        <f t="shared" si="3"/>
-        <v>25.871632653061226</v>
+        <f t="shared" ref="G69:G109" si="3">IF(F69&gt;0, IF(F69&lt;2, 30, IF(F69&gt;100, 10, (1-(F69-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H69" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>8.7390000000000002E-3</v>
+      </c>
+      <c r="K69" s="4">
         <v>4</v>
-      </c>
-      <c r="I69" s="4">
-        <v>10</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <v>2.5</v>
       </c>
       <c r="L69" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>27.5</v>
       </c>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
@@ -6186,38 +6196,38 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="30">
-        <v>27</v>
-      </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="B70" s="29">
+        <v>30</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70" s="17">
-        <v>0</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="G70" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.871632653061226</v>
       </c>
       <c r="H70" s="4">
+        <v>4</v>
+      </c>
+      <c r="I70" s="4">
+        <v>10</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0.25622400000000001</v>
-      </c>
-      <c r="K70" s="4">
-        <v>4.5</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -6225,38 +6235,38 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="30">
-        <v>30</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="B71" s="29">
+        <v>27</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F71" s="17">
-        <v>22.785</v>
+        <v>0</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="3"/>
-        <v>25.758163265306123</v>
+        <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I71" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>0</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K71" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -6264,38 +6274,38 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="30">
-        <v>24</v>
-      </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="B72" s="29">
+        <v>30</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F72" s="17">
-        <v>0</v>
+        <v>22.785</v>
       </c>
       <c r="G72" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.758163265306123</v>
       </c>
       <c r="H72" s="4">
+        <v>5</v>
+      </c>
+      <c r="I72" s="4">
+        <v>10</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0.25599100000000002</v>
-      </c>
-      <c r="K72" s="4">
-        <v>3.5</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -6303,38 +6313,38 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="30">
+        <v>85</v>
+      </c>
+      <c r="B73" s="29">
         <v>24</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F73" s="17">
-        <v>89.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="G73" s="23">
         <f t="shared" si="3"/>
-        <v>12.237755102040817</v>
+        <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K73" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="2"/>
-        <v>82.737755102040822</v>
+        <v>30</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -6342,38 +6352,38 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="30">
-        <v>27</v>
-      </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
+        <v>86</v>
+      </c>
+      <c r="B74" s="29">
+        <v>24</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F74" s="17">
-        <v>0</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G74" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.237755102040817</v>
       </c>
       <c r="H74" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I74" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J74" s="2">
-        <v>0.11136799999999999</v>
+        <v>0</v>
       </c>
       <c r="K74" s="4">
         <v>2.5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>82.737755102040822</v>
       </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
@@ -6381,13 +6391,13 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="30">
-        <v>24</v>
-      </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
+        <v>87</v>
+      </c>
+      <c r="B75" s="29">
+        <v>27</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="4">
         <v>0</v>
       </c>
@@ -6405,14 +6415,14 @@
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K75" s="4">
         <v>2.5</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -6420,13 +6430,13 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="30">
-        <v>21</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="B76" s="29">
+        <v>24</v>
+      </c>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6444,14 +6454,14 @@
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <v>0.23594999999999999</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
@@ -6459,38 +6469,38 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="30">
-        <v>24</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="B77" s="29">
+        <v>21</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F77" s="17">
-        <v>76.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="G77" s="23">
         <f t="shared" si="3"/>
-        <v>14.72734693877551</v>
+        <v>0</v>
       </c>
       <c r="H77" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I77" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K77" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="2"/>
-        <v>85.727346938775511</v>
+        <v>27</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -6498,38 +6508,38 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="30">
-        <v>30</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="29">
+        <v>24</v>
+      </c>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F78" s="17">
-        <v>0</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="G78" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.72734693877551</v>
       </c>
       <c r="H78" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I78" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J78" s="2">
-        <v>1.6031E-2</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4">
         <v>2.5</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>85.727346938775511</v>
       </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
@@ -6537,13 +6547,13 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="30">
-        <v>24</v>
-      </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="B79" s="29">
+        <v>30</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="4">
         <v>0</v>
       </c>
@@ -6561,14 +6571,14 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>0.36402000000000001</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K79" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
@@ -6576,38 +6586,38 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="30">
-        <v>21</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+        <v>88</v>
+      </c>
+      <c r="B80" s="29">
+        <v>24</v>
+      </c>
+      <c r="C80" s="30"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F80" s="17">
-        <v>76.659000000000006</v>
+        <v>0</v>
       </c>
       <c r="G80" s="23">
         <f t="shared" si="3"/>
-        <v>14.763469387755102</v>
+        <v>0</v>
       </c>
       <c r="H80" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.36402000000000001</v>
+      </c>
+      <c r="K80" s="4">
         <v>3.5</v>
-      </c>
-      <c r="I80" s="4">
-        <v>10</v>
-      </c>
-      <c r="J80" s="2">
-        <v>0.18420700000000001</v>
-      </c>
-      <c r="K80" s="4">
-        <v>4.5</v>
       </c>
       <c r="L80" s="3">
         <f t="shared" si="2"/>
-        <v>83.763469387755094</v>
+        <v>30</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -6615,38 +6625,38 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="30">
-        <v>24</v>
-      </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
+        <v>89</v>
+      </c>
+      <c r="B81" s="29">
+        <v>21</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="4">
         <v>30</v>
       </c>
       <c r="F81" s="17">
-        <v>75.662000000000006</v>
+        <v>76.659000000000006</v>
       </c>
       <c r="G81" s="23">
         <f t="shared" si="3"/>
-        <v>14.966938775510204</v>
+        <v>14.763469387755102</v>
       </c>
       <c r="H81" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I81" s="4">
+        <v>10</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.18420700000000001</v>
+      </c>
+      <c r="K81" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I81" s="4">
-        <v>10</v>
-      </c>
-      <c r="J81" s="2">
-        <v>0.29575899999999999</v>
-      </c>
-      <c r="K81" s="4">
-        <v>5</v>
       </c>
       <c r="L81" s="3">
         <f t="shared" si="2"/>
-        <v>88.466938775510201</v>
+        <v>83.763469387755094</v>
       </c>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
@@ -6654,38 +6664,38 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="30">
-        <v>30</v>
-      </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
+        <v>90</v>
+      </c>
+      <c r="B82" s="29">
+        <v>24</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
       <c r="F82" s="17">
-        <v>18.93</v>
+        <v>75.662000000000006</v>
       </c>
       <c r="G82" s="23">
         <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
+        <v>14.966938775510204</v>
       </c>
       <c r="H82" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I82" s="4">
         <v>10</v>
       </c>
       <c r="J82" s="2">
-        <v>2.3715E-2</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K82" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L82" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>88.466938775510201</v>
       </c>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
@@ -6693,38 +6703,38 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="30">
-        <v>24</v>
-      </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
+        <v>91</v>
+      </c>
+      <c r="B83" s="29">
+        <v>30</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
       <c r="F83" s="17">
-        <v>19.364000000000001</v>
+        <v>18.93</v>
       </c>
       <c r="G83" s="23">
         <f t="shared" si="3"/>
-        <v>26.456326530612245</v>
+        <v>26.544897959183672</v>
       </c>
       <c r="H83" s="4">
+        <v>5</v>
+      </c>
+      <c r="I83" s="4">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2.3715E-2</v>
+      </c>
+      <c r="K83" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I83" s="4">
-        <v>10</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>2.5</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="2"/>
-        <v>97.456326530612245</v>
+        <v>100</v>
       </c>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
@@ -6732,28 +6742,28 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="30">
-        <v>27</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+        <v>92</v>
+      </c>
+      <c r="B84" s="29">
+        <v>24</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F84" s="17">
-        <v>0</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="G84" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.456326530612245</v>
       </c>
       <c r="H84" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I84" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
@@ -6763,7 +6773,7 @@
       </c>
       <c r="L84" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>97.456326530612245</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -6771,13 +6781,13 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="30">
-        <v>21</v>
-      </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="32"/>
+        <v>93</v>
+      </c>
+      <c r="B85" s="29">
+        <v>27</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="4">
         <v>0</v>
       </c>
@@ -6802,7 +6812,7 @@
       </c>
       <c r="L85" s="3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -6810,13 +6820,13 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="30">
-        <v>27</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
+        <v>94</v>
+      </c>
+      <c r="B86" s="29">
+        <v>21</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6834,14 +6844,14 @@
         <v>0</v>
       </c>
       <c r="J86" s="2">
-        <v>0.616757</v>
+        <v>0</v>
       </c>
       <c r="K86" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L86" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
@@ -6849,38 +6859,38 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="30">
-        <v>30</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+        <v>95</v>
+      </c>
+      <c r="B87" s="29">
+        <v>27</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F87" s="17">
-        <v>80.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="G87" s="23">
         <f t="shared" si="3"/>
-        <v>14.027755102040818</v>
+        <v>0</v>
       </c>
       <c r="H87" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I87" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>0.616757</v>
       </c>
       <c r="K87" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L87" s="3">
         <f t="shared" si="2"/>
-        <v>92.027755102040814</v>
+        <v>34</v>
       </c>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
@@ -6888,38 +6898,38 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="30">
-        <v>21</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="B88" s="29">
+        <v>30</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F88" s="17">
-        <v>0</v>
+        <v>80.263999999999996</v>
       </c>
       <c r="G88" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.027755102040818</v>
       </c>
       <c r="H88" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I88" s="4">
         <v>10</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>2.2478000000000001E-2</v>
       </c>
       <c r="K88" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L88" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>92.027755102040814</v>
       </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
@@ -6927,13 +6937,13 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" s="30">
-        <v>0</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="B89" s="29">
+        <v>21</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
       <c r="E89" s="4">
         <v>0</v>
       </c>
@@ -6948,17 +6958,17 @@
         <v>2.5</v>
       </c>
       <c r="I89" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J89" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K89" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L89" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -6966,38 +6976,38 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" s="30">
-        <v>27</v>
-      </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="B90" s="29">
+        <v>0</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F90" s="17">
-        <v>20.995999999999999</v>
+        <v>0</v>
       </c>
       <c r="G90" s="23">
         <f t="shared" si="3"/>
-        <v>26.123265306122448</v>
+        <v>0</v>
       </c>
       <c r="H90" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I90" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>1.7333999999999999E-2</v>
       </c>
       <c r="K90" s="4">
         <v>4.5</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
@@ -7005,22 +7015,22 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="30">
-        <v>21</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
+        <v>97</v>
+      </c>
+      <c r="B91" s="29">
+        <v>27</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="4">
         <v>30</v>
       </c>
       <c r="F91" s="17">
-        <v>156</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="G91" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>26.123265306122448</v>
       </c>
       <c r="H91" s="4">
         <v>4.5</v>
@@ -7029,14 +7039,14 @@
         <v>10</v>
       </c>
       <c r="J91" s="2">
-        <v>0.197292</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K91" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="2"/>
-        <v>79.5</v>
+        <v>100</v>
       </c>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
@@ -7044,38 +7054,38 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="30">
-        <v>24</v>
-      </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="B92" s="29">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
       <c r="F92" s="17">
-        <v>78.983999999999995</v>
+        <v>156</v>
       </c>
       <c r="G92" s="23">
         <f t="shared" si="3"/>
-        <v>14.288979591836737</v>
+        <v>10</v>
       </c>
       <c r="H92" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I92" s="4">
         <v>10</v>
       </c>
       <c r="J92" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>0.197292</v>
       </c>
       <c r="K92" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="2"/>
-        <v>87.788979591836735</v>
+        <v>79.5</v>
       </c>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
@@ -7083,22 +7093,22 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="30">
-        <v>30</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
+        <v>98</v>
+      </c>
+      <c r="B93" s="29">
+        <v>24</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
       <c r="F93" s="17">
-        <v>158.24</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="G93" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.288979591836737</v>
       </c>
       <c r="H93" s="4">
         <v>5</v>
@@ -7107,14 +7117,14 @@
         <v>10</v>
       </c>
       <c r="J93" s="2">
-        <v>0.44423499999999999</v>
+        <v>2.8327999999999999E-2</v>
       </c>
       <c r="K93" s="4">
         <v>4.5</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="2"/>
-        <v>89.5</v>
+        <v>87.788979591836735</v>
       </c>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
@@ -7122,94 +7132,97 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="30">
-        <v>30</v>
-      </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
+        <v>99</v>
+      </c>
+      <c r="B94" s="29">
+        <v>30</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
       <c r="F94" s="17">
-        <v>80.319000000000003</v>
+        <v>158.24</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" si="3"/>
-        <v>14.016530612244898</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I94" s="4">
         <v>10</v>
       </c>
       <c r="J94" s="2">
-        <v>0.33158300000000002</v>
+        <v>0.44423499999999999</v>
       </c>
       <c r="K94" s="4">
         <v>4.5</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="2"/>
-        <v>93.016530612244892</v>
-      </c>
+        <v>89.5</v>
+      </c>
+      <c r="IG94" s="7"/>
+      <c r="IH94" s="7"/>
+      <c r="II94" s="7"/>
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="30">
-        <v>21</v>
-      </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="B95" s="29">
+        <v>30</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
       <c r="F95" s="17">
-        <v>0</v>
+        <v>80.319000000000003</v>
       </c>
       <c r="G95" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.016530612244898</v>
       </c>
       <c r="H95" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I95" s="4">
         <v>10</v>
       </c>
       <c r="J95" s="2">
-        <v>8.4103999999999998E-2</v>
+        <v>0.33158300000000002</v>
       </c>
       <c r="K95" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>93.016530612244892</v>
       </c>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="30">
+        <v>101</v>
+      </c>
+      <c r="B96" s="29">
         <v>21</v>
       </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="4">
-        <v>17.751479289940828</v>
+        <v>30</v>
       </c>
       <c r="F96" s="17">
-        <v>152.19</v>
+        <v>0</v>
       </c>
       <c r="G96" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H96" s="4">
         <v>2.5</v>
@@ -7218,214 +7231,214 @@
         <v>10</v>
       </c>
       <c r="J96" s="2">
-        <v>1.9650999999999998E-2</v>
+        <v>8.4103999999999998E-2</v>
       </c>
       <c r="K96" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="2"/>
-        <v>63.751479289940832</v>
-      </c>
-    </row>
-    <row r="97" spans="1:243" ht="25" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="30">
+        <v>102</v>
+      </c>
+      <c r="B97" s="29">
         <v>21</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="31"/>
       <c r="E97" s="4">
-        <v>29.822485207100591</v>
+        <v>17.751479289940828</v>
       </c>
       <c r="F97" s="17">
-        <v>36.862000000000002</v>
+        <v>152.19</v>
       </c>
       <c r="G97" s="23">
         <f t="shared" si="3"/>
-        <v>22.885306122448981</v>
+        <v>10</v>
       </c>
       <c r="H97" s="4">
         <v>2.5</v>
       </c>
       <c r="I97" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J97" s="2">
-        <v>9.5962000000000006E-2</v>
+        <v>1.9650999999999998E-2</v>
       </c>
       <c r="K97" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L97" s="3">
         <f t="shared" si="2"/>
-        <v>80.707791329549565</v>
-      </c>
-    </row>
-    <row r="98" spans="1:243" ht="25" customHeight="1">
+        <v>63.751479289940832</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="30">
-        <v>24</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32"/>
+        <v>103</v>
+      </c>
+      <c r="B98" s="29">
+        <v>21</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="31"/>
       <c r="E98" s="4">
-        <v>30</v>
+        <v>29.822485207100591</v>
       </c>
       <c r="F98" s="17">
-        <v>156.38999999999999</v>
+        <v>36.862000000000002</v>
       </c>
       <c r="G98" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>22.885306122448981</v>
       </c>
       <c r="H98" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <v>9.5962000000000006E-2</v>
+      </c>
+      <c r="K98" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I98" s="4">
-        <v>10</v>
-      </c>
-      <c r="J98" s="2">
-        <v>0.11998499999999999</v>
-      </c>
-      <c r="K98" s="4">
-        <v>2.5</v>
       </c>
       <c r="L98" s="3">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" spans="1:243" ht="25" customHeight="1">
+        <v>80.707791329549565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="30">
-        <v>27</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="B99" s="29">
+        <v>24</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="4">
         <v>30</v>
       </c>
       <c r="F99" s="17">
-        <v>83.876000000000005</v>
+        <v>156.38999999999999</v>
       </c>
       <c r="G99" s="23">
         <f t="shared" si="3"/>
-        <v>13.290612244897959</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4">
         <v>4.5</v>
       </c>
       <c r="I99" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J99" s="2">
-        <v>0</v>
+        <v>0.11998499999999999</v>
       </c>
       <c r="K99" s="4">
         <v>2.5</v>
       </c>
       <c r="L99" s="3">
         <f t="shared" si="2"/>
-        <v>77.290612244897957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:243" ht="25" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="30">
-        <v>24</v>
-      </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="32"/>
+        <v>105</v>
+      </c>
+      <c r="B100" s="29">
+        <v>27</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F100" s="17">
-        <v>0</v>
+        <v>83.876000000000005</v>
       </c>
       <c r="G100" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.290612244897959</v>
       </c>
       <c r="H100" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1.952367</v>
-      </c>
-      <c r="K100" s="4">
-        <v>4.5</v>
       </c>
       <c r="L100" s="3">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:243" ht="25" customHeight="1">
+        <v>77.290612244897957</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="30">
-        <v>27</v>
-      </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
+        <v>106</v>
+      </c>
+      <c r="B101" s="29">
+        <v>24</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F101" s="17">
-        <v>153.26</v>
+        <v>0</v>
       </c>
       <c r="G101" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H101" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I101" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2">
-        <v>0.29591299999999998</v>
+        <v>1.952367</v>
       </c>
       <c r="K101" s="4">
         <v>4.5</v>
       </c>
       <c r="L101" s="3">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:243" ht="25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B102" s="30">
-        <v>30</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32"/>
+        <v>107</v>
+      </c>
+      <c r="B102" s="29">
+        <v>27</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="4">
         <v>30</v>
       </c>
       <c r="F102" s="17">
-        <v>74.911000000000001</v>
+        <v>153.26</v>
       </c>
       <c r="G102" s="23">
         <f t="shared" si="3"/>
-        <v>15.120204081632654</v>
+        <v>10</v>
       </c>
       <c r="H102" s="4">
         <v>4.5</v>
@@ -7434,34 +7447,34 @@
         <v>10</v>
       </c>
       <c r="J102" s="2">
-        <v>1.5566E-2</v>
+        <v>0.29591299999999998</v>
       </c>
       <c r="K102" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L102" s="3">
         <f t="shared" si="2"/>
-        <v>93.62020408163265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:243" ht="25" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="30">
-        <v>21</v>
-      </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32"/>
+        <v>108</v>
+      </c>
+      <c r="B103" s="29">
+        <v>30</v>
+      </c>
+      <c r="C103" s="30"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
       <c r="F103" s="17">
-        <v>11.08</v>
+        <v>74.911000000000001</v>
       </c>
       <c r="G103" s="23">
         <f t="shared" si="3"/>
-        <v>28.146938775510204</v>
+        <v>15.120204081632654</v>
       </c>
       <c r="H103" s="4">
         <v>4.5</v>
@@ -7470,61 +7483,61 @@
         <v>10</v>
       </c>
       <c r="J103" s="2">
-        <v>7.6779999999999999E-3</v>
+        <v>1.5566E-2</v>
       </c>
       <c r="K103" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L103" s="3">
         <f t="shared" si="2"/>
-        <v>96.146938775510208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:243" ht="25" customHeight="1">
+        <v>93.62020408163265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="30">
-        <v>24</v>
-      </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
+        <v>109</v>
+      </c>
+      <c r="B104" s="29">
+        <v>21</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F104" s="17">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="G104" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.146938775510204</v>
       </c>
       <c r="H104" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I104" s="4">
         <v>10</v>
       </c>
       <c r="J104" s="2">
-        <v>0</v>
+        <v>7.6779999999999999E-3</v>
       </c>
       <c r="K104" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L104" s="3">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:243" ht="25" customHeight="1">
+        <v>96.146938775510208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" s="30">
-        <v>15</v>
-      </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="B105" s="29">
+        <v>24</v>
+      </c>
+      <c r="C105" s="30"/>
+      <c r="D105" s="31"/>
       <c r="E105" s="4">
         <v>0</v>
       </c>
@@ -7536,33 +7549,33 @@
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I105" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2">
-        <v>7.175E-3</v>
+        <v>0</v>
       </c>
       <c r="K105" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L105" s="3">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:243" ht="25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="30">
-        <v>21</v>
-      </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="32"/>
+        <v>111</v>
+      </c>
+      <c r="B106" s="29">
+        <v>15</v>
+      </c>
+      <c r="C106" s="30"/>
+      <c r="D106" s="31"/>
       <c r="E106" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F106" s="17">
         <v>0</v>
@@ -7572,158 +7585,172 @@
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I106" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J106" s="2">
-        <v>6.9841E-2</v>
+        <v>7.175E-3</v>
       </c>
       <c r="K106" s="4">
-        <v>2.2928994082840237</v>
+        <v>2.5</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="2"/>
-        <v>68.292899408284029</v>
-      </c>
-    </row>
-    <row r="107" spans="1:243" ht="25" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B107" s="30">
+        <v>112</v>
+      </c>
+      <c r="B107" s="29">
         <v>21</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="31"/>
       <c r="E107" s="4">
         <v>30</v>
       </c>
       <c r="F107" s="17">
-        <v>15.122</v>
+        <v>0</v>
       </c>
       <c r="G107" s="23">
         <f t="shared" si="3"/>
-        <v>27.322040816326528</v>
+        <v>0</v>
       </c>
       <c r="H107" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I107" s="4">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J107" s="2">
-        <v>2.3165999999999999E-2</v>
+        <v>6.9841E-2</v>
       </c>
       <c r="K107" s="4">
-        <v>2.5</v>
+        <v>2.2928994082840237</v>
       </c>
       <c r="L107" s="3">
         <f t="shared" si="2"/>
-        <v>94.493638449462622</v>
-      </c>
-    </row>
-    <row r="108" spans="1:243" ht="25" customHeight="1">
+        <v>68.292899408284029</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="30">
-        <v>27</v>
-      </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="32"/>
+        <v>113</v>
+      </c>
+      <c r="B108" s="29">
+        <v>21</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="31"/>
       <c r="E108" s="4">
-        <v>29.644970414201186</v>
+        <v>30</v>
       </c>
       <c r="F108" s="17">
-        <v>11.878</v>
+        <v>15.122</v>
       </c>
       <c r="G108" s="23">
         <f t="shared" si="3"/>
+        <v>27.322040816326528</v>
+      </c>
+      <c r="H108" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I108" s="4">
+        <v>9.1715976331360949</v>
+      </c>
+      <c r="J108" s="2">
+        <v>2.3165999999999999E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L108" s="3">
+        <f t="shared" si="2"/>
+        <v>94.493638449462622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="25" customHeight="1">
+      <c r="A109" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="29">
+        <v>27</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="4">
+        <v>29.644970414201186</v>
+      </c>
+      <c r="F109" s="17">
+        <v>11.878</v>
+      </c>
+      <c r="G109" s="23">
+        <f t="shared" si="3"/>
         <v>27.984081632653062</v>
       </c>
-      <c r="H108" s="4">
-        <v>5</v>
-      </c>
-      <c r="I108" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:243" ht="25" customHeight="1">
-      <c r="J109" s="18">
-        <f>SUM(J3:J107)/COUNTIF(J3:J107,"&lt;&gt;0")</f>
+      <c r="H109" s="4">
+        <v>5</v>
+      </c>
+      <c r="I109" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="25" customHeight="1">
+      <c r="J110" s="18">
+        <f>SUM(J3:J108)/COUNTIF(J3:J108,"&lt;&gt;0")</f>
         <v>0.16565938791030202</v>
       </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:243" ht="20">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:243" ht="42">
+    <row r="111" spans="1:12" ht="20">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
+      <c r="E111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-    </row>
-    <row r="112" spans="1:243" ht="25" customHeight="1">
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" ht="42">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+    </row>
+    <row r="113" spans="2:243" ht="25" customHeight="1">
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F112" s="13">
-        <f>COUNTIF(F3:F108, "&gt;0")</f>
-        <v>71</v>
-      </c>
-      <c r="G112" s="13"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="IE112" s="7"/>
-      <c r="IF112" s="7"/>
-      <c r="IG112" s="7"/>
-      <c r="IH112" s="7"/>
-      <c r="II112" s="7"/>
-    </row>
-    <row r="113" spans="2:243" ht="25" customHeight="1">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F113" s="3">
-        <v>160.13</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="F113" s="13">
+        <f>COUNTIF(F3:F109, "&gt;0")</f>
+        <v>72</v>
+      </c>
+      <c r="G113" s="13"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -7738,17 +7765,17 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="F114" s="3">
+        <v>160.13</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
       <c r="IE114" s="7"/>
       <c r="IF114" s="7"/>
       <c r="IG114" s="7"/>
@@ -7756,18 +7783,18 @@
       <c r="II114" s="7"/>
     </row>
     <row r="115" spans="2:243" ht="25" customHeight="1">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F115" s="3">
-        <v>30</v>
-      </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7782,12 +7809,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F116" s="3">
-        <v>10</v>
-      </c>
-      <c r="G116" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G116" s="20"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -7804,10 +7831,10 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="F117" s="3">
+        <v>10</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -7824,14 +7851,19 @@
     <row r="118" spans="2:243" ht="25" customHeight="1">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="6"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
       <c r="IE118" s="7"/>
       <c r="IF118" s="7"/>
       <c r="IG118" s="7"/>
@@ -7839,9 +7871,14 @@
       <c r="II118" s="7"/>
     </row>
     <row r="119" spans="2:243" ht="25" customHeight="1">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
       <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="K119" s="9"/>
       <c r="L119" s="6"/>
       <c r="IE119" s="7"/>
@@ -7851,6 +7888,9 @@
       <c r="II119" s="7"/>
     </row>
     <row r="120" spans="2:243" ht="25" customHeight="1">
+      <c r="E120" s="4"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="4"/>
       <c r="K120" s="9"/>
       <c r="L120" s="6"/>
       <c r="IE120" s="7"/>
@@ -7922,62 +7962,71 @@
       <c r="IH127" s="7"/>
       <c r="II127" s="7"/>
     </row>
+    <row r="128" spans="2:243" ht="25" customHeight="1">
+      <c r="K128" s="9"/>
+      <c r="L128" s="6"/>
+      <c r="IE128" s="7"/>
+      <c r="IF128" s="7"/>
+      <c r="IG128" s="7"/>
+      <c r="IH128" s="7"/>
+      <c r="II128" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B91:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E806F-7FAA-4D4F-8EF8-DBF04426FBA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64CDA7-B032-8043-AE5F-ED8AA5CE068C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,6 +787,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -795,12 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3413,8 +3413,8 @@
   </sheetPr>
   <dimension ref="A1:II128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3440,22 +3440,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4165,17 +4165,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="0"/>
-        <v>73.382857142857148</v>
+        <v>87.382857142857148</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1">
@@ -5769,11 +5769,11 @@
       <c r="A59" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="31">
         <v>27</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="4">
         <v>30</v>
       </c>
@@ -5808,11 +5808,11 @@
       <c r="A60" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="29">
-        <v>30</v>
-      </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="31">
+        <v>30</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
@@ -5847,11 +5847,11 @@
       <c r="A61" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="29">
-        <v>30</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="31"/>
+      <c r="B61" s="31">
+        <v>30</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
@@ -5886,11 +5886,11 @@
       <c r="A62" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="31">
         <v>24</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
@@ -5925,11 +5925,11 @@
       <c r="A63" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="31">
         <v>24</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -5964,11 +5964,11 @@
       <c r="A64" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="31">
         <v>24</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -6003,11 +6003,11 @@
       <c r="A65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="31">
         <v>21</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
@@ -6042,11 +6042,11 @@
       <c r="A66" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="31">
         <v>24</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="4">
         <v>30</v>
       </c>
@@ -6081,11 +6081,11 @@
       <c r="A67" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="31">
         <v>27</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
@@ -6120,11 +6120,11 @@
       <c r="A68" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="31">
         <v>24</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
@@ -6159,11 +6159,11 @@
       <c r="A69" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="31">
         <v>21</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="4">
         <v>0</v>
       </c>
@@ -6198,11 +6198,11 @@
       <c r="A70" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="29">
-        <v>30</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
+      <c r="B70" s="31">
+        <v>30</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="4">
         <v>30</v>
       </c>
@@ -6237,11 +6237,11 @@
       <c r="A71" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="31">
         <v>27</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="4">
         <v>0</v>
       </c>
@@ -6276,11 +6276,11 @@
       <c r="A72" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="29">
-        <v>30</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="31"/>
+      <c r="B72" s="31">
+        <v>30</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="4">
         <v>30</v>
       </c>
@@ -6315,11 +6315,11 @@
       <c r="A73" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="31">
         <v>24</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="4">
         <v>0</v>
       </c>
@@ -6354,11 +6354,11 @@
       <c r="A74" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="31">
         <v>24</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="4">
         <v>30</v>
       </c>
@@ -6393,11 +6393,11 @@
       <c r="A75" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75" s="31">
         <v>27</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="4">
         <v>0</v>
       </c>
@@ -6432,11 +6432,11 @@
       <c r="A76" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="31">
         <v>24</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6471,11 +6471,11 @@
       <c r="A77" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="31">
         <v>21</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
@@ -6510,11 +6510,11 @@
       <c r="A78" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="29">
+      <c r="B78" s="31">
         <v>24</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="4">
         <v>30</v>
       </c>
@@ -6549,11 +6549,11 @@
       <c r="A79" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="29">
-        <v>30</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
+      <c r="B79" s="31">
+        <v>30</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="4">
         <v>0</v>
       </c>
@@ -6588,11 +6588,11 @@
       <c r="A80" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="31">
         <v>24</v>
       </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="4">
         <v>0</v>
       </c>
@@ -6627,11 +6627,11 @@
       <c r="A81" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="31">
         <v>21</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="4">
         <v>30</v>
       </c>
@@ -6666,11 +6666,11 @@
       <c r="A82" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="31">
         <v>24</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
@@ -6705,11 +6705,11 @@
       <c r="A83" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="29">
-        <v>30</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
+      <c r="B83" s="31">
+        <v>30</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
@@ -6744,11 +6744,11 @@
       <c r="A84" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="31">
         <v>24</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
@@ -6783,11 +6783,11 @@
       <c r="A85" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="31">
         <v>27</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="4">
         <v>0</v>
       </c>
@@ -6822,11 +6822,11 @@
       <c r="A86" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="29">
+      <c r="B86" s="31">
         <v>21</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="A87" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="29">
+      <c r="B87" s="31">
         <v>27</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
@@ -6900,11 +6900,11 @@
       <c r="A88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="29">
-        <v>30</v>
-      </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
+      <c r="B88" s="31">
+        <v>30</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="4">
         <v>30</v>
       </c>
@@ -6939,11 +6939,11 @@
       <c r="A89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="29">
+      <c r="B89" s="31">
         <v>21</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="4">
         <v>0</v>
       </c>
@@ -6978,11 +6978,11 @@
       <c r="A90" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="29">
-        <v>0</v>
-      </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="31"/>
+      <c r="B90" s="31">
+        <v>0</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="4">
         <v>0</v>
       </c>
@@ -7017,11 +7017,11 @@
       <c r="A91" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B91" s="29">
+      <c r="B91" s="31">
         <v>27</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="4">
         <v>30</v>
       </c>
@@ -7056,11 +7056,11 @@
       <c r="A92" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="29">
+      <c r="B92" s="31">
         <v>21</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
@@ -7095,11 +7095,11 @@
       <c r="A93" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="31">
         <v>24</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
@@ -7134,11 +7134,11 @@
       <c r="A94" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="29">
-        <v>30</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
+      <c r="B94" s="31">
+        <v>30</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
@@ -7173,11 +7173,11 @@
       <c r="A95" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="29">
-        <v>30</v>
-      </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="31"/>
+      <c r="B95" s="31">
+        <v>30</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
@@ -7209,11 +7209,11 @@
       <c r="A96" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="29">
+      <c r="B96" s="31">
         <v>21</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
@@ -7245,11 +7245,11 @@
       <c r="A97" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B97" s="31">
         <v>21</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="31"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="33"/>
       <c r="E97" s="4">
         <v>17.751479289940828</v>
       </c>
@@ -7281,11 +7281,11 @@
       <c r="A98" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="29">
+      <c r="B98" s="31">
         <v>21</v>
       </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="4">
         <v>29.822485207100591</v>
       </c>
@@ -7317,20 +7317,20 @@
       <c r="A99" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="31">
         <v>24</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="4">
         <v>30</v>
       </c>
       <c r="F99" s="17">
-        <v>156.38999999999999</v>
+        <v>1.0976999999999999</v>
       </c>
       <c r="G99" s="23">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H99" s="4">
         <v>4.5</v>
@@ -7346,18 +7346,18 @@
       </c>
       <c r="L99" s="3">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="29">
+      <c r="B100" s="31">
         <v>27</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="4">
         <v>30</v>
       </c>
@@ -7389,11 +7389,11 @@
       <c r="A101" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="31">
         <v>24</v>
       </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="4">
         <v>0</v>
       </c>
@@ -7425,11 +7425,11 @@
       <c r="A102" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="31">
         <v>27</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="4">
         <v>30</v>
       </c>
@@ -7461,11 +7461,11 @@
       <c r="A103" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="29">
-        <v>30</v>
-      </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="31"/>
+      <c r="B103" s="31">
+        <v>30</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="33"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
@@ -7497,11 +7497,11 @@
       <c r="A104" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B104" s="31">
         <v>21</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="33"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
@@ -7533,11 +7533,11 @@
       <c r="A105" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="31">
         <v>24</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="31"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="4">
         <v>0</v>
       </c>
@@ -7569,11 +7569,11 @@
       <c r="A106" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="29">
+      <c r="B106" s="31">
         <v>15</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
       <c r="E106" s="4">
         <v>0</v>
       </c>
@@ -7605,11 +7605,11 @@
       <c r="A107" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="31">
         <v>21</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="31"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="4">
         <v>30</v>
       </c>
@@ -7641,11 +7641,11 @@
       <c r="A108" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B108" s="31">
         <v>21</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="31"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="4">
         <v>30</v>
       </c>
@@ -7677,11 +7677,11 @@
       <c r="A109" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="31">
         <v>27</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="31"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7973,45 +7973,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B108:D108"/>
@@ -8027,6 +7988,45 @@
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64CDA7-B032-8043-AE5F-ED8AA5CE068C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335FAE13-D037-3A4F-8E27-EC0CBE43375D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$109</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$128</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,17 +540,19 @@
   <si>
     <t>b59960996df62a572997fd1c6d34f966</t>
   </si>
+  <si>
+    <t>1b7f93a825b0bd297691b23561626cbb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -699,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -751,9 +753,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -772,9 +771,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -782,9 +778,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +794,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2265,7 +2270,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>480123</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>139389</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3411,10 +3416,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II128"/>
+  <dimension ref="A1:II129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3424,7 +3429,8 @@
     <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
-    <col min="6" max="7" width="16.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
     <col min="8" max="8" width="19" style="6" customWidth="1"/>
     <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="10" customWidth="1"/>
@@ -3440,22 +3446,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3476,10 +3482,10 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>120</v>
       </c>
       <c r="H2" s="15" t="s">
@@ -3514,10 +3520,10 @@
       <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="2">
         <v>29.774000000000001</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>IF(F3&gt;0, IF(F3&lt;2, 30, IF(F3&gt;100, 10, (1-(F3-2)/(100-2))*20+10)), 0)</f>
         <v>24.331836734693876</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L67" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L48" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
     </row>
@@ -3542,10 +3548,10 @@
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -3554,11 +3560,11 @@
       <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="2">
         <v>136.96</v>
       </c>
-      <c r="G4" s="23">
-        <f t="shared" ref="G4:G68" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+      <c r="G4" s="22">
+        <f t="shared" ref="G4:G69" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="4">
@@ -3582,10 +3588,10 @@
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21">
-        <v>10</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="20">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20">
         <v>0</v>
       </c>
       <c r="D5" s="1">
@@ -3594,10 +3600,10 @@
       <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="2">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3622,10 +3628,10 @@
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21">
-        <v>10</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="20">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20">
         <v>10</v>
       </c>
       <c r="D6" s="1">
@@ -3634,10 +3640,10 @@
       <c r="E6" s="4">
         <v>30</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1.4339</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3662,10 +3668,10 @@
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="20">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20">
         <v>8</v>
       </c>
       <c r="D7" s="1">
@@ -3674,10 +3680,10 @@
       <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3691,21 +3697,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>8</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>8</v>
       </c>
       <c r="D8" s="1">
@@ -3714,10 +3720,10 @@
       <c r="E8" s="4">
         <v>30</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="2">
         <v>53.58</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <f t="shared" si="1"/>
         <v>19.473469387755102</v>
       </c>
@@ -3742,10 +3748,10 @@
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>8</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="1">
@@ -3754,10 +3760,10 @@
       <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="2">
         <v>1.1835</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3782,10 +3788,10 @@
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21">
-        <v>10</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="20">
+        <v>10</v>
+      </c>
+      <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -3794,10 +3800,10 @@
       <c r="E10" s="4">
         <v>30</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="2">
         <v>116.31</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -3822,10 +3828,10 @@
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21">
-        <v>5</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="20">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
         <v>5</v>
       </c>
       <c r="D11" s="1">
@@ -3834,10 +3840,10 @@
       <c r="E11" s="4">
         <v>30</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="2">
         <v>5.6810999999999998</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>29.248755102040814</v>
       </c>
@@ -3862,10 +3868,10 @@
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>8</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>8</v>
       </c>
       <c r="D12" s="1">
@@ -3874,10 +3880,10 @@
       <c r="E12" s="4">
         <v>30</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="2">
         <v>1.0487</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3891,21 +3897,21 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>10</v>
       </c>
       <c r="D13" s="1">
@@ -3914,10 +3920,10 @@
       <c r="E13" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="2">
         <v>1.0538000000000001</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -3942,10 +3948,10 @@
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="21">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B14" s="20">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
         <v>10</v>
       </c>
       <c r="D14" s="1">
@@ -3954,10 +3960,10 @@
       <c r="E14" s="4">
         <v>30</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="2">
         <v>15.304</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <f t="shared" si="1"/>
         <v>27.284897959183674</v>
       </c>
@@ -3982,10 +3988,10 @@
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="21">
-        <v>10</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B15" s="20">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20">
         <v>10</v>
       </c>
       <c r="D15" s="1">
@@ -3994,10 +4000,10 @@
       <c r="E15" s="4">
         <v>30</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4011,21 +4017,21 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="21">
-        <v>5</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B16" s="20">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20">
         <v>8</v>
       </c>
       <c r="D16" s="1">
@@ -4034,10 +4040,10 @@
       <c r="E16" s="4">
         <v>30</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="2">
         <v>1.5833999999999999</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4062,10 +4068,10 @@
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="21">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="B17" s="20">
+        <v>10</v>
+      </c>
+      <c r="C17" s="20">
         <v>7</v>
       </c>
       <c r="D17" s="1">
@@ -4074,10 +4080,10 @@
       <c r="E17" s="4">
         <v>30</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="2">
         <v>1.0692999999999999</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4099,7 +4105,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="5">
@@ -4114,10 +4120,10 @@
       <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>22.295999999999999</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <f t="shared" si="1"/>
         <v>25.857959183673469</v>
       </c>
@@ -4142,10 +4148,10 @@
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>8</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>8</v>
       </c>
       <c r="D19" s="1">
@@ -4154,10 +4160,10 @@
       <c r="E19" s="4">
         <v>30</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="2">
         <v>39.323999999999998</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <f t="shared" si="1"/>
         <v>22.382857142857144</v>
       </c>
@@ -4182,10 +4188,10 @@
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>10</v>
       </c>
       <c r="D20" s="1">
@@ -4194,10 +4200,10 @@
       <c r="E20" s="4">
         <v>30</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="2">
         <v>1.175</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4222,10 +4228,10 @@
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="21">
-        <v>10</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="B21" s="20">
+        <v>10</v>
+      </c>
+      <c r="C21" s="20">
         <v>10</v>
       </c>
       <c r="D21" s="1">
@@ -4234,10 +4240,10 @@
       <c r="E21" s="4">
         <v>30</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4262,10 +4268,10 @@
       <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="21">
-        <v>5</v>
-      </c>
-      <c r="C22" s="21">
+      <c r="B22" s="20">
+        <v>5</v>
+      </c>
+      <c r="C22" s="20">
         <v>3</v>
       </c>
       <c r="D22" s="1">
@@ -4274,10 +4280,10 @@
       <c r="E22" s="4">
         <v>30</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="2">
         <v>1.6819999999999999</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4302,10 +4308,10 @@
       <c r="A23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="21">
-        <v>10</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="20">
+        <v>10</v>
+      </c>
+      <c r="C23" s="20">
         <v>0</v>
       </c>
       <c r="D23" s="1">
@@ -4314,10 +4320,10 @@
       <c r="E23" s="4">
         <v>30</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4342,10 +4348,10 @@
       <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>8</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>8</v>
       </c>
       <c r="D24" s="1">
@@ -4354,10 +4360,10 @@
       <c r="E24" s="4">
         <v>30</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4382,10 +4388,10 @@
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="21">
-        <v>5</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B25" s="20">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20">
         <v>8</v>
       </c>
       <c r="D25" s="1">
@@ -4394,10 +4400,10 @@
       <c r="E25" s="4">
         <v>30</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="2">
         <v>2.0127999999999999</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <f t="shared" si="1"/>
         <v>29.997387755102039</v>
       </c>
@@ -4411,21 +4417,21 @@
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="0"/>
-        <v>80.997387755102039</v>
+        <v>85.997387755102039</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="21">
-        <v>10</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="B26" s="20">
+        <v>10</v>
+      </c>
+      <c r="C26" s="20">
         <v>0</v>
       </c>
       <c r="D26" s="1">
@@ -4434,10 +4440,10 @@
       <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="23">
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4451,21 +4457,21 @@
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>3</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>2</v>
       </c>
       <c r="D27" s="1">
@@ -4474,10 +4480,10 @@
       <c r="E27" s="4">
         <v>30</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="2">
         <v>1.0944</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4502,10 +4508,10 @@
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="21">
-        <v>10</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="B28" s="20">
+        <v>10</v>
+      </c>
+      <c r="C28" s="20">
         <v>10</v>
       </c>
       <c r="D28" s="1">
@@ -4514,10 +4520,10 @@
       <c r="E28" s="4">
         <v>30</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="2">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4542,10 +4548,10 @@
       <c r="A29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="21">
-        <v>5</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="B29" s="20">
+        <v>5</v>
+      </c>
+      <c r="C29" s="20">
         <v>5</v>
       </c>
       <c r="D29" s="1">
@@ -4554,10 +4560,10 @@
       <c r="E29" s="4">
         <v>30</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="2">
         <v>108.16</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4571,21 +4577,21 @@
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="21">
-        <v>10</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="B30" s="20">
+        <v>10</v>
+      </c>
+      <c r="C30" s="20">
         <v>10</v>
       </c>
       <c r="D30" s="1">
@@ -4594,10 +4600,10 @@
       <c r="E30" s="4">
         <v>30</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="2">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4611,21 +4617,21 @@
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="21">
-        <v>5</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B31" s="20">
+        <v>5</v>
+      </c>
+      <c r="C31" s="20">
         <v>3</v>
       </c>
       <c r="D31" s="1">
@@ -4634,10 +4640,10 @@
       <c r="E31" s="4">
         <v>30</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="2">
         <v>119.53</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4662,10 +4668,10 @@
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="21">
-        <v>10</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="B32" s="20">
+        <v>10</v>
+      </c>
+      <c r="C32" s="20">
         <v>10</v>
       </c>
       <c r="D32" s="1">
@@ -4674,10 +4680,10 @@
       <c r="E32" s="4">
         <v>30</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="2">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4702,10 +4708,10 @@
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>8</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>5</v>
       </c>
       <c r="D33" s="1">
@@ -4714,10 +4720,10 @@
       <c r="E33" s="4">
         <v>30</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="2">
         <v>40.957999999999998</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <f t="shared" si="1"/>
         <v>22.049387755102039</v>
       </c>
@@ -4742,10 +4748,10 @@
       <c r="A34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="21">
-        <v>10</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B34" s="20">
+        <v>10</v>
+      </c>
+      <c r="C34" s="20">
         <v>10</v>
       </c>
       <c r="D34" s="1">
@@ -4754,10 +4760,10 @@
       <c r="E34" s="4">
         <v>30</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="2">
         <v>1.0691999999999999</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4771,21 +4777,21 @@
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="25" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="21">
-        <v>10</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B35" s="20">
+        <v>10</v>
+      </c>
+      <c r="C35" s="20">
         <v>8</v>
       </c>
       <c r="D35" s="1">
@@ -4794,10 +4800,10 @@
       <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4811,21 +4817,21 @@
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="25" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="21">
-        <v>10</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="B36" s="20">
+        <v>10</v>
+      </c>
+      <c r="C36" s="20">
         <v>8</v>
       </c>
       <c r="D36" s="1">
@@ -4834,10 +4840,10 @@
       <c r="E36" s="4">
         <v>30</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="2">
         <v>83.143000000000001</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <f t="shared" si="1"/>
         <v>13.440204081632654</v>
       </c>
@@ -4862,10 +4868,10 @@
       <c r="A37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>8</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>5</v>
       </c>
       <c r="D37" s="1">
@@ -4874,10 +4880,10 @@
       <c r="E37" s="4">
         <v>30</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="2">
         <v>1.6818</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4902,10 +4908,10 @@
       <c r="A38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="21">
-        <v>10</v>
-      </c>
-      <c r="C38" s="21">
+      <c r="B38" s="20">
+        <v>10</v>
+      </c>
+      <c r="C38" s="20">
         <v>10</v>
       </c>
       <c r="D38" s="1">
@@ -4914,10 +4920,10 @@
       <c r="E38" s="4">
         <v>30</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="2">
         <v>12.138</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <f t="shared" si="1"/>
         <v>27.931020408163263</v>
       </c>
@@ -4931,21 +4937,21 @@
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="0"/>
-        <v>92.931020408163263</v>
+        <v>97.931020408163263</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="25" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="21">
-        <v>10</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="B39" s="20">
+        <v>10</v>
+      </c>
+      <c r="C39" s="20">
         <v>10</v>
       </c>
       <c r="D39" s="1">
@@ -4954,10 +4960,10 @@
       <c r="E39" s="4">
         <v>30</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="2">
         <v>0.85</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4982,10 +4988,10 @@
       <c r="A40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="21">
-        <v>10</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B40" s="20">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20">
         <v>10</v>
       </c>
       <c r="D40" s="1">
@@ -4994,10 +5000,10 @@
       <c r="E40" s="4">
         <v>30</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23">
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5011,21 +5017,21 @@
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="25" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="21">
-        <v>10</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="20">
+        <v>10</v>
+      </c>
+      <c r="C41" s="20">
         <v>10</v>
       </c>
       <c r="D41" s="1">
@@ -5034,10 +5040,10 @@
       <c r="E41" s="4">
         <v>30</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="2">
         <v>13.052</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <f t="shared" si="1"/>
         <v>27.744489795918369</v>
       </c>
@@ -5062,10 +5068,10 @@
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="21">
-        <v>10</v>
-      </c>
-      <c r="C42" s="21">
+      <c r="B42" s="20">
+        <v>10</v>
+      </c>
+      <c r="C42" s="20">
         <v>8</v>
       </c>
       <c r="D42" s="1">
@@ -5074,10 +5080,10 @@
       <c r="E42" s="4">
         <v>30</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="2">
         <v>1.7337</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5102,10 +5108,10 @@
       <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="21">
-        <v>10</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="B43" s="20">
+        <v>10</v>
+      </c>
+      <c r="C43" s="20">
         <v>10</v>
       </c>
       <c r="D43" s="1">
@@ -5114,10 +5120,10 @@
       <c r="E43" s="4">
         <v>30</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="2">
         <v>56.232999999999997</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <f t="shared" si="1"/>
         <v>18.932040816326534</v>
       </c>
@@ -5131,21 +5137,21 @@
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="0"/>
-        <v>81.932040816326534</v>
+        <v>86.932040816326534</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>8</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>2</v>
       </c>
       <c r="D44" s="1">
@@ -5154,10 +5160,10 @@
       <c r="E44" s="4">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5171,153 +5177,153 @@
         <v>0</v>
       </c>
       <c r="K44" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="25" customHeight="1">
-      <c r="A45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="21">
-        <v>10</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="A45" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="20">
+        <v>10</v>
+      </c>
+      <c r="C45" s="20">
         <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.4880000000000001E-2</v>
+      </c>
+      <c r="G45" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="21">
-        <v>10</v>
-      </c>
-      <c r="C46" s="21">
+        <v>59</v>
+      </c>
+      <c r="B46" s="20">
+        <v>10</v>
+      </c>
+      <c r="C46" s="20">
         <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4">
-        <v>30</v>
-      </c>
-      <c r="F46" s="21">
-        <v>1.1318999999999999</v>
-      </c>
-      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
         <v>5</v>
       </c>
       <c r="I46" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>4.5100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="4">
         <v>5</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="21">
-        <v>10</v>
-      </c>
-      <c r="C47" s="21">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B47" s="20">
+        <v>10</v>
+      </c>
+      <c r="C47" s="20">
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.1318999999999999</v>
+      </c>
+      <c r="G47" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H47" s="4">
         <v>5</v>
       </c>
       <c r="I47" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="K47" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="21">
-        <v>10</v>
-      </c>
-      <c r="C48" s="21">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="B48" s="20">
+        <v>10</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
       <c r="E48" s="4">
-        <v>30</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -5335,130 +5341,127 @@
       </c>
       <c r="L48" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:243" ht="25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="21">
-        <v>8</v>
-      </c>
-      <c r="C49" s="21">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="B49" s="20">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20">
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
+        <v>30</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
       <c r="A50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="20">
+        <v>8</v>
+      </c>
+      <c r="C50" s="20">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3">
+        <f>IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:243" ht="25" customHeight="1">
+      <c r="A51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="21">
-        <v>10</v>
-      </c>
-      <c r="C50" s="26">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B51" s="20">
+        <v>10</v>
+      </c>
+      <c r="C51" s="24">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
         <v>8</v>
       </c>
-      <c r="E50" s="4">
-        <v>30</v>
-      </c>
-      <c r="F50" s="21">
+      <c r="E51" s="4">
+        <v>30</v>
+      </c>
+      <c r="F51" s="2">
         <v>14.272</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G51" s="22">
         <f t="shared" si="1"/>
         <v>27.495510204081633</v>
       </c>
-      <c r="H50" s="4">
-        <v>5</v>
-      </c>
-      <c r="I50" s="4">
-        <v>10</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="H51" s="4">
+        <v>5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
         <v>0.48080000000000001</v>
       </c>
-      <c r="K50" s="4">
-        <v>5</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" si="0"/>
+      <c r="K51" s="4">
+        <v>5</v>
+      </c>
+      <c r="L51" s="3">
+        <f>IF(SUM(B51:E51,G51,H51:I51,K51)&lt;100, SUM(B51:E51,G51,H51:I51,K51),  100)</f>
         <v>100</v>
-      </c>
-      <c r="IG50" s="7"/>
-      <c r="IH50" s="7"/>
-      <c r="II50" s="7"/>
-    </row>
-    <row r="51" spans="1:243" ht="25" customHeight="1">
-      <c r="A51" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="21">
-        <v>8</v>
-      </c>
-      <c r="C51" s="27">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-      <c r="E51" s="4">
-        <v>30</v>
-      </c>
-      <c r="F51" s="21">
-        <v>110.16</v>
-      </c>
-      <c r="G51" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H51" s="4">
-        <v>5</v>
-      </c>
-      <c r="I51" s="4">
-        <v>10</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.72140000000000004</v>
-      </c>
-      <c r="K51" s="4">
-        <v>5</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
       </c>
       <c r="IG51" s="7"/>
       <c r="IH51" s="7"/>
@@ -5466,26 +5469,26 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="21">
-        <v>5</v>
-      </c>
-      <c r="C52" s="26">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B52" s="20">
+        <v>8</v>
+      </c>
+      <c r="C52" s="25">
+        <v>8</v>
       </c>
       <c r="D52" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="4">
         <v>30</v>
       </c>
-      <c r="F52" s="21">
-        <v>1.0031000000000001</v>
-      </c>
-      <c r="G52" s="23">
+      <c r="F52" s="2">
+        <v>110.16</v>
+      </c>
+      <c r="G52" s="22">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H52" s="4">
         <v>5</v>
@@ -5494,14 +5497,14 @@
         <v>10</v>
       </c>
       <c r="J52" s="2">
-        <v>6.8999999999999999E-3</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="K52" s="4">
         <v>5</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f>IF(SUM(B52:E52,G52,H52:I52,K52)&lt;100, SUM(B52:E52,G52,H52:I52,K52),  100)</f>
+        <v>81</v>
       </c>
       <c r="IG52" s="7"/>
       <c r="IH52" s="7"/>
@@ -5509,42 +5512,42 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="21">
-        <v>10</v>
-      </c>
-      <c r="C53" s="26">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="B53" s="20">
+        <v>5</v>
+      </c>
+      <c r="C53" s="24">
+        <v>5</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
+        <v>30</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="G53" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4">
         <v>5</v>
       </c>
       <c r="I53" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K53" s="4">
         <v>5</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>IF(SUM(B53:E53,G53,H53:I53,K53)&lt;100, SUM(B53:E53,G53,H53:I53,K53),  100)</f>
+        <v>93</v>
       </c>
       <c r="IG53" s="7"/>
       <c r="IH53" s="7"/>
@@ -5552,24 +5555,24 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="21">
-        <v>8</v>
-      </c>
-      <c r="C54" s="26">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="20">
+        <v>10</v>
+      </c>
+      <c r="C54" s="24">
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5583,97 +5586,97 @@
         <v>0</v>
       </c>
       <c r="K54" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>IF(SUM(B54:E54,G54,H54:I54,K54)&lt;100, SUM(B54:E54,G54,H54:I54,K54),  100)</f>
+        <v>40</v>
       </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
       <c r="II54" s="7"/>
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
-      <c r="A55" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="25">
-        <v>9</v>
-      </c>
-      <c r="C55" s="25">
-        <v>9</v>
-      </c>
-      <c r="D55" s="25">
+      <c r="A55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="20">
         <v>8</v>
       </c>
-      <c r="E55" s="25">
-        <v>30</v>
-      </c>
-      <c r="F55" s="25">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="G55" s="23">
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H55" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="I55" s="25">
-        <v>10</v>
-      </c>
-      <c r="J55" s="18">
-        <v>0</v>
-      </c>
-      <c r="K55" s="25">
-        <v>4.5</v>
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>4</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>IF(SUM(B55:E55,G55,H55:I55,K55)&lt;100, SUM(B55:E55,G55,H55:I55,K55),  100)</f>
+        <v>17</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
       <c r="II55" s="7"/>
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="21">
+      <c r="A56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="23">
+        <v>9</v>
+      </c>
+      <c r="C56" s="23">
+        <v>9</v>
+      </c>
+      <c r="D56" s="23">
         <v>8</v>
       </c>
-      <c r="C56" s="21">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>30</v>
-      </c>
-      <c r="F56" s="21">
-        <v>79.941000000000003</v>
-      </c>
-      <c r="G56" s="23">
+      <c r="E56" s="23">
+        <v>30</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="G56" s="22">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
-      </c>
-      <c r="H56" s="4">
-        <v>5</v>
-      </c>
-      <c r="I56" s="4">
-        <v>10</v>
-      </c>
-      <c r="J56" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K56" s="4">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="H56" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="I56" s="23">
+        <v>10</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23">
+        <v>4.5</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="0"/>
-        <v>82.093673469387753</v>
+        <f>IF(SUM(B56:E56,G56,H56:I56,K56)&lt;100, SUM(B56:E56,G56,H56:I56,K56),  100)</f>
+        <v>100</v>
       </c>
       <c r="IG56" s="7"/>
       <c r="IH56" s="7"/>
@@ -5681,12 +5684,12 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="21">
+        <v>69</v>
+      </c>
+      <c r="B57" s="20">
         <v>8</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="20">
         <v>5</v>
       </c>
       <c r="D57" s="1">
@@ -5695,12 +5698,12 @@
       <c r="E57" s="4">
         <v>30</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
+      <c r="F57" s="2">
+        <v>79.941000000000003</v>
+      </c>
+      <c r="G57" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.093673469387756</v>
       </c>
       <c r="H57" s="4">
         <v>5</v>
@@ -5709,96 +5712,100 @@
         <v>10</v>
       </c>
       <c r="J57" s="2">
-        <v>1.0281439999999999</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K57" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
+        <f>IF(SUM(B57:E57,G57,H57:I57,K57)&lt;100, SUM(B57:E57,G57,H57:I57,K57),  100)</f>
+        <v>82.093673469387753</v>
       </c>
       <c r="IG57" s="7"/>
       <c r="IH57" s="7"/>
       <c r="II57" s="7"/>
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
-      <c r="A58" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="28">
-        <v>7</v>
-      </c>
-      <c r="C58" s="28">
-        <v>5</v>
-      </c>
-      <c r="D58" s="28">
-        <v>5</v>
-      </c>
-      <c r="E58" s="28">
-        <v>30</v>
-      </c>
-      <c r="F58" s="28">
-        <v>5.9455999999999998</v>
-      </c>
-      <c r="G58" s="23">
+      <c r="A58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="20">
+        <v>8</v>
+      </c>
+      <c r="C58" s="24">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>30</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
         <f t="shared" si="1"/>
-        <v>29.194775510204082</v>
-      </c>
-      <c r="H58" s="28">
-        <v>5</v>
-      </c>
-      <c r="I58" s="28">
-        <v>10</v>
-      </c>
-      <c r="J58" s="18">
-        <v>0</v>
-      </c>
-      <c r="K58" s="28">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
+        <v>10</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1.0281439999999999</v>
+      </c>
+      <c r="K58" s="4">
+        <v>4.5</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="0"/>
-        <v>96.194775510204082</v>
+        <f>IF(SUM(B58:E58,G58,H58:I58,K58)&lt;100, SUM(B58:E58,G58,H58:I58,K58),  100)</f>
+        <v>67.5</v>
       </c>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
       <c r="II58" s="7"/>
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="31">
-        <v>27</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="4">
-        <v>30</v>
-      </c>
-      <c r="F59" s="17">
-        <v>83.125</v>
-      </c>
-      <c r="G59" s="23">
+      <c r="A59" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="26">
+        <v>7</v>
+      </c>
+      <c r="C59" s="26">
+        <v>5</v>
+      </c>
+      <c r="D59" s="26">
+        <v>5</v>
+      </c>
+      <c r="E59" s="26">
+        <v>30</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5.9455999999999998</v>
+      </c>
+      <c r="G59" s="22">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
-      </c>
-      <c r="H59" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I59" s="4">
-        <v>10</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0.16397200000000001</v>
-      </c>
-      <c r="K59" s="4">
-        <v>4.5</v>
+        <v>29.194775510204082</v>
+      </c>
+      <c r="H59" s="26">
+        <v>5</v>
+      </c>
+      <c r="I59" s="26">
+        <v>10</v>
+      </c>
+      <c r="J59" s="17">
+        <v>0</v>
+      </c>
+      <c r="K59" s="26">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="0"/>
-        <v>89.443877551020407</v>
+        <f>IF(SUM(B59:E59,G59,H59:I59,K59)&lt;100, SUM(B59:E59,G59,H59:I59,K59),  100)</f>
+        <v>96.194775510204082</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -5806,38 +5813,38 @@
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="31">
-        <v>30</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="B60" s="28">
+        <v>27</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
-      <c r="F60" s="17">
-        <v>86.150999999999996</v>
-      </c>
-      <c r="G60" s="23">
+      <c r="F60" s="33">
+        <v>83.125</v>
+      </c>
+      <c r="G60" s="22">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H60" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I60" s="4">
         <v>10</v>
       </c>
       <c r="J60" s="2">
-        <v>0.79987600000000003</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K60" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="0"/>
-        <v>90.326326530612249</v>
+        <f>IF(SUM(B60:E60,G60,H60:I60,K60)&lt;100, SUM(B60:E60,G60,H60:I60,K60),  100)</f>
+        <v>89.443877551020407</v>
       </c>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
@@ -5845,38 +5852,38 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="31">
-        <v>30</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="B61" s="28">
+        <v>30</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
-      <c r="F61" s="17">
-        <v>11.093</v>
-      </c>
-      <c r="G61" s="23">
+      <c r="F61" s="33">
+        <v>86.150999999999996</v>
+      </c>
+      <c r="G61" s="22">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H61" s="4">
         <v>5</v>
       </c>
       <c r="I61" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J61" s="2">
-        <v>5.2023E-2</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K61" s="4">
         <v>2.5</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="0"/>
-        <v>95.644285714285715</v>
+        <f>IF(SUM(B61:E61,G61,H61:I61,K61)&lt;100, SUM(B61:E61,G61,H61:I61,K61),  100)</f>
+        <v>90.326326530612249</v>
       </c>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
@@ -5884,22 +5891,22 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="31">
-        <v>24</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="B62" s="28">
+        <v>30</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
-      <c r="F62" s="17">
-        <v>157.71</v>
-      </c>
-      <c r="G62" s="23">
+      <c r="F62" s="33">
+        <v>11.093</v>
+      </c>
+      <c r="G62" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H62" s="4">
         <v>5</v>
@@ -5908,14 +5915,14 @@
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K62" s="4">
         <v>2.5</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="0"/>
-        <v>71.5</v>
+        <f>IF(SUM(B62:E62,G62,H62:I62,K62)&lt;100, SUM(B62:E62,G62,H62:I62,K62),  100)</f>
+        <v>95.644285714285715</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -5923,25 +5930,25 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="31">
+        <v>74</v>
+      </c>
+      <c r="B63" s="28">
         <v>24</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
-        <v>0</v>
-      </c>
-      <c r="G63" s="23">
+        <v>30</v>
+      </c>
+      <c r="F63" s="33">
+        <v>157.71</v>
+      </c>
+      <c r="G63" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I63" s="4">
         <v>0</v>
@@ -5953,8 +5960,8 @@
         <v>2.5</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>IF(SUM(B63:E63,G63,H63:I63,K63)&lt;100, SUM(B63:E63,G63,H63:I63,K63),  100)</f>
+        <v>71.5</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -5962,20 +5969,20 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="31">
+        <v>75</v>
+      </c>
+      <c r="B64" s="28">
         <v>24</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="17">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
+      <c r="F64" s="33">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5986,13 +5993,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>1.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="K64" s="4">
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
         <v>29</v>
       </c>
       <c r="IG64" s="7"/>
@@ -6001,20 +6008,20 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="31">
-        <v>21</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="B65" s="28">
+        <v>24</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="17">
-        <v>0</v>
-      </c>
-      <c r="G65" s="23">
+      <c r="F65" s="33">
+        <v>0</v>
+      </c>
+      <c r="G65" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6025,14 +6032,14 @@
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K65" s="4">
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>IF(SUM(B65:E65,G65,H65:I65,K65)&lt;100, SUM(B65:E65,G65,H65:I65,K65),  100)</f>
+        <v>29</v>
       </c>
       <c r="IG65" s="7"/>
       <c r="IH65" s="7"/>
@@ -6040,38 +6047,38 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="31">
-        <v>24</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="B66" s="28">
+        <v>21</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="4">
-        <v>30</v>
-      </c>
-      <c r="F66" s="17">
-        <v>82.278999999999996</v>
-      </c>
-      <c r="G66" s="23">
+        <v>0</v>
+      </c>
+      <c r="F66" s="33">
+        <v>0</v>
+      </c>
+      <c r="G66" s="22">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>0</v>
       </c>
       <c r="H66" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>3.6273E-2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="4">
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="0"/>
-        <v>74.616530612244901</v>
+        <f>IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
+        <v>26</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -6079,38 +6086,38 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="31">
-        <v>27</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="B67" s="28">
+        <v>24</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
-      <c r="F67" s="17">
-        <v>85.936999999999998</v>
-      </c>
-      <c r="G67" s="23">
+      <c r="F67" s="33">
+        <v>82.278999999999996</v>
+      </c>
+      <c r="G67" s="22">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>13.616530612244899</v>
       </c>
       <c r="H67" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <v>0</v>
+        <v>3.6273E-2</v>
       </c>
       <c r="K67" s="4">
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="0"/>
-        <v>76.37</v>
+        <f>IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
+        <v>74.616530612244901</v>
       </c>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
@@ -6118,25 +6125,25 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="31">
-        <v>24</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="B68" s="28">
+        <v>27</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
-      <c r="F68" s="17">
-        <v>160.13</v>
-      </c>
-      <c r="G68" s="23">
+      <c r="F68" s="33">
+        <v>85.936999999999998</v>
+      </c>
+      <c r="G68" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="H68" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I68" s="4">
         <v>0</v>
@@ -6148,8 +6155,8 @@
         <v>2.5</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" ref="L68:L108" si="2">IF(SUM(B68:E68,G68,H68:I68,K68)&lt;100, SUM(B68:E68,G68,H68:I68,K68),  100)</f>
-        <v>71</v>
+        <f>IF(SUM(B68:E68,G68,H68:I68,K68)&lt;100, SUM(B68:E68,G68,H68:I68,K68),  100)</f>
+        <v>76.37</v>
       </c>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
@@ -6157,38 +6164,38 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="31">
-        <v>21</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="28">
+        <v>24</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="17">
-        <v>0</v>
-      </c>
-      <c r="G69" s="23">
-        <f t="shared" ref="G69:G109" si="3">IF(F69&gt;0, IF(F69&lt;2, 30, IF(F69&gt;100, 10, (1-(F69-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F69" s="33">
+        <v>160.13</v>
+      </c>
+      <c r="G69" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="H69" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
         <v>2.5</v>
       </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2">
-        <v>8.7390000000000002E-3</v>
-      </c>
-      <c r="K69" s="4">
-        <v>4</v>
-      </c>
       <c r="L69" s="3">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f>IF(SUM(B69:E69,G69,H69:I69,K69)&lt;100, SUM(B69:E69,G69,H69:I69,K69),  100)</f>
+        <v>71</v>
       </c>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
@@ -6196,38 +6203,38 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="31">
-        <v>30</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="B70" s="28">
+        <v>21</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="4">
-        <v>30</v>
-      </c>
-      <c r="F70" s="17">
-        <v>22.228999999999999</v>
-      </c>
-      <c r="G70" s="23">
-        <f t="shared" si="3"/>
-        <v>25.871632653061226</v>
+        <v>0</v>
+      </c>
+      <c r="F70" s="33">
+        <v>0</v>
+      </c>
+      <c r="G70" s="22">
+        <f t="shared" ref="G70:G110" si="2">IF(F70&gt;0, IF(F70&lt;2, 30, IF(F70&gt;100, 10, (1-(F70-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H70" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>8.7390000000000002E-3</v>
+      </c>
+      <c r="K70" s="4">
         <v>4</v>
       </c>
-      <c r="I70" s="4">
-        <v>10</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <v>2.5</v>
-      </c>
       <c r="L70" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(SUM(B70:E70,G70,H70:I70,K70)&lt;100, SUM(B70:E70,G70,H70:I70,K70),  100)</f>
+        <v>27.5</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -6235,38 +6242,38 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="31">
-        <v>27</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
+        <v>82</v>
+      </c>
+      <c r="B71" s="28">
+        <v>30</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="17">
-        <v>0</v>
-      </c>
-      <c r="G71" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F71" s="33">
+        <v>22.228999999999999</v>
+      </c>
+      <c r="G71" s="22">
+        <f t="shared" si="2"/>
+        <v>25.871632653061226</v>
       </c>
       <c r="H71" s="4">
+        <v>4</v>
+      </c>
+      <c r="I71" s="4">
+        <v>10</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
         <v>2.5</v>
       </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0.25622400000000001</v>
-      </c>
-      <c r="K71" s="4">
-        <v>4.5</v>
-      </c>
       <c r="L71" s="3">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f>IF(SUM(B71:E71,G71,H71:I71,K71)&lt;100, SUM(B71:E71,G71,H71:I71,K71),  100)</f>
+        <v>100</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -6274,38 +6281,38 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="31">
-        <v>30</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="B72" s="28">
+        <v>27</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="4">
-        <v>30</v>
-      </c>
-      <c r="F72" s="17">
-        <v>22.785</v>
-      </c>
-      <c r="G72" s="23">
-        <f t="shared" si="3"/>
-        <v>25.758163265306123</v>
+        <v>0</v>
+      </c>
+      <c r="F72" s="33">
+        <v>0</v>
+      </c>
+      <c r="G72" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I72" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K72" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(SUM(B72:E72,G72,H72:I72,K72)&lt;100, SUM(B72:E72,G72,H72:I72,K72),  100)</f>
+        <v>34</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -6313,38 +6320,38 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="31">
-        <v>24</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
+        <v>84</v>
+      </c>
+      <c r="B73" s="28">
+        <v>30</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="17">
-        <v>0</v>
-      </c>
-      <c r="G73" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F73" s="33">
+        <v>22.785</v>
+      </c>
+      <c r="G73" s="22">
+        <f t="shared" si="2"/>
+        <v>25.758163265306123</v>
       </c>
       <c r="H73" s="4">
+        <v>5</v>
+      </c>
+      <c r="I73" s="4">
+        <v>10</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
         <v>2.5</v>
       </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0.25599100000000002</v>
-      </c>
-      <c r="K73" s="4">
-        <v>3.5</v>
-      </c>
       <c r="L73" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>IF(SUM(B73:E73,G73,H73:I73,K73)&lt;100, SUM(B73:E73,G73,H73:I73,K73),  100)</f>
+        <v>100</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -6352,38 +6359,38 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="31">
+        <v>85</v>
+      </c>
+      <c r="B74" s="28">
         <v>24</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="4">
-        <v>30</v>
-      </c>
-      <c r="F74" s="17">
-        <v>89.034999999999997</v>
-      </c>
-      <c r="G74" s="23">
-        <f t="shared" si="3"/>
-        <v>12.237755102040817</v>
+        <v>0</v>
+      </c>
+      <c r="F74" s="33">
+        <v>0</v>
+      </c>
+      <c r="G74" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H74" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I74" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K74" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="2"/>
-        <v>82.737755102040822</v>
+        <f>IF(SUM(B74:E74,G74,H74:I74,K74)&lt;100, SUM(B74:E74,G74,H74:I74,K74),  100)</f>
+        <v>30</v>
       </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
@@ -6391,38 +6398,38 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="31">
-        <v>27</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="B75" s="28">
+        <v>24</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="17">
-        <v>0</v>
-      </c>
-      <c r="G75" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F75" s="33">
+        <v>89.034999999999997</v>
+      </c>
+      <c r="G75" s="22">
+        <f t="shared" si="2"/>
+        <v>12.237755102040817</v>
       </c>
       <c r="H75" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I75" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J75" s="2">
-        <v>0.11136799999999999</v>
+        <v>0</v>
       </c>
       <c r="K75" s="4">
         <v>2.5</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f>IF(SUM(B75:E75,G75,H75:I75,K75)&lt;100, SUM(B75:E75,G75,H75:I75,K75),  100)</f>
+        <v>82.737755102040822</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -6430,21 +6437,21 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="31">
-        <v>24</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
+        <v>87</v>
+      </c>
+      <c r="B76" s="28">
+        <v>27</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
-      <c r="F76" s="17">
-        <v>0</v>
-      </c>
-      <c r="G76" s="23">
-        <f t="shared" si="3"/>
+      <c r="F76" s="33">
+        <v>0</v>
+      </c>
+      <c r="G76" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H76" s="4">
@@ -6454,14 +6461,14 @@
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K76" s="4">
         <v>2.5</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f>IF(SUM(B76:E76,G76,H76:I76,K76)&lt;100, SUM(B76:E76,G76,H76:I76,K76),  100)</f>
+        <v>32</v>
       </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
@@ -6469,21 +6476,21 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="31">
-        <v>21</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="B77" s="28">
+        <v>24</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
-      <c r="F77" s="17">
-        <v>0</v>
-      </c>
-      <c r="G77" s="23">
-        <f t="shared" si="3"/>
+      <c r="F77" s="33">
+        <v>0</v>
+      </c>
+      <c r="G77" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H77" s="4">
@@ -6493,14 +6500,14 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0.23594999999999999</v>
+        <v>0</v>
       </c>
       <c r="K77" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>IF(SUM(B77:E77,G77,H77:I77,K77)&lt;100, SUM(B77:E77,G77,H77:I77,K77),  100)</f>
+        <v>29</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -6508,38 +6515,38 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="31">
-        <v>24</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="B78" s="28">
+        <v>21</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="4">
-        <v>30</v>
-      </c>
-      <c r="F78" s="17">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="G78" s="23">
-        <f t="shared" si="3"/>
-        <v>14.72734693877551</v>
+        <v>0</v>
+      </c>
+      <c r="F78" s="33">
+        <v>0</v>
+      </c>
+      <c r="G78" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H78" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I78" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>0</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K78" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="2"/>
-        <v>85.727346938775511</v>
+        <f>IF(SUM(B78:E78,G78,H78:I78,K78)&lt;100, SUM(B78:E78,G78,H78:I78,K78),  100)</f>
+        <v>27</v>
       </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
@@ -6547,38 +6554,38 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="31">
-        <v>30</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="B79" s="28">
+        <v>24</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="17">
-        <v>0</v>
-      </c>
-      <c r="G79" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F79" s="33">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" si="2"/>
+        <v>14.72734693877551</v>
       </c>
       <c r="H79" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I79" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J79" s="2">
-        <v>1.6031E-2</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4">
         <v>2.5</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>IF(SUM(B79:E79,G79,H79:I79,K79)&lt;100, SUM(B79:E79,G79,H79:I79,K79),  100)</f>
+        <v>85.727346938775511</v>
       </c>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
@@ -6586,21 +6593,21 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="31">
-        <v>24</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
+        <v>28</v>
+      </c>
+      <c r="B80" s="28">
+        <v>30</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="4">
         <v>0</v>
       </c>
-      <c r="F80" s="17">
-        <v>0</v>
-      </c>
-      <c r="G80" s="23">
-        <f t="shared" si="3"/>
+      <c r="F80" s="33">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H80" s="4">
@@ -6610,14 +6617,14 @@
         <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>0.36402000000000001</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K80" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>IF(SUM(B80:E80,G80,H80:I80,K80)&lt;100, SUM(B80:E80,G80,H80:I80,K80),  100)</f>
+        <v>35</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -6625,38 +6632,38 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="31">
-        <v>21</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="B81" s="28">
+        <v>24</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="4">
-        <v>30</v>
-      </c>
-      <c r="F81" s="17">
-        <v>76.659000000000006</v>
-      </c>
-      <c r="G81" s="23">
-        <f t="shared" si="3"/>
-        <v>14.763469387755102</v>
+        <v>0</v>
+      </c>
+      <c r="F81" s="33">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H81" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0.36402000000000001</v>
+      </c>
+      <c r="K81" s="4">
         <v>3.5</v>
       </c>
-      <c r="I81" s="4">
-        <v>10</v>
-      </c>
-      <c r="J81" s="2">
-        <v>0.18420700000000001</v>
-      </c>
-      <c r="K81" s="4">
-        <v>4.5</v>
-      </c>
       <c r="L81" s="3">
-        <f t="shared" si="2"/>
-        <v>83.763469387755094</v>
+        <f>IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
+        <v>30</v>
       </c>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
@@ -6664,38 +6671,38 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="31">
-        <v>24</v>
-      </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
+        <v>89</v>
+      </c>
+      <c r="B82" s="28">
+        <v>21</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
-      <c r="F82" s="17">
-        <v>75.662000000000006</v>
-      </c>
-      <c r="G82" s="23">
-        <f t="shared" si="3"/>
-        <v>14.966938775510204</v>
+      <c r="F82" s="33">
+        <v>76.659000000000006</v>
+      </c>
+      <c r="G82" s="22">
+        <f t="shared" si="2"/>
+        <v>14.763469387755102</v>
       </c>
       <c r="H82" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I82" s="4">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.18420700000000001</v>
+      </c>
+      <c r="K82" s="4">
         <v>4.5</v>
       </c>
-      <c r="I82" s="4">
-        <v>10</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0.29575899999999999</v>
-      </c>
-      <c r="K82" s="4">
-        <v>5</v>
-      </c>
       <c r="L82" s="3">
-        <f t="shared" si="2"/>
-        <v>88.466938775510201</v>
+        <f>IF(SUM(B82:E82,G82,H82:I82,K82)&lt;100, SUM(B82:E82,G82,H82:I82,K82),  100)</f>
+        <v>83.763469387755094</v>
       </c>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
@@ -6703,38 +6710,38 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="31">
-        <v>30</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="B83" s="28">
+        <v>24</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
-      <c r="F83" s="17">
-        <v>18.93</v>
-      </c>
-      <c r="G83" s="23">
-        <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
+      <c r="F83" s="33">
+        <v>75.662000000000006</v>
+      </c>
+      <c r="G83" s="22">
+        <f t="shared" si="2"/>
+        <v>14.966938775510204</v>
       </c>
       <c r="H83" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I83" s="4">
         <v>10</v>
       </c>
       <c r="J83" s="2">
-        <v>2.3715E-2</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K83" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(SUM(B83:E83,G83,H83:I83,K83)&lt;100, SUM(B83:E83,G83,H83:I83,K83),  100)</f>
+        <v>88.466938775510201</v>
       </c>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
@@ -6742,38 +6749,38 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="31">
-        <v>24</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33"/>
+        <v>91</v>
+      </c>
+      <c r="B84" s="28">
+        <v>30</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
-      <c r="F84" s="17">
-        <v>19.364000000000001</v>
-      </c>
-      <c r="G84" s="23">
-        <f t="shared" si="3"/>
-        <v>26.456326530612245</v>
+      <c r="F84" s="33">
+        <v>18.93</v>
+      </c>
+      <c r="G84" s="22">
+        <f t="shared" si="2"/>
+        <v>26.544897959183672</v>
       </c>
       <c r="H84" s="4">
+        <v>5</v>
+      </c>
+      <c r="I84" s="4">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2.3715E-2</v>
+      </c>
+      <c r="K84" s="4">
         <v>4.5</v>
       </c>
-      <c r="I84" s="4">
-        <v>10</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <v>2.5</v>
-      </c>
       <c r="L84" s="3">
-        <f t="shared" si="2"/>
-        <v>97.456326530612245</v>
+        <f>IF(SUM(B84:E84,G84,H84:I84,K84)&lt;100, SUM(B84:E84,G84,H84:I84,K84),  100)</f>
+        <v>100</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -6781,28 +6788,28 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="31">
-        <v>27</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33"/>
+        <v>92</v>
+      </c>
+      <c r="B85" s="28">
+        <v>24</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="17">
-        <v>0</v>
-      </c>
-      <c r="G85" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F85" s="33">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="G85" s="22">
+        <f t="shared" si="2"/>
+        <v>26.456326530612245</v>
       </c>
       <c r="H85" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I85" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
@@ -6811,8 +6818,8 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f>IF(SUM(B85:E85,G85,H85:I85,K85)&lt;100, SUM(B85:E85,G85,H85:I85,K85),  100)</f>
+        <v>97.456326530612245</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -6820,21 +6827,21 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" s="31">
-        <v>21</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
+        <v>93</v>
+      </c>
+      <c r="B86" s="28">
+        <v>27</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
-      <c r="F86" s="17">
-        <v>0</v>
-      </c>
-      <c r="G86" s="23">
-        <f t="shared" si="3"/>
+      <c r="F86" s="33">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H86" s="4">
@@ -6850,8 +6857,8 @@
         <v>2.5</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>IF(SUM(B86:E86,G86,H86:I86,K86)&lt;100, SUM(B86:E86,G86,H86:I86,K86),  100)</f>
+        <v>32</v>
       </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
@@ -6859,21 +6866,21 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="31">
-        <v>27</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="33"/>
+        <v>94</v>
+      </c>
+      <c r="B87" s="28">
+        <v>21</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="17">
-        <v>0</v>
-      </c>
-      <c r="G87" s="23">
-        <f t="shared" si="3"/>
+      <c r="F87" s="33">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H87" s="4">
@@ -6883,14 +6890,14 @@
         <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>0.616757</v>
+        <v>0</v>
       </c>
       <c r="K87" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f>IF(SUM(B87:E87,G87,H87:I87,K87)&lt;100, SUM(B87:E87,G87,H87:I87,K87),  100)</f>
+        <v>26</v>
       </c>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
@@ -6898,38 +6905,38 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="31">
-        <v>30</v>
-      </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
+        <v>95</v>
+      </c>
+      <c r="B88" s="28">
+        <v>27</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="4">
-        <v>30</v>
-      </c>
-      <c r="F88" s="17">
-        <v>80.263999999999996</v>
-      </c>
-      <c r="G88" s="23">
-        <f t="shared" si="3"/>
-        <v>14.027755102040818</v>
+        <v>0</v>
+      </c>
+      <c r="F88" s="33">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H88" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I88" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>0.616757</v>
       </c>
       <c r="K88" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="2"/>
-        <v>92.027755102040814</v>
+        <f>IF(SUM(B88:E88,G88,H88:I88,K88)&lt;100, SUM(B88:E88,G88,H88:I88,K88),  100)</f>
+        <v>34</v>
       </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
@@ -6937,38 +6944,38 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="31">
-        <v>21</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
+        <v>31</v>
+      </c>
+      <c r="B89" s="28">
+        <v>30</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="4">
-        <v>0</v>
-      </c>
-      <c r="F89" s="17">
-        <v>0</v>
-      </c>
-      <c r="G89" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F89" s="33">
+        <v>80.263999999999996</v>
+      </c>
+      <c r="G89" s="22">
+        <f t="shared" si="2"/>
+        <v>14.027755102040818</v>
       </c>
       <c r="H89" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I89" s="4">
         <v>10</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>2.2478000000000001E-2</v>
       </c>
       <c r="K89" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f>IF(SUM(B89:E89,G89,H89:I89,K89)&lt;100, SUM(B89:E89,G89,H89:I89,K89),  100)</f>
+        <v>92.027755102040814</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -6976,38 +6983,38 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="31">
-        <v>0</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33"/>
+        <v>61</v>
+      </c>
+      <c r="B90" s="28">
+        <v>21</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="4">
         <v>0</v>
       </c>
-      <c r="F90" s="17">
-        <v>0</v>
-      </c>
-      <c r="G90" s="23">
-        <f t="shared" si="3"/>
+      <c r="F90" s="33">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H90" s="4">
         <v>2.5</v>
       </c>
       <c r="I90" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K90" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>IF(SUM(B90:E90,G90,H90:I90,K90)&lt;100, SUM(B90:E90,G90,H90:I90,K90),  100)</f>
+        <v>36</v>
       </c>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
@@ -7015,38 +7022,38 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="31">
-        <v>27</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="33"/>
+        <v>96</v>
+      </c>
+      <c r="B91" s="28">
+        <v>0</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="4">
-        <v>30</v>
-      </c>
-      <c r="F91" s="17">
-        <v>20.995999999999999</v>
-      </c>
-      <c r="G91" s="23">
-        <f t="shared" si="3"/>
-        <v>26.123265306122448</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="33">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H91" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I91" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>1.7333999999999999E-2</v>
       </c>
       <c r="K91" s="4">
         <v>4.5</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(SUM(B91:E91,G91,H91:I91,K91)&lt;100, SUM(B91:E91,G91,H91:I91,K91),  100)</f>
+        <v>7</v>
       </c>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
@@ -7054,22 +7061,22 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="31">
-        <v>21</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33"/>
+        <v>97</v>
+      </c>
+      <c r="B92" s="28">
+        <v>27</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
-      <c r="F92" s="17">
-        <v>156</v>
-      </c>
-      <c r="G92" s="23">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="F92" s="33">
+        <v>20.995999999999999</v>
+      </c>
+      <c r="G92" s="22">
+        <f t="shared" si="2"/>
+        <v>26.123265306122448</v>
       </c>
       <c r="H92" s="4">
         <v>4.5</v>
@@ -7078,14 +7085,14 @@
         <v>10</v>
       </c>
       <c r="J92" s="2">
-        <v>0.197292</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K92" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="2"/>
-        <v>79.5</v>
+        <f>IF(SUM(B92:E92,G92,H92:I92,K92)&lt;100, SUM(B92:E92,G92,H92:I92,K92),  100)</f>
+        <v>100</v>
       </c>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
@@ -7093,38 +7100,38 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="31">
-        <v>24</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="B93" s="28">
+        <v>21</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
-      <c r="F93" s="17">
-        <v>78.983999999999995</v>
-      </c>
-      <c r="G93" s="23">
-        <f t="shared" si="3"/>
-        <v>14.288979591836737</v>
+      <c r="F93" s="33">
+        <v>156</v>
+      </c>
+      <c r="G93" s="22">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H93" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I93" s="4">
         <v>10</v>
       </c>
       <c r="J93" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>0.197292</v>
       </c>
       <c r="K93" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="2"/>
-        <v>87.788979591836735</v>
+        <f>IF(SUM(B93:E93,G93,H93:I93,K93)&lt;100, SUM(B93:E93,G93,H93:I93,K93),  100)</f>
+        <v>79.5</v>
       </c>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
@@ -7132,22 +7139,22 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="31">
-        <v>30</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="B94" s="28">
+        <v>24</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
-      <c r="F94" s="17">
-        <v>158.24</v>
-      </c>
-      <c r="G94" s="23">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="F94" s="33">
+        <v>78.983999999999995</v>
+      </c>
+      <c r="G94" s="22">
+        <f t="shared" si="2"/>
+        <v>14.288979591836737</v>
       </c>
       <c r="H94" s="4">
         <v>5</v>
@@ -7156,14 +7163,14 @@
         <v>10</v>
       </c>
       <c r="J94" s="2">
-        <v>0.44423499999999999</v>
+        <v>2.8327999999999999E-2</v>
       </c>
       <c r="K94" s="4">
         <v>4.5</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="2"/>
-        <v>89.5</v>
+        <f>IF(SUM(B94:E94,G94,H94:I94,K94)&lt;100, SUM(B94:E94,G94,H94:I94,K94),  100)</f>
+        <v>87.788979591836735</v>
       </c>
       <c r="IG94" s="7"/>
       <c r="IH94" s="7"/>
@@ -7171,94 +7178,97 @@
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="31">
-        <v>30</v>
-      </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="B95" s="28">
+        <v>30</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
-      <c r="F95" s="17">
-        <v>80.319000000000003</v>
-      </c>
-      <c r="G95" s="23">
-        <f t="shared" si="3"/>
-        <v>14.016530612244898</v>
+      <c r="F95" s="33">
+        <v>158.24</v>
+      </c>
+      <c r="G95" s="22">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H95" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I95" s="4">
         <v>10</v>
       </c>
       <c r="J95" s="2">
-        <v>0.33158300000000002</v>
+        <v>0.44423499999999999</v>
       </c>
       <c r="K95" s="4">
         <v>4.5</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="2"/>
-        <v>93.016530612244892</v>
-      </c>
+        <f>IF(SUM(B95:E95,G95,H95:I95,K95)&lt;100, SUM(B95:E95,G95,H95:I95,K95),  100)</f>
+        <v>89.5</v>
+      </c>
+      <c r="IG95" s="7"/>
+      <c r="IH95" s="7"/>
+      <c r="II95" s="7"/>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="31">
-        <v>21</v>
-      </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="B96" s="28">
+        <v>30</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
-      <c r="F96" s="17">
-        <v>0</v>
-      </c>
-      <c r="G96" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="F96" s="33">
+        <v>80.319000000000003</v>
+      </c>
+      <c r="G96" s="22">
+        <f t="shared" si="2"/>
+        <v>14.016530612244898</v>
       </c>
       <c r="H96" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I96" s="4">
         <v>10</v>
       </c>
       <c r="J96" s="2">
-        <v>8.4103999999999998E-2</v>
+        <v>0.33158300000000002</v>
       </c>
       <c r="K96" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="2"/>
-        <v>67</v>
+        <f>IF(SUM(B96:E96,G96,H96:I96,K96)&lt;100, SUM(B96:E96,G96,H96:I96,K96),  100)</f>
+        <v>93.016530612244892</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="31">
+        <v>101</v>
+      </c>
+      <c r="B97" s="28">
         <v>21</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="33"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="4">
-        <v>17.751479289940828</v>
-      </c>
-      <c r="F97" s="17">
-        <v>152.19</v>
-      </c>
-      <c r="G97" s="23">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F97" s="33">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H97" s="4">
         <v>2.5</v>
@@ -7267,214 +7277,214 @@
         <v>10</v>
       </c>
       <c r="J97" s="2">
-        <v>1.9650999999999998E-2</v>
+        <v>8.4103999999999998E-2</v>
       </c>
       <c r="K97" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="2"/>
-        <v>63.751479289940832</v>
+        <f>IF(SUM(B97:E97,G97,H97:I97,K97)&lt;100, SUM(B97:E97,G97,H97:I97,K97),  100)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="31">
+        <v>102</v>
+      </c>
+      <c r="B98" s="28">
         <v>21</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="33"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="4">
-        <v>29.822485207100591</v>
-      </c>
-      <c r="F98" s="17">
-        <v>36.862000000000002</v>
-      </c>
-      <c r="G98" s="23">
-        <f t="shared" si="3"/>
-        <v>22.885306122448981</v>
+        <v>17.751479289940828</v>
+      </c>
+      <c r="F98" s="33">
+        <v>152.19</v>
+      </c>
+      <c r="G98" s="22">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H98" s="4">
         <v>2.5</v>
       </c>
       <c r="I98" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J98" s="2">
-        <v>9.5962000000000006E-2</v>
+        <v>1.9650999999999998E-2</v>
       </c>
       <c r="K98" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="2"/>
-        <v>80.707791329549565</v>
+        <f>IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
+        <v>63.751479289940832</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="31">
-        <v>24</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
+        <v>103</v>
+      </c>
+      <c r="B99" s="28">
+        <v>21</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="4">
-        <v>30</v>
-      </c>
-      <c r="F99" s="17">
-        <v>1.0976999999999999</v>
-      </c>
-      <c r="G99" s="23">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>29.822485207100591</v>
+      </c>
+      <c r="F99" s="33">
+        <v>36.862000000000002</v>
+      </c>
+      <c r="G99" s="22">
+        <f t="shared" si="2"/>
+        <v>22.885306122448981</v>
       </c>
       <c r="H99" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>9.5962000000000006E-2</v>
+      </c>
+      <c r="K99" s="4">
         <v>4.5</v>
       </c>
-      <c r="I99" s="4">
-        <v>10</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0.11998499999999999</v>
-      </c>
-      <c r="K99" s="4">
-        <v>2.5</v>
-      </c>
       <c r="L99" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>IF(SUM(B99:E99,G99,H99:I99,K99)&lt;100, SUM(B99:E99,G99,H99:I99,K99),  100)</f>
+        <v>80.707791329549565</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="31">
-        <v>27</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="33"/>
+        <v>104</v>
+      </c>
+      <c r="B100" s="28">
+        <v>24</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="4">
         <v>30</v>
       </c>
-      <c r="F100" s="17">
-        <v>83.876000000000005</v>
-      </c>
-      <c r="G100" s="23">
-        <f t="shared" si="3"/>
-        <v>13.290612244897959</v>
+      <c r="F100" s="33">
+        <v>1.0976999999999999</v>
+      </c>
+      <c r="G100" s="22">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H100" s="4">
         <v>4.5</v>
       </c>
       <c r="I100" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J100" s="2">
-        <v>0</v>
+        <v>0.11998499999999999</v>
       </c>
       <c r="K100" s="4">
         <v>2.5</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="2"/>
-        <v>77.290612244897957</v>
+        <f>IF(SUM(B100:E100,G100,H100:I100,K100)&lt;100, SUM(B100:E100,G100,H100:I100,K100),  100)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="31">
-        <v>24</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33"/>
+        <v>105</v>
+      </c>
+      <c r="B101" s="28">
+        <v>27</v>
+      </c>
+      <c r="C101" s="29"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="17">
-        <v>0</v>
-      </c>
-      <c r="G101" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F101" s="33">
+        <v>83.876000000000005</v>
+      </c>
+      <c r="G101" s="22">
+        <f t="shared" si="2"/>
+        <v>13.290612244897959</v>
       </c>
       <c r="H101" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
         <v>2.5</v>
       </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2">
-        <v>1.952367</v>
-      </c>
-      <c r="K101" s="4">
-        <v>4.5</v>
-      </c>
       <c r="L101" s="3">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f>IF(SUM(B101:E101,G101,H101:I101,K101)&lt;100, SUM(B101:E101,G101,H101:I101,K101),  100)</f>
+        <v>77.290612244897957</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="31">
-        <v>27</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="B102" s="28">
+        <v>24</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="4">
-        <v>30</v>
-      </c>
-      <c r="F102" s="17">
-        <v>153.26</v>
-      </c>
-      <c r="G102" s="23">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="33">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H102" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I102" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2">
-        <v>0.29591299999999998</v>
+        <v>1.952367</v>
       </c>
       <c r="K102" s="4">
         <v>4.5</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f>IF(SUM(B102:E102,G102,H102:I102,K102)&lt;100, SUM(B102:E102,G102,H102:I102,K102),  100)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="31">
-        <v>30</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="B103" s="28">
+        <v>27</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
-      <c r="F103" s="17">
-        <v>74.911000000000001</v>
-      </c>
-      <c r="G103" s="23">
-        <f t="shared" si="3"/>
-        <v>15.120204081632654</v>
+      <c r="F103" s="33">
+        <v>153.26</v>
+      </c>
+      <c r="G103" s="22">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H103" s="4">
         <v>4.5</v>
@@ -7483,34 +7493,34 @@
         <v>10</v>
       </c>
       <c r="J103" s="2">
-        <v>1.5566E-2</v>
+        <v>0.29591299999999998</v>
       </c>
       <c r="K103" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="2"/>
-        <v>93.62020408163265</v>
+        <f>IF(SUM(B103:E103,G103,H103:I103,K103)&lt;100, SUM(B103:E103,G103,H103:I103,K103),  100)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="31">
-        <v>21</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="B104" s="28">
+        <v>30</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
-      <c r="F104" s="17">
-        <v>11.08</v>
-      </c>
-      <c r="G104" s="23">
-        <f t="shared" si="3"/>
-        <v>28.146938775510204</v>
+      <c r="F104" s="33">
+        <v>74.911000000000001</v>
+      </c>
+      <c r="G104" s="22">
+        <f t="shared" si="2"/>
+        <v>15.120204081632654</v>
       </c>
       <c r="H104" s="4">
         <v>4.5</v>
@@ -7519,260 +7529,274 @@
         <v>10</v>
       </c>
       <c r="J104" s="2">
-        <v>7.6779999999999999E-3</v>
+        <v>1.5566E-2</v>
       </c>
       <c r="K104" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="2"/>
-        <v>96.146938775510208</v>
+        <f>IF(SUM(B104:E104,G104,H104:I104,K104)&lt;100, SUM(B104:E104,G104,H104:I104,K104),  100)</f>
+        <v>93.62020408163265</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="31">
-        <v>24</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="B105" s="28">
+        <v>21</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="30"/>
       <c r="E105" s="4">
-        <v>0</v>
-      </c>
-      <c r="F105" s="17">
-        <v>0</v>
-      </c>
-      <c r="G105" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="F105" s="33">
+        <v>11.08</v>
+      </c>
+      <c r="G105" s="22">
+        <f t="shared" si="2"/>
+        <v>28.146938775510204</v>
       </c>
       <c r="H105" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I105" s="4">
         <v>10</v>
       </c>
       <c r="J105" s="2">
-        <v>0</v>
+        <v>7.6779999999999999E-3</v>
       </c>
       <c r="K105" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f>IF(SUM(B105:E105,G105,H105:I105,K105)&lt;100, SUM(B105:E105,G105,H105:I105,K105),  100)</f>
+        <v>96.146938775510208</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="31">
-        <v>15</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="B106" s="28">
+        <v>24</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="30"/>
       <c r="E106" s="4">
         <v>0</v>
       </c>
-      <c r="F106" s="17">
-        <v>0</v>
-      </c>
-      <c r="G106" s="23">
-        <f t="shared" si="3"/>
+      <c r="F106" s="33">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I106" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J106" s="2">
-        <v>7.175E-3</v>
+        <v>0</v>
       </c>
       <c r="K106" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L106" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>IF(SUM(B106:E106,G106,H106:I106,K106)&lt;100, SUM(B106:E106,G106,H106:I106,K106),  100)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="31">
+        <v>111</v>
+      </c>
+      <c r="B107" s="28">
+        <v>15</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="33">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>7.175E-3</v>
+      </c>
+      <c r="K107" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L107" s="3">
+        <f>IF(SUM(B107:E107,G107,H107:I107,K107)&lt;100, SUM(B107:E107,G107,H107:I107,K107),  100)</f>
         <v>21</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="4">
-        <v>30</v>
-      </c>
-      <c r="F107" s="17">
-        <v>0</v>
-      </c>
-      <c r="G107" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
-        <v>5</v>
-      </c>
-      <c r="I107" s="4">
-        <v>10</v>
-      </c>
-      <c r="J107" s="2">
-        <v>6.9841E-2</v>
-      </c>
-      <c r="K107" s="4">
-        <v>2.2928994082840237</v>
-      </c>
-      <c r="L107" s="3">
-        <f t="shared" si="2"/>
-        <v>68.292899408284029</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="31">
+        <v>112</v>
+      </c>
+      <c r="B108" s="28">
         <v>21</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="4">
         <v>30</v>
       </c>
-      <c r="F108" s="17">
-        <v>15.122</v>
-      </c>
-      <c r="G108" s="23">
-        <f t="shared" si="3"/>
-        <v>27.322040816326528</v>
+      <c r="F108" s="33">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H108" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I108" s="4">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J108" s="2">
-        <v>2.3165999999999999E-2</v>
+        <v>6.9841E-2</v>
       </c>
       <c r="K108" s="4">
-        <v>2.5</v>
+        <v>2.2928994082840237</v>
       </c>
       <c r="L108" s="3">
-        <f t="shared" si="2"/>
-        <v>94.493638449462622</v>
+        <f>IF(SUM(B108:E108,G108,H108:I108,K108)&lt;100, SUM(B108:E108,G108,H108:I108,K108),  100)</f>
+        <v>68.292899408284029</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="25" customHeight="1">
       <c r="A109" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="28">
+        <v>21</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="4">
+        <v>30</v>
+      </c>
+      <c r="F109" s="33">
+        <v>15.122</v>
+      </c>
+      <c r="G109" s="22">
+        <f t="shared" si="2"/>
+        <v>27.322040816326528</v>
+      </c>
+      <c r="H109" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I109" s="4">
+        <v>9.1715976331360949</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2.3165999999999999E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L109" s="3">
+        <f>IF(SUM(B109:E109,G109,H109:I109,K109)&lt;100, SUM(B109:E109,G109,H109:I109,K109),  100)</f>
+        <v>94.493638449462622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="25" customHeight="1">
+      <c r="A110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B110" s="28">
         <v>27</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="4">
+      <c r="C110" s="29"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F110" s="33">
         <v>11.878</v>
       </c>
-      <c r="G109" s="23">
-        <f t="shared" si="3"/>
+      <c r="G110" s="22">
+        <f t="shared" si="2"/>
         <v>27.984081632653062</v>
       </c>
-      <c r="H109" s="4">
-        <v>5</v>
-      </c>
-      <c r="I109" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="25" customHeight="1">
-      <c r="J110" s="18">
-        <f>SUM(J3:J108)/COUNTIF(J3:J108,"&lt;&gt;0")</f>
+      <c r="H110" s="4">
+        <v>5</v>
+      </c>
+      <c r="I110" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="25" customHeight="1">
+      <c r="J111" s="17">
+        <f>SUM(J3:J109)/COUNTIF(J3:J109,"&lt;&gt;0")</f>
         <v>0.16565938791030202</v>
       </c>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" ht="20">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" spans="1:12" ht="42">
+    <row r="112" spans="1:12" ht="20">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
+      <c r="E112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-    </row>
-    <row r="113" spans="2:243" ht="25" customHeight="1">
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:243" ht="42">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="34"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+    </row>
+    <row r="114" spans="2:243" ht="25" customHeight="1">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F113" s="13">
-        <f>COUNTIF(F3:F109, "&gt;0")</f>
-        <v>72</v>
-      </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="IE113" s="7"/>
-      <c r="IF113" s="7"/>
-      <c r="IG113" s="7"/>
-      <c r="IH113" s="7"/>
-      <c r="II113" s="7"/>
-    </row>
-    <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F114" s="3">
-        <v>160.13</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="F114" s="34">
+        <f>COUNTIF(F3:F110, "&gt;0")</f>
+        <v>73</v>
+      </c>
+      <c r="G114" s="13"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -7787,17 +7811,17 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="F115" s="2">
+        <v>160.13</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
       <c r="IE115" s="7"/>
       <c r="IF115" s="7"/>
       <c r="IG115" s="7"/>
@@ -7805,18 +7829,18 @@
       <c r="II115" s="7"/>
     </row>
     <row r="116" spans="2:243" ht="25" customHeight="1">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F116" s="3">
-        <v>30</v>
-      </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7831,12 +7855,12 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F117" s="3">
-        <v>10</v>
-      </c>
-      <c r="G117" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="F117" s="2">
+        <v>30</v>
+      </c>
+      <c r="G117" s="19"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -7853,10 +7877,10 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="F118" s="2">
+        <v>10</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -7873,14 +7897,19 @@
     <row r="119" spans="2:243" ht="25" customHeight="1">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="6"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
       <c r="IE119" s="7"/>
       <c r="IF119" s="7"/>
       <c r="IG119" s="7"/>
@@ -7888,9 +7917,14 @@
       <c r="II119" s="7"/>
     </row>
     <row r="120" spans="2:243" ht="25" customHeight="1">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="2"/>
       <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
       <c r="K120" s="9"/>
       <c r="L120" s="6"/>
       <c r="IE120" s="7"/>
@@ -7900,6 +7934,9 @@
       <c r="II120" s="7"/>
     </row>
     <row r="121" spans="2:243" ht="25" customHeight="1">
+      <c r="E121" s="4"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="4"/>
       <c r="K121" s="9"/>
       <c r="L121" s="6"/>
       <c r="IE121" s="7"/>
@@ -7971,62 +8008,71 @@
       <c r="IH128" s="7"/>
       <c r="II128" s="7"/>
     </row>
+    <row r="129" spans="11:243" ht="25" customHeight="1">
+      <c r="K129" s="9"/>
+      <c r="L129" s="6"/>
+      <c r="IE129" s="7"/>
+      <c r="IF129" s="7"/>
+      <c r="IG129" s="7"/>
+      <c r="IH129" s="7"/>
+      <c r="II129" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B92:D92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335FAE13-D037-3A4F-8E27-EC0CBE43375D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A54EA-DD9D-4446-851A-48ED2DBE04E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,6 +786,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -794,18 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2308,7 +2308,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="24361388" y="8803887"/>
-              <a:ext cx="9900735" cy="5940502"/>
+              <a:ext cx="9900735" cy="6258002"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3418,8 +3418,8 @@
   </sheetPr>
   <dimension ref="A1:II129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3446,22 +3446,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1">
@@ -5380,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="L49" s="3">
-        <f>IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
+        <f t="shared" ref="L49:L80" si="2">IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
         <v>70</v>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="3">
-        <f>IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="3">
-        <f>IF(SUM(B51:E51,G51,H51:I51,K51)&lt;100, SUM(B51:E51,G51,H51:I51,K51),  100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="IG51" s="7"/>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="L52" s="3">
-        <f>IF(SUM(B52:E52,G52,H52:I52,K52)&lt;100, SUM(B52:E52,G52,H52:I52,K52),  100)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="IG52" s="7"/>
@@ -5546,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="3">
-        <f>IF(SUM(B53:E53,G53,H53:I53,K53)&lt;100, SUM(B53:E53,G53,H53:I53,K53),  100)</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="IG53" s="7"/>
@@ -5589,7 +5589,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="3">
-        <f>IF(SUM(B54:E54,G54,H54:I54,K54)&lt;100, SUM(B54:E54,G54,H54:I54,K54),  100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="IG54" s="7"/>
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="L55" s="3">
-        <f>IF(SUM(B55:E55,G55,H55:I55,K55)&lt;100, SUM(B55:E55,G55,H55:I55,K55),  100)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="IG55" s="7"/>
@@ -5675,7 +5675,7 @@
         <v>4.5</v>
       </c>
       <c r="L56" s="3">
-        <f>IF(SUM(B56:E56,G56,H56:I56,K56)&lt;100, SUM(B56:E56,G56,H56:I56,K56),  100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="IG56" s="7"/>
@@ -5718,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="L57" s="3">
-        <f>IF(SUM(B57:E57,G57,H57:I57,K57)&lt;100, SUM(B57:E57,G57,H57:I57,K57),  100)</f>
+        <f t="shared" si="2"/>
         <v>82.093673469387753</v>
       </c>
       <c r="IG57" s="7"/>
@@ -5761,7 +5761,7 @@
         <v>4.5</v>
       </c>
       <c r="L58" s="3">
-        <f>IF(SUM(B58:E58,G58,H58:I58,K58)&lt;100, SUM(B58:E58,G58,H58:I58,K58),  100)</f>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="IG58" s="7"/>
@@ -5804,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="L59" s="3">
-        <f>IF(SUM(B59:E59,G59,H59:I59,K59)&lt;100, SUM(B59:E59,G59,H59:I59,K59),  100)</f>
+        <f t="shared" si="2"/>
         <v>96.194775510204082</v>
       </c>
       <c r="IG59" s="7"/>
@@ -5815,15 +5815,15 @@
       <c r="A60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="32">
         <v>27</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
-      <c r="F60" s="33">
+      <c r="F60" s="28">
         <v>83.125</v>
       </c>
       <c r="G60" s="22">
@@ -5843,7 +5843,7 @@
         <v>4.5</v>
       </c>
       <c r="L60" s="3">
-        <f>IF(SUM(B60:E60,G60,H60:I60,K60)&lt;100, SUM(B60:E60,G60,H60:I60,K60),  100)</f>
+        <f t="shared" si="2"/>
         <v>89.443877551020407</v>
       </c>
       <c r="IG60" s="7"/>
@@ -5854,15 +5854,15 @@
       <c r="A61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="28">
-        <v>30</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="B61" s="32">
+        <v>30</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
-      <c r="F61" s="33">
+      <c r="F61" s="28">
         <v>86.150999999999996</v>
       </c>
       <c r="G61" s="22">
@@ -5882,7 +5882,7 @@
         <v>2.5</v>
       </c>
       <c r="L61" s="3">
-        <f>IF(SUM(B61:E61,G61,H61:I61,K61)&lt;100, SUM(B61:E61,G61,H61:I61,K61),  100)</f>
+        <f t="shared" si="2"/>
         <v>90.326326530612249</v>
       </c>
       <c r="IG61" s="7"/>
@@ -5893,15 +5893,15 @@
       <c r="A62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="28">
-        <v>30</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="32">
+        <v>30</v>
+      </c>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="28">
         <v>11.093</v>
       </c>
       <c r="G62" s="22">
@@ -5921,7 +5921,7 @@
         <v>2.5</v>
       </c>
       <c r="L62" s="3">
-        <f>IF(SUM(B62:E62,G62,H62:I62,K62)&lt;100, SUM(B62:E62,G62,H62:I62,K62),  100)</f>
+        <f t="shared" si="2"/>
         <v>95.644285714285715</v>
       </c>
       <c r="IG62" s="7"/>
@@ -5932,15 +5932,15 @@
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="32">
         <v>24</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="4">
         <v>30</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F63" s="28">
         <v>157.71</v>
       </c>
       <c r="G63" s="22">
@@ -5960,7 +5960,7 @@
         <v>2.5</v>
       </c>
       <c r="L63" s="3">
-        <f>IF(SUM(B63:E63,G63,H63:I63,K63)&lt;100, SUM(B63:E63,G63,H63:I63,K63),  100)</f>
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
       <c r="IG63" s="7"/>
@@ -5971,15 +5971,15 @@
       <c r="A64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="32">
         <v>24</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F64" s="28">
         <v>0</v>
       </c>
       <c r="G64" s="22">
@@ -5999,7 +5999,7 @@
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
-        <f>IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="IG64" s="7"/>
@@ -6010,15 +6010,15 @@
       <c r="A65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="32">
         <v>24</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F65" s="28">
         <v>0</v>
       </c>
       <c r="G65" s="22">
@@ -6038,7 +6038,7 @@
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
-        <f>IF(SUM(B65:E65,G65,H65:I65,K65)&lt;100, SUM(B65:E65,G65,H65:I65,K65),  100)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="IG65" s="7"/>
@@ -6049,15 +6049,15 @@
       <c r="A66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="32">
         <v>21</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="4">
         <v>0</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F66" s="28">
         <v>0</v>
       </c>
       <c r="G66" s="22">
@@ -6077,7 +6077,7 @@
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
-        <f>IF(SUM(B66:E66,G66,H66:I66,K66)&lt;100, SUM(B66:E66,G66,H66:I66,K66),  100)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="IG66" s="7"/>
@@ -6088,15 +6088,15 @@
       <c r="A67" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="32">
         <v>24</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
-      <c r="F67" s="33">
+      <c r="F67" s="28">
         <v>82.278999999999996</v>
       </c>
       <c r="G67" s="22">
@@ -6116,7 +6116,7 @@
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
-        <f>IF(SUM(B67:E67,G67,H67:I67,K67)&lt;100, SUM(B67:E67,G67,H67:I67,K67),  100)</f>
+        <f t="shared" si="2"/>
         <v>74.616530612244901</v>
       </c>
       <c r="IG67" s="7"/>
@@ -6127,15 +6127,15 @@
       <c r="A68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="32">
         <v>27</v>
       </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="28">
         <v>85.936999999999998</v>
       </c>
       <c r="G68" s="22">
@@ -6155,7 +6155,7 @@
         <v>2.5</v>
       </c>
       <c r="L68" s="3">
-        <f>IF(SUM(B68:E68,G68,H68:I68,K68)&lt;100, SUM(B68:E68,G68,H68:I68,K68),  100)</f>
+        <f t="shared" si="2"/>
         <v>76.37</v>
       </c>
       <c r="IG68" s="7"/>
@@ -6166,15 +6166,15 @@
       <c r="A69" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="32">
         <v>24</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="28">
         <v>160.13</v>
       </c>
       <c r="G69" s="22">
@@ -6194,7 +6194,7 @@
         <v>2.5</v>
       </c>
       <c r="L69" s="3">
-        <f>IF(SUM(B69:E69,G69,H69:I69,K69)&lt;100, SUM(B69:E69,G69,H69:I69,K69),  100)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="IG69" s="7"/>
@@ -6205,19 +6205,19 @@
       <c r="A70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="32">
         <v>21</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="4">
         <v>0</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="28">
         <v>0</v>
       </c>
       <c r="G70" s="22">
-        <f t="shared" ref="G70:G110" si="2">IF(F70&gt;0, IF(F70&lt;2, 30, IF(F70&gt;100, 10, (1-(F70-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G70:G110" si="3">IF(F70&gt;0, IF(F70&lt;2, 30, IF(F70&gt;100, 10, (1-(F70-2)/(100-2))*20+10)), 0)</f>
         <v>0</v>
       </c>
       <c r="H70" s="4">
@@ -6233,7 +6233,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="3">
-        <f>IF(SUM(B70:E70,G70,H70:I70,K70)&lt;100, SUM(B70:E70,G70,H70:I70,K70),  100)</f>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="IG70" s="7"/>
@@ -6244,19 +6244,19 @@
       <c r="A71" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="28">
-        <v>30</v>
-      </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
+      <c r="B71" s="32">
+        <v>30</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="4">
         <v>30</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="28">
         <v>22.228999999999999</v>
       </c>
       <c r="G71" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.871632653061226</v>
       </c>
       <c r="H71" s="4">
@@ -6272,7 +6272,7 @@
         <v>2.5</v>
       </c>
       <c r="L71" s="3">
-        <f>IF(SUM(B71:E71,G71,H71:I71,K71)&lt;100, SUM(B71:E71,G71,H71:I71,K71),  100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="IG71" s="7"/>
@@ -6283,19 +6283,19 @@
       <c r="A72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B72" s="32">
         <v>27</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="4">
         <v>0</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="28">
         <v>0</v>
       </c>
       <c r="G72" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72" s="4">
@@ -6311,7 +6311,7 @@
         <v>4.5</v>
       </c>
       <c r="L72" s="3">
-        <f>IF(SUM(B72:E72,G72,H72:I72,K72)&lt;100, SUM(B72:E72,G72,H72:I72,K72),  100)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="IG72" s="7"/>
@@ -6322,19 +6322,19 @@
       <c r="A73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="28">
-        <v>30</v>
-      </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
+      <c r="B73" s="32">
+        <v>30</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="4">
         <v>30</v>
       </c>
-      <c r="F73" s="33">
+      <c r="F73" s="28">
         <v>22.785</v>
       </c>
       <c r="G73" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.758163265306123</v>
       </c>
       <c r="H73" s="4">
@@ -6350,7 +6350,7 @@
         <v>2.5</v>
       </c>
       <c r="L73" s="3">
-        <f>IF(SUM(B73:E73,G73,H73:I73,K73)&lt;100, SUM(B73:E73,G73,H73:I73,K73),  100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="IG73" s="7"/>
@@ -6361,19 +6361,19 @@
       <c r="A74" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="32">
         <v>24</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="28">
         <v>0</v>
       </c>
       <c r="G74" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="4">
@@ -6389,7 +6389,7 @@
         <v>3.5</v>
       </c>
       <c r="L74" s="3">
-        <f>IF(SUM(B74:E74,G74,H74:I74,K74)&lt;100, SUM(B74:E74,G74,H74:I74,K74),  100)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="IG74" s="7"/>
@@ -6400,19 +6400,19 @@
       <c r="A75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B75" s="32">
         <v>24</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="4">
         <v>30</v>
       </c>
-      <c r="F75" s="33">
+      <c r="F75" s="28">
         <v>89.034999999999997</v>
       </c>
       <c r="G75" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.237755102040817</v>
       </c>
       <c r="H75" s="4">
@@ -6428,7 +6428,7 @@
         <v>2.5</v>
       </c>
       <c r="L75" s="3">
-        <f>IF(SUM(B75:E75,G75,H75:I75,K75)&lt;100, SUM(B75:E75,G75,H75:I75,K75),  100)</f>
+        <f t="shared" si="2"/>
         <v>82.737755102040822</v>
       </c>
       <c r="IG75" s="7"/>
@@ -6439,19 +6439,19 @@
       <c r="A76" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B76" s="32">
         <v>27</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F76" s="28">
         <v>0</v>
       </c>
       <c r="G76" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="4">
@@ -6467,7 +6467,7 @@
         <v>2.5</v>
       </c>
       <c r="L76" s="3">
-        <f>IF(SUM(B76:E76,G76,H76:I76,K76)&lt;100, SUM(B76:E76,G76,H76:I76,K76),  100)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="IG76" s="7"/>
@@ -6478,19 +6478,19 @@
       <c r="A77" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B77" s="32">
         <v>24</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="28">
         <v>0</v>
       </c>
       <c r="G77" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="4">
@@ -6506,7 +6506,7 @@
         <v>2.5</v>
       </c>
       <c r="L77" s="3">
-        <f>IF(SUM(B77:E77,G77,H77:I77,K77)&lt;100, SUM(B77:E77,G77,H77:I77,K77),  100)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="IG77" s="7"/>
@@ -6517,19 +6517,19 @@
       <c r="A78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B78" s="32">
         <v>21</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
-      <c r="F78" s="33">
+      <c r="F78" s="28">
         <v>0</v>
       </c>
       <c r="G78" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="4">
@@ -6545,7 +6545,7 @@
         <v>3.5</v>
       </c>
       <c r="L78" s="3">
-        <f>IF(SUM(B78:E78,G78,H78:I78,K78)&lt;100, SUM(B78:E78,G78,H78:I78,K78),  100)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="IG78" s="7"/>
@@ -6556,19 +6556,19 @@
       <c r="A79" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="32">
         <v>24</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="4">
         <v>30</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="28">
         <v>76.835999999999999</v>
       </c>
       <c r="G79" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.72734693877551</v>
       </c>
       <c r="H79" s="4">
@@ -6584,7 +6584,7 @@
         <v>2.5</v>
       </c>
       <c r="L79" s="3">
-        <f>IF(SUM(B79:E79,G79,H79:I79,K79)&lt;100, SUM(B79:E79,G79,H79:I79,K79),  100)</f>
+        <f t="shared" si="2"/>
         <v>85.727346938775511</v>
       </c>
       <c r="IG79" s="7"/>
@@ -6595,19 +6595,19 @@
       <c r="A80" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="28">
-        <v>30</v>
-      </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
+      <c r="B80" s="32">
+        <v>30</v>
+      </c>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="4">
         <v>0</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F80" s="28">
         <v>0</v>
       </c>
       <c r="G80" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="4">
@@ -6623,7 +6623,7 @@
         <v>2.5</v>
       </c>
       <c r="L80" s="3">
-        <f>IF(SUM(B80:E80,G80,H80:I80,K80)&lt;100, SUM(B80:E80,G80,H80:I80,K80),  100)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="IG80" s="7"/>
@@ -6634,19 +6634,19 @@
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B81" s="32">
         <v>24</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="4">
         <v>0</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="28">
         <v>0</v>
       </c>
       <c r="G81" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="4">
@@ -6662,7 +6662,7 @@
         <v>3.5</v>
       </c>
       <c r="L81" s="3">
-        <f>IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
+        <f t="shared" ref="L81:L112" si="4">IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
         <v>30</v>
       </c>
       <c r="IG81" s="7"/>
@@ -6673,19 +6673,19 @@
       <c r="A82" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B82" s="32">
         <v>21</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
-      <c r="F82" s="33">
+      <c r="F82" s="28">
         <v>76.659000000000006</v>
       </c>
       <c r="G82" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.763469387755102</v>
       </c>
       <c r="H82" s="4">
@@ -6701,7 +6701,7 @@
         <v>4.5</v>
       </c>
       <c r="L82" s="3">
-        <f>IF(SUM(B82:E82,G82,H82:I82,K82)&lt;100, SUM(B82:E82,G82,H82:I82,K82),  100)</f>
+        <f t="shared" si="4"/>
         <v>83.763469387755094</v>
       </c>
       <c r="IG82" s="7"/>
@@ -6712,19 +6712,19 @@
       <c r="A83" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="32">
         <v>24</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="28">
         <v>75.662000000000006</v>
       </c>
       <c r="G83" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.966938775510204</v>
       </c>
       <c r="H83" s="4">
@@ -6740,7 +6740,7 @@
         <v>5</v>
       </c>
       <c r="L83" s="3">
-        <f>IF(SUM(B83:E83,G83,H83:I83,K83)&lt;100, SUM(B83:E83,G83,H83:I83,K83),  100)</f>
+        <f t="shared" si="4"/>
         <v>88.466938775510201</v>
       </c>
       <c r="IG83" s="7"/>
@@ -6751,19 +6751,19 @@
       <c r="A84" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="28">
-        <v>30</v>
-      </c>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
+      <c r="B84" s="32">
+        <v>30</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F84" s="28">
         <v>18.93</v>
       </c>
       <c r="G84" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.544897959183672</v>
       </c>
       <c r="H84" s="4">
@@ -6779,7 +6779,7 @@
         <v>4.5</v>
       </c>
       <c r="L84" s="3">
-        <f>IF(SUM(B84:E84,G84,H84:I84,K84)&lt;100, SUM(B84:E84,G84,H84:I84,K84),  100)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="IG84" s="7"/>
@@ -6790,19 +6790,19 @@
       <c r="A85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="32">
         <v>24</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="4">
         <v>30</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="28">
         <v>19.364000000000001</v>
       </c>
       <c r="G85" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.456326530612245</v>
       </c>
       <c r="H85" s="4">
@@ -6818,7 +6818,7 @@
         <v>2.5</v>
       </c>
       <c r="L85" s="3">
-        <f>IF(SUM(B85:E85,G85,H85:I85,K85)&lt;100, SUM(B85:E85,G85,H85:I85,K85),  100)</f>
+        <f t="shared" si="4"/>
         <v>97.456326530612245</v>
       </c>
       <c r="IG85" s="7"/>
@@ -6829,19 +6829,19 @@
       <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="32">
         <v>27</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
-      <c r="F86" s="33">
+      <c r="F86" s="28">
         <v>0</v>
       </c>
       <c r="G86" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H86" s="4">
@@ -6857,7 +6857,7 @@
         <v>2.5</v>
       </c>
       <c r="L86" s="3">
-        <f>IF(SUM(B86:E86,G86,H86:I86,K86)&lt;100, SUM(B86:E86,G86,H86:I86,K86),  100)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="IG86" s="7"/>
@@ -6868,19 +6868,19 @@
       <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="32">
         <v>21</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="28">
         <v>0</v>
       </c>
       <c r="G87" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H87" s="4">
@@ -6896,7 +6896,7 @@
         <v>2.5</v>
       </c>
       <c r="L87" s="3">
-        <f>IF(SUM(B87:E87,G87,H87:I87,K87)&lt;100, SUM(B87:E87,G87,H87:I87,K87),  100)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="IG87" s="7"/>
@@ -6907,19 +6907,19 @@
       <c r="A88" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="32">
         <v>27</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="28">
         <v>0</v>
       </c>
       <c r="G88" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H88" s="4">
@@ -6935,7 +6935,7 @@
         <v>4.5</v>
       </c>
       <c r="L88" s="3">
-        <f>IF(SUM(B88:E88,G88,H88:I88,K88)&lt;100, SUM(B88:E88,G88,H88:I88,K88),  100)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="IG88" s="7"/>
@@ -6946,19 +6946,19 @@
       <c r="A89" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="28">
-        <v>30</v>
-      </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="32">
+        <v>30</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="4">
         <v>30</v>
       </c>
-      <c r="F89" s="33">
+      <c r="F89" s="28">
         <v>80.263999999999996</v>
       </c>
       <c r="G89" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.027755102040818</v>
       </c>
       <c r="H89" s="4">
@@ -6974,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="L89" s="3">
-        <f>IF(SUM(B89:E89,G89,H89:I89,K89)&lt;100, SUM(B89:E89,G89,H89:I89,K89),  100)</f>
+        <f t="shared" si="4"/>
         <v>92.027755102040814</v>
       </c>
       <c r="IG89" s="7"/>
@@ -6985,19 +6985,19 @@
       <c r="A90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="32">
         <v>21</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="4">
         <v>0</v>
       </c>
-      <c r="F90" s="33">
+      <c r="F90" s="28">
         <v>0</v>
       </c>
       <c r="G90" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H90" s="4">
@@ -7013,7 +7013,7 @@
         <v>2.5</v>
       </c>
       <c r="L90" s="3">
-        <f>IF(SUM(B90:E90,G90,H90:I90,K90)&lt;100, SUM(B90:E90,G90,H90:I90,K90),  100)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="IG90" s="7"/>
@@ -7024,19 +7024,19 @@
       <c r="A91" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="28">
-        <v>0</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="32">
+        <v>0</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
-      <c r="F91" s="33">
+      <c r="F91" s="28">
         <v>0</v>
       </c>
       <c r="G91" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H91" s="4">
@@ -7052,7 +7052,7 @@
         <v>4.5</v>
       </c>
       <c r="L91" s="3">
-        <f>IF(SUM(B91:E91,G91,H91:I91,K91)&lt;100, SUM(B91:E91,G91,H91:I91,K91),  100)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="IG91" s="7"/>
@@ -7063,19 +7063,19 @@
       <c r="A92" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="32">
         <v>27</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
-      <c r="F92" s="33">
+      <c r="F92" s="28">
         <v>20.995999999999999</v>
       </c>
       <c r="G92" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.123265306122448</v>
       </c>
       <c r="H92" s="4">
@@ -7091,7 +7091,7 @@
         <v>4.5</v>
       </c>
       <c r="L92" s="3">
-        <f>IF(SUM(B92:E92,G92,H92:I92,K92)&lt;100, SUM(B92:E92,G92,H92:I92,K92),  100)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="IG92" s="7"/>
@@ -7102,19 +7102,19 @@
       <c r="A93" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="28">
         <v>156</v>
       </c>
       <c r="G93" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H93" s="4">
@@ -7130,7 +7130,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="3">
-        <f>IF(SUM(B93:E93,G93,H93:I93,K93)&lt;100, SUM(B93:E93,G93,H93:I93,K93),  100)</f>
+        <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
       <c r="IG93" s="7"/>
@@ -7141,19 +7141,19 @@
       <c r="A94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="32">
         <v>24</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="30"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="28">
         <v>78.983999999999995</v>
       </c>
       <c r="G94" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.288979591836737</v>
       </c>
       <c r="H94" s="4">
@@ -7169,7 +7169,7 @@
         <v>4.5</v>
       </c>
       <c r="L94" s="3">
-        <f>IF(SUM(B94:E94,G94,H94:I94,K94)&lt;100, SUM(B94:E94,G94,H94:I94,K94),  100)</f>
+        <f t="shared" si="4"/>
         <v>87.788979591836735</v>
       </c>
       <c r="IG94" s="7"/>
@@ -7180,19 +7180,19 @@
       <c r="A95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="28">
-        <v>30</v>
-      </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
+      <c r="B95" s="32">
+        <v>30</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
-      <c r="F95" s="33">
+      <c r="F95" s="28">
         <v>158.24</v>
       </c>
       <c r="G95" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H95" s="4">
@@ -7208,7 +7208,7 @@
         <v>4.5</v>
       </c>
       <c r="L95" s="3">
-        <f>IF(SUM(B95:E95,G95,H95:I95,K95)&lt;100, SUM(B95:E95,G95,H95:I95,K95),  100)</f>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
       <c r="IG95" s="7"/>
@@ -7219,19 +7219,19 @@
       <c r="A96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="28">
-        <v>30</v>
-      </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="30"/>
+      <c r="B96" s="32">
+        <v>30</v>
+      </c>
+      <c r="C96" s="33"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="28">
         <v>80.319000000000003</v>
       </c>
       <c r="G96" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.016530612244898</v>
       </c>
       <c r="H96" s="4">
@@ -7247,7 +7247,7 @@
         <v>4.5</v>
       </c>
       <c r="L96" s="3">
-        <f>IF(SUM(B96:E96,G96,H96:I96,K96)&lt;100, SUM(B96:E96,G96,H96:I96,K96),  100)</f>
+        <f t="shared" si="4"/>
         <v>93.016530612244892</v>
       </c>
     </row>
@@ -7255,19 +7255,19 @@
       <c r="A97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="32">
         <v>21</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="4">
         <v>30</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="28">
         <v>0</v>
       </c>
       <c r="G97" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H97" s="4">
@@ -7283,7 +7283,7 @@
         <v>3.5</v>
       </c>
       <c r="L97" s="3">
-        <f>IF(SUM(B97:E97,G97,H97:I97,K97)&lt;100, SUM(B97:E97,G97,H97:I97,K97),  100)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
@@ -7291,19 +7291,19 @@
       <c r="A98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="32">
         <v>21</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="4">
         <v>17.751479289940828</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="28">
         <v>152.19</v>
       </c>
       <c r="G98" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H98" s="4">
@@ -7319,7 +7319,7 @@
         <v>2.5</v>
       </c>
       <c r="L98" s="3">
-        <f>IF(SUM(B98:E98,G98,H98:I98,K98)&lt;100, SUM(B98:E98,G98,H98:I98,K98),  100)</f>
+        <f t="shared" si="4"/>
         <v>63.751479289940832</v>
       </c>
     </row>
@@ -7327,19 +7327,19 @@
       <c r="A99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="32">
         <v>21</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="4">
         <v>29.822485207100591</v>
       </c>
-      <c r="F99" s="33">
+      <c r="F99" s="28">
         <v>36.862000000000002</v>
       </c>
       <c r="G99" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.885306122448981</v>
       </c>
       <c r="H99" s="4">
@@ -7355,7 +7355,7 @@
         <v>4.5</v>
       </c>
       <c r="L99" s="3">
-        <f>IF(SUM(B99:E99,G99,H99:I99,K99)&lt;100, SUM(B99:E99,G99,H99:I99,K99),  100)</f>
+        <f t="shared" si="4"/>
         <v>80.707791329549565</v>
       </c>
     </row>
@@ -7363,19 +7363,19 @@
       <c r="A100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="32">
         <v>24</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="4">
         <v>30</v>
       </c>
-      <c r="F100" s="33">
+      <c r="F100" s="28">
         <v>1.0976999999999999</v>
       </c>
       <c r="G100" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H100" s="4">
@@ -7391,7 +7391,7 @@
         <v>2.5</v>
       </c>
       <c r="L100" s="3">
-        <f>IF(SUM(B100:E100,G100,H100:I100,K100)&lt;100, SUM(B100:E100,G100,H100:I100,K100),  100)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
       <c r="A101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="32">
         <v>27</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="30"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
-      <c r="F101" s="33">
+      <c r="F101" s="28">
         <v>83.876000000000005</v>
       </c>
       <c r="G101" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.290612244897959</v>
       </c>
       <c r="H101" s="4">
@@ -7427,7 +7427,7 @@
         <v>2.5</v>
       </c>
       <c r="L101" s="3">
-        <f>IF(SUM(B101:E101,G101,H101:I101,K101)&lt;100, SUM(B101:E101,G101,H101:I101,K101),  100)</f>
+        <f t="shared" si="4"/>
         <v>77.290612244897957</v>
       </c>
     </row>
@@ -7435,19 +7435,19 @@
       <c r="A102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="28">
+      <c r="B102" s="32">
         <v>24</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="30"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="4">
         <v>0</v>
       </c>
-      <c r="F102" s="33">
+      <c r="F102" s="28">
         <v>0</v>
       </c>
       <c r="G102" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H102" s="4">
@@ -7463,7 +7463,7 @@
         <v>4.5</v>
       </c>
       <c r="L102" s="3">
-        <f>IF(SUM(B102:E102,G102,H102:I102,K102)&lt;100, SUM(B102:E102,G102,H102:I102,K102),  100)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
@@ -7471,19 +7471,19 @@
       <c r="A103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B103" s="32">
         <v>27</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
-      <c r="F103" s="33">
+      <c r="F103" s="28">
         <v>153.26</v>
       </c>
       <c r="G103" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H103" s="4">
@@ -7499,7 +7499,7 @@
         <v>4.5</v>
       </c>
       <c r="L103" s="3">
-        <f>IF(SUM(B103:E103,G103,H103:I103,K103)&lt;100, SUM(B103:E103,G103,H103:I103,K103),  100)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
@@ -7507,19 +7507,19 @@
       <c r="A104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="28">
-        <v>30</v>
-      </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="30"/>
+      <c r="B104" s="32">
+        <v>30</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
-      <c r="F104" s="33">
+      <c r="F104" s="28">
         <v>74.911000000000001</v>
       </c>
       <c r="G104" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.120204081632654</v>
       </c>
       <c r="H104" s="4">
@@ -7535,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="3">
-        <f>IF(SUM(B104:E104,G104,H104:I104,K104)&lt;100, SUM(B104:E104,G104,H104:I104,K104),  100)</f>
+        <f t="shared" si="4"/>
         <v>93.62020408163265</v>
       </c>
     </row>
@@ -7543,19 +7543,19 @@
       <c r="A105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="28">
+      <c r="B105" s="32">
         <v>21</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="30"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="4">
         <v>30</v>
       </c>
-      <c r="F105" s="33">
+      <c r="F105" s="28">
         <v>11.08</v>
       </c>
       <c r="G105" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.146938775510204</v>
       </c>
       <c r="H105" s="4">
@@ -7571,7 +7571,7 @@
         <v>2.5</v>
       </c>
       <c r="L105" s="3">
-        <f>IF(SUM(B105:E105,G105,H105:I105,K105)&lt;100, SUM(B105:E105,G105,H105:I105,K105),  100)</f>
+        <f t="shared" si="4"/>
         <v>96.146938775510208</v>
       </c>
     </row>
@@ -7579,19 +7579,19 @@
       <c r="A106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="32">
         <v>24</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="30"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="4">
         <v>0</v>
       </c>
-      <c r="F106" s="33">
+      <c r="F106" s="28">
         <v>0</v>
       </c>
       <c r="G106" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H106" s="4">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3">
-        <f>IF(SUM(B106:E106,G106,H106:I106,K106)&lt;100, SUM(B106:E106,G106,H106:I106,K106),  100)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
@@ -7615,19 +7615,19 @@
       <c r="A107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="32">
         <v>15</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="30"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="4">
         <v>0</v>
       </c>
-      <c r="F107" s="33">
+      <c r="F107" s="28">
         <v>0</v>
       </c>
       <c r="G107" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H107" s="4">
@@ -7643,7 +7643,7 @@
         <v>2.5</v>
       </c>
       <c r="L107" s="3">
-        <f>IF(SUM(B107:E107,G107,H107:I107,K107)&lt;100, SUM(B107:E107,G107,H107:I107,K107),  100)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
       <c r="A108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="32">
         <v>21</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="30"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="4">
         <v>30</v>
       </c>
-      <c r="F108" s="33">
+      <c r="F108" s="28">
         <v>0</v>
       </c>
       <c r="G108" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H108" s="4">
@@ -7679,7 +7679,7 @@
         <v>2.2928994082840237</v>
       </c>
       <c r="L108" s="3">
-        <f>IF(SUM(B108:E108,G108,H108:I108,K108)&lt;100, SUM(B108:E108,G108,H108:I108,K108),  100)</f>
+        <f t="shared" si="4"/>
         <v>68.292899408284029</v>
       </c>
     </row>
@@ -7687,19 +7687,19 @@
       <c r="A109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="32">
         <v>21</v>
       </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="30"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="4">
         <v>30</v>
       </c>
-      <c r="F109" s="33">
+      <c r="F109" s="28">
         <v>15.122</v>
       </c>
       <c r="G109" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.322040816326528</v>
       </c>
       <c r="H109" s="4">
@@ -7715,7 +7715,7 @@
         <v>2.5</v>
       </c>
       <c r="L109" s="3">
-        <f>IF(SUM(B109:E109,G109,H109:I109,K109)&lt;100, SUM(B109:E109,G109,H109:I109,K109),  100)</f>
+        <f t="shared" si="4"/>
         <v>94.493638449462622</v>
       </c>
     </row>
@@ -7723,19 +7723,19 @@
       <c r="A110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="28">
+      <c r="B110" s="32">
         <v>27</v>
       </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="30"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F110" s="33">
+      <c r="F110" s="28">
         <v>11.878</v>
       </c>
       <c r="G110" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.984081632653062</v>
       </c>
       <c r="H110" s="4">
@@ -7775,7 +7775,7 @@
       <c r="E113" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="34"/>
+      <c r="F113" s="29"/>
       <c r="G113" s="18"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -7790,7 +7790,7 @@
       <c r="E114" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="34">
+      <c r="F114" s="29">
         <f>COUNTIF(F3:F110, "&gt;0")</f>
         <v>73</v>
       </c>
@@ -8019,45 +8019,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
@@ -8073,6 +8034,45 @@
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A54EA-DD9D-4446-851A-48ED2DBE04E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462E2FA-C8A7-E740-AEDA-B046D6A0DC43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -792,12 +792,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -806,6 +800,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,7 +898,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -990,7 +990,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1019,7 +1019,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1065,7 +1065,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3419,7 +3419,7 @@
   <dimension ref="A1:II129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3446,22 +3446,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -5815,11 +5815,11 @@
       <c r="A60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="30">
         <v>27</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
@@ -5854,11 +5854,11 @@
       <c r="A61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="32">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
+      <c r="B61" s="30">
+        <v>30</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
@@ -5893,11 +5893,11 @@
       <c r="A62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="32">
-        <v>30</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
+      <c r="B62" s="30">
+        <v>30</v>
+      </c>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
@@ -5932,11 +5932,11 @@
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="30">
         <v>24</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="4">
         <v>30</v>
       </c>
@@ -5971,11 +5971,11 @@
       <c r="A64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="30">
         <v>24</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -6010,11 +6010,11 @@
       <c r="A65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="30">
         <v>24</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
@@ -6049,11 +6049,11 @@
       <c r="A66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="30">
         <v>21</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="4">
         <v>0</v>
       </c>
@@ -6088,11 +6088,11 @@
       <c r="A67" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="30">
         <v>24</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="A68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="30">
         <v>27</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
@@ -6166,11 +6166,11 @@
       <c r="A69" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="30">
         <v>24</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
@@ -6205,11 +6205,11 @@
       <c r="A70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="30">
         <v>21</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="4">
         <v>0</v>
       </c>
@@ -6244,11 +6244,11 @@
       <c r="A71" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="32">
-        <v>30</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
+      <c r="B71" s="30">
+        <v>30</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="4">
         <v>30</v>
       </c>
@@ -6283,11 +6283,11 @@
       <c r="A72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="30">
         <v>27</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="34"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="4">
         <v>0</v>
       </c>
@@ -6322,11 +6322,11 @@
       <c r="A73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="32">
-        <v>30</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="34"/>
+      <c r="B73" s="30">
+        <v>30</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="4">
         <v>30</v>
       </c>
@@ -6361,11 +6361,11 @@
       <c r="A74" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="30">
         <v>24</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
@@ -6400,11 +6400,11 @@
       <c r="A75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="30">
         <v>24</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="4">
         <v>30</v>
       </c>
@@ -6439,11 +6439,11 @@
       <c r="A76" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="30">
         <v>27</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6478,11 +6478,11 @@
       <c r="A77" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="30">
         <v>24</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
@@ -6517,11 +6517,11 @@
       <c r="A78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="30">
         <v>21</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6556,11 +6556,11 @@
       <c r="A79" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="30">
         <v>24</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="4">
         <v>30</v>
       </c>
@@ -6595,11 +6595,11 @@
       <c r="A80" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="32">
-        <v>30</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="30">
+        <v>30</v>
+      </c>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="4">
         <v>0</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="30">
         <v>24</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="4">
         <v>0</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>3.5</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" ref="L81:L112" si="4">IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
+        <f t="shared" ref="L81:L109" si="4">IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
         <v>30</v>
       </c>
       <c r="IG81" s="7"/>
@@ -6673,11 +6673,11 @@
       <c r="A82" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="30">
         <v>21</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
@@ -6712,11 +6712,11 @@
       <c r="A83" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="32">
+      <c r="B83" s="30">
         <v>24</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
@@ -6751,11 +6751,11 @@
       <c r="A84" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="32">
-        <v>30</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="30">
+        <v>30</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
@@ -6790,11 +6790,11 @@
       <c r="A85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="32">
+      <c r="B85" s="30">
         <v>24</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="4">
         <v>30</v>
       </c>
@@ -6829,11 +6829,11 @@
       <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="32">
+      <c r="B86" s="30">
         <v>27</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6868,11 +6868,11 @@
       <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="32">
+      <c r="B87" s="30">
         <v>21</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
@@ -6907,11 +6907,11 @@
       <c r="A88" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="30">
         <v>27</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="34"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6946,11 +6946,11 @@
       <c r="A89" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="32">
-        <v>30</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="30">
+        <v>30</v>
+      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="4">
         <v>30</v>
       </c>
@@ -6985,11 +6985,11 @@
       <c r="A90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="32">
+      <c r="B90" s="30">
         <v>21</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="34"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="4">
         <v>0</v>
       </c>
@@ -7024,11 +7024,11 @@
       <c r="A91" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="32">
-        <v>0</v>
-      </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="30">
+        <v>0</v>
+      </c>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
@@ -7063,11 +7063,11 @@
       <c r="A92" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="32">
+      <c r="B92" s="30">
         <v>27</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
@@ -7102,11 +7102,11 @@
       <c r="A93" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="32">
+      <c r="B93" s="30">
         <v>21</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="34"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
@@ -7141,11 +7141,11 @@
       <c r="A94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="32">
+      <c r="B94" s="30">
         <v>24</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="34"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
@@ -7180,11 +7180,11 @@
       <c r="A95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="32">
-        <v>30</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="34"/>
+      <c r="B95" s="30">
+        <v>30</v>
+      </c>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
@@ -7219,11 +7219,11 @@
       <c r="A96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="32">
-        <v>30</v>
-      </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
+      <c r="B96" s="30">
+        <v>30</v>
+      </c>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
@@ -7255,11 +7255,11 @@
       <c r="A97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="30">
         <v>21</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="4">
         <v>30</v>
       </c>
@@ -7291,11 +7291,11 @@
       <c r="A98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="32">
+      <c r="B98" s="30">
         <v>21</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="4">
         <v>17.751479289940828</v>
       </c>
@@ -7327,11 +7327,11 @@
       <c r="A99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="32">
+      <c r="B99" s="30">
         <v>21</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="34"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="4">
         <v>29.822485207100591</v>
       </c>
@@ -7363,11 +7363,11 @@
       <c r="A100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="30">
         <v>24</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="34"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="4">
         <v>30</v>
       </c>
@@ -7399,11 +7399,11 @@
       <c r="A101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="30">
         <v>27</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
@@ -7435,11 +7435,11 @@
       <c r="A102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="30">
         <v>24</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="4">
         <v>0</v>
       </c>
@@ -7471,11 +7471,11 @@
       <c r="A103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="30">
         <v>27</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
@@ -7507,11 +7507,11 @@
       <c r="A104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="32">
-        <v>30</v>
-      </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="30">
+        <v>30</v>
+      </c>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
@@ -7543,11 +7543,11 @@
       <c r="A105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="32">
+      <c r="B105" s="30">
         <v>21</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="34"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="4">
         <v>30</v>
       </c>
@@ -7579,11 +7579,11 @@
       <c r="A106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="32">
+      <c r="B106" s="30">
         <v>24</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="34"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="4">
         <v>0</v>
       </c>
@@ -7615,11 +7615,11 @@
       <c r="A107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="32">
+      <c r="B107" s="30">
         <v>15</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="34"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="4">
         <v>0</v>
       </c>
@@ -7651,11 +7651,11 @@
       <c r="A108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="30">
         <v>21</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="4">
         <v>30</v>
       </c>
@@ -7687,11 +7687,11 @@
       <c r="A109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="32">
+      <c r="B109" s="30">
         <v>21</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="4">
         <v>30</v>
       </c>
@@ -7723,11 +7723,11 @@
       <c r="A110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="30">
         <v>27</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -8019,6 +8019,45 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
@@ -8034,45 +8073,6 @@
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462E2FA-C8A7-E740-AEDA-B046D6A0DC43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEE7BD-A6AF-AE4C-9148-14EADB826038}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -792,6 +792,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -800,12 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,7 +898,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -990,7 +990,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1019,7 +1019,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1065,7 +1065,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3418,8 +3418,8 @@
   </sheetPr>
   <dimension ref="A1:II129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3446,22 +3446,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3681,11 +3681,11 @@
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1">
@@ -5815,11 +5815,11 @@
       <c r="A60" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="32">
         <v>27</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="4">
         <v>30</v>
       </c>
@@ -5854,11 +5854,11 @@
       <c r="A61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="30">
-        <v>30</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+      <c r="B61" s="32">
+        <v>30</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
@@ -5893,11 +5893,11 @@
       <c r="A62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="30">
-        <v>30</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="32">
+        <v>30</v>
+      </c>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
@@ -5932,11 +5932,11 @@
       <c r="A63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="32">
         <v>24</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="4">
         <v>30</v>
       </c>
@@ -5971,11 +5971,11 @@
       <c r="A64" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="32">
         <v>24</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="4">
         <v>0</v>
       </c>
@@ -6010,11 +6010,11 @@
       <c r="A65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="32">
         <v>24</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
@@ -6049,11 +6049,11 @@
       <c r="A66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="30">
+      <c r="B66" s="32">
         <v>21</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="4">
         <v>0</v>
       </c>
@@ -6088,11 +6088,11 @@
       <c r="A67" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="30">
+      <c r="B67" s="32">
         <v>24</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="4">
         <v>30</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="A68" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="32">
         <v>27</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
@@ -6166,11 +6166,11 @@
       <c r="A69" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="32">
         <v>24</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
@@ -6205,11 +6205,11 @@
       <c r="A70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="32">
         <v>21</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="4">
         <v>0</v>
       </c>
@@ -6244,11 +6244,11 @@
       <c r="A71" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="30">
-        <v>30</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
+      <c r="B71" s="32">
+        <v>30</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="4">
         <v>30</v>
       </c>
@@ -6283,11 +6283,11 @@
       <c r="A72" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="32">
         <v>27</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="4">
         <v>0</v>
       </c>
@@ -6322,11 +6322,11 @@
       <c r="A73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="30">
-        <v>30</v>
-      </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
+      <c r="B73" s="32">
+        <v>30</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="4">
         <v>30</v>
       </c>
@@ -6361,11 +6361,11 @@
       <c r="A74" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="30">
+      <c r="B74" s="32">
         <v>24</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="4">
         <v>0</v>
       </c>
@@ -6400,11 +6400,11 @@
       <c r="A75" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="30">
+      <c r="B75" s="32">
         <v>24</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="4">
         <v>30</v>
       </c>
@@ -6439,11 +6439,11 @@
       <c r="A76" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" s="32">
         <v>27</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -6478,11 +6478,11 @@
       <c r="A77" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="32">
         <v>24</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
@@ -6517,11 +6517,11 @@
       <c r="A78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="30">
+      <c r="B78" s="32">
         <v>21</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6556,11 +6556,11 @@
       <c r="A79" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="30">
+      <c r="B79" s="32">
         <v>24</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="4">
         <v>30</v>
       </c>
@@ -6595,11 +6595,11 @@
       <c r="A80" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="30">
-        <v>30</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="32">
+        <v>30</v>
+      </c>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="4">
         <v>0</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="32">
         <v>24</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="4">
         <v>0</v>
       </c>
@@ -6673,11 +6673,11 @@
       <c r="A82" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82" s="32">
         <v>21</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="4">
         <v>30</v>
       </c>
@@ -6712,11 +6712,11 @@
       <c r="A83" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" s="32">
         <v>24</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
@@ -6751,11 +6751,11 @@
       <c r="A84" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="30">
-        <v>30</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
+      <c r="B84" s="32">
+        <v>30</v>
+      </c>
+      <c r="C84" s="33"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
@@ -6790,11 +6790,11 @@
       <c r="A85" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="32">
         <v>24</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="4">
         <v>30</v>
       </c>
@@ -6829,11 +6829,11 @@
       <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="32">
         <v>27</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="4">
         <v>0</v>
       </c>
@@ -6868,11 +6868,11 @@
       <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="32">
         <v>21</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
@@ -6907,11 +6907,11 @@
       <c r="A88" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="30">
+      <c r="B88" s="32">
         <v>27</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6946,11 +6946,11 @@
       <c r="A89" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="30">
-        <v>30</v>
-      </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="32">
+        <v>30</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="4">
         <v>30</v>
       </c>
@@ -6985,11 +6985,11 @@
       <c r="A90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="32">
         <v>21</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="4">
         <v>0</v>
       </c>
@@ -7024,11 +7024,11 @@
       <c r="A91" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="30">
-        <v>0</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
+      <c r="B91" s="32">
+        <v>0</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
@@ -7063,11 +7063,11 @@
       <c r="A92" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="32">
         <v>27</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="4">
         <v>30</v>
       </c>
@@ -7102,11 +7102,11 @@
       <c r="A93" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="30">
+      <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
@@ -7141,11 +7141,11 @@
       <c r="A94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="32">
         <v>24</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
@@ -7180,11 +7180,11 @@
       <c r="A95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="30">
-        <v>30</v>
-      </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
+      <c r="B95" s="32">
+        <v>30</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
@@ -7219,11 +7219,11 @@
       <c r="A96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="30">
-        <v>30</v>
-      </c>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
+      <c r="B96" s="32">
+        <v>30</v>
+      </c>
+      <c r="C96" s="33"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
@@ -7255,11 +7255,11 @@
       <c r="A97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" s="32">
         <v>21</v>
       </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="4">
         <v>30</v>
       </c>
@@ -7291,11 +7291,11 @@
       <c r="A98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="32">
         <v>21</v>
       </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="4">
         <v>17.751479289940828</v>
       </c>
@@ -7327,11 +7327,11 @@
       <c r="A99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" s="32">
         <v>21</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="4">
         <v>29.822485207100591</v>
       </c>
@@ -7363,11 +7363,11 @@
       <c r="A100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="32">
         <v>24</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="4">
         <v>30</v>
       </c>
@@ -7399,11 +7399,11 @@
       <c r="A101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" s="32">
         <v>27</v>
       </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
@@ -7435,11 +7435,11 @@
       <c r="A102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="32">
         <v>24</v>
       </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="4">
         <v>0</v>
       </c>
@@ -7471,11 +7471,11 @@
       <c r="A103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="32">
         <v>27</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="4">
         <v>30</v>
       </c>
@@ -7507,11 +7507,11 @@
       <c r="A104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="30">
-        <v>30</v>
-      </c>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
+      <c r="B104" s="32">
+        <v>30</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
@@ -7543,11 +7543,11 @@
       <c r="A105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="32">
         <v>21</v>
       </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="4">
         <v>30</v>
       </c>
@@ -7579,11 +7579,11 @@
       <c r="A106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="32">
         <v>24</v>
       </c>
-      <c r="C106" s="31"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="4">
         <v>0</v>
       </c>
@@ -7615,11 +7615,11 @@
       <c r="A107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="30">
+      <c r="B107" s="32">
         <v>15</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="4">
         <v>0</v>
       </c>
@@ -7651,11 +7651,11 @@
       <c r="A108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="32">
         <v>21</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="4">
         <v>30</v>
       </c>
@@ -7687,11 +7687,11 @@
       <c r="A109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="30">
+      <c r="B109" s="32">
         <v>21</v>
       </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="4">
         <v>30</v>
       </c>
@@ -7723,11 +7723,11 @@
       <c r="A110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="32">
         <v>27</v>
       </c>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="F114" s="29">
         <f>COUNTIF(F3:F110, "&gt;0")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G114" s="13"/>
       <c r="H114" s="12"/>
@@ -8019,45 +8019,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B107:D107"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
@@ -8073,6 +8034,45 @@
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEE7BD-A6AF-AE4C-9148-14EADB826038}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5D259-8696-6F47-9D12-724C6D78C1FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$110</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$130</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>1b7f93a825b0bd297691b23561626cbb</t>
+  </si>
+  <si>
+    <t>5bb00fcb2df49b5572b636c38055b6a0</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -790,6 +793,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -898,7 +904,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -990,7 +996,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1019,7 +1025,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1065,7 +1071,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3416,10 +3422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II129"/>
+  <dimension ref="A1:II130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3446,22 +3452,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>136.96</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" ref="G4:G69" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G4:G70" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="4">
@@ -5380,115 +5386,112 @@
         <v>5</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" ref="L49:L80" si="2">IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
+        <f t="shared" ref="L49:L81" si="2">IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
-      <c r="A50" s="11" t="s">
-        <v>63</v>
+      <c r="A50" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="B50" s="20">
         <v>8</v>
       </c>
       <c r="C50" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>13.036</v>
       </c>
       <c r="G50" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(F50&gt;0, IF(F50&lt;2, 30, IF(F50&gt;100, 10, (1-(F50-2)/(100-2))*20+10)), 0)</f>
+        <v>27.747755102040816</v>
       </c>
       <c r="H50" s="4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I50" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
       <c r="K50" s="4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L50" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="20">
-        <v>10</v>
-      </c>
-      <c r="C51" s="24">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C51" s="20">
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E51" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>14.272</v>
+        <v>0</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="1"/>
-        <v>27.495510204081633</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>0.48080000000000001</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L51" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="IG51" s="7"/>
-      <c r="IH51" s="7"/>
-      <c r="II51" s="7"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="20">
+        <v>10</v>
+      </c>
+      <c r="C52" s="24">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
         <v>8</v>
       </c>
-      <c r="C52" s="25">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
       <c r="E52" s="4">
         <v>30</v>
       </c>
       <c r="F52" s="2">
-        <v>110.16</v>
+        <v>14.272</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>27.495510204081633</v>
       </c>
       <c r="H52" s="4">
         <v>5</v>
@@ -5497,14 +5500,14 @@
         <v>10</v>
       </c>
       <c r="J52" s="2">
-        <v>0.72140000000000004</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="K52" s="4">
         <v>5</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="IG52" s="7"/>
       <c r="IH52" s="7"/>
@@ -5512,26 +5515,26 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="20">
-        <v>5</v>
-      </c>
-      <c r="C53" s="24">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C53" s="25">
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4">
         <v>30</v>
       </c>
       <c r="F53" s="2">
-        <v>1.0031000000000001</v>
+        <v>110.16</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H53" s="4">
         <v>5</v>
@@ -5540,14 +5543,14 @@
         <v>10</v>
       </c>
       <c r="J53" s="2">
-        <v>6.8999999999999999E-3</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="K53" s="4">
         <v>5</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="IG53" s="7"/>
       <c r="IH53" s="7"/>
@@ -5555,42 +5558,42 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="G54" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H54" s="4">
         <v>5</v>
       </c>
       <c r="I54" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K54" s="4">
         <v>5</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
@@ -5598,16 +5601,16 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" s="24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -5629,97 +5632,97 @@
         <v>0</v>
       </c>
       <c r="K55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
       <c r="II55" s="7"/>
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
-      <c r="A56" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="23">
-        <v>9</v>
-      </c>
-      <c r="C56" s="23">
-        <v>9</v>
-      </c>
-      <c r="D56" s="23">
+      <c r="A56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="20">
         <v>8</v>
       </c>
-      <c r="E56" s="23">
-        <v>30</v>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>0.92820000000000003</v>
+        <v>0</v>
       </c>
       <c r="G56" s="22">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H56" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="I56" s="23">
-        <v>10</v>
-      </c>
-      <c r="J56" s="17">
-        <v>0</v>
-      </c>
-      <c r="K56" s="23">
-        <v>4.5</v>
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>4</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="IG56" s="7"/>
       <c r="IH56" s="7"/>
       <c r="II56" s="7"/>
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
-      <c r="A57" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="20">
+      <c r="A57" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="23">
+        <v>9</v>
+      </c>
+      <c r="C57" s="23">
+        <v>9</v>
+      </c>
+      <c r="D57" s="23">
         <v>8</v>
       </c>
-      <c r="C57" s="20">
-        <v>5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="E57" s="23">
         <v>30</v>
       </c>
       <c r="F57" s="2">
-        <v>79.941000000000003</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
-      </c>
-      <c r="H57" s="4">
-        <v>5</v>
-      </c>
-      <c r="I57" s="4">
-        <v>10</v>
-      </c>
-      <c r="J57" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="K57" s="4">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="H57" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="I57" s="23">
+        <v>10</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23">
+        <v>4.5</v>
       </c>
       <c r="L57" s="3">
         <f t="shared" si="2"/>
-        <v>82.093673469387753</v>
+        <v>100</v>
       </c>
       <c r="IG57" s="7"/>
       <c r="IH57" s="7"/>
@@ -5727,12 +5730,12 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="20">
         <v>8</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="20">
         <v>5</v>
       </c>
       <c r="D58" s="1">
@@ -5742,11 +5745,11 @@
         <v>30</v>
       </c>
       <c r="F58" s="2">
-        <v>0</v>
+        <v>79.941000000000003</v>
       </c>
       <c r="G58" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.093673469387756</v>
       </c>
       <c r="H58" s="4">
         <v>5</v>
@@ -5755,96 +5758,100 @@
         <v>10</v>
       </c>
       <c r="J58" s="2">
-        <v>1.0281439999999999</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K58" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="2"/>
-        <v>67.5</v>
+        <v>82.093673469387753</v>
       </c>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
       <c r="II58" s="7"/>
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="26">
-        <v>7</v>
-      </c>
-      <c r="C59" s="26">
-        <v>5</v>
-      </c>
-      <c r="D59" s="26">
-        <v>5</v>
-      </c>
-      <c r="E59" s="26">
+      <c r="A59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="20">
+        <v>8</v>
+      </c>
+      <c r="C59" s="24">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
         <v>30</v>
       </c>
       <c r="F59" s="2">
-        <v>5.9455999999999998</v>
+        <v>0</v>
       </c>
       <c r="G59" s="22">
         <f t="shared" si="1"/>
-        <v>29.194775510204082</v>
-      </c>
-      <c r="H59" s="26">
-        <v>5</v>
-      </c>
-      <c r="I59" s="26">
-        <v>10</v>
-      </c>
-      <c r="J59" s="17">
-        <v>0</v>
-      </c>
-      <c r="K59" s="26">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>5</v>
+      </c>
+      <c r="I59" s="4">
+        <v>10</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1.0281439999999999</v>
+      </c>
+      <c r="K59" s="4">
+        <v>4.5</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="2"/>
-        <v>96.194775510204082</v>
+        <v>67.5</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
       <c r="II59" s="7"/>
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="32">
-        <v>27</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="4">
-        <v>30</v>
-      </c>
-      <c r="F60" s="28">
-        <v>83.125</v>
+      <c r="A60" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="26">
+        <v>7</v>
+      </c>
+      <c r="C60" s="26">
+        <v>5</v>
+      </c>
+      <c r="D60" s="26">
+        <v>5</v>
+      </c>
+      <c r="E60" s="26">
+        <v>30</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5.9455999999999998</v>
       </c>
       <c r="G60" s="22">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
-      </c>
-      <c r="H60" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I60" s="4">
-        <v>10</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0.16397200000000001</v>
-      </c>
-      <c r="K60" s="4">
-        <v>4.5</v>
+        <v>29.194775510204082</v>
+      </c>
+      <c r="H60" s="26">
+        <v>5</v>
+      </c>
+      <c r="I60" s="26">
+        <v>10</v>
+      </c>
+      <c r="J60" s="17">
+        <v>0</v>
+      </c>
+      <c r="K60" s="26">
+        <v>5</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="2"/>
-        <v>89.443877551020407</v>
+        <v>96.194775510204082</v>
       </c>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
@@ -5852,38 +5859,38 @@
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="32">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="B61" s="33">
+        <v>27</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="4">
         <v>30</v>
       </c>
       <c r="F61" s="28">
-        <v>86.150999999999996</v>
+        <v>83.125</v>
       </c>
       <c r="G61" s="22">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H61" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I61" s="4">
         <v>10</v>
       </c>
       <c r="J61" s="2">
-        <v>0.79987600000000003</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K61" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="2"/>
-        <v>90.326326530612249</v>
+        <v>89.443877551020407</v>
       </c>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
@@ -5891,38 +5898,38 @@
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="32">
-        <v>30</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="B62" s="33">
+        <v>30</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="4">
         <v>30</v>
       </c>
       <c r="F62" s="28">
-        <v>11.093</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="G62" s="22">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H62" s="4">
         <v>5</v>
       </c>
       <c r="I62" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J62" s="2">
-        <v>5.2023E-2</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K62" s="4">
         <v>2.5</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="2"/>
-        <v>95.644285714285715</v>
+        <v>90.326326530612249</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -5930,38 +5937,38 @@
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="32">
-        <v>24</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="B63" s="33">
+        <v>30</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="4">
         <v>30</v>
       </c>
       <c r="F63" s="28">
-        <v>157.71</v>
+        <v>11.093</v>
       </c>
       <c r="G63" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H63" s="4">
         <v>5</v>
       </c>
       <c r="I63" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K63" s="4">
         <v>2.5</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="2"/>
-        <v>71.5</v>
+        <v>100</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -5969,25 +5976,25 @@
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="32">
+        <v>74</v>
+      </c>
+      <c r="B64" s="33">
         <v>24</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F64" s="28">
-        <v>0</v>
+        <v>157.71</v>
       </c>
       <c r="G64" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H64" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I64" s="4">
         <v>0</v>
@@ -6000,7 +6007,7 @@
       </c>
       <c r="L64" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>71.5</v>
       </c>
       <c r="IG64" s="7"/>
       <c r="IH64" s="7"/>
@@ -6008,13 +6015,13 @@
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="32">
+        <v>75</v>
+      </c>
+      <c r="B65" s="33">
         <v>24</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="4">
         <v>0</v>
       </c>
@@ -6032,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>1.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="K65" s="4">
         <v>2.5</v>
@@ -6047,13 +6054,13 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="32">
-        <v>21</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
+        <v>76</v>
+      </c>
+      <c r="B66" s="33">
+        <v>24</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="4">
         <v>0</v>
       </c>
@@ -6071,14 +6078,14 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K66" s="4">
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -6086,38 +6093,38 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="32">
-        <v>24</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="B67" s="33">
+        <v>21</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F67" s="28">
-        <v>82.278999999999996</v>
+        <v>0</v>
       </c>
       <c r="G67" s="22">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <v>3.6273E-2</v>
+        <v>0</v>
       </c>
       <c r="K67" s="4">
         <v>2.5</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="2"/>
-        <v>74.616530612244901</v>
+        <v>26</v>
       </c>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
@@ -6125,38 +6132,38 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="32">
-        <v>27</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
+        <v>78</v>
+      </c>
+      <c r="B68" s="33">
+        <v>24</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="4">
         <v>30</v>
       </c>
       <c r="F68" s="28">
-        <v>85.936999999999998</v>
+        <v>82.278999999999996</v>
       </c>
       <c r="G68" s="22">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>13.616530612244899</v>
       </c>
       <c r="H68" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I68" s="4">
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>3.6273E-2</v>
       </c>
       <c r="K68" s="4">
         <v>2.5</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="2"/>
-        <v>76.37</v>
+        <v>74.616530612244901</v>
       </c>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
@@ -6164,25 +6171,25 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="32">
-        <v>24</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
+        <v>79</v>
+      </c>
+      <c r="B69" s="33">
+        <v>27</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="4">
         <v>30</v>
       </c>
       <c r="F69" s="28">
-        <v>160.13</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="G69" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="H69" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I69" s="4">
         <v>0</v>
@@ -6195,7 +6202,7 @@
       </c>
       <c r="L69" s="3">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>76.37</v>
       </c>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
@@ -6203,38 +6210,38 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="32">
-        <v>21</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
+        <v>80</v>
+      </c>
+      <c r="B70" s="33">
+        <v>24</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70" s="28">
-        <v>0</v>
+        <v>160.13</v>
       </c>
       <c r="G70" s="22">
-        <f t="shared" ref="G70:G110" si="3">IF(F70&gt;0, IF(F70&lt;2, 30, IF(F70&gt;100, 10, (1-(F70-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="H70" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2">
-        <v>8.7390000000000002E-3</v>
-      </c>
-      <c r="K70" s="4">
-        <v>4</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>71</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -6242,38 +6249,38 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="32">
-        <v>30</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
+        <v>81</v>
+      </c>
+      <c r="B71" s="33">
+        <v>21</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F71" s="28">
-        <v>22.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="G71" s="22">
-        <f t="shared" si="3"/>
-        <v>25.871632653061226</v>
+        <f t="shared" ref="G71:G111" si="3">IF(F71&gt;0, IF(F71&lt;2, 30, IF(F71&gt;100, 10, (1-(F71-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H71" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>8.7390000000000002E-3</v>
+      </c>
+      <c r="K71" s="4">
         <v>4</v>
-      </c>
-      <c r="I71" s="4">
-        <v>10</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <v>2.5</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>27.5</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -6281,38 +6288,38 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="32">
-        <v>27</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="34"/>
+        <v>82</v>
+      </c>
+      <c r="B72" s="33">
+        <v>30</v>
+      </c>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F72" s="28">
-        <v>0</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="G72" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.871632653061226</v>
       </c>
       <c r="H72" s="4">
+        <v>4</v>
+      </c>
+      <c r="I72" s="4">
+        <v>10</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0.25622400000000001</v>
-      </c>
-      <c r="K72" s="4">
-        <v>4.5</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -6320,38 +6327,38 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="32">
-        <v>30</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="34"/>
+        <v>83</v>
+      </c>
+      <c r="B73" s="33">
+        <v>27</v>
+      </c>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F73" s="28">
-        <v>22.785</v>
+        <v>0</v>
       </c>
       <c r="G73" s="22">
         <f t="shared" si="3"/>
-        <v>25.758163265306123</v>
+        <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I73" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K73" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -6359,38 +6366,38 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="32">
-        <v>24</v>
-      </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="B74" s="33">
+        <v>30</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F74" s="28">
-        <v>0</v>
+        <v>22.785</v>
       </c>
       <c r="G74" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.758163265306123</v>
       </c>
       <c r="H74" s="4">
+        <v>5</v>
+      </c>
+      <c r="I74" s="4">
+        <v>10</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0.25599100000000002</v>
-      </c>
-      <c r="K74" s="4">
-        <v>3.5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
@@ -6398,38 +6405,38 @@
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="32">
+        <v>85</v>
+      </c>
+      <c r="B75" s="33">
         <v>24</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F75" s="28">
-        <v>89.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="G75" s="22">
         <f t="shared" si="3"/>
-        <v>12.237755102040817</v>
+        <v>0</v>
       </c>
       <c r="H75" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I75" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K75" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="2"/>
-        <v>82.737755102040822</v>
+        <v>30</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -6437,38 +6444,38 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="32">
-        <v>27</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="B76" s="33">
+        <v>24</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F76" s="28">
-        <v>0</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G76" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.237755102040817</v>
       </c>
       <c r="H76" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I76" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J76" s="2">
-        <v>0.11136799999999999</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4">
         <v>2.5</v>
       </c>
       <c r="L76" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>82.737755102040822</v>
       </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
@@ -6476,13 +6483,13 @@
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="32">
-        <v>24</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
+        <v>87</v>
+      </c>
+      <c r="B77" s="33">
+        <v>27</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="4">
         <v>0</v>
       </c>
@@ -6500,14 +6507,14 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K77" s="4">
         <v>2.5</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -6515,13 +6522,13 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="32">
-        <v>21</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="B78" s="33">
+        <v>24</v>
+      </c>
+      <c r="C78" s="34"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="4">
         <v>0</v>
       </c>
@@ -6539,14 +6546,14 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>0.23594999999999999</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
@@ -6554,38 +6561,38 @@
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="32">
-        <v>24</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="B79" s="33">
+        <v>21</v>
+      </c>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F79" s="28">
-        <v>76.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="G79" s="22">
         <f t="shared" si="3"/>
-        <v>14.72734693877551</v>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I79" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>0</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K79" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="2"/>
-        <v>85.727346938775511</v>
+        <v>27</v>
       </c>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
@@ -6593,38 +6600,38 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="32">
-        <v>30</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="B80" s="33">
+        <v>24</v>
+      </c>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F80" s="28">
-        <v>0</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="G80" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.72734693877551</v>
       </c>
       <c r="H80" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I80" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J80" s="2">
-        <v>1.6031E-2</v>
+        <v>0</v>
       </c>
       <c r="K80" s="4">
         <v>2.5</v>
       </c>
       <c r="L80" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>85.727346938775511</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -6632,13 +6639,13 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="32">
-        <v>24</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="B81" s="33">
+        <v>30</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="4">
         <v>0</v>
       </c>
@@ -6656,14 +6663,14 @@
         <v>0</v>
       </c>
       <c r="J81" s="2">
-        <v>0.36402000000000001</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K81" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" ref="L81:L109" si="4">IF(SUM(B81:E81,G81,H81:I81,K81)&lt;100, SUM(B81:E81,G81,H81:I81,K81),  100)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
@@ -6671,38 +6678,38 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="32">
-        <v>21</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
+        <v>88</v>
+      </c>
+      <c r="B82" s="33">
+        <v>24</v>
+      </c>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F82" s="28">
-        <v>76.659000000000006</v>
+        <v>0</v>
       </c>
       <c r="G82" s="22">
         <f t="shared" si="3"/>
-        <v>14.763469387755102</v>
+        <v>0</v>
       </c>
       <c r="H82" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.36402000000000001</v>
+      </c>
+      <c r="K82" s="4">
         <v>3.5</v>
       </c>
-      <c r="I82" s="4">
-        <v>10</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0.18420700000000001</v>
-      </c>
-      <c r="K82" s="4">
-        <v>4.5</v>
-      </c>
       <c r="L82" s="3">
-        <f t="shared" si="4"/>
-        <v>83.763469387755094</v>
+        <f t="shared" ref="L82:L110" si="4">IF(SUM(B82:E82,G82,H82:I82,K82)&lt;100, SUM(B82:E82,G82,H82:I82,K82),  100)</f>
+        <v>30</v>
       </c>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
@@ -6710,38 +6717,38 @@
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="32">
-        <v>24</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="B83" s="33">
+        <v>21</v>
+      </c>
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="4">
         <v>30</v>
       </c>
       <c r="F83" s="28">
-        <v>75.662000000000006</v>
+        <v>76.659000000000006</v>
       </c>
       <c r="G83" s="22">
         <f t="shared" si="3"/>
-        <v>14.966938775510204</v>
+        <v>14.763469387755102</v>
       </c>
       <c r="H83" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I83" s="4">
+        <v>10</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.18420700000000001</v>
+      </c>
+      <c r="K83" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I83" s="4">
-        <v>10</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0.29575899999999999</v>
-      </c>
-      <c r="K83" s="4">
-        <v>5</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="4"/>
-        <v>88.466938775510201</v>
+        <v>83.763469387755094</v>
       </c>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
@@ -6749,38 +6756,38 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="32">
-        <v>30</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="B84" s="33">
+        <v>24</v>
+      </c>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
       <c r="F84" s="28">
-        <v>18.93</v>
+        <v>75.662000000000006</v>
       </c>
       <c r="G84" s="22">
         <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
+        <v>14.966938775510204</v>
       </c>
       <c r="H84" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I84" s="4">
         <v>10</v>
       </c>
       <c r="J84" s="2">
-        <v>2.3715E-2</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K84" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>88.466938775510201</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -6788,38 +6795,38 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="32">
-        <v>24</v>
-      </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="B85" s="33">
+        <v>30</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="4">
         <v>30</v>
       </c>
       <c r="F85" s="28">
-        <v>19.364000000000001</v>
+        <v>18.93</v>
       </c>
       <c r="G85" s="22">
         <f t="shared" si="3"/>
-        <v>26.456326530612245</v>
+        <v>26.544897959183672</v>
       </c>
       <c r="H85" s="4">
+        <v>5</v>
+      </c>
+      <c r="I85" s="4">
+        <v>10</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2.3715E-2</v>
+      </c>
+      <c r="K85" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I85" s="4">
-        <v>10</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4">
-        <v>2.5</v>
       </c>
       <c r="L85" s="3">
         <f t="shared" si="4"/>
-        <v>97.456326530612245</v>
+        <v>100</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -6827,28 +6834,28 @@
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="32">
-        <v>27</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="B86" s="33">
+        <v>24</v>
+      </c>
+      <c r="C86" s="34"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F86" s="28">
-        <v>0</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="G86" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.456326530612245</v>
       </c>
       <c r="H86" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I86" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J86" s="2">
         <v>0</v>
@@ -6858,7 +6865,7 @@
       </c>
       <c r="L86" s="3">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>97.456326530612245</v>
       </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
@@ -6866,13 +6873,13 @@
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" s="32">
-        <v>21</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+        <v>93</v>
+      </c>
+      <c r="B87" s="33">
+        <v>27</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="4">
         <v>0</v>
       </c>
@@ -6897,7 +6904,7 @@
       </c>
       <c r="L87" s="3">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
@@ -6905,13 +6912,13 @@
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="32">
-        <v>27</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="B88" s="33">
+        <v>21</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="4">
         <v>0</v>
       </c>
@@ -6929,14 +6936,14 @@
         <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>0.616757</v>
+        <v>0</v>
       </c>
       <c r="K88" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L88" s="3">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
@@ -6944,38 +6951,38 @@
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="32">
-        <v>30</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="B89" s="33">
+        <v>27</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F89" s="28">
-        <v>80.263999999999996</v>
+        <v>0</v>
       </c>
       <c r="G89" s="22">
         <f t="shared" si="3"/>
-        <v>14.027755102040818</v>
+        <v>0</v>
       </c>
       <c r="H89" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I89" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J89" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>0.616757</v>
       </c>
       <c r="K89" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L89" s="3">
         <f t="shared" si="4"/>
-        <v>92.027755102040814</v>
+        <v>34</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -6983,38 +6990,38 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="32">
-        <v>21</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="34"/>
+        <v>31</v>
+      </c>
+      <c r="B90" s="33">
+        <v>30</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F90" s="28">
-        <v>0</v>
+        <v>80.263999999999996</v>
       </c>
       <c r="G90" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.027755102040818</v>
       </c>
       <c r="H90" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I90" s="4">
         <v>10</v>
       </c>
       <c r="J90" s="2">
-        <v>0</v>
+        <v>2.2478000000000001E-2</v>
       </c>
       <c r="K90" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>92.027755102040814</v>
       </c>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
@@ -7022,13 +7029,13 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="32">
-        <v>0</v>
-      </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+        <v>61</v>
+      </c>
+      <c r="B91" s="33">
+        <v>21</v>
+      </c>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
@@ -7043,17 +7050,17 @@
         <v>2.5</v>
       </c>
       <c r="I91" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J91" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K91" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
@@ -7061,38 +7068,38 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="32">
-        <v>27</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="B92" s="33">
+        <v>0</v>
+      </c>
+      <c r="C92" s="34"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F92" s="28">
-        <v>20.995999999999999</v>
+        <v>0</v>
       </c>
       <c r="G92" s="22">
         <f t="shared" si="3"/>
-        <v>26.123265306122448</v>
+        <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I92" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>1.7333999999999999E-2</v>
       </c>
       <c r="K92" s="4">
         <v>4.5</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
@@ -7100,22 +7107,22 @@
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="32">
-        <v>21</v>
-      </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="B93" s="33">
+        <v>27</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="4">
         <v>30</v>
       </c>
       <c r="F93" s="28">
-        <v>156</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="G93" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>26.123265306122448</v>
       </c>
       <c r="H93" s="4">
         <v>4.5</v>
@@ -7124,14 +7131,14 @@
         <v>10</v>
       </c>
       <c r="J93" s="2">
-        <v>0.197292</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K93" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="4"/>
-        <v>79.5</v>
+        <v>100</v>
       </c>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
@@ -7139,38 +7146,38 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="32">
-        <v>24</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="B94" s="33">
+        <v>21</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="4">
         <v>30</v>
       </c>
       <c r="F94" s="28">
-        <v>78.983999999999995</v>
+        <v>156</v>
       </c>
       <c r="G94" s="22">
         <f t="shared" si="3"/>
-        <v>14.288979591836737</v>
+        <v>10</v>
       </c>
       <c r="H94" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I94" s="4">
         <v>10</v>
       </c>
       <c r="J94" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>0.197292</v>
       </c>
       <c r="K94" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="4"/>
-        <v>87.788979591836735</v>
+        <v>79.5</v>
       </c>
       <c r="IG94" s="7"/>
       <c r="IH94" s="7"/>
@@ -7178,22 +7185,22 @@
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="32">
-        <v>30</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="34"/>
+        <v>98</v>
+      </c>
+      <c r="B95" s="33">
+        <v>24</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="4">
         <v>30</v>
       </c>
       <c r="F95" s="28">
-        <v>158.24</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="G95" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14.288979591836737</v>
       </c>
       <c r="H95" s="4">
         <v>5</v>
@@ -7202,14 +7209,14 @@
         <v>10</v>
       </c>
       <c r="J95" s="2">
-        <v>0.44423499999999999</v>
+        <v>2.8327999999999999E-2</v>
       </c>
       <c r="K95" s="4">
         <v>4.5</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="4"/>
-        <v>89.5</v>
+        <v>87.788979591836735</v>
       </c>
       <c r="IG95" s="7"/>
       <c r="IH95" s="7"/>
@@ -7217,94 +7224,97 @@
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="32">
-        <v>30</v>
-      </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="B96" s="33">
+        <v>30</v>
+      </c>
+      <c r="C96" s="34"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="4">
         <v>30</v>
       </c>
       <c r="F96" s="28">
-        <v>80.319000000000003</v>
+        <v>158.24</v>
       </c>
       <c r="G96" s="22">
         <f t="shared" si="3"/>
-        <v>14.016530612244898</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I96" s="4">
         <v>10</v>
       </c>
       <c r="J96" s="2">
-        <v>0.33158300000000002</v>
+        <v>0.44423499999999999</v>
       </c>
       <c r="K96" s="4">
         <v>4.5</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="4"/>
-        <v>93.016530612244892</v>
-      </c>
+        <v>89.5</v>
+      </c>
+      <c r="IG96" s="7"/>
+      <c r="IH96" s="7"/>
+      <c r="II96" s="7"/>
     </row>
     <row r="97" spans="1:12" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" s="32">
-        <v>21</v>
-      </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="B97" s="33">
+        <v>30</v>
+      </c>
+      <c r="C97" s="34"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="4">
         <v>30</v>
       </c>
       <c r="F97" s="28">
-        <v>0</v>
+        <v>80.319000000000003</v>
       </c>
       <c r="G97" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.016530612244898</v>
       </c>
       <c r="H97" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I97" s="4">
         <v>10</v>
       </c>
       <c r="J97" s="2">
-        <v>8.4103999999999998E-2</v>
+        <v>0.33158300000000002</v>
       </c>
       <c r="K97" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L97" s="3">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>93.016530612244892</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="32">
+        <v>101</v>
+      </c>
+      <c r="B98" s="33">
         <v>21</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="4">
-        <v>17.751479289940828</v>
+        <v>30</v>
       </c>
       <c r="F98" s="28">
-        <v>152.19</v>
+        <v>0</v>
       </c>
       <c r="G98" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H98" s="4">
         <v>2.5</v>
@@ -7313,214 +7323,214 @@
         <v>10</v>
       </c>
       <c r="J98" s="2">
-        <v>1.9650999999999998E-2</v>
+        <v>8.4103999999999998E-2</v>
       </c>
       <c r="K98" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L98" s="3">
         <f t="shared" si="4"/>
-        <v>63.751479289940832</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B99" s="32">
+        <v>102</v>
+      </c>
+      <c r="B99" s="33">
         <v>21</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="4">
-        <v>29.822485207100591</v>
+        <v>17.751479289940828</v>
       </c>
       <c r="F99" s="28">
-        <v>36.862000000000002</v>
+        <v>152.19</v>
       </c>
       <c r="G99" s="22">
         <f t="shared" si="3"/>
-        <v>22.885306122448981</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4">
         <v>2.5</v>
       </c>
       <c r="I99" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J99" s="2">
-        <v>9.5962000000000006E-2</v>
+        <v>1.9650999999999998E-2</v>
       </c>
       <c r="K99" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L99" s="3">
         <f t="shared" si="4"/>
-        <v>80.707791329549565</v>
+        <v>63.751479289940832</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" s="32">
-        <v>24</v>
-      </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="B100" s="33">
+        <v>21</v>
+      </c>
+      <c r="C100" s="34"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="4">
-        <v>30</v>
+        <v>29.822485207100591</v>
       </c>
       <c r="F100" s="28">
-        <v>1.0976999999999999</v>
+        <v>36.862000000000002</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>22.885306122448981</v>
       </c>
       <c r="H100" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>9.5962000000000006E-2</v>
+      </c>
+      <c r="K100" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I100" s="4">
-        <v>10</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0.11998499999999999</v>
-      </c>
-      <c r="K100" s="4">
-        <v>2.5</v>
       </c>
       <c r="L100" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80.707791329549565</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="32">
-        <v>27</v>
-      </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="B101" s="33">
+        <v>24</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="4">
         <v>30</v>
       </c>
       <c r="F101" s="28">
-        <v>83.876000000000005</v>
+        <v>1.0976999999999999</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="3"/>
-        <v>13.290612244897959</v>
+        <v>30</v>
       </c>
       <c r="H101" s="4">
         <v>4.5</v>
       </c>
       <c r="I101" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J101" s="2">
-        <v>0</v>
+        <v>0.11998499999999999</v>
       </c>
       <c r="K101" s="4">
         <v>2.5</v>
       </c>
       <c r="L101" s="3">
         <f t="shared" si="4"/>
-        <v>77.290612244897957</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="32">
-        <v>24</v>
-      </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="B102" s="33">
+        <v>27</v>
+      </c>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F102" s="28">
-        <v>0</v>
+        <v>83.876000000000005</v>
       </c>
       <c r="G102" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.290612244897959</v>
       </c>
       <c r="H102" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I102" s="4">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2">
-        <v>1.952367</v>
-      </c>
-      <c r="K102" s="4">
-        <v>4.5</v>
       </c>
       <c r="L102" s="3">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>77.290612244897957</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="32">
-        <v>27</v>
-      </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="B103" s="33">
+        <v>24</v>
+      </c>
+      <c r="C103" s="34"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F103" s="28">
-        <v>153.26</v>
+        <v>0</v>
       </c>
       <c r="G103" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H103" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I103" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J103" s="2">
-        <v>0.29591299999999998</v>
+        <v>1.952367</v>
       </c>
       <c r="K103" s="4">
         <v>4.5</v>
       </c>
       <c r="L103" s="3">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" s="32">
-        <v>30</v>
-      </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="B104" s="33">
+        <v>27</v>
+      </c>
+      <c r="C104" s="34"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="4">
         <v>30</v>
       </c>
       <c r="F104" s="28">
-        <v>74.911000000000001</v>
+        <v>153.26</v>
       </c>
       <c r="G104" s="22">
         <f t="shared" si="3"/>
-        <v>15.120204081632654</v>
+        <v>10</v>
       </c>
       <c r="H104" s="4">
         <v>4.5</v>
@@ -7529,34 +7539,34 @@
         <v>10</v>
       </c>
       <c r="J104" s="2">
-        <v>1.5566E-2</v>
+        <v>0.29591299999999998</v>
       </c>
       <c r="K104" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L104" s="3">
         <f t="shared" si="4"/>
-        <v>93.62020408163265</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" s="32">
-        <v>21</v>
-      </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="B105" s="33">
+        <v>30</v>
+      </c>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="4">
         <v>30</v>
       </c>
       <c r="F105" s="28">
-        <v>11.08</v>
+        <v>74.911000000000001</v>
       </c>
       <c r="G105" s="22">
         <f t="shared" si="3"/>
-        <v>28.146938775510204</v>
+        <v>15.120204081632654</v>
       </c>
       <c r="H105" s="4">
         <v>4.5</v>
@@ -7565,61 +7575,61 @@
         <v>10</v>
       </c>
       <c r="J105" s="2">
-        <v>7.6779999999999999E-3</v>
+        <v>1.5566E-2</v>
       </c>
       <c r="K105" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L105" s="3">
         <f t="shared" si="4"/>
-        <v>96.146938775510208</v>
+        <v>93.62020408163265</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" s="32">
-        <v>24</v>
-      </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="B106" s="33">
+        <v>21</v>
+      </c>
+      <c r="C106" s="34"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F106" s="28">
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="G106" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.146938775510204</v>
       </c>
       <c r="H106" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I106" s="4">
         <v>10</v>
       </c>
       <c r="J106" s="2">
-        <v>0</v>
+        <v>7.6779999999999999E-3</v>
       </c>
       <c r="K106" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>96.146938775510208</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="32">
-        <v>15</v>
-      </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="B107" s="33">
+        <v>24</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="4">
         <v>0</v>
       </c>
@@ -7631,33 +7641,33 @@
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I107" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J107" s="2">
-        <v>7.175E-3</v>
+        <v>0</v>
       </c>
       <c r="K107" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L107" s="3">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="32">
-        <v>21</v>
-      </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="B108" s="33">
+        <v>15</v>
+      </c>
+      <c r="C108" s="34"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F108" s="28">
         <v>0</v>
@@ -7667,158 +7677,172 @@
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I108" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J108" s="2">
-        <v>6.9841E-2</v>
+        <v>7.175E-3</v>
       </c>
       <c r="K108" s="4">
-        <v>2.2928994082840237</v>
+        <v>2.5</v>
       </c>
       <c r="L108" s="3">
         <f t="shared" si="4"/>
-        <v>68.292899408284029</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="25" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="32">
+        <v>112</v>
+      </c>
+      <c r="B109" s="33">
         <v>21</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="4">
         <v>30</v>
       </c>
       <c r="F109" s="28">
-        <v>15.122</v>
+        <v>0</v>
       </c>
       <c r="G109" s="22">
         <f t="shared" si="3"/>
-        <v>27.322040816326528</v>
+        <v>0</v>
       </c>
       <c r="H109" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I109" s="4">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J109" s="2">
-        <v>2.3165999999999999E-2</v>
+        <v>6.9841E-2</v>
       </c>
       <c r="K109" s="4">
-        <v>2.5</v>
+        <v>2.2928994082840237</v>
       </c>
       <c r="L109" s="3">
         <f t="shared" si="4"/>
-        <v>94.493638449462622</v>
+        <v>68.292899408284029</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="25" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="32">
-        <v>27</v>
-      </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="B110" s="33">
+        <v>21</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="4">
-        <v>29.644970414201186</v>
+        <v>30</v>
       </c>
       <c r="F110" s="28">
-        <v>11.878</v>
+        <v>15.122</v>
       </c>
       <c r="G110" s="22">
         <f t="shared" si="3"/>
+        <v>27.322040816326528</v>
+      </c>
+      <c r="H110" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I110" s="4">
+        <v>9.1715976331360949</v>
+      </c>
+      <c r="J110" s="2">
+        <v>2.3165999999999999E-2</v>
+      </c>
+      <c r="K110" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L110" s="3">
+        <f t="shared" si="4"/>
+        <v>94.493638449462622</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="25" customHeight="1">
+      <c r="A111" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="33">
+        <v>27</v>
+      </c>
+      <c r="C111" s="34"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="4">
+        <v>29.644970414201186</v>
+      </c>
+      <c r="F111" s="28">
+        <v>11.878</v>
+      </c>
+      <c r="G111" s="22">
+        <f t="shared" si="3"/>
         <v>27.984081632653062</v>
       </c>
-      <c r="H110" s="4">
-        <v>5</v>
-      </c>
-      <c r="I110" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="25" customHeight="1">
-      <c r="J111" s="17">
-        <f>SUM(J3:J109)/COUNTIF(J3:J109,"&lt;&gt;0")</f>
+      <c r="H111" s="4">
+        <v>5</v>
+      </c>
+      <c r="I111" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="25" customHeight="1">
+      <c r="J112" s="17">
+        <f>SUM(J3:J110)/COUNTIF(J3:J110,"&lt;&gt;0")</f>
         <v>0.16565938791030202</v>
       </c>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="20">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="2:243" ht="42">
+    <row r="113" spans="2:243" ht="20">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="29"/>
-      <c r="G113" s="18"/>
+      <c r="E113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-    </row>
-    <row r="114" spans="2:243" ht="25" customHeight="1">
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:243" ht="42">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+    </row>
+    <row r="115" spans="2:243" ht="25" customHeight="1">
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="29">
-        <f>COUNTIF(F3:F110, "&gt;0")</f>
-        <v>74</v>
-      </c>
-      <c r="G114" s="13"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="IE114" s="7"/>
-      <c r="IF114" s="7"/>
-      <c r="IG114" s="7"/>
-      <c r="IH114" s="7"/>
-      <c r="II114" s="7"/>
-    </row>
-    <row r="115" spans="2:243" ht="25" customHeight="1">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F115" s="2">
-        <v>160.13</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="F115" s="29">
+        <f>COUNTIF(F3:F111, "&gt;0")</f>
+        <v>75</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -7833,17 +7857,17 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="F116" s="2">
+        <v>160.13</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
       <c r="IE116" s="7"/>
       <c r="IF116" s="7"/>
       <c r="IG116" s="7"/>
@@ -7851,18 +7875,18 @@
       <c r="II116" s="7"/>
     </row>
     <row r="117" spans="2:243" ht="25" customHeight="1">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F117" s="2">
-        <v>30</v>
-      </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7877,12 +7901,12 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F118" s="2">
-        <v>10</v>
-      </c>
-      <c r="G118" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G118" s="19"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -7899,10 +7923,10 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="F119" s="2">
+        <v>10</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -7919,14 +7943,19 @@
     <row r="120" spans="2:243" ht="25" customHeight="1">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="2"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="6"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
       <c r="IE120" s="7"/>
       <c r="IF120" s="7"/>
       <c r="IG120" s="7"/>
@@ -7934,9 +7963,14 @@
       <c r="II120" s="7"/>
     </row>
     <row r="121" spans="2:243" ht="25" customHeight="1">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="4"/>
       <c r="F121" s="2"/>
       <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="K121" s="9"/>
       <c r="L121" s="6"/>
       <c r="IE121" s="7"/>
@@ -7946,6 +7980,9 @@
       <c r="II121" s="7"/>
     </row>
     <row r="122" spans="2:243" ht="25" customHeight="1">
+      <c r="E122" s="4"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="4"/>
       <c r="K122" s="9"/>
       <c r="L122" s="6"/>
       <c r="IE122" s="7"/>
@@ -8017,62 +8054,71 @@
       <c r="IH129" s="7"/>
       <c r="II129" s="7"/>
     </row>
+    <row r="130" spans="11:243" ht="25" customHeight="1">
+      <c r="K130" s="9"/>
+      <c r="L130" s="6"/>
+      <c r="IE130" s="7"/>
+      <c r="IF130" s="7"/>
+      <c r="IG130" s="7"/>
+      <c r="IH130" s="7"/>
+      <c r="II130" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B107:D107"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B111:D111"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B107:D107"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B102:D102"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B97:D97"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B92:D92"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B87:D87"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B77:D77"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B72:D72"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5D259-8696-6F47-9D12-724C6D78C1FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7851D9-9150-6A42-B4AF-66D10AD6669D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$130</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$134</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$111</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,431 @@
   <si>
     <t>5bb00fcb2df49b5572b636c38055b6a0</t>
   </si>
+  <si>
+    <t>eda5200d1a5ec9a474a5e6599c49436b</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源程序为乱码，集群无法正确编译，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的输出部分被注释掉了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动修改后才正确</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenMP无输出</t>
+  </si>
+  <si>
+    <t>OpenMP输出多了一个数</t>
+  </si>
+  <si>
+    <t>编译未通过，makefile与文件对不上号</t>
+  </si>
+  <si>
+    <t>可执行文件名错误</t>
+  </si>
+  <si>
+    <t>OpenMP可执行文件错误，CUDA和OpenMP分开写，Makefile却没分开</t>
+  </si>
+  <si>
+    <t>makefile书写错误，无OpenMP可执行文件</t>
+  </si>
+  <si>
+    <t>OpenMP输出错误</t>
+  </si>
+  <si>
+    <t>OpenMP源文件编译失败</t>
+  </si>
+  <si>
+    <t>OpenMP源文件编译失败,CUDA程序没有输出结果，只有自测时间</t>
+  </si>
+  <si>
+    <t>使用cmake，集群无法编译</t>
+  </si>
+  <si>
+    <t>所有程序输出的答案错误</t>
+  </si>
+  <si>
+    <t>提交了Visual Studio的版本，未修改成适合Linux的版本</t>
+  </si>
+  <si>
+    <t>两个源文件编译失败</t>
+  </si>
+  <si>
+    <t>Makefile中未包含CUDA编译指令，且CUDA源文件使用了多文件</t>
+  </si>
+  <si>
+    <t>输出的性能评测影响了结果评测程序</t>
+  </si>
+  <si>
+    <t>OpenMP源文件编译失败,CUDA输出结果错误</t>
+  </si>
+  <si>
+    <t>OpenMP程序编译错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>程序输出多余数字，但计算结果正确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>程序计算结果正确，但是测试性能时计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>s=1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>出错；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>程序编译错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序计算结果正确，但是测试性能时计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序编译错误</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序计算结果正确，但是测试性能时计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序编译错误</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CUDA程序编译错误；OpenMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序编译错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序输出多余内容，但计算结果正确，程序输出太多内容，无法计算s=1000时的运行时间；OpenMP程序输出多余内容，但计算结果正确</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序输出多余内容，但计算结果正确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>；OpenMP程序编译错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA程序和OpenMP程序计算结果错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少Makefile，无法编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序计算结果正确，但是运行文件不能在Linux下运行，无法测试性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序无法在Linux下编译，无法验证程序结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序无法编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA程序无法编译，OpenMP程序计算结果错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CUDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序计算结果正确，但是测试性能时计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出错</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序运行出现段错误</t>
+  </si>
+  <si>
+    <t>编译失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序运行出现段错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -557,7 +982,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -620,6 +1045,18 @@
       <color rgb="FF006100"/>
       <name val="SimSun"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -704,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -744,13 +1181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,20 +1190,11 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -789,14 +1211,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2190,16 +2693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>277851</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>501803</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>231387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154878</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>495610</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2235,8 +2738,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24898193" y="595351"/>
-              <a:ext cx="10788807" cy="7497027"/>
+              <a:off x="33712303" y="1501387"/>
+              <a:ext cx="10788807" cy="7481540"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2268,16 +2771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>269488</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>231387</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>563757</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>246876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>480123</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139389</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>309757</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2313,8 +2816,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="24361388" y="8803887"/>
-              <a:ext cx="9900735" cy="6258002"/>
+              <a:off x="33774257" y="9771876"/>
+              <a:ext cx="9906000" cy="6575502"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3422,10 +3925,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II130"/>
+  <dimension ref="A1:II134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3434,46 +3937,49 @@
     <col min="2" max="2" width="18.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="19" style="47" customWidth="1"/>
+    <col min="9" max="9" width="19" style="48" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="10" customWidth="1"/>
     <col min="11" max="11" width="17.83203125" style="8" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="42.5" style="28" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="243" width="8.33203125" style="6" customWidth="1"/>
     <col min="244" max="16384" width="8.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25" customHeight="1">
+    <row r="1" spans="1:13" ht="25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="M1" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3485,32 +3991,33 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1">
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
@@ -3523,20 +4030,20 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="33">
+        <v>30</v>
+      </c>
+      <c r="F3" s="35">
         <v>29.774000000000001</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="39">
         <f>IF(F3&gt;0, IF(F3&lt;2, 30, IF(F3&gt;100, 10, (1-(F3-2)/(100-2))*20+10)), 0)</f>
         <v>24.331836734693876</v>
       </c>
-      <c r="H3" s="4">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3" s="33">
+        <v>5</v>
+      </c>
+      <c r="I3" s="33">
         <v>10</v>
       </c>
       <c r="J3" s="2">
@@ -3546,37 +4053,38 @@
         <v>5</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L48" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
+        <f t="shared" ref="L3:L49" si="0">IF(SUM(B3:E3,G3,H3:I3,K3)&lt;100, SUM(B3:E3,G3,H3:I3,K3),  100)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="25" customHeight="1">
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="33">
+        <v>30</v>
+      </c>
+      <c r="F4" s="35">
         <v>136.96</v>
       </c>
-      <c r="G4" s="22">
-        <f t="shared" ref="G4:G70" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G4" s="39">
+        <f t="shared" ref="G4:G72" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="33">
+        <v>5</v>
+      </c>
+      <c r="I4" s="33">
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -3589,34 +4097,35 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1">
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20">
-        <v>10</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="16">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16">
         <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="33">
+        <v>30</v>
+      </c>
+      <c r="F5" s="35">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="33">
         <v>1.25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="33">
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -3629,34 +4138,35 @@
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1">
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="16">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16">
         <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="33">
+        <v>30</v>
+      </c>
+      <c r="F6" s="35">
         <v>1.4339</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="33">
+        <v>5</v>
+      </c>
+      <c r="I6" s="33">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -3669,34 +4179,37 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1">
+      <c r="M6" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
         <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="33">
+        <v>30</v>
+      </c>
+      <c r="F7" s="35">
         <v>0.95099999999999996</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="33">
+        <v>5</v>
+      </c>
+      <c r="I7" s="33">
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -3709,34 +4222,35 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1">
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <v>8</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="33">
+        <v>30</v>
+      </c>
+      <c r="F8" s="35">
         <v>53.58</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="39">
         <f t="shared" si="1"/>
         <v>19.473469387755102</v>
       </c>
-      <c r="H8" s="4">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="33">
+        <v>5</v>
+      </c>
+      <c r="I8" s="33">
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -3749,34 +4263,35 @@
         <f t="shared" si="0"/>
         <v>93.473469387755102</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1">
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>8</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="33">
+        <v>30</v>
+      </c>
+      <c r="F9" s="35">
         <v>1.1835</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="33">
+        <v>5</v>
+      </c>
+      <c r="I9" s="33">
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -3789,34 +4304,35 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1">
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20">
-        <v>10</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="16">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16">
         <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="33">
+        <v>30</v>
+      </c>
+      <c r="F10" s="35">
         <v>116.31</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="33">
+        <v>5</v>
+      </c>
+      <c r="I10" s="33">
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -3829,34 +4345,35 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1">
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="20">
-        <v>5</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="B11" s="16">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
         <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="33">
+        <v>30</v>
+      </c>
+      <c r="F11" s="35">
         <v>5.6810999999999998</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="39">
         <f t="shared" si="1"/>
         <v>29.248755102040814</v>
       </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="33">
+        <v>5</v>
+      </c>
+      <c r="I11" s="33">
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -3869,35 +4386,36 @@
         <f t="shared" si="0"/>
         <v>94.248755102040818</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1">
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" ht="25" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="33">
+        <v>30</v>
+      </c>
+      <c r="F12" s="35">
         <v>1.0487</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
+      <c r="H12" s="33">
+        <v>5</v>
+      </c>
+      <c r="I12" s="33">
+        <v>5</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -3907,36 +4425,39 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="25" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <v>8</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="33">
+        <v>30</v>
+      </c>
+      <c r="F13" s="35">
         <v>1.0538000000000001</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="33">
+        <v>5</v>
+      </c>
+      <c r="I13" s="33">
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -3949,34 +4470,35 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1">
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="20">
-        <v>10</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="B14" s="16">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
         <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="33">
+        <v>30</v>
+      </c>
+      <c r="F14" s="35">
         <v>15.304</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="39">
         <f t="shared" si="1"/>
         <v>27.284897959183674</v>
       </c>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="33">
+        <v>5</v>
+      </c>
+      <c r="I14" s="33">
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -3989,34 +4511,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1">
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="20">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16">
         <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="4">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
+      <c r="E15" s="33">
+        <v>30</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="33">
+        <v>5</v>
+      </c>
+      <c r="I15" s="33">
         <v>0</v>
       </c>
       <c r="J15" s="2">
@@ -4029,34 +4552,37 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1">
+      <c r="M15" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20">
-        <v>5</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
         <v>8</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="4">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="33">
+        <v>30</v>
+      </c>
+      <c r="F16" s="35">
         <v>1.5833999999999999</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="33">
+        <v>5</v>
+      </c>
+      <c r="I16" s="33">
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -4069,34 +4595,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="25" customHeight="1">
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" ht="25" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="20">
-        <v>10</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
         <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="4">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="33">
+        <v>30</v>
+      </c>
+      <c r="F17" s="35">
         <v>1.0692999999999999</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="33">
+        <v>5</v>
+      </c>
+      <c r="I17" s="33">
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -4109,9 +4636,10 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="25" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="25" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="5">
@@ -4123,20 +4651,20 @@
       <c r="D18" s="1">
         <v>8</v>
       </c>
-      <c r="E18" s="4">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="33">
+        <v>30</v>
+      </c>
+      <c r="F18" s="35">
         <v>22.295999999999999</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="39">
         <f t="shared" si="1"/>
         <v>25.857959183673469</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="33">
         <v>4</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="33">
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -4149,34 +4677,35 @@
         <f t="shared" si="0"/>
         <v>99.857959183673472</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="25" customHeight="1">
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" ht="25" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="16">
         <v>8</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>8</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="4">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="33">
+        <v>30</v>
+      </c>
+      <c r="F19" s="35">
         <v>39.323999999999998</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="39">
         <f t="shared" si="1"/>
         <v>22.382857142857144</v>
       </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="33">
+        <v>5</v>
+      </c>
+      <c r="I19" s="33">
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -4189,34 +4718,35 @@
         <f t="shared" si="0"/>
         <v>87.382857142857148</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="25" customHeight="1">
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <v>8</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20" s="4">
-        <v>30</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="33">
+        <v>30</v>
+      </c>
+      <c r="F20" s="35">
         <v>1.175</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="33">
+        <v>5</v>
+      </c>
+      <c r="I20" s="33">
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -4229,34 +4759,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="25" customHeight="1">
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" ht="25" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="20">
-        <v>10</v>
-      </c>
-      <c r="C21" s="20">
+      <c r="B21" s="16">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
         <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="4">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="33">
+        <v>30</v>
+      </c>
+      <c r="F21" s="35">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H21" s="4">
-        <v>5</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="33">
+        <v>5</v>
+      </c>
+      <c r="I21" s="33">
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -4269,34 +4800,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="25" customHeight="1">
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="25" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="20">
-        <v>5</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="B22" s="16">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
         <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="4">
-        <v>30</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="33">
+        <v>30</v>
+      </c>
+      <c r="F22" s="35">
         <v>1.6819999999999999</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="33">
+        <v>5</v>
+      </c>
+      <c r="I22" s="33">
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -4309,34 +4841,35 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="25" customHeight="1">
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" ht="25" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="20">
-        <v>10</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="B23" s="16">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16">
         <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="4">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="33">
+        <v>30</v>
+      </c>
+      <c r="F23" s="35">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="33">
+        <v>5</v>
+      </c>
+      <c r="I23" s="33">
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -4349,34 +4882,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="25" customHeight="1">
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" ht="25" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <v>8</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>8</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="4">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
+      <c r="E24" s="33">
+        <v>30</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="4">
-        <v>5</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="33">
+        <v>5</v>
+      </c>
+      <c r="I24" s="33">
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -4389,35 +4923,38 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="25" customHeight="1">
+      <c r="M24" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="25" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20">
-        <v>5</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16">
         <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="4">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" s="33">
+        <v>30</v>
+      </c>
+      <c r="F25" s="35">
         <v>2.0127999999999999</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="39">
         <f t="shared" si="1"/>
         <v>29.997387755102039</v>
       </c>
-      <c r="H25" s="4">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
+      <c r="H25" s="33">
+        <v>5</v>
+      </c>
+      <c r="I25" s="33">
+        <v>10</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -4427,36 +4964,37 @@
       </c>
       <c r="L25" s="3">
         <f t="shared" si="0"/>
-        <v>85.997387755102039</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="25" customHeight="1">
+        <v>95.997387755102039</v>
+      </c>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" ht="25" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="20">
-        <v>10</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="B26" s="16">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
         <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
+      <c r="E26" s="33">
+        <v>0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="4">
-        <v>5</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26" s="33">
+        <v>5</v>
+      </c>
+      <c r="I26" s="33">
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -4469,34 +5007,37 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="25" customHeight="1">
+      <c r="M26" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="25" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <v>3</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="4">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="33">
+        <v>30</v>
+      </c>
+      <c r="F27" s="35">
         <v>1.0944</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H27" s="4">
-        <v>5</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H27" s="33">
+        <v>5</v>
+      </c>
+      <c r="I27" s="33">
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -4509,34 +5050,35 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="25" customHeight="1">
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="25" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="20">
-        <v>10</v>
-      </c>
-      <c r="C28" s="20">
+      <c r="B28" s="16">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16">
         <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="4">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="33">
+        <v>30</v>
+      </c>
+      <c r="F28" s="35">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28" s="33">
+        <v>5</v>
+      </c>
+      <c r="I28" s="33">
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -4549,34 +5091,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="25" customHeight="1">
+      <c r="M28" s="26"/>
+    </row>
+    <row r="29" spans="1:13" ht="25" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="20">
-        <v>5</v>
-      </c>
-      <c r="C29" s="20">
+      <c r="B29" s="16">
+        <v>5</v>
+      </c>
+      <c r="C29" s="16">
         <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="4">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="33">
+        <v>30</v>
+      </c>
+      <c r="F29" s="35">
         <v>108.16</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H29" s="4">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="H29" s="33">
+        <v>5</v>
+      </c>
+      <c r="I29" s="33">
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -4589,34 +5132,37 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="25" customHeight="1">
+      <c r="M29" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="25" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20">
-        <v>10</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="B30" s="16">
+        <v>10</v>
+      </c>
+      <c r="C30" s="16">
         <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>10</v>
       </c>
-      <c r="E30" s="4">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="33">
+        <v>30</v>
+      </c>
+      <c r="F30" s="35">
         <v>0.40200000000000002</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H30" s="4">
-        <v>5</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="33">
+        <v>5</v>
+      </c>
+      <c r="I30" s="33">
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -4629,34 +5175,37 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="25" customHeight="1">
+      <c r="M30" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="25" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="20">
-        <v>5</v>
-      </c>
-      <c r="C31" s="20">
+      <c r="B31" s="16">
+        <v>5</v>
+      </c>
+      <c r="C31" s="16">
         <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="4">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="33">
+        <v>30</v>
+      </c>
+      <c r="F31" s="35">
         <v>119.53</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H31" s="4">
-        <v>5</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="H31" s="33">
+        <v>5</v>
+      </c>
+      <c r="I31" s="33">
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -4669,34 +5218,35 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="25" customHeight="1">
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="25" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="20">
-        <v>10</v>
-      </c>
-      <c r="C32" s="20">
+      <c r="B32" s="16">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16">
         <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="4">
-        <v>30</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="33">
+        <v>30</v>
+      </c>
+      <c r="F32" s="35">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H32" s="4">
-        <v>5</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="H32" s="33">
+        <v>5</v>
+      </c>
+      <c r="I32" s="33">
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -4709,34 +5259,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="25" customHeight="1">
+      <c r="M32" s="26"/>
+    </row>
+    <row r="33" spans="1:243" ht="25" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <v>8</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="33">
+        <v>30</v>
+      </c>
+      <c r="F33" s="35">
         <v>40.957999999999998</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="39">
         <f t="shared" si="1"/>
         <v>22.049387755102039</v>
       </c>
-      <c r="H33" s="4">
-        <v>5</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33" s="33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="33">
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -4749,34 +5300,35 @@
         <f t="shared" si="0"/>
         <v>85.049387755102032</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="25" customHeight="1">
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:243" ht="25" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="20">
-        <v>10</v>
-      </c>
-      <c r="C34" s="20">
+      <c r="B34" s="16">
+        <v>10</v>
+      </c>
+      <c r="C34" s="16">
         <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
-        <v>30</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="33">
+        <v>30</v>
+      </c>
+      <c r="F34" s="35">
         <v>1.0691999999999999</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H34" s="4">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="H34" s="33">
+        <v>5</v>
+      </c>
+      <c r="I34" s="33">
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -4789,35 +5341,36 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="25" customHeight="1">
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="1:243" ht="25" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="20">
-        <v>10</v>
-      </c>
-      <c r="C35" s="20">
+      <c r="B35" s="16">
+        <v>10</v>
+      </c>
+      <c r="C35" s="16">
         <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
+      <c r="E35" s="33">
+        <v>25</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="4">
-        <v>5</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
+      <c r="H35" s="33">
+        <v>5</v>
+      </c>
+      <c r="I35" s="33">
+        <v>5</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -4827,36 +5380,39 @@
       </c>
       <c r="L35" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="25" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:243" ht="25" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="20">
-        <v>10</v>
-      </c>
-      <c r="C36" s="20">
+      <c r="B36" s="16">
+        <v>10</v>
+      </c>
+      <c r="C36" s="16">
         <v>8</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
-        <v>30</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="33">
+        <v>30</v>
+      </c>
+      <c r="F36" s="35">
         <v>83.143000000000001</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="39">
         <f t="shared" si="1"/>
         <v>13.440204081632654</v>
       </c>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="33">
+        <v>5</v>
+      </c>
+      <c r="I36" s="33">
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -4869,34 +5425,35 @@
         <f t="shared" si="0"/>
         <v>81.440204081632658</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="25" customHeight="1">
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="1:243" ht="25" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="16">
         <v>8</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="4">
-        <v>30</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="33">
+        <v>30</v>
+      </c>
+      <c r="F37" s="35">
         <v>1.6818</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H37" s="4">
-        <v>5</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="H37" s="33">
+        <v>5</v>
+      </c>
+      <c r="I37" s="33">
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -4909,35 +5466,36 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="25" customHeight="1">
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:243" ht="25" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="20">
-        <v>10</v>
-      </c>
-      <c r="C38" s="20">
+      <c r="B38" s="16">
+        <v>10</v>
+      </c>
+      <c r="C38" s="16">
         <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
-      <c r="E38" s="4">
-        <v>30</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="33">
+        <v>30</v>
+      </c>
+      <c r="F38" s="35">
         <v>12.138</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="39">
         <f t="shared" si="1"/>
         <v>27.931020408163263</v>
       </c>
-      <c r="H38" s="4">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
+      <c r="H38" s="33">
+        <v>5</v>
+      </c>
+      <c r="I38" s="33">
+        <v>10</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -4947,36 +5505,37 @@
       </c>
       <c r="L38" s="3">
         <f t="shared" si="0"/>
-        <v>97.931020408163263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="25" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="1:243" ht="25" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="20">
-        <v>10</v>
-      </c>
-      <c r="C39" s="20">
+      <c r="B39" s="16">
+        <v>10</v>
+      </c>
+      <c r="C39" s="16">
         <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
       </c>
-      <c r="E39" s="4">
-        <v>30</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="33">
+        <v>30</v>
+      </c>
+      <c r="F39" s="35">
         <v>0.85</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H39" s="4">
-        <v>5</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="H39" s="33">
+        <v>5</v>
+      </c>
+      <c r="I39" s="33">
         <v>10</v>
       </c>
       <c r="J39" s="2">
@@ -4989,34 +5548,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="25" customHeight="1">
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:243" ht="25" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="20">
-        <v>10</v>
-      </c>
-      <c r="C40" s="20">
+      <c r="B40" s="16">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16">
         <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
       </c>
-      <c r="E40" s="4">
-        <v>30</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="22">
+      <c r="E40" s="33">
+        <v>30</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0</v>
+      </c>
+      <c r="G40" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="4">
-        <v>5</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="H40" s="33">
+        <v>5</v>
+      </c>
+      <c r="I40" s="33">
         <v>0</v>
       </c>
       <c r="J40" s="2">
@@ -5029,34 +5589,37 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="25" customHeight="1">
+      <c r="M40" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:243" ht="25" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="20">
-        <v>10</v>
-      </c>
-      <c r="C41" s="20">
+      <c r="B41" s="16">
+        <v>10</v>
+      </c>
+      <c r="C41" s="16">
         <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
       </c>
-      <c r="E41" s="4">
-        <v>30</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="33">
+        <v>30</v>
+      </c>
+      <c r="F41" s="35">
         <v>13.052</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="39">
         <f t="shared" si="1"/>
         <v>27.744489795918369</v>
       </c>
-      <c r="H41" s="4">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="H41" s="33">
+        <v>5</v>
+      </c>
+      <c r="I41" s="33">
         <v>10</v>
       </c>
       <c r="J41" s="2">
@@ -5069,34 +5632,35 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="25" customHeight="1">
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:243" ht="25" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="20">
-        <v>10</v>
-      </c>
-      <c r="C42" s="20">
+      <c r="B42" s="16">
+        <v>10</v>
+      </c>
+      <c r="C42" s="16">
         <v>8</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="4">
-        <v>30</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="33">
+        <v>30</v>
+      </c>
+      <c r="F42" s="35">
         <v>1.7337</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H42" s="4">
-        <v>5</v>
-      </c>
-      <c r="I42" s="4">
+      <c r="H42" s="33">
+        <v>5</v>
+      </c>
+      <c r="I42" s="33">
         <v>10</v>
       </c>
       <c r="J42" s="2">
@@ -5109,34 +5673,35 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="25" customHeight="1">
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="1:243" ht="25" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="20">
-        <v>10</v>
-      </c>
-      <c r="C43" s="20">
+      <c r="B43" s="16">
+        <v>10</v>
+      </c>
+      <c r="C43" s="16">
         <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>8</v>
       </c>
-      <c r="E43" s="4">
-        <v>30</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="33">
+        <v>30</v>
+      </c>
+      <c r="F43" s="35">
         <v>56.232999999999997</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="39">
         <f t="shared" si="1"/>
         <v>18.932040816326534</v>
       </c>
-      <c r="H43" s="4">
-        <v>5</v>
-      </c>
-      <c r="I43" s="4">
+      <c r="H43" s="33">
+        <v>5</v>
+      </c>
+      <c r="I43" s="33">
         <v>0</v>
       </c>
       <c r="J43" s="2">
@@ -5149,34 +5714,37 @@
         <f t="shared" si="0"/>
         <v>86.932040816326534</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="25" customHeight="1">
+      <c r="M43" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:243" ht="25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="16">
         <v>8</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="16">
         <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
+      <c r="E44" s="33">
+        <v>25</v>
+      </c>
+      <c r="F44" s="35">
+        <v>87.375</v>
+      </c>
+      <c r="G44" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>5</v>
-      </c>
-      <c r="I44" s="4">
+        <v>12.576530612244898</v>
+      </c>
+      <c r="H44" s="33">
+        <v>5</v>
+      </c>
+      <c r="I44" s="33">
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -5187,36 +5755,39 @@
       </c>
       <c r="L44" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="25" customHeight="1">
-      <c r="A45" s="27" t="s">
+        <v>62.576530612244895</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:243" ht="25" customHeight="1">
+      <c r="A45" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="20">
-        <v>10</v>
-      </c>
-      <c r="C45" s="20">
+      <c r="B45" s="16">
+        <v>10</v>
+      </c>
+      <c r="C45" s="16">
         <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>9</v>
       </c>
-      <c r="E45" s="4">
-        <v>30</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="33">
+        <v>30</v>
+      </c>
+      <c r="F45" s="35">
         <v>3.4880000000000001E-2</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="33">
         <v>4</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="33">
         <v>10</v>
       </c>
       <c r="J45" s="2">
@@ -5229,500 +5800,1439 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="25" customHeight="1">
-      <c r="A46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="20">
-        <v>10</v>
-      </c>
-      <c r="C46" s="20">
-        <v>10</v>
+      <c r="M45" s="27"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+      <c r="AW45" s="7"/>
+      <c r="AX45" s="7"/>
+      <c r="AY45" s="7"/>
+      <c r="AZ45" s="7"/>
+      <c r="BA45" s="7"/>
+      <c r="BB45" s="7"/>
+      <c r="BC45" s="7"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="7"/>
+      <c r="BF45" s="7"/>
+      <c r="BG45" s="7"/>
+      <c r="BH45" s="7"/>
+      <c r="BI45" s="7"/>
+      <c r="BJ45" s="7"/>
+      <c r="BK45" s="7"/>
+      <c r="BL45" s="7"/>
+      <c r="BM45" s="7"/>
+      <c r="BN45" s="7"/>
+      <c r="BO45" s="7"/>
+      <c r="BP45" s="7"/>
+      <c r="BQ45" s="7"/>
+      <c r="BR45" s="7"/>
+      <c r="BS45" s="7"/>
+      <c r="BT45" s="7"/>
+      <c r="BU45" s="7"/>
+      <c r="BV45" s="7"/>
+      <c r="BW45" s="7"/>
+      <c r="BX45" s="7"/>
+      <c r="BY45" s="7"/>
+      <c r="BZ45" s="7"/>
+      <c r="CA45" s="7"/>
+      <c r="CB45" s="7"/>
+      <c r="CC45" s="7"/>
+      <c r="CD45" s="7"/>
+      <c r="CE45" s="7"/>
+      <c r="CF45" s="7"/>
+      <c r="CG45" s="7"/>
+      <c r="CH45" s="7"/>
+      <c r="CI45" s="7"/>
+      <c r="CJ45" s="7"/>
+      <c r="CK45" s="7"/>
+      <c r="CL45" s="7"/>
+      <c r="CM45" s="7"/>
+      <c r="CN45" s="7"/>
+      <c r="CO45" s="7"/>
+      <c r="CP45" s="7"/>
+      <c r="CQ45" s="7"/>
+      <c r="CR45" s="7"/>
+      <c r="CS45" s="7"/>
+      <c r="CT45" s="7"/>
+      <c r="CU45" s="7"/>
+      <c r="CV45" s="7"/>
+      <c r="CW45" s="7"/>
+      <c r="CX45" s="7"/>
+      <c r="CY45" s="7"/>
+      <c r="CZ45" s="7"/>
+      <c r="DA45" s="7"/>
+      <c r="DB45" s="7"/>
+      <c r="DC45" s="7"/>
+      <c r="DD45" s="7"/>
+      <c r="DE45" s="7"/>
+      <c r="DF45" s="7"/>
+      <c r="DG45" s="7"/>
+      <c r="DH45" s="7"/>
+      <c r="DI45" s="7"/>
+      <c r="DJ45" s="7"/>
+      <c r="DK45" s="7"/>
+      <c r="DL45" s="7"/>
+      <c r="DM45" s="7"/>
+      <c r="DN45" s="7"/>
+      <c r="DO45" s="7"/>
+      <c r="DP45" s="7"/>
+      <c r="DQ45" s="7"/>
+      <c r="DR45" s="7"/>
+      <c r="DS45" s="7"/>
+      <c r="DT45" s="7"/>
+      <c r="DU45" s="7"/>
+      <c r="DV45" s="7"/>
+      <c r="DW45" s="7"/>
+      <c r="DX45" s="7"/>
+      <c r="DY45" s="7"/>
+      <c r="DZ45" s="7"/>
+      <c r="EA45" s="7"/>
+      <c r="EB45" s="7"/>
+      <c r="EC45" s="7"/>
+      <c r="ED45" s="7"/>
+      <c r="EE45" s="7"/>
+      <c r="EF45" s="7"/>
+      <c r="EG45" s="7"/>
+      <c r="EH45" s="7"/>
+      <c r="EI45" s="7"/>
+      <c r="EJ45" s="7"/>
+      <c r="EK45" s="7"/>
+      <c r="EL45" s="7"/>
+      <c r="EM45" s="7"/>
+      <c r="EN45" s="7"/>
+      <c r="EO45" s="7"/>
+      <c r="EP45" s="7"/>
+      <c r="EQ45" s="7"/>
+      <c r="ER45" s="7"/>
+      <c r="ES45" s="7"/>
+      <c r="ET45" s="7"/>
+      <c r="EU45" s="7"/>
+      <c r="EV45" s="7"/>
+      <c r="EW45" s="7"/>
+      <c r="EX45" s="7"/>
+      <c r="EY45" s="7"/>
+      <c r="EZ45" s="7"/>
+      <c r="FA45" s="7"/>
+      <c r="FB45" s="7"/>
+      <c r="FC45" s="7"/>
+      <c r="FD45" s="7"/>
+      <c r="FE45" s="7"/>
+      <c r="FF45" s="7"/>
+      <c r="FG45" s="7"/>
+      <c r="FH45" s="7"/>
+      <c r="FI45" s="7"/>
+      <c r="FJ45" s="7"/>
+      <c r="FK45" s="7"/>
+      <c r="FL45" s="7"/>
+      <c r="FM45" s="7"/>
+      <c r="FN45" s="7"/>
+      <c r="FO45" s="7"/>
+      <c r="FP45" s="7"/>
+      <c r="FQ45" s="7"/>
+      <c r="FR45" s="7"/>
+      <c r="FS45" s="7"/>
+      <c r="FT45" s="7"/>
+      <c r="FU45" s="7"/>
+      <c r="FV45" s="7"/>
+      <c r="FW45" s="7"/>
+      <c r="FX45" s="7"/>
+      <c r="FY45" s="7"/>
+      <c r="FZ45" s="7"/>
+      <c r="GA45" s="7"/>
+      <c r="GB45" s="7"/>
+      <c r="GC45" s="7"/>
+      <c r="GD45" s="7"/>
+      <c r="GE45" s="7"/>
+      <c r="GF45" s="7"/>
+      <c r="GG45" s="7"/>
+      <c r="GH45" s="7"/>
+      <c r="GI45" s="7"/>
+      <c r="GJ45" s="7"/>
+      <c r="GK45" s="7"/>
+      <c r="GL45" s="7"/>
+      <c r="GM45" s="7"/>
+      <c r="GN45" s="7"/>
+      <c r="GO45" s="7"/>
+      <c r="GP45" s="7"/>
+      <c r="GQ45" s="7"/>
+      <c r="GR45" s="7"/>
+      <c r="GS45" s="7"/>
+      <c r="GT45" s="7"/>
+      <c r="GU45" s="7"/>
+      <c r="GV45" s="7"/>
+      <c r="GW45" s="7"/>
+      <c r="GX45" s="7"/>
+      <c r="GY45" s="7"/>
+      <c r="GZ45" s="7"/>
+      <c r="HA45" s="7"/>
+      <c r="HB45" s="7"/>
+      <c r="HC45" s="7"/>
+      <c r="HD45" s="7"/>
+      <c r="HE45" s="7"/>
+      <c r="HF45" s="7"/>
+      <c r="HG45" s="7"/>
+      <c r="HH45" s="7"/>
+      <c r="HI45" s="7"/>
+      <c r="HJ45" s="7"/>
+      <c r="HK45" s="7"/>
+      <c r="HL45" s="7"/>
+      <c r="HM45" s="7"/>
+      <c r="HN45" s="7"/>
+      <c r="HO45" s="7"/>
+      <c r="HP45" s="7"/>
+      <c r="HQ45" s="7"/>
+      <c r="HR45" s="7"/>
+      <c r="HS45" s="7"/>
+      <c r="HT45" s="7"/>
+      <c r="HU45" s="7"/>
+      <c r="HV45" s="7"/>
+      <c r="HW45" s="7"/>
+      <c r="HX45" s="7"/>
+      <c r="HY45" s="7"/>
+      <c r="HZ45" s="7"/>
+      <c r="IA45" s="7"/>
+      <c r="IB45" s="7"/>
+      <c r="IC45" s="7"/>
+      <c r="ID45" s="7"/>
+      <c r="IE45" s="7"/>
+      <c r="IF45" s="7"/>
+      <c r="IG45" s="7"/>
+      <c r="IH45" s="7"/>
+      <c r="II45" s="7"/>
+    </row>
+    <row r="46" spans="1:243" ht="25" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="16">
+        <v>7</v>
+      </c>
+      <c r="C46" s="16">
+        <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22">
+        <v>7</v>
+      </c>
+      <c r="E46" s="33">
+        <v>30</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0.53147</v>
+      </c>
+      <c r="G46" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="4">
+        <v>30</v>
+      </c>
+      <c r="H46" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I46" s="33">
         <v>0</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="25" customHeight="1">
+        <v>90.5</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="7"/>
+      <c r="BL46" s="7"/>
+      <c r="BM46" s="7"/>
+      <c r="BN46" s="7"/>
+      <c r="BO46" s="7"/>
+      <c r="BP46" s="7"/>
+      <c r="BQ46" s="7"/>
+      <c r="BR46" s="7"/>
+      <c r="BS46" s="7"/>
+      <c r="BT46" s="7"/>
+      <c r="BU46" s="7"/>
+      <c r="BV46" s="7"/>
+      <c r="BW46" s="7"/>
+      <c r="BX46" s="7"/>
+      <c r="BY46" s="7"/>
+      <c r="BZ46" s="7"/>
+      <c r="CA46" s="7"/>
+      <c r="CB46" s="7"/>
+      <c r="CC46" s="7"/>
+      <c r="CD46" s="7"/>
+      <c r="CE46" s="7"/>
+      <c r="CF46" s="7"/>
+      <c r="CG46" s="7"/>
+      <c r="CH46" s="7"/>
+      <c r="CI46" s="7"/>
+      <c r="CJ46" s="7"/>
+      <c r="CK46" s="7"/>
+      <c r="CL46" s="7"/>
+      <c r="CM46" s="7"/>
+      <c r="CN46" s="7"/>
+      <c r="CO46" s="7"/>
+      <c r="CP46" s="7"/>
+      <c r="CQ46" s="7"/>
+      <c r="CR46" s="7"/>
+      <c r="CS46" s="7"/>
+      <c r="CT46" s="7"/>
+      <c r="CU46" s="7"/>
+      <c r="CV46" s="7"/>
+      <c r="CW46" s="7"/>
+      <c r="CX46" s="7"/>
+      <c r="CY46" s="7"/>
+      <c r="CZ46" s="7"/>
+      <c r="DA46" s="7"/>
+      <c r="DB46" s="7"/>
+      <c r="DC46" s="7"/>
+      <c r="DD46" s="7"/>
+      <c r="DE46" s="7"/>
+      <c r="DF46" s="7"/>
+      <c r="DG46" s="7"/>
+      <c r="DH46" s="7"/>
+      <c r="DI46" s="7"/>
+      <c r="DJ46" s="7"/>
+      <c r="DK46" s="7"/>
+      <c r="DL46" s="7"/>
+      <c r="DM46" s="7"/>
+      <c r="DN46" s="7"/>
+      <c r="DO46" s="7"/>
+      <c r="DP46" s="7"/>
+      <c r="DQ46" s="7"/>
+      <c r="DR46" s="7"/>
+      <c r="DS46" s="7"/>
+      <c r="DT46" s="7"/>
+      <c r="DU46" s="7"/>
+      <c r="DV46" s="7"/>
+      <c r="DW46" s="7"/>
+      <c r="DX46" s="7"/>
+      <c r="DY46" s="7"/>
+      <c r="DZ46" s="7"/>
+      <c r="EA46" s="7"/>
+      <c r="EB46" s="7"/>
+      <c r="EC46" s="7"/>
+      <c r="ED46" s="7"/>
+      <c r="EE46" s="7"/>
+      <c r="EF46" s="7"/>
+      <c r="EG46" s="7"/>
+      <c r="EH46" s="7"/>
+      <c r="EI46" s="7"/>
+      <c r="EJ46" s="7"/>
+      <c r="EK46" s="7"/>
+      <c r="EL46" s="7"/>
+      <c r="EM46" s="7"/>
+      <c r="EN46" s="7"/>
+      <c r="EO46" s="7"/>
+      <c r="EP46" s="7"/>
+      <c r="EQ46" s="7"/>
+      <c r="ER46" s="7"/>
+      <c r="ES46" s="7"/>
+      <c r="ET46" s="7"/>
+      <c r="EU46" s="7"/>
+      <c r="EV46" s="7"/>
+      <c r="EW46" s="7"/>
+      <c r="EX46" s="7"/>
+      <c r="EY46" s="7"/>
+      <c r="EZ46" s="7"/>
+      <c r="FA46" s="7"/>
+      <c r="FB46" s="7"/>
+      <c r="FC46" s="7"/>
+      <c r="FD46" s="7"/>
+      <c r="FE46" s="7"/>
+      <c r="FF46" s="7"/>
+      <c r="FG46" s="7"/>
+      <c r="FH46" s="7"/>
+      <c r="FI46" s="7"/>
+      <c r="FJ46" s="7"/>
+      <c r="FK46" s="7"/>
+      <c r="FL46" s="7"/>
+      <c r="FM46" s="7"/>
+      <c r="FN46" s="7"/>
+      <c r="FO46" s="7"/>
+      <c r="FP46" s="7"/>
+      <c r="FQ46" s="7"/>
+      <c r="FR46" s="7"/>
+      <c r="FS46" s="7"/>
+      <c r="FT46" s="7"/>
+      <c r="FU46" s="7"/>
+      <c r="FV46" s="7"/>
+      <c r="FW46" s="7"/>
+      <c r="FX46" s="7"/>
+      <c r="FY46" s="7"/>
+      <c r="FZ46" s="7"/>
+      <c r="GA46" s="7"/>
+      <c r="GB46" s="7"/>
+      <c r="GC46" s="7"/>
+      <c r="GD46" s="7"/>
+      <c r="GE46" s="7"/>
+      <c r="GF46" s="7"/>
+      <c r="GG46" s="7"/>
+      <c r="GH46" s="7"/>
+      <c r="GI46" s="7"/>
+      <c r="GJ46" s="7"/>
+      <c r="GK46" s="7"/>
+      <c r="GL46" s="7"/>
+      <c r="GM46" s="7"/>
+      <c r="GN46" s="7"/>
+      <c r="GO46" s="7"/>
+      <c r="GP46" s="7"/>
+      <c r="GQ46" s="7"/>
+      <c r="GR46" s="7"/>
+      <c r="GS46" s="7"/>
+      <c r="GT46" s="7"/>
+      <c r="GU46" s="7"/>
+      <c r="GV46" s="7"/>
+      <c r="GW46" s="7"/>
+      <c r="GX46" s="7"/>
+      <c r="GY46" s="7"/>
+      <c r="GZ46" s="7"/>
+      <c r="HA46" s="7"/>
+      <c r="HB46" s="7"/>
+      <c r="HC46" s="7"/>
+      <c r="HD46" s="7"/>
+      <c r="HE46" s="7"/>
+      <c r="HF46" s="7"/>
+      <c r="HG46" s="7"/>
+      <c r="HH46" s="7"/>
+      <c r="HI46" s="7"/>
+      <c r="HJ46" s="7"/>
+      <c r="HK46" s="7"/>
+      <c r="HL46" s="7"/>
+      <c r="HM46" s="7"/>
+      <c r="HN46" s="7"/>
+      <c r="HO46" s="7"/>
+      <c r="HP46" s="7"/>
+      <c r="HQ46" s="7"/>
+      <c r="HR46" s="7"/>
+      <c r="HS46" s="7"/>
+      <c r="HT46" s="7"/>
+      <c r="HU46" s="7"/>
+      <c r="HV46" s="7"/>
+      <c r="HW46" s="7"/>
+      <c r="HX46" s="7"/>
+      <c r="HY46" s="7"/>
+      <c r="HZ46" s="7"/>
+      <c r="IA46" s="7"/>
+      <c r="IB46" s="7"/>
+      <c r="IC46" s="7"/>
+      <c r="ID46" s="7"/>
+      <c r="IE46" s="7"/>
+      <c r="IF46" s="7"/>
+      <c r="IG46" s="7"/>
+      <c r="IH46" s="7"/>
+      <c r="II46" s="7"/>
+    </row>
+    <row r="47" spans="1:243" ht="25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="20">
-        <v>10</v>
-      </c>
-      <c r="C47" s="20">
+        <v>59</v>
+      </c>
+      <c r="B47" s="16">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
         <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4">
-        <v>30</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.1318999999999999</v>
-      </c>
-      <c r="G47" s="22">
+        <v>8</v>
+      </c>
+      <c r="E47" s="33">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="39">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H47" s="4">
-        <v>5</v>
-      </c>
-      <c r="I47" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="33">
+        <v>5</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>4.5100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="4">
         <v>5</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="25" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="7"/>
+      <c r="BI47" s="7"/>
+      <c r="BJ47" s="7"/>
+      <c r="BK47" s="7"/>
+      <c r="BL47" s="7"/>
+      <c r="BM47" s="7"/>
+      <c r="BN47" s="7"/>
+      <c r="BO47" s="7"/>
+      <c r="BP47" s="7"/>
+      <c r="BQ47" s="7"/>
+      <c r="BR47" s="7"/>
+      <c r="BS47" s="7"/>
+      <c r="BT47" s="7"/>
+      <c r="BU47" s="7"/>
+      <c r="BV47" s="7"/>
+      <c r="BW47" s="7"/>
+      <c r="BX47" s="7"/>
+      <c r="BY47" s="7"/>
+      <c r="BZ47" s="7"/>
+      <c r="CA47" s="7"/>
+      <c r="CB47" s="7"/>
+      <c r="CC47" s="7"/>
+      <c r="CD47" s="7"/>
+      <c r="CE47" s="7"/>
+      <c r="CF47" s="7"/>
+      <c r="CG47" s="7"/>
+      <c r="CH47" s="7"/>
+      <c r="CI47" s="7"/>
+      <c r="CJ47" s="7"/>
+      <c r="CK47" s="7"/>
+      <c r="CL47" s="7"/>
+      <c r="CM47" s="7"/>
+      <c r="CN47" s="7"/>
+      <c r="CO47" s="7"/>
+      <c r="CP47" s="7"/>
+      <c r="CQ47" s="7"/>
+      <c r="CR47" s="7"/>
+      <c r="CS47" s="7"/>
+      <c r="CT47" s="7"/>
+      <c r="CU47" s="7"/>
+      <c r="CV47" s="7"/>
+      <c r="CW47" s="7"/>
+      <c r="CX47" s="7"/>
+      <c r="CY47" s="7"/>
+      <c r="CZ47" s="7"/>
+      <c r="DA47" s="7"/>
+      <c r="DB47" s="7"/>
+      <c r="DC47" s="7"/>
+      <c r="DD47" s="7"/>
+      <c r="DE47" s="7"/>
+      <c r="DF47" s="7"/>
+      <c r="DG47" s="7"/>
+      <c r="DH47" s="7"/>
+      <c r="DI47" s="7"/>
+      <c r="DJ47" s="7"/>
+      <c r="DK47" s="7"/>
+      <c r="DL47" s="7"/>
+      <c r="DM47" s="7"/>
+      <c r="DN47" s="7"/>
+      <c r="DO47" s="7"/>
+      <c r="DP47" s="7"/>
+      <c r="DQ47" s="7"/>
+      <c r="DR47" s="7"/>
+      <c r="DS47" s="7"/>
+      <c r="DT47" s="7"/>
+      <c r="DU47" s="7"/>
+      <c r="DV47" s="7"/>
+      <c r="DW47" s="7"/>
+      <c r="DX47" s="7"/>
+      <c r="DY47" s="7"/>
+      <c r="DZ47" s="7"/>
+      <c r="EA47" s="7"/>
+      <c r="EB47" s="7"/>
+      <c r="EC47" s="7"/>
+      <c r="ED47" s="7"/>
+      <c r="EE47" s="7"/>
+      <c r="EF47" s="7"/>
+      <c r="EG47" s="7"/>
+      <c r="EH47" s="7"/>
+      <c r="EI47" s="7"/>
+      <c r="EJ47" s="7"/>
+      <c r="EK47" s="7"/>
+      <c r="EL47" s="7"/>
+      <c r="EM47" s="7"/>
+      <c r="EN47" s="7"/>
+      <c r="EO47" s="7"/>
+      <c r="EP47" s="7"/>
+      <c r="EQ47" s="7"/>
+      <c r="ER47" s="7"/>
+      <c r="ES47" s="7"/>
+      <c r="ET47" s="7"/>
+      <c r="EU47" s="7"/>
+      <c r="EV47" s="7"/>
+      <c r="EW47" s="7"/>
+      <c r="EX47" s="7"/>
+      <c r="EY47" s="7"/>
+      <c r="EZ47" s="7"/>
+      <c r="FA47" s="7"/>
+      <c r="FB47" s="7"/>
+      <c r="FC47" s="7"/>
+      <c r="FD47" s="7"/>
+      <c r="FE47" s="7"/>
+      <c r="FF47" s="7"/>
+      <c r="FG47" s="7"/>
+      <c r="FH47" s="7"/>
+      <c r="FI47" s="7"/>
+      <c r="FJ47" s="7"/>
+      <c r="FK47" s="7"/>
+      <c r="FL47" s="7"/>
+      <c r="FM47" s="7"/>
+      <c r="FN47" s="7"/>
+      <c r="FO47" s="7"/>
+      <c r="FP47" s="7"/>
+      <c r="FQ47" s="7"/>
+      <c r="FR47" s="7"/>
+      <c r="FS47" s="7"/>
+      <c r="FT47" s="7"/>
+      <c r="FU47" s="7"/>
+      <c r="FV47" s="7"/>
+      <c r="FW47" s="7"/>
+      <c r="FX47" s="7"/>
+      <c r="FY47" s="7"/>
+      <c r="FZ47" s="7"/>
+      <c r="GA47" s="7"/>
+      <c r="GB47" s="7"/>
+      <c r="GC47" s="7"/>
+      <c r="GD47" s="7"/>
+      <c r="GE47" s="7"/>
+      <c r="GF47" s="7"/>
+      <c r="GG47" s="7"/>
+      <c r="GH47" s="7"/>
+      <c r="GI47" s="7"/>
+      <c r="GJ47" s="7"/>
+      <c r="GK47" s="7"/>
+      <c r="GL47" s="7"/>
+      <c r="GM47" s="7"/>
+      <c r="GN47" s="7"/>
+      <c r="GO47" s="7"/>
+      <c r="GP47" s="7"/>
+      <c r="GQ47" s="7"/>
+      <c r="GR47" s="7"/>
+      <c r="GS47" s="7"/>
+      <c r="GT47" s="7"/>
+      <c r="GU47" s="7"/>
+      <c r="GV47" s="7"/>
+      <c r="GW47" s="7"/>
+      <c r="GX47" s="7"/>
+      <c r="GY47" s="7"/>
+      <c r="GZ47" s="7"/>
+      <c r="HA47" s="7"/>
+      <c r="HB47" s="7"/>
+      <c r="HC47" s="7"/>
+      <c r="HD47" s="7"/>
+      <c r="HE47" s="7"/>
+      <c r="HF47" s="7"/>
+      <c r="HG47" s="7"/>
+      <c r="HH47" s="7"/>
+      <c r="HI47" s="7"/>
+      <c r="HJ47" s="7"/>
+      <c r="HK47" s="7"/>
+      <c r="HL47" s="7"/>
+      <c r="HM47" s="7"/>
+      <c r="HN47" s="7"/>
+      <c r="HO47" s="7"/>
+      <c r="HP47" s="7"/>
+      <c r="HQ47" s="7"/>
+      <c r="HR47" s="7"/>
+      <c r="HS47" s="7"/>
+      <c r="HT47" s="7"/>
+      <c r="HU47" s="7"/>
+      <c r="HV47" s="7"/>
+      <c r="HW47" s="7"/>
+      <c r="HX47" s="7"/>
+      <c r="HY47" s="7"/>
+      <c r="HZ47" s="7"/>
+      <c r="IA47" s="7"/>
+      <c r="IB47" s="7"/>
+      <c r="IC47" s="7"/>
+      <c r="ID47" s="7"/>
+      <c r="IE47" s="7"/>
+      <c r="IF47" s="7"/>
+      <c r="IG47" s="7"/>
+      <c r="IH47" s="7"/>
+      <c r="II47" s="7"/>
+    </row>
+    <row r="48" spans="1:243" ht="25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="20">
-        <v>10</v>
-      </c>
-      <c r="C48" s="20">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B48" s="16">
+        <v>10</v>
+      </c>
+      <c r="C48" s="16">
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22">
+        <v>10</v>
+      </c>
+      <c r="E48" s="33">
+        <v>30</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1.1318999999999999</v>
+      </c>
+      <c r="G48" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>5</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H48" s="33">
+        <v>5</v>
+      </c>
+      <c r="I48" s="33">
+        <v>10</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="K48" s="4">
         <v>5</v>
       </c>
       <c r="L48" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M48" s="26"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="7"/>
+      <c r="BI48" s="7"/>
+      <c r="BJ48" s="7"/>
+      <c r="BK48" s="7"/>
+      <c r="BL48" s="7"/>
+      <c r="BM48" s="7"/>
+      <c r="BN48" s="7"/>
+      <c r="BO48" s="7"/>
+      <c r="BP48" s="7"/>
+      <c r="BQ48" s="7"/>
+      <c r="BR48" s="7"/>
+      <c r="BS48" s="7"/>
+      <c r="BT48" s="7"/>
+      <c r="BU48" s="7"/>
+      <c r="BV48" s="7"/>
+      <c r="BW48" s="7"/>
+      <c r="BX48" s="7"/>
+      <c r="BY48" s="7"/>
+      <c r="BZ48" s="7"/>
+      <c r="CA48" s="7"/>
+      <c r="CB48" s="7"/>
+      <c r="CC48" s="7"/>
+      <c r="CD48" s="7"/>
+      <c r="CE48" s="7"/>
+      <c r="CF48" s="7"/>
+      <c r="CG48" s="7"/>
+      <c r="CH48" s="7"/>
+      <c r="CI48" s="7"/>
+      <c r="CJ48" s="7"/>
+      <c r="CK48" s="7"/>
+      <c r="CL48" s="7"/>
+      <c r="CM48" s="7"/>
+      <c r="CN48" s="7"/>
+      <c r="CO48" s="7"/>
+      <c r="CP48" s="7"/>
+      <c r="CQ48" s="7"/>
+      <c r="CR48" s="7"/>
+      <c r="CS48" s="7"/>
+      <c r="CT48" s="7"/>
+      <c r="CU48" s="7"/>
+      <c r="CV48" s="7"/>
+      <c r="CW48" s="7"/>
+      <c r="CX48" s="7"/>
+      <c r="CY48" s="7"/>
+      <c r="CZ48" s="7"/>
+      <c r="DA48" s="7"/>
+      <c r="DB48" s="7"/>
+      <c r="DC48" s="7"/>
+      <c r="DD48" s="7"/>
+      <c r="DE48" s="7"/>
+      <c r="DF48" s="7"/>
+      <c r="DG48" s="7"/>
+      <c r="DH48" s="7"/>
+      <c r="DI48" s="7"/>
+      <c r="DJ48" s="7"/>
+      <c r="DK48" s="7"/>
+      <c r="DL48" s="7"/>
+      <c r="DM48" s="7"/>
+      <c r="DN48" s="7"/>
+      <c r="DO48" s="7"/>
+      <c r="DP48" s="7"/>
+      <c r="DQ48" s="7"/>
+      <c r="DR48" s="7"/>
+      <c r="DS48" s="7"/>
+      <c r="DT48" s="7"/>
+      <c r="DU48" s="7"/>
+      <c r="DV48" s="7"/>
+      <c r="DW48" s="7"/>
+      <c r="DX48" s="7"/>
+      <c r="DY48" s="7"/>
+      <c r="DZ48" s="7"/>
+      <c r="EA48" s="7"/>
+      <c r="EB48" s="7"/>
+      <c r="EC48" s="7"/>
+      <c r="ED48" s="7"/>
+      <c r="EE48" s="7"/>
+      <c r="EF48" s="7"/>
+      <c r="EG48" s="7"/>
+      <c r="EH48" s="7"/>
+      <c r="EI48" s="7"/>
+      <c r="EJ48" s="7"/>
+      <c r="EK48" s="7"/>
+      <c r="EL48" s="7"/>
+      <c r="EM48" s="7"/>
+      <c r="EN48" s="7"/>
+      <c r="EO48" s="7"/>
+      <c r="EP48" s="7"/>
+      <c r="EQ48" s="7"/>
+      <c r="ER48" s="7"/>
+      <c r="ES48" s="7"/>
+      <c r="ET48" s="7"/>
+      <c r="EU48" s="7"/>
+      <c r="EV48" s="7"/>
+      <c r="EW48" s="7"/>
+      <c r="EX48" s="7"/>
+      <c r="EY48" s="7"/>
+      <c r="EZ48" s="7"/>
+      <c r="FA48" s="7"/>
+      <c r="FB48" s="7"/>
+      <c r="FC48" s="7"/>
+      <c r="FD48" s="7"/>
+      <c r="FE48" s="7"/>
+      <c r="FF48" s="7"/>
+      <c r="FG48" s="7"/>
+      <c r="FH48" s="7"/>
+      <c r="FI48" s="7"/>
+      <c r="FJ48" s="7"/>
+      <c r="FK48" s="7"/>
+      <c r="FL48" s="7"/>
+      <c r="FM48" s="7"/>
+      <c r="FN48" s="7"/>
+      <c r="FO48" s="7"/>
+      <c r="FP48" s="7"/>
+      <c r="FQ48" s="7"/>
+      <c r="FR48" s="7"/>
+      <c r="FS48" s="7"/>
+      <c r="FT48" s="7"/>
+      <c r="FU48" s="7"/>
+      <c r="FV48" s="7"/>
+      <c r="FW48" s="7"/>
+      <c r="FX48" s="7"/>
+      <c r="FY48" s="7"/>
+      <c r="FZ48" s="7"/>
+      <c r="GA48" s="7"/>
+      <c r="GB48" s="7"/>
+      <c r="GC48" s="7"/>
+      <c r="GD48" s="7"/>
+      <c r="GE48" s="7"/>
+      <c r="GF48" s="7"/>
+      <c r="GG48" s="7"/>
+      <c r="GH48" s="7"/>
+      <c r="GI48" s="7"/>
+      <c r="GJ48" s="7"/>
+      <c r="GK48" s="7"/>
+      <c r="GL48" s="7"/>
+      <c r="GM48" s="7"/>
+      <c r="GN48" s="7"/>
+      <c r="GO48" s="7"/>
+      <c r="GP48" s="7"/>
+      <c r="GQ48" s="7"/>
+      <c r="GR48" s="7"/>
+      <c r="GS48" s="7"/>
+      <c r="GT48" s="7"/>
+      <c r="GU48" s="7"/>
+      <c r="GV48" s="7"/>
+      <c r="GW48" s="7"/>
+      <c r="GX48" s="7"/>
+      <c r="GY48" s="7"/>
+      <c r="GZ48" s="7"/>
+      <c r="HA48" s="7"/>
+      <c r="HB48" s="7"/>
+      <c r="HC48" s="7"/>
+      <c r="HD48" s="7"/>
+      <c r="HE48" s="7"/>
+      <c r="HF48" s="7"/>
+      <c r="HG48" s="7"/>
+      <c r="HH48" s="7"/>
+      <c r="HI48" s="7"/>
+      <c r="HJ48" s="7"/>
+      <c r="HK48" s="7"/>
+      <c r="HL48" s="7"/>
+      <c r="HM48" s="7"/>
+      <c r="HN48" s="7"/>
+      <c r="HO48" s="7"/>
+      <c r="HP48" s="7"/>
+      <c r="HQ48" s="7"/>
+      <c r="HR48" s="7"/>
+      <c r="HS48" s="7"/>
+      <c r="HT48" s="7"/>
+      <c r="HU48" s="7"/>
+      <c r="HV48" s="7"/>
+      <c r="HW48" s="7"/>
+      <c r="HX48" s="7"/>
+      <c r="HY48" s="7"/>
+      <c r="HZ48" s="7"/>
+      <c r="IA48" s="7"/>
+      <c r="IB48" s="7"/>
+      <c r="IC48" s="7"/>
+      <c r="ID48" s="7"/>
+      <c r="IE48" s="7"/>
+      <c r="IF48" s="7"/>
+      <c r="IG48" s="7"/>
+      <c r="IH48" s="7"/>
+      <c r="II48" s="7"/>
     </row>
     <row r="49" spans="1:243" ht="25" customHeight="1">
       <c r="A49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="16">
+        <v>10</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="33">
+        <v>0</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="33">
+        <v>5</v>
+      </c>
+      <c r="I49" s="33">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:243" ht="25" customHeight="1">
+      <c r="A50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="20">
-        <v>10</v>
-      </c>
-      <c r="C49" s="20">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-      <c r="E49" s="4">
-        <v>30</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
+      <c r="B50" s="16">
+        <v>10</v>
+      </c>
+      <c r="C50" s="16">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="33">
+        <v>30</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="4">
-        <v>5</v>
-      </c>
-      <c r="I49" s="4">
-        <v>10</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
-        <f t="shared" ref="L49:L81" si="2">IF(SUM(B49:E49,G49,H49:I49,K49)&lt;100, SUM(B49:E49,G49,H49:I49,K49),  100)</f>
+      <c r="H50" s="33">
+        <v>5</v>
+      </c>
+      <c r="I50" s="33">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>5</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" ref="L50:L83" si="2">IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:243" ht="25" customHeight="1">
-      <c r="A50" s="30" t="s">
+      <c r="M50" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:243" ht="25" customHeight="1">
+      <c r="A51" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B51" s="16">
         <v>8</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C51" s="16">
         <v>8</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>8</v>
       </c>
-      <c r="E50" s="4">
-        <v>30</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E51" s="33">
+        <v>30</v>
+      </c>
+      <c r="F51" s="35">
         <v>13.036</v>
       </c>
-      <c r="G50" s="22">
-        <f>IF(F50&gt;0, IF(F50&lt;2, 30, IF(F50&gt;100, 10, (1-(F50-2)/(100-2))*20+10)), 0)</f>
+      <c r="G51" s="39">
+        <f>IF(F51&gt;0, IF(F51&lt;2, 30, IF(F51&gt;100, 10, (1-(F51-2)/(100-2))*20+10)), 0)</f>
         <v>27.747755102040816</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H51" s="33">
         <v>4.5</v>
       </c>
-      <c r="I50" s="4">
-        <v>10</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="I51" s="33">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <v>4.5</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L51" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:243" ht="25" customHeight="1">
-      <c r="A51" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="20">
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="1:243" ht="25" customHeight="1">
+      <c r="A52" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="16">
+        <v>7</v>
+      </c>
+      <c r="C52" s="16">
         <v>8</v>
       </c>
-      <c r="C51" s="20">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>3</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>3</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:243" ht="25" customHeight="1">
-      <c r="A52" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="20">
-        <v>10</v>
-      </c>
-      <c r="C52" s="24">
-        <v>10</v>
-      </c>
       <c r="D52" s="1">
-        <v>8</v>
-      </c>
-      <c r="E52" s="4">
-        <v>30</v>
-      </c>
-      <c r="F52" s="2">
-        <v>14.272</v>
-      </c>
-      <c r="G52" s="22">
-        <f t="shared" si="1"/>
-        <v>27.495510204081633</v>
-      </c>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4">
+        <v>7</v>
+      </c>
+      <c r="E52" s="33">
+        <v>30</v>
+      </c>
+      <c r="F52" s="35">
+        <v>1.167</v>
+      </c>
+      <c r="G52" s="39">
+        <f>IF(F52&gt;0, IF(F52&lt;2, 30, IF(F52&gt;100, 10, (1-(F52-2)/(100-2))*20+10)), 0)</f>
+        <v>30</v>
+      </c>
+      <c r="H52" s="33">
+        <v>4</v>
+      </c>
+      <c r="I52" s="33">
         <v>10</v>
       </c>
       <c r="J52" s="2">
-        <v>0.48080000000000001</v>
+        <v>0</v>
       </c>
       <c r="K52" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="IG52" s="7"/>
-      <c r="IH52" s="7"/>
-      <c r="II52" s="7"/>
+      <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="20">
+        <v>63</v>
+      </c>
+      <c r="B53" s="16">
         <v>8</v>
       </c>
-      <c r="C53" s="25">
-        <v>8</v>
+      <c r="C53" s="16">
+        <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>5</v>
-      </c>
-      <c r="E53" s="4">
-        <v>30</v>
-      </c>
-      <c r="F53" s="2">
-        <v>110.16</v>
-      </c>
-      <c r="G53" s="22">
+        <v>3</v>
+      </c>
+      <c r="E53" s="33">
+        <v>0</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H53" s="4">
-        <v>5</v>
-      </c>
-      <c r="I53" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H53" s="33">
+        <v>3</v>
+      </c>
+      <c r="I53" s="33">
+        <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>0.72140000000000004</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="IG53" s="7"/>
-      <c r="IH53" s="7"/>
-      <c r="II53" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="20">
-        <v>5</v>
-      </c>
-      <c r="C54" s="24">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="B54" s="16">
+        <v>10</v>
+      </c>
+      <c r="C54" s="19">
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4">
-        <v>30</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1.0031000000000001</v>
-      </c>
-      <c r="G54" s="22">
+        <v>8</v>
+      </c>
+      <c r="E54" s="33">
+        <v>30</v>
+      </c>
+      <c r="F54" s="35">
+        <v>14.272</v>
+      </c>
+      <c r="G54" s="39">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H54" s="4">
-        <v>5</v>
-      </c>
-      <c r="I54" s="4">
+        <v>27.495510204081633</v>
+      </c>
+      <c r="H54" s="33">
+        <v>5</v>
+      </c>
+      <c r="I54" s="33">
         <v>10</v>
       </c>
       <c r="J54" s="2">
-        <v>6.8999999999999999E-3</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="K54" s="4">
         <v>5</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M54" s="26"/>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
       <c r="II54" s="7"/>
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="20">
-        <v>10</v>
-      </c>
-      <c r="C55" s="24">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="B55" s="16">
+        <v>8</v>
+      </c>
+      <c r="C55" s="20">
+        <v>8</v>
       </c>
       <c r="D55" s="1">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
+        <v>5</v>
+      </c>
+      <c r="E55" s="33">
+        <v>30</v>
+      </c>
+      <c r="F55" s="35">
+        <v>110.16</v>
+      </c>
+      <c r="G55" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>5</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H55" s="33">
+        <v>5</v>
+      </c>
+      <c r="I55" s="33">
+        <v>10</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="K55" s="4">
         <v>5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="M55" s="27"/>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
       <c r="II55" s="7"/>
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="20">
-        <v>8</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B56" s="16">
+        <v>5</v>
+      </c>
+      <c r="C56" s="19">
+        <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
+        <v>3</v>
+      </c>
+      <c r="E56" s="33">
+        <v>30</v>
+      </c>
+      <c r="F56" s="35">
+        <v>1.0031000000000001</v>
+      </c>
+      <c r="G56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>5</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="H56" s="33">
+        <v>5</v>
+      </c>
+      <c r="I56" s="33">
+        <v>10</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K56" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M56" s="26"/>
       <c r="IG56" s="7"/>
       <c r="IH56" s="7"/>
       <c r="II56" s="7"/>
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
-      <c r="A57" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="23">
-        <v>9</v>
-      </c>
-      <c r="C57" s="23">
-        <v>9</v>
-      </c>
-      <c r="D57" s="23">
-        <v>8</v>
-      </c>
-      <c r="E57" s="23">
-        <v>30</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="G57" s="22">
+      <c r="A57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="16">
+        <v>10</v>
+      </c>
+      <c r="C57" s="19">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10</v>
+      </c>
+      <c r="E57" s="33">
+        <v>0</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="39">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H57" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="I57" s="23">
-        <v>10</v>
-      </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="23">
-        <v>4.5</v>
+        <v>0</v>
+      </c>
+      <c r="H57" s="33">
+        <v>5</v>
+      </c>
+      <c r="I57" s="33">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="IG57" s="7"/>
       <c r="IH57" s="7"/>
@@ -5730,323 +7240,345 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="20">
+        <v>68</v>
+      </c>
+      <c r="B58" s="16">
         <v>8</v>
       </c>
-      <c r="C58" s="20">
-        <v>5</v>
+      <c r="C58" s="19">
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4">
-        <v>30</v>
-      </c>
-      <c r="F58" s="2">
-        <v>79.941000000000003</v>
-      </c>
-      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="33">
+        <v>0</v>
+      </c>
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="39">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
-      </c>
-      <c r="H58" s="4">
-        <v>5</v>
-      </c>
-      <c r="I58" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="33">
+        <v>5</v>
+      </c>
+      <c r="I58" s="33">
+        <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="K58" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="2"/>
-        <v>82.093673469387753</v>
+        <v>17</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
       <c r="II58" s="7"/>
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="20">
+      <c r="A59" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="18">
+        <v>9</v>
+      </c>
+      <c r="C59" s="18">
+        <v>9</v>
+      </c>
+      <c r="D59" s="18">
         <v>8</v>
       </c>
-      <c r="C59" s="24">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>30</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22">
+      <c r="E59" s="38">
+        <v>30</v>
+      </c>
+      <c r="F59" s="35">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="G59" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>5</v>
-      </c>
-      <c r="I59" s="4">
-        <v>10</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1.0281439999999999</v>
-      </c>
-      <c r="K59" s="4">
+        <v>30</v>
+      </c>
+      <c r="H59" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="I59" s="38">
+        <v>10</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0</v>
+      </c>
+      <c r="K59" s="18">
         <v>4.5</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="2"/>
-        <v>67.5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M59" s="27"/>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
       <c r="II59" s="7"/>
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="26">
-        <v>7</v>
-      </c>
-      <c r="C60" s="26">
-        <v>5</v>
-      </c>
-      <c r="D60" s="26">
-        <v>5</v>
-      </c>
-      <c r="E60" s="26">
-        <v>30</v>
-      </c>
-      <c r="F60" s="2">
-        <v>5.9455999999999998</v>
-      </c>
-      <c r="G60" s="22">
+      <c r="A60" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="16">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="33">
+        <v>30</v>
+      </c>
+      <c r="F60" s="35">
+        <v>79.941000000000003</v>
+      </c>
+      <c r="G60" s="39">
         <f t="shared" si="1"/>
-        <v>29.194775510204082</v>
-      </c>
-      <c r="H60" s="26">
-        <v>5</v>
-      </c>
-      <c r="I60" s="26">
-        <v>10</v>
-      </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="26">
+        <v>14.093673469387756</v>
+      </c>
+      <c r="H60" s="33">
+        <v>5</v>
+      </c>
+      <c r="I60" s="33">
+        <v>10</v>
+      </c>
+      <c r="J60" s="2">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="K60" s="4">
         <v>5</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="2"/>
-        <v>96.194775510204082</v>
-      </c>
+        <v>82.093673469387753</v>
+      </c>
+      <c r="M60" s="26"/>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
       <c r="II60" s="7"/>
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="33">
-        <v>27</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="4">
-        <v>30</v>
-      </c>
-      <c r="F61" s="28">
-        <v>83.125</v>
-      </c>
-      <c r="G61" s="22">
+        <v>70</v>
+      </c>
+      <c r="B61" s="16">
+        <v>8</v>
+      </c>
+      <c r="C61" s="19">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="33">
+        <v>30</v>
+      </c>
+      <c r="F61" s="35">
+        <v>0</v>
+      </c>
+      <c r="G61" s="39">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
-      </c>
-      <c r="H61" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="33">
+        <v>5</v>
+      </c>
+      <c r="I61" s="33">
         <v>10</v>
       </c>
       <c r="J61" s="2">
-        <v>0.16397200000000001</v>
+        <v>1.0281439999999999</v>
       </c>
       <c r="K61" s="4">
         <v>4.5</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="2"/>
-        <v>89.443877551020407</v>
+        <v>67.5</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
       <c r="II61" s="7"/>
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
-      <c r="A62" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="33">
-        <v>30</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="4">
-        <v>30</v>
-      </c>
-      <c r="F62" s="28">
-        <v>86.150999999999996</v>
-      </c>
-      <c r="G62" s="22">
+      <c r="A62" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="21">
+        <v>7</v>
+      </c>
+      <c r="C62" s="21">
+        <v>5</v>
+      </c>
+      <c r="D62" s="21">
+        <v>5</v>
+      </c>
+      <c r="E62" s="38">
+        <v>30</v>
+      </c>
+      <c r="F62" s="35">
+        <v>5.9455999999999998</v>
+      </c>
+      <c r="G62" s="39">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
-      </c>
-      <c r="H62" s="4">
-        <v>5</v>
-      </c>
-      <c r="I62" s="4">
-        <v>10</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0.79987600000000003</v>
-      </c>
-      <c r="K62" s="4">
-        <v>2.5</v>
+        <v>29.194775510204082</v>
+      </c>
+      <c r="H62" s="38">
+        <v>5</v>
+      </c>
+      <c r="I62" s="38">
+        <v>10</v>
+      </c>
+      <c r="J62" s="15">
+        <v>0</v>
+      </c>
+      <c r="K62" s="21">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="2"/>
-        <v>90.326326530612249</v>
-      </c>
+        <v>96.194775510204082</v>
+      </c>
+      <c r="M62" s="26"/>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
       <c r="II62" s="7"/>
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="33">
-        <v>30</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="4">
-        <v>30</v>
-      </c>
-      <c r="F63" s="28">
-        <v>11.093</v>
-      </c>
-      <c r="G63" s="22">
+        <v>71</v>
+      </c>
+      <c r="B63" s="55">
+        <v>27</v>
+      </c>
+      <c r="C63" s="56"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="33">
+        <v>30</v>
+      </c>
+      <c r="F63" s="40">
+        <v>83.125</v>
+      </c>
+      <c r="G63" s="39">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
-      </c>
-      <c r="H63" s="4">
-        <v>5</v>
-      </c>
-      <c r="I63" s="4">
+        <v>13.443877551020408</v>
+      </c>
+      <c r="H63" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I63" s="33">
         <v>10</v>
       </c>
       <c r="J63" s="2">
-        <v>5.2023E-2</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K63" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
+        <v>89.443877551020407</v>
+      </c>
+      <c r="M63" s="27"/>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
       <c r="II63" s="7"/>
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
       <c r="A64" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="33">
-        <v>24</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="4">
-        <v>30</v>
-      </c>
-      <c r="F64" s="28">
-        <v>157.71</v>
-      </c>
-      <c r="G64" s="22">
+        <v>72</v>
+      </c>
+      <c r="B64" s="55">
+        <v>30</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="33">
+        <v>30</v>
+      </c>
+      <c r="F64" s="40">
+        <v>86.150999999999996</v>
+      </c>
+      <c r="G64" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H64" s="4">
-        <v>5</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
+        <v>12.826326530612246</v>
+      </c>
+      <c r="H64" s="33">
+        <v>5</v>
+      </c>
+      <c r="I64" s="33">
+        <v>10</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K64" s="4">
         <v>2.5</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
+        <v>90.326326530612249</v>
+      </c>
+      <c r="M64" s="26"/>
       <c r="IG64" s="7"/>
       <c r="IH64" s="7"/>
       <c r="II64" s="7"/>
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="33">
-        <v>24</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="28">
-        <v>0</v>
-      </c>
-      <c r="G65" s="22">
+        <v>73</v>
+      </c>
+      <c r="B65" s="55">
+        <v>30</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="33">
+        <v>30</v>
+      </c>
+      <c r="F65" s="40">
+        <v>11.093</v>
+      </c>
+      <c r="G65" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
+        <v>28.144285714285715</v>
+      </c>
+      <c r="H65" s="33">
+        <v>5</v>
+      </c>
+      <c r="I65" s="33">
+        <v>10</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K65" s="4">
         <v>2.5</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="M65" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="IG65" s="7"/>
       <c r="IH65" s="7"/>
@@ -6054,38 +7586,41 @@
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="33">
+        <v>74</v>
+      </c>
+      <c r="B66" s="55">
         <v>24</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="28">
-        <v>0</v>
-      </c>
-      <c r="G66" s="22">
+      <c r="C66" s="56"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="33">
+        <v>30</v>
+      </c>
+      <c r="F66" s="40">
+        <v>157.71</v>
+      </c>
+      <c r="G66" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I66" s="4">
+        <v>10</v>
+      </c>
+      <c r="H66" s="33">
+        <v>5</v>
+      </c>
+      <c r="I66" s="33">
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>1.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="4">
         <v>2.5</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>71.5</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -6093,27 +7628,27 @@
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="33">
-        <v>21</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="28">
-        <v>0</v>
-      </c>
-      <c r="G67" s="22">
+        <v>75</v>
+      </c>
+      <c r="B67" s="55">
+        <v>24</v>
+      </c>
+      <c r="C67" s="56"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="33">
+        <v>0</v>
+      </c>
+      <c r="F67" s="40">
+        <v>0</v>
+      </c>
+      <c r="G67" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="33">
         <v>2.5</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="33">
         <v>0</v>
       </c>
       <c r="J67" s="2">
@@ -6124,7 +7659,10 @@
       </c>
       <c r="L67" s="3">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
@@ -6132,38 +7670,41 @@
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="33">
+        <v>76</v>
+      </c>
+      <c r="B68" s="55">
         <v>24</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="4">
-        <v>30</v>
-      </c>
-      <c r="F68" s="28">
-        <v>82.278999999999996</v>
-      </c>
-      <c r="G68" s="22">
+      <c r="C68" s="56"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="33">
+        <v>0</v>
+      </c>
+      <c r="F68" s="40">
+        <v>0</v>
+      </c>
+      <c r="G68" s="39">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
-      </c>
-      <c r="H68" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I68" s="33">
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>3.6273E-2</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K68" s="4">
         <v>2.5</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="2"/>
-        <v>74.616530612244901</v>
+        <v>29</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
@@ -6171,27 +7712,27 @@
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="33">
-        <v>27</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="4">
-        <v>30</v>
-      </c>
-      <c r="F69" s="28">
-        <v>85.936999999999998</v>
-      </c>
-      <c r="G69" s="22">
+        <v>77</v>
+      </c>
+      <c r="B69" s="55">
+        <v>21</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="33">
+        <v>0</v>
+      </c>
+      <c r="F69" s="40">
+        <v>0</v>
+      </c>
+      <c r="G69" s="39">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
-      </c>
-      <c r="H69" s="4">
-        <v>4</v>
-      </c>
-      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I69" s="33">
         <v>0</v>
       </c>
       <c r="J69" s="2">
@@ -6202,7 +7743,10 @@
       </c>
       <c r="L69" s="3">
         <f t="shared" si="2"/>
-        <v>76.37</v>
+        <v>26</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
@@ -6210,38 +7754,41 @@
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="33">
+        <v>78</v>
+      </c>
+      <c r="B70" s="55">
         <v>24</v>
       </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="4">
-        <v>30</v>
-      </c>
-      <c r="F70" s="28">
-        <v>160.13</v>
-      </c>
-      <c r="G70" s="22">
+      <c r="C70" s="56"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="33">
+        <v>30</v>
+      </c>
+      <c r="F70" s="40">
+        <v>82.278999999999996</v>
+      </c>
+      <c r="G70" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H70" s="4">
+        <v>13.616530612244899</v>
+      </c>
+      <c r="H70" s="33">
         <v>4.5</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="33">
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>3.6273E-2</v>
       </c>
       <c r="K70" s="4">
         <v>2.5</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>74.616530612244901</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -6249,38 +7796,41 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="33">
-        <v>21</v>
-      </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="28">
-        <v>0</v>
-      </c>
-      <c r="G71" s="22">
-        <f t="shared" ref="G71:G111" si="3">IF(F71&gt;0, IF(F71&lt;2, 30, IF(F71&gt;100, 10, (1-(F71-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
+        <v>79</v>
+      </c>
+      <c r="B71" s="55">
+        <v>27</v>
+      </c>
+      <c r="C71" s="56"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="33">
+        <v>30</v>
+      </c>
+      <c r="F71" s="40">
+        <v>85.936999999999998</v>
+      </c>
+      <c r="G71" s="39">
+        <f t="shared" si="1"/>
+        <v>12.870000000000001</v>
+      </c>
+      <c r="H71" s="33">
+        <v>4</v>
+      </c>
+      <c r="I71" s="33">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2">
-        <v>8.7390000000000002E-3</v>
-      </c>
-      <c r="K71" s="4">
-        <v>4</v>
       </c>
       <c r="L71" s="3">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>76.37</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -6288,28 +7838,28 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="33">
-        <v>30</v>
-      </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="4">
-        <v>30</v>
-      </c>
-      <c r="F72" s="28">
-        <v>22.228999999999999</v>
-      </c>
-      <c r="G72" s="22">
-        <f t="shared" si="3"/>
-        <v>25.871632653061226</v>
-      </c>
-      <c r="H72" s="4">
-        <v>4</v>
-      </c>
-      <c r="I72" s="4">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B72" s="55">
+        <v>24</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="33">
+        <v>30</v>
+      </c>
+      <c r="F72" s="40">
+        <v>160.13</v>
+      </c>
+      <c r="G72" s="39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H72" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I72" s="33">
+        <v>0</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
@@ -6319,7 +7869,10 @@
       </c>
       <c r="L72" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>71</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -6327,38 +7880,41 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="33">
-        <v>27</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="28">
-        <v>0</v>
-      </c>
-      <c r="G73" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
+        <v>81</v>
+      </c>
+      <c r="B73" s="55">
+        <v>21</v>
+      </c>
+      <c r="C73" s="56"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="33">
+        <v>0</v>
+      </c>
+      <c r="F73" s="40">
+        <v>0</v>
+      </c>
+      <c r="G73" s="39">
+        <f t="shared" ref="G73:G113" si="3">IF(F73&gt;0, IF(F73&lt;2, 30, IF(F73&gt;100, 10, (1-(F73-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="33">
         <v>2.5</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="33">
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>0.25622400000000001</v>
+        <v>8.7390000000000002E-3</v>
       </c>
       <c r="K73" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>27.5</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -6366,27 +7922,27 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="33">
-        <v>30</v>
-      </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="4">
-        <v>30</v>
-      </c>
-      <c r="F74" s="28">
-        <v>22.785</v>
-      </c>
-      <c r="G74" s="22">
+        <v>82</v>
+      </c>
+      <c r="B74" s="55">
+        <v>30</v>
+      </c>
+      <c r="C74" s="56"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="33">
+        <v>30</v>
+      </c>
+      <c r="F74" s="40">
+        <v>22.228999999999999</v>
+      </c>
+      <c r="G74" s="39">
         <f t="shared" si="3"/>
-        <v>25.758163265306123</v>
-      </c>
-      <c r="H74" s="4">
-        <v>5</v>
-      </c>
-      <c r="I74" s="4">
+        <v>25.871632653061226</v>
+      </c>
+      <c r="H74" s="33">
+        <v>4</v>
+      </c>
+      <c r="I74" s="33">
         <v>10</v>
       </c>
       <c r="J74" s="2">
@@ -6399,44 +7955,48 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="M74" s="26"/>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
       <c r="II74" s="7"/>
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="33">
-        <v>24</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="28">
-        <v>0</v>
-      </c>
-      <c r="G75" s="22">
+        <v>83</v>
+      </c>
+      <c r="B75" s="55">
+        <v>27</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="33">
+        <v>0</v>
+      </c>
+      <c r="F75" s="40">
+        <v>0</v>
+      </c>
+      <c r="G75" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="33">
         <v>2.5</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="33">
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>0.25599100000000002</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K75" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -6444,27 +8004,27 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="33">
-        <v>24</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="4">
-        <v>30</v>
-      </c>
-      <c r="F76" s="28">
-        <v>89.034999999999997</v>
-      </c>
-      <c r="G76" s="22">
+        <v>84</v>
+      </c>
+      <c r="B76" s="55">
+        <v>30</v>
+      </c>
+      <c r="C76" s="56"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="33">
+        <v>30</v>
+      </c>
+      <c r="F76" s="40">
+        <v>22.785</v>
+      </c>
+      <c r="G76" s="39">
         <f t="shared" si="3"/>
-        <v>12.237755102040817</v>
-      </c>
-      <c r="H76" s="4">
-        <v>4</v>
-      </c>
-      <c r="I76" s="4">
+        <v>25.758163265306123</v>
+      </c>
+      <c r="H76" s="33">
+        <v>5</v>
+      </c>
+      <c r="I76" s="33">
         <v>10</v>
       </c>
       <c r="J76" s="2">
@@ -6475,46 +8035,50 @@
       </c>
       <c r="L76" s="3">
         <f t="shared" si="2"/>
-        <v>82.737755102040822</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M76" s="26"/>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
       <c r="II76" s="7"/>
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="33">
-        <v>27</v>
-      </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="28">
-        <v>0</v>
-      </c>
-      <c r="G77" s="22">
+        <v>85</v>
+      </c>
+      <c r="B77" s="55">
+        <v>24</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="33">
+        <v>0</v>
+      </c>
+      <c r="F77" s="40">
+        <v>0</v>
+      </c>
+      <c r="G77" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="33">
         <v>2.5</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="33">
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0.11136799999999999</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K77" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -6522,28 +8086,28 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="33">
+        <v>86</v>
+      </c>
+      <c r="B78" s="55">
         <v>24</v>
       </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="28">
-        <v>0</v>
-      </c>
-      <c r="G78" s="22">
+      <c r="C78" s="56"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="33">
+        <v>30</v>
+      </c>
+      <c r="F78" s="40">
+        <v>89.034999999999997</v>
+      </c>
+      <c r="G78" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
+        <v>12.237755102040817</v>
+      </c>
+      <c r="H78" s="33">
+        <v>4</v>
+      </c>
+      <c r="I78" s="33">
+        <v>10</v>
       </c>
       <c r="J78" s="2">
         <v>0</v>
@@ -6553,46 +8117,50 @@
       </c>
       <c r="L78" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
+        <v>82.737755102040822</v>
+      </c>
+      <c r="M78" s="26"/>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
       <c r="II78" s="7"/>
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="33">
-        <v>21</v>
-      </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="28">
-        <v>0</v>
-      </c>
-      <c r="G79" s="22">
+        <v>87</v>
+      </c>
+      <c r="B79" s="55">
+        <v>27</v>
+      </c>
+      <c r="C79" s="56"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="33">
+        <v>0</v>
+      </c>
+      <c r="F79" s="40">
+        <v>0</v>
+      </c>
+      <c r="G79" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="33">
         <v>2.5</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="33">
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>0.23594999999999999</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K79" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
@@ -6600,28 +8168,28 @@
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="33">
+        <v>60</v>
+      </c>
+      <c r="B80" s="55">
         <v>24</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="4">
-        <v>30</v>
-      </c>
-      <c r="F80" s="28">
-        <v>76.835999999999999</v>
-      </c>
-      <c r="G80" s="22">
+      <c r="C80" s="56"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="33">
+        <v>0</v>
+      </c>
+      <c r="F80" s="40">
+        <v>0</v>
+      </c>
+      <c r="G80" s="39">
         <f t="shared" si="3"/>
-        <v>14.72734693877551</v>
-      </c>
-      <c r="H80" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I80" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H80" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I80" s="33">
+        <v>0</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
@@ -6631,7 +8199,10 @@
       </c>
       <c r="L80" s="3">
         <f t="shared" si="2"/>
-        <v>85.727346938775511</v>
+        <v>29</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -6639,38 +8210,41 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="33">
-        <v>30</v>
-      </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="28">
-        <v>0</v>
-      </c>
-      <c r="G81" s="22">
+        <v>40</v>
+      </c>
+      <c r="B81" s="55">
+        <v>21</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="33">
+        <v>0</v>
+      </c>
+      <c r="F81" s="40">
+        <v>0</v>
+      </c>
+      <c r="G81" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="33">
         <v>2.5</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="33">
         <v>0</v>
       </c>
       <c r="J81" s="2">
-        <v>1.6031E-2</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K81" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L81" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
@@ -6678,77 +8252,81 @@
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="33">
+        <v>59</v>
+      </c>
+      <c r="B82" s="55">
         <v>24</v>
       </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="4">
-        <v>0</v>
-      </c>
-      <c r="F82" s="28">
-        <v>0</v>
-      </c>
-      <c r="G82" s="22">
+      <c r="C82" s="56"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="33">
+        <v>30</v>
+      </c>
+      <c r="F82" s="40">
+        <v>76.835999999999999</v>
+      </c>
+      <c r="G82" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
+        <v>14.72734693877551</v>
+      </c>
+      <c r="H82" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I82" s="33">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
         <v>2.5</v>
       </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0.36402000000000001</v>
-      </c>
-      <c r="K82" s="4">
-        <v>3.5</v>
-      </c>
       <c r="L82" s="3">
-        <f t="shared" ref="L82:L110" si="4">IF(SUM(B82:E82,G82,H82:I82,K82)&lt;100, SUM(B82:E82,G82,H82:I82,K82),  100)</f>
-        <v>30</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>85.727346938775511</v>
+      </c>
+      <c r="M82" s="26"/>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
       <c r="II82" s="7"/>
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="33">
-        <v>21</v>
-      </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="4">
-        <v>30</v>
-      </c>
-      <c r="F83" s="28">
-        <v>76.659000000000006</v>
-      </c>
-      <c r="G83" s="22">
+        <v>28</v>
+      </c>
+      <c r="B83" s="55">
+        <v>30</v>
+      </c>
+      <c r="C83" s="56"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="33">
+        <v>0</v>
+      </c>
+      <c r="F83" s="40">
+        <v>0</v>
+      </c>
+      <c r="G83" s="39">
         <f t="shared" si="3"/>
-        <v>14.763469387755102</v>
-      </c>
-      <c r="H83" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I83" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="33">
+        <v>0</v>
       </c>
       <c r="J83" s="2">
-        <v>0.18420700000000001</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K83" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="4"/>
-        <v>83.763469387755094</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
@@ -6756,38 +8334,41 @@
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="33">
+        <v>88</v>
+      </c>
+      <c r="B84" s="55">
         <v>24</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="4">
-        <v>30</v>
-      </c>
-      <c r="F84" s="28">
-        <v>75.662000000000006</v>
-      </c>
-      <c r="G84" s="22">
+      <c r="C84" s="56"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="33">
+        <v>0</v>
+      </c>
+      <c r="F84" s="40">
+        <v>0</v>
+      </c>
+      <c r="G84" s="39">
         <f t="shared" si="3"/>
-        <v>14.966938775510204</v>
-      </c>
-      <c r="H84" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I84" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H84" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I84" s="33">
+        <v>0</v>
       </c>
       <c r="J84" s="2">
-        <v>0.29575899999999999</v>
+        <v>0.36402000000000001</v>
       </c>
       <c r="K84" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="4"/>
-        <v>88.466938775510201</v>
+        <f t="shared" ref="L84:L113" si="4">IF(SUM(B84:E84,G84,H84:I84,K84)&lt;100, SUM(B84:E84,G84,H84:I84,K84),  100)</f>
+        <v>30</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -6795,145 +8376,148 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="33">
-        <v>30</v>
-      </c>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="4">
-        <v>30</v>
-      </c>
-      <c r="F85" s="28">
-        <v>18.93</v>
-      </c>
-      <c r="G85" s="22">
+        <v>89</v>
+      </c>
+      <c r="B85" s="55">
+        <v>21</v>
+      </c>
+      <c r="C85" s="56"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="33">
+        <v>30</v>
+      </c>
+      <c r="F85" s="40">
+        <v>76.659000000000006</v>
+      </c>
+      <c r="G85" s="39">
         <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
-      </c>
-      <c r="H85" s="4">
-        <v>5</v>
-      </c>
-      <c r="I85" s="4">
+        <v>14.763469387755102</v>
+      </c>
+      <c r="H85" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="I85" s="33">
         <v>10</v>
       </c>
       <c r="J85" s="2">
-        <v>2.3715E-2</v>
+        <v>0.18420700000000001</v>
       </c>
       <c r="K85" s="4">
         <v>4.5</v>
       </c>
       <c r="L85" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
+        <v>83.763469387755094</v>
+      </c>
+      <c r="M85" s="27"/>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
       <c r="II85" s="7"/>
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="33">
+        <v>90</v>
+      </c>
+      <c r="B86" s="55">
         <v>24</v>
       </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="4">
-        <v>30</v>
-      </c>
-      <c r="F86" s="28">
-        <v>19.364000000000001</v>
-      </c>
-      <c r="G86" s="22">
+      <c r="C86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="33">
+        <v>30</v>
+      </c>
+      <c r="F86" s="40">
+        <v>75.662000000000006</v>
+      </c>
+      <c r="G86" s="39">
         <f t="shared" si="3"/>
-        <v>26.456326530612245</v>
-      </c>
-      <c r="H86" s="4">
+        <v>14.966938775510204</v>
+      </c>
+      <c r="H86" s="33">
         <v>4.5</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="33">
         <v>10</v>
       </c>
       <c r="J86" s="2">
-        <v>0</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K86" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L86" s="3">
         <f t="shared" si="4"/>
-        <v>97.456326530612245</v>
-      </c>
+        <v>88.466938775510201</v>
+      </c>
+      <c r="M86" s="26"/>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
       <c r="II86" s="7"/>
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="33">
-        <v>27</v>
-      </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="28">
-        <v>0</v>
-      </c>
-      <c r="G87" s="22">
+        <v>91</v>
+      </c>
+      <c r="B87" s="55">
+        <v>30</v>
+      </c>
+      <c r="C87" s="56"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="33">
+        <v>30</v>
+      </c>
+      <c r="F87" s="40">
+        <v>18.93</v>
+      </c>
+      <c r="G87" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I87" s="4">
-        <v>0</v>
+        <v>26.544897959183672</v>
+      </c>
+      <c r="H87" s="33">
+        <v>5</v>
+      </c>
+      <c r="I87" s="33">
+        <v>10</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
+        <v>2.3715E-2</v>
       </c>
       <c r="K87" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L87" s="3">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M87" s="27"/>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
       <c r="II87" s="7"/>
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="33">
-        <v>21</v>
-      </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="28">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22">
+        <v>92</v>
+      </c>
+      <c r="B88" s="55">
+        <v>24</v>
+      </c>
+      <c r="C88" s="56"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="33">
+        <v>30</v>
+      </c>
+      <c r="F88" s="40">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="G88" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
+        <v>26.456326530612245</v>
+      </c>
+      <c r="H88" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I88" s="33">
+        <v>10</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -6943,46 +8527,50 @@
       </c>
       <c r="L88" s="3">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
+        <v>97.456326530612245</v>
+      </c>
+      <c r="M88" s="26"/>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
       <c r="II88" s="7"/>
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="33">
+        <v>93</v>
+      </c>
+      <c r="B89" s="55">
         <v>27</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="4">
-        <v>0</v>
-      </c>
-      <c r="F89" s="28">
-        <v>0</v>
-      </c>
-      <c r="G89" s="22">
+      <c r="C89" s="56"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="33">
+        <v>0</v>
+      </c>
+      <c r="F89" s="40">
+        <v>0</v>
+      </c>
+      <c r="G89" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="33">
         <v>2.5</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="33">
         <v>0</v>
       </c>
       <c r="J89" s="2">
-        <v>0.616757</v>
+        <v>0</v>
       </c>
       <c r="K89" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L89" s="3">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -6990,38 +8578,41 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="33">
-        <v>30</v>
-      </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="4">
-        <v>30</v>
-      </c>
-      <c r="F90" s="28">
-        <v>80.263999999999996</v>
-      </c>
-      <c r="G90" s="22">
+        <v>94</v>
+      </c>
+      <c r="B90" s="55">
+        <v>21</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="33">
+        <v>0</v>
+      </c>
+      <c r="F90" s="40">
+        <v>0</v>
+      </c>
+      <c r="G90" s="39">
         <f t="shared" si="3"/>
-        <v>14.027755102040818</v>
-      </c>
-      <c r="H90" s="4">
-        <v>4</v>
-      </c>
-      <c r="I90" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H90" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I90" s="33">
+        <v>0</v>
       </c>
       <c r="J90" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K90" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="4"/>
-        <v>92.027755102040814</v>
+        <v>26</v>
+      </c>
+      <c r="M90" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
@@ -7029,38 +8620,41 @@
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" s="33">
-        <v>21</v>
-      </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="4">
-        <v>0</v>
-      </c>
-      <c r="F91" s="28">
-        <v>0</v>
-      </c>
-      <c r="G91" s="22">
+        <v>95</v>
+      </c>
+      <c r="B91" s="55">
+        <v>27</v>
+      </c>
+      <c r="C91" s="56"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="33">
+        <v>0</v>
+      </c>
+      <c r="F91" s="40">
+        <v>0</v>
+      </c>
+      <c r="G91" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="33">
         <v>2.5</v>
       </c>
-      <c r="I91" s="4">
-        <v>10</v>
+      <c r="I91" s="33">
+        <v>0</v>
       </c>
       <c r="J91" s="2">
-        <v>0</v>
+        <v>0.616757</v>
       </c>
       <c r="K91" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
@@ -7068,77 +8662,81 @@
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="33">
-        <v>0</v>
-      </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="4">
-        <v>0</v>
-      </c>
-      <c r="F92" s="28">
-        <v>0</v>
-      </c>
-      <c r="G92" s="22">
+        <v>31</v>
+      </c>
+      <c r="B92" s="55">
+        <v>30</v>
+      </c>
+      <c r="C92" s="56"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="33">
+        <v>30</v>
+      </c>
+      <c r="F92" s="40">
+        <v>80.263999999999996</v>
+      </c>
+      <c r="G92" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0</v>
+        <v>14.027755102040818</v>
+      </c>
+      <c r="H92" s="33">
+        <v>4</v>
+      </c>
+      <c r="I92" s="33">
+        <v>10</v>
       </c>
       <c r="J92" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>2.2478000000000001E-2</v>
       </c>
       <c r="K92" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
+        <v>92.027755102040814</v>
+      </c>
+      <c r="M92" s="26"/>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
       <c r="II92" s="7"/>
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="33">
-        <v>27</v>
-      </c>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="4">
-        <v>30</v>
-      </c>
-      <c r="F93" s="28">
-        <v>20.995999999999999</v>
-      </c>
-      <c r="G93" s="22">
+        <v>61</v>
+      </c>
+      <c r="B93" s="55">
+        <v>21</v>
+      </c>
+      <c r="C93" s="56"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="33">
+        <v>0</v>
+      </c>
+      <c r="F93" s="40">
+        <v>0</v>
+      </c>
+      <c r="G93" s="39">
         <f t="shared" si="3"/>
-        <v>26.123265306122448</v>
-      </c>
-      <c r="H93" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I93" s="33">
         <v>10</v>
       </c>
       <c r="J93" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K93" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="M93" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
@@ -7146,38 +8744,41 @@
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="33">
-        <v>21</v>
-      </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="4">
-        <v>30</v>
-      </c>
-      <c r="F94" s="28">
-        <v>156</v>
-      </c>
-      <c r="G94" s="22">
+        <v>96</v>
+      </c>
+      <c r="B94" s="55">
+        <v>0</v>
+      </c>
+      <c r="C94" s="56"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="33">
+        <v>0</v>
+      </c>
+      <c r="F94" s="40">
+        <v>0</v>
+      </c>
+      <c r="G94" s="39">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I94" s="33">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1.7333999999999999E-2</v>
+      </c>
+      <c r="K94" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I94" s="4">
-        <v>10</v>
-      </c>
-      <c r="J94" s="2">
-        <v>0.197292</v>
-      </c>
-      <c r="K94" s="4">
-        <v>4</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="4"/>
-        <v>79.5</v>
+        <v>7</v>
+      </c>
+      <c r="M94" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="IG94" s="7"/>
       <c r="IH94" s="7"/>
@@ -7185,831 +8786,939 @@
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="33">
-        <v>24</v>
-      </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="4">
-        <v>30</v>
-      </c>
-      <c r="F95" s="28">
-        <v>78.983999999999995</v>
-      </c>
-      <c r="G95" s="22">
+        <v>97</v>
+      </c>
+      <c r="B95" s="55">
+        <v>27</v>
+      </c>
+      <c r="C95" s="56"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="33">
+        <v>30</v>
+      </c>
+      <c r="F95" s="40">
+        <v>20.995999999999999</v>
+      </c>
+      <c r="G95" s="39">
         <f t="shared" si="3"/>
-        <v>14.288979591836737</v>
-      </c>
-      <c r="H95" s="4">
-        <v>5</v>
-      </c>
-      <c r="I95" s="4">
+        <v>26.123265306122448</v>
+      </c>
+      <c r="H95" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I95" s="33">
         <v>10</v>
       </c>
       <c r="J95" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K95" s="4">
         <v>4.5</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="4"/>
-        <v>87.788979591836735</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M95" s="27"/>
       <c r="IG95" s="7"/>
       <c r="IH95" s="7"/>
       <c r="II95" s="7"/>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="33">
-        <v>30</v>
-      </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="4">
-        <v>30</v>
-      </c>
-      <c r="F96" s="28">
-        <v>158.24</v>
-      </c>
-      <c r="G96" s="22">
+        <v>37</v>
+      </c>
+      <c r="B96" s="55">
+        <v>21</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="33">
+        <v>30</v>
+      </c>
+      <c r="F96" s="40">
+        <v>156</v>
+      </c>
+      <c r="G96" s="39">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H96" s="4">
-        <v>5</v>
-      </c>
-      <c r="I96" s="4">
+      <c r="H96" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I96" s="33">
         <v>10</v>
       </c>
       <c r="J96" s="2">
-        <v>0.44423499999999999</v>
+        <v>0.197292</v>
       </c>
       <c r="K96" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="4"/>
-        <v>89.5</v>
-      </c>
+        <v>79.5</v>
+      </c>
+      <c r="M96" s="26"/>
       <c r="IG96" s="7"/>
       <c r="IH96" s="7"/>
       <c r="II96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="25" customHeight="1">
+    <row r="97" spans="1:243" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="55">
+        <v>24</v>
+      </c>
+      <c r="C97" s="56"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="33">
+        <v>30</v>
+      </c>
+      <c r="F97" s="40">
+        <v>78.983999999999995</v>
+      </c>
+      <c r="G97" s="39">
+        <f t="shared" si="3"/>
+        <v>14.288979591836737</v>
+      </c>
+      <c r="H97" s="33">
+        <v>5</v>
+      </c>
+      <c r="I97" s="33">
+        <v>10</v>
+      </c>
+      <c r="J97" s="2">
+        <v>2.8327999999999999E-2</v>
+      </c>
+      <c r="K97" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="4"/>
+        <v>87.788979591836735</v>
+      </c>
+      <c r="M97" s="27"/>
+      <c r="IG97" s="7"/>
+      <c r="IH97" s="7"/>
+      <c r="II97" s="7"/>
+    </row>
+    <row r="98" spans="1:243" ht="25" customHeight="1">
+      <c r="A98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="55">
+        <v>30</v>
+      </c>
+      <c r="C98" s="56"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="33">
+        <v>30</v>
+      </c>
+      <c r="F98" s="40">
+        <v>158.24</v>
+      </c>
+      <c r="G98" s="39">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H98" s="33">
+        <v>5</v>
+      </c>
+      <c r="I98" s="33">
+        <v>10</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0.44423499999999999</v>
+      </c>
+      <c r="K98" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="4"/>
+        <v>89.5</v>
+      </c>
+      <c r="M98" s="26"/>
+      <c r="IG98" s="7"/>
+      <c r="IH98" s="7"/>
+      <c r="II98" s="7"/>
+    </row>
+    <row r="99" spans="1:243" ht="25" customHeight="1">
+      <c r="A99" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="33">
-        <v>30</v>
-      </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="4">
-        <v>30</v>
-      </c>
-      <c r="F97" s="28">
+      <c r="B99" s="55">
+        <v>30</v>
+      </c>
+      <c r="C99" s="56"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="33">
+        <v>30</v>
+      </c>
+      <c r="F99" s="40">
         <v>80.319000000000003</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G99" s="39">
         <f t="shared" si="3"/>
         <v>14.016530612244898</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H99" s="33">
         <v>4.5</v>
       </c>
-      <c r="I97" s="4">
-        <v>10</v>
-      </c>
-      <c r="J97" s="2">
+      <c r="I99" s="33">
+        <v>10</v>
+      </c>
+      <c r="J99" s="2">
         <v>0.33158300000000002</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K99" s="4">
         <v>4.5</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L99" s="3">
         <f t="shared" si="4"/>
         <v>93.016530612244892</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="25" customHeight="1">
-      <c r="A98" s="11" t="s">
+      <c r="M99" s="27"/>
+    </row>
+    <row r="100" spans="1:243" ht="25" customHeight="1">
+      <c r="A100" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B100" s="55">
         <v>21</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="4">
-        <v>30</v>
-      </c>
-      <c r="F98" s="28">
-        <v>0</v>
-      </c>
-      <c r="G98" s="22">
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="33">
+        <v>30</v>
+      </c>
+      <c r="F100" s="40">
+        <v>0</v>
+      </c>
+      <c r="G100" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H100" s="33">
         <v>2.5</v>
       </c>
-      <c r="I98" s="4">
-        <v>10</v>
-      </c>
-      <c r="J98" s="2">
+      <c r="I100" s="33">
+        <v>10</v>
+      </c>
+      <c r="J100" s="2">
         <v>8.4103999999999998E-2</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K100" s="4">
         <v>3.5</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L100" s="3">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="25" customHeight="1">
-      <c r="A99" s="11" t="s">
+      <c r="M100" s="26"/>
+    </row>
+    <row r="101" spans="1:243" ht="25" customHeight="1">
+      <c r="A101" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B101" s="55">
         <v>21</v>
       </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="4">
+      <c r="C101" s="56"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="33">
         <v>17.751479289940828</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F101" s="40">
         <v>152.19</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G101" s="39">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H101" s="33">
         <v>2.5</v>
       </c>
-      <c r="I99" s="4">
-        <v>10</v>
-      </c>
-      <c r="J99" s="2">
+      <c r="I101" s="33">
+        <v>10</v>
+      </c>
+      <c r="J101" s="2">
         <v>1.9650999999999998E-2</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K101" s="4">
         <v>2.5</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L101" s="3">
         <f t="shared" si="4"/>
         <v>63.751479289940832</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="25" customHeight="1">
-      <c r="A100" s="11" t="s">
+      <c r="M101" s="27"/>
+    </row>
+    <row r="102" spans="1:243" ht="25" customHeight="1">
+      <c r="A102" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B102" s="55">
         <v>21</v>
       </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="4">
+      <c r="C102" s="56"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="33">
         <v>29.822485207100591</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F102" s="40">
         <v>36.862000000000002</v>
       </c>
-      <c r="G100" s="22">
+      <c r="G102" s="39">
         <f t="shared" si="3"/>
         <v>22.885306122448981</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H102" s="33">
         <v>2.5</v>
       </c>
-      <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2">
+      <c r="I102" s="33">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
         <v>9.5962000000000006E-2</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K102" s="4">
         <v>4.5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L102" s="3">
         <f t="shared" si="4"/>
         <v>80.707791329549565</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="25" customHeight="1">
-      <c r="A101" s="11" t="s">
+      <c r="M102" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:243" ht="25" customHeight="1">
+      <c r="A103" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B103" s="55">
         <v>24</v>
       </c>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="4">
-        <v>30</v>
-      </c>
-      <c r="F101" s="28">
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="33">
+        <v>30</v>
+      </c>
+      <c r="F103" s="40">
         <v>1.0976999999999999</v>
       </c>
-      <c r="G101" s="22">
+      <c r="G103" s="39">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H103" s="33">
         <v>4.5</v>
       </c>
-      <c r="I101" s="4">
-        <v>10</v>
-      </c>
-      <c r="J101" s="2">
+      <c r="I103" s="33">
+        <v>10</v>
+      </c>
+      <c r="J103" s="2">
         <v>0.11998499999999999</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K103" s="4">
         <v>2.5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L103" s="3">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="25" customHeight="1">
-      <c r="A102" s="11" t="s">
+      <c r="M103" s="27"/>
+    </row>
+    <row r="104" spans="1:243" ht="25" customHeight="1">
+      <c r="A104" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="33">
+      <c r="B104" s="55">
         <v>27</v>
       </c>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="4">
-        <v>30</v>
-      </c>
-      <c r="F102" s="28">
+      <c r="C104" s="56"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="33">
+        <v>30</v>
+      </c>
+      <c r="F104" s="40">
         <v>83.876000000000005</v>
       </c>
-      <c r="G102" s="22">
+      <c r="G104" s="39">
         <f t="shared" si="3"/>
         <v>13.290612244897959</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H104" s="33">
         <v>4.5</v>
       </c>
-      <c r="I102" s="4">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0</v>
-      </c>
-      <c r="K102" s="4">
+      <c r="I104" s="33">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
         <v>2.5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L104" s="3">
         <f t="shared" si="4"/>
         <v>77.290612244897957</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="25" customHeight="1">
-      <c r="A103" s="11" t="s">
+      <c r="M104" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:243" ht="25" customHeight="1">
+      <c r="A105" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B105" s="55">
         <v>24</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="28">
-        <v>0</v>
-      </c>
-      <c r="G103" s="22">
+      <c r="C105" s="56"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="33">
+        <v>0</v>
+      </c>
+      <c r="F105" s="40">
+        <v>0</v>
+      </c>
+      <c r="G105" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H105" s="33">
         <v>2.5</v>
       </c>
-      <c r="I103" s="4">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2">
+      <c r="I105" s="33">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
         <v>1.952367</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K105" s="4">
         <v>4.5</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L105" s="3">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="25" customHeight="1">
-      <c r="A104" s="11" t="s">
+      <c r="M105" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:243" ht="25" customHeight="1">
+      <c r="A106" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="33">
+      <c r="B106" s="55">
         <v>27</v>
       </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="4">
-        <v>30</v>
-      </c>
-      <c r="F104" s="28">
+      <c r="C106" s="56"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="33">
+        <v>30</v>
+      </c>
+      <c r="F106" s="40">
         <v>153.26</v>
       </c>
-      <c r="G104" s="22">
+      <c r="G106" s="39">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H106" s="33">
         <v>4.5</v>
       </c>
-      <c r="I104" s="4">
-        <v>10</v>
-      </c>
-      <c r="J104" s="2">
+      <c r="I106" s="33">
+        <v>10</v>
+      </c>
+      <c r="J106" s="2">
         <v>0.29591299999999998</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K106" s="4">
         <v>4.5</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L106" s="3">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="25" customHeight="1">
-      <c r="A105" s="11" t="s">
+      <c r="M106" s="26"/>
+    </row>
+    <row r="107" spans="1:243" ht="25" customHeight="1">
+      <c r="A107" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="33">
-        <v>30</v>
-      </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="4">
-        <v>30</v>
-      </c>
-      <c r="F105" s="28">
+      <c r="B107" s="55">
+        <v>30</v>
+      </c>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="33">
+        <v>30</v>
+      </c>
+      <c r="F107" s="40">
         <v>74.911000000000001</v>
       </c>
-      <c r="G105" s="22">
+      <c r="G107" s="39">
         <f t="shared" si="3"/>
         <v>15.120204081632654</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H107" s="33">
         <v>4.5</v>
       </c>
-      <c r="I105" s="4">
-        <v>10</v>
-      </c>
-      <c r="J105" s="2">
+      <c r="I107" s="33">
+        <v>10</v>
+      </c>
+      <c r="J107" s="2">
         <v>1.5566E-2</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K107" s="4">
         <v>4</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L107" s="3">
         <f t="shared" si="4"/>
         <v>93.62020408163265</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="25" customHeight="1">
-      <c r="A106" s="11" t="s">
+      <c r="M107" s="27"/>
+    </row>
+    <row r="108" spans="1:243" ht="25" customHeight="1">
+      <c r="A108" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B108" s="55">
         <v>21</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="4">
-        <v>30</v>
-      </c>
-      <c r="F106" s="28">
+      <c r="C108" s="56"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="33">
+        <v>30</v>
+      </c>
+      <c r="F108" s="40">
         <v>11.08</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G108" s="39">
         <f t="shared" si="3"/>
         <v>28.146938775510204</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H108" s="33">
         <v>4.5</v>
       </c>
-      <c r="I106" s="4">
-        <v>10</v>
-      </c>
-      <c r="J106" s="2">
+      <c r="I108" s="33">
+        <v>10</v>
+      </c>
+      <c r="J108" s="2">
         <v>7.6779999999999999E-3</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K108" s="4">
         <v>2.5</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L108" s="3">
         <f t="shared" si="4"/>
         <v>96.146938775510208</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="25" customHeight="1">
-      <c r="A107" s="11" t="s">
+      <c r="M108" s="26"/>
+    </row>
+    <row r="109" spans="1:243" ht="25" customHeight="1">
+      <c r="A109" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="33">
+      <c r="B109" s="55">
         <v>24</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-      <c r="F107" s="28">
-        <v>0</v>
-      </c>
-      <c r="G107" s="22">
+      <c r="C109" s="56"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="33">
+        <v>0</v>
+      </c>
+      <c r="F109" s="40">
+        <v>0</v>
+      </c>
+      <c r="G109" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H109" s="33">
         <v>4</v>
       </c>
-      <c r="I107" s="4">
-        <v>10</v>
-      </c>
-      <c r="J107" s="2">
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107" s="3">
+      <c r="I109" s="33">
+        <v>10</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="25" customHeight="1">
-      <c r="A108" s="11" t="s">
+      <c r="M109" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:243" ht="25" customHeight="1">
+      <c r="A110" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="33">
+      <c r="B110" s="55">
         <v>15</v>
       </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="4">
-        <v>0</v>
-      </c>
-      <c r="F108" s="28">
-        <v>0</v>
-      </c>
-      <c r="G108" s="22">
+      <c r="C110" s="56"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="33">
+        <v>0</v>
+      </c>
+      <c r="F110" s="40">
+        <v>0</v>
+      </c>
+      <c r="G110" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H110" s="33">
         <v>3.5</v>
       </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2">
+      <c r="I110" s="33">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
         <v>7.175E-3</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K110" s="4">
         <v>2.5</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L110" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="25" customHeight="1">
-      <c r="A109" s="11" t="s">
+      <c r="M110" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:243" ht="25" customHeight="1">
+      <c r="A111" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="33">
+      <c r="B111" s="55">
         <v>21</v>
       </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="4">
-        <v>30</v>
-      </c>
-      <c r="F109" s="28">
-        <v>0</v>
-      </c>
-      <c r="G109" s="22">
+      <c r="C111" s="56"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="33">
+        <v>30</v>
+      </c>
+      <c r="F111" s="40">
+        <v>0</v>
+      </c>
+      <c r="G111" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H109" s="4">
-        <v>5</v>
-      </c>
-      <c r="I109" s="4">
-        <v>10</v>
-      </c>
-      <c r="J109" s="2">
+      <c r="H111" s="33">
+        <v>5</v>
+      </c>
+      <c r="I111" s="33">
+        <v>10</v>
+      </c>
+      <c r="J111" s="2">
         <v>6.9841E-2</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K111" s="4">
         <v>2.2928994082840237</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L111" s="3">
         <f t="shared" si="4"/>
         <v>68.292899408284029</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="25" customHeight="1">
-      <c r="A110" s="11" t="s">
+      <c r="M111" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:243" ht="25" customHeight="1">
+      <c r="A112" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="33">
+      <c r="B112" s="55">
         <v>21</v>
       </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="4">
-        <v>30</v>
-      </c>
-      <c r="F110" s="28">
+      <c r="C112" s="56"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="33">
+        <v>30</v>
+      </c>
+      <c r="F112" s="40">
         <v>15.122</v>
       </c>
-      <c r="G110" s="22">
+      <c r="G112" s="39">
         <f t="shared" si="3"/>
         <v>27.322040816326528</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H112" s="33">
         <v>4.5</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I112" s="33">
         <v>9.1715976331360949</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J112" s="2">
         <v>2.3165999999999999E-2</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K112" s="4">
         <v>2.5</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L112" s="3">
         <f t="shared" si="4"/>
         <v>94.493638449462622</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="25" customHeight="1">
-      <c r="A111" s="11" t="s">
+      <c r="M112" s="26"/>
+    </row>
+    <row r="113" spans="1:243" ht="25" customHeight="1">
+      <c r="A113" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="33">
+      <c r="B113" s="55">
         <v>27</v>
       </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="4">
+      <c r="C113" s="56"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="33">
         <v>29.644970414201186</v>
       </c>
-      <c r="F111" s="28">
+      <c r="F113" s="40">
         <v>11.878</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G113" s="39">
         <f t="shared" si="3"/>
         <v>27.984081632653062</v>
       </c>
-      <c r="H111" s="4">
-        <v>5</v>
-      </c>
-      <c r="I111" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="25" customHeight="1">
-      <c r="J112" s="17">
-        <f>SUM(J3:J110)/COUNTIF(J3:J110,"&lt;&gt;0")</f>
-        <v>0.16565938791030202</v>
-      </c>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="2:243" ht="20">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="2:243" ht="42">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="29"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-    </row>
-    <row r="115" spans="2:243" ht="25" customHeight="1">
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F115" s="29">
-        <f>COUNTIF(F3:F111, "&gt;0")</f>
-        <v>75</v>
-      </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="IE115" s="7"/>
-      <c r="IF115" s="7"/>
-      <c r="IG115" s="7"/>
-      <c r="IH115" s="7"/>
-      <c r="II115" s="7"/>
-    </row>
-    <row r="116" spans="2:243" ht="25" customHeight="1">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F116" s="2">
-        <v>160.13</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="IE116" s="7"/>
-      <c r="IF116" s="7"/>
-      <c r="IG116" s="7"/>
-      <c r="IH116" s="7"/>
-      <c r="II116" s="7"/>
-    </row>
-    <row r="117" spans="2:243" ht="25" customHeight="1">
+      <c r="H113" s="33">
+        <v>5</v>
+      </c>
+      <c r="I113" s="33">
+        <v>10</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>5</v>
+      </c>
+      <c r="L113" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M113" s="27"/>
+    </row>
+    <row r="114" spans="1:243" ht="25" customHeight="1">
+      <c r="A114" s="29"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+    </row>
+    <row r="115" spans="1:243" ht="25" customHeight="1">
+      <c r="A115" s="29"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+    </row>
+    <row r="116" spans="1:243" ht="25" customHeight="1">
+      <c r="A116" s="29"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+    </row>
+    <row r="117" spans="1:243" ht="20">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="IE117" s="7"/>
-      <c r="IF117" s="7"/>
-      <c r="IG117" s="7"/>
-      <c r="IH117" s="7"/>
-      <c r="II117" s="7"/>
-    </row>
-    <row r="118" spans="2:243" ht="25" customHeight="1">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F118" s="2">
-        <v>30</v>
-      </c>
-      <c r="G118" s="19"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="IE118" s="7"/>
-      <c r="IF118" s="7"/>
-      <c r="IG118" s="7"/>
-      <c r="IH118" s="7"/>
-      <c r="II118" s="7"/>
-    </row>
-    <row r="119" spans="2:243" ht="25" customHeight="1">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F119" s="2">
-        <v>10</v>
-      </c>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="E117" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="35"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="15">
+        <f>SUM(J3:J112)/COUNTIF(J3:J112,"&lt;&gt;0")</f>
+        <v>0.16565938791030202</v>
+      </c>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="1:243" ht="42">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="46"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+    </row>
+    <row r="119" spans="1:243" ht="25" customHeight="1">
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" s="46">
+        <f>COUNTIF(F3:F113, "&gt;0")</f>
+        <v>78</v>
+      </c>
+      <c r="G119" s="45"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
       <c r="IE119" s="7"/>
       <c r="IF119" s="7"/>
       <c r="IG119" s="7"/>
       <c r="IH119" s="7"/>
       <c r="II119" s="7"/>
     </row>
-    <row r="120" spans="2:243" ht="25" customHeight="1">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+    <row r="120" spans="1:243" ht="25" customHeight="1">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" s="35">
+        <v>160.13</v>
+      </c>
+      <c r="G120" s="44"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
       <c r="IE120" s="7"/>
       <c r="IF120" s="7"/>
       <c r="IG120" s="7"/>
       <c r="IH120" s="7"/>
       <c r="II120" s="7"/>
     </row>
-    <row r="121" spans="2:243" ht="25" customHeight="1">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="6"/>
+    <row r="121" spans="1:243" ht="25" customHeight="1">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="44"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
       <c r="IE121" s="7"/>
       <c r="IF121" s="7"/>
       <c r="IG121" s="7"/>
       <c r="IH121" s="7"/>
       <c r="II121" s="7"/>
     </row>
-    <row r="122" spans="2:243" ht="25" customHeight="1">
-      <c r="E122" s="4"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="4"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="6"/>
+    <row r="122" spans="1:243" ht="25" customHeight="1">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="35">
+        <v>30</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
       <c r="IE122" s="7"/>
       <c r="IF122" s="7"/>
       <c r="IG122" s="7"/>
       <c r="IH122" s="7"/>
       <c r="II122" s="7"/>
     </row>
-    <row r="123" spans="2:243" ht="25" customHeight="1">
-      <c r="K123" s="9"/>
-      <c r="L123" s="6"/>
+    <row r="123" spans="1:243" ht="25" customHeight="1">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" s="35">
+        <v>10</v>
+      </c>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
       <c r="IE123" s="7"/>
       <c r="IF123" s="7"/>
       <c r="IG123" s="7"/>
       <c r="IH123" s="7"/>
       <c r="II123" s="7"/>
     </row>
-    <row r="124" spans="2:243" ht="25" customHeight="1">
-      <c r="K124" s="9"/>
-      <c r="L124" s="6"/>
+    <row r="124" spans="1:243" ht="25" customHeight="1">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
       <c r="IE124" s="7"/>
       <c r="IF124" s="7"/>
       <c r="IG124" s="7"/>
       <c r="IH124" s="7"/>
       <c r="II124" s="7"/>
     </row>
-    <row r="125" spans="2:243" ht="25" customHeight="1">
+    <row r="125" spans="1:243" ht="25" customHeight="1">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
       <c r="K125" s="9"/>
       <c r="L125" s="6"/>
       <c r="IE125" s="7"/>
@@ -8018,7 +9727,10 @@
       <c r="IH125" s="7"/>
       <c r="II125" s="7"/>
     </row>
-    <row r="126" spans="2:243" ht="25" customHeight="1">
+    <row r="126" spans="1:243" ht="25" customHeight="1">
+      <c r="E126" s="33"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="33"/>
       <c r="K126" s="9"/>
       <c r="L126" s="6"/>
       <c r="IE126" s="7"/>
@@ -8027,7 +9739,7 @@
       <c r="IH126" s="7"/>
       <c r="II126" s="7"/>
     </row>
-    <row r="127" spans="2:243" ht="25" customHeight="1">
+    <row r="127" spans="1:243" ht="25" customHeight="1">
       <c r="K127" s="9"/>
       <c r="L127" s="6"/>
       <c r="IE127" s="7"/>
@@ -8036,7 +9748,7 @@
       <c r="IH127" s="7"/>
       <c r="II127" s="7"/>
     </row>
-    <row r="128" spans="2:243" ht="25" customHeight="1">
+    <row r="128" spans="1:243" ht="25" customHeight="1">
       <c r="K128" s="9"/>
       <c r="L128" s="6"/>
       <c r="IE128" s="7"/>
@@ -8045,7 +9757,7 @@
       <c r="IH128" s="7"/>
       <c r="II128" s="7"/>
     </row>
-    <row r="129" spans="11:243" ht="25" customHeight="1">
+    <row r="129" spans="2:243" ht="25" customHeight="1">
       <c r="K129" s="9"/>
       <c r="L129" s="6"/>
       <c r="IE129" s="7"/>
@@ -8054,7 +9766,7 @@
       <c r="IH129" s="7"/>
       <c r="II129" s="7"/>
     </row>
-    <row r="130" spans="11:243" ht="25" customHeight="1">
+    <row r="130" spans="2:243" ht="25" customHeight="1">
       <c r="K130" s="9"/>
       <c r="L130" s="6"/>
       <c r="IE130" s="7"/>
@@ -8063,62 +9775,134 @@
       <c r="IH130" s="7"/>
       <c r="II130" s="7"/>
     </row>
+    <row r="131" spans="2:243" ht="25" customHeight="1">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="6"/>
+      <c r="IE131" s="7"/>
+      <c r="IF131" s="7"/>
+      <c r="IG131" s="7"/>
+      <c r="IH131" s="7"/>
+      <c r="II131" s="7"/>
+    </row>
+    <row r="132" spans="2:243" ht="25" customHeight="1">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="6"/>
+      <c r="IE132" s="7"/>
+      <c r="IF132" s="7"/>
+      <c r="IG132" s="7"/>
+      <c r="IH132" s="7"/>
+      <c r="II132" s="7"/>
+    </row>
+    <row r="133" spans="2:243" ht="25" customHeight="1">
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="6"/>
+      <c r="IE133" s="7"/>
+      <c r="IF133" s="7"/>
+      <c r="IG133" s="7"/>
+      <c r="IH133" s="7"/>
+      <c r="II133" s="7"/>
+    </row>
+    <row r="134" spans="2:243" ht="25" customHeight="1">
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="6"/>
+      <c r="IE134" s="7"/>
+      <c r="IF134" s="7"/>
+      <c r="IG134" s="7"/>
+      <c r="IH134" s="7"/>
+      <c r="II134" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B100:D100"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7851D9-9150-6A42-B4AF-66D10AD6669D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7B323-8EAB-214F-9B0A-0BC7F7E5063A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$134</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$118</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="182">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,6 +970,48 @@
   <si>
     <t>程序运行出现段错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>提交的作业命名有问题，需要手动修改名称后才能正常运行</t>
+  </si>
+  <si>
+    <t>编译失败，提交的源代码字符编码错误</t>
+  </si>
+  <si>
+    <t>OpenMP源代码编译失败</t>
+  </si>
+  <si>
+    <t>c851e3401288ec3ef85dd716110f9bf5</t>
+  </si>
+  <si>
+    <t>e1a955c91078bc8ca96bc549df907c4a</t>
+  </si>
+  <si>
+    <t>3a8f0d172c9f9835df0987a1ce98b2c7</t>
+  </si>
+  <si>
+    <t>460d570838553f63cef493df91113433</t>
+  </si>
+  <si>
+    <t>0f3cdcf7250a6e41949b8be3afeb7719</t>
+  </si>
+  <si>
+    <t>c94f554a2121ee7fb239f1fadcc398f3</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1298,6 +1340,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1407,7 +1452,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1499,7 +1544,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1528,7 +1573,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1574,7 +1619,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3925,10 +3970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II134"/>
+  <dimension ref="A1:II139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3955,22 +4000,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4078,7 +4123,7 @@
         <v>136.96</v>
       </c>
       <c r="G4" s="39">
-        <f t="shared" ref="G4:G72" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G4:G77" si="1">IF(F4&gt;0, IF(F4&lt;2, 30, IF(F4&gt;100, 10, (1-(F4-2)/(100-2))*20+10)), 0)</f>
         <v>10</v>
       </c>
       <c r="H4" s="33">
@@ -5163,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -5175,9 +5220,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>153</v>
-      </c>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13" ht="25" customHeight="1">
       <c r="A31" s="11" t="s">
@@ -6928,7 +6971,7 @@
         <v>5</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" ref="L50:L83" si="2">IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
+        <f t="shared" ref="L50:L88" si="2">IF(SUM(B50:E50,G50,H50:I50,K50)&lt;100, SUM(B50:E50,G50,H50:I50,K50),  100)</f>
         <v>70</v>
       </c>
       <c r="M50" s="26" t="s">
@@ -6977,215 +7020,222 @@
       <c r="M51" s="27"/>
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
-      <c r="A52" s="24" t="s">
-        <v>25</v>
+      <c r="A52" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B52" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F52" s="35">
-        <v>1.167</v>
+        <v>0</v>
       </c>
       <c r="G52" s="39">
-        <f>IF(F52&gt;0, IF(F52&lt;2, 30, IF(F52&gt;100, 10, (1-(F52-2)/(100-2))*20+10)), 0)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H52" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M52" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="16">
+        <v>10</v>
+      </c>
+      <c r="C53" s="19">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
         <v>8</v>
       </c>
-      <c r="C53" s="16">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
       <c r="E53" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F53" s="35">
-        <v>0</v>
+        <v>14.272</v>
       </c>
       <c r="G53" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.495510204081633</v>
       </c>
       <c r="H53" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>0.48080000000000001</v>
       </c>
       <c r="K53" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>161</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M53" s="26"/>
+      <c r="IG53" s="7"/>
+      <c r="IH53" s="7"/>
+      <c r="II53" s="7"/>
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
-      <c r="A54" s="11" t="s">
-        <v>64</v>
+      <c r="A54" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="B54" s="16">
-        <v>10</v>
-      </c>
-      <c r="C54" s="19">
-        <v>10</v>
-      </c>
-      <c r="D54" s="1">
         <v>8</v>
       </c>
+      <c r="C54" s="16">
+        <v>7</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="E54" s="33">
         <v>30</v>
       </c>
       <c r="F54" s="35">
-        <v>14.272</v>
+        <v>95.793999999999997</v>
       </c>
       <c r="G54" s="39">
         <f t="shared" si="1"/>
-        <v>27.495510204081633</v>
+        <v>10.858367346938776</v>
       </c>
       <c r="H54" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I54" s="33">
         <v>10</v>
       </c>
       <c r="J54" s="2">
-        <v>0.48080000000000001</v>
+        <v>0</v>
       </c>
       <c r="K54" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M54" s="26"/>
+        <v>73.858367346938778</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
       <c r="II54" s="7"/>
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>65</v>
+      <c r="A55" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="B55" s="16">
-        <v>8</v>
-      </c>
-      <c r="C55" s="20">
-        <v>8</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="16">
+        <v>10</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="E55" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F55" s="35">
-        <v>110.16</v>
+        <v>0</v>
       </c>
       <c r="G55" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H55" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I55" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>0.72140000000000004</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="M55" s="27"/>
+        <v>27.5</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
       <c r="II55" s="7"/>
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
-      <c r="A56" s="11" t="s">
-        <v>66</v>
+      <c r="A56" s="52" t="s">
+        <v>178</v>
       </c>
       <c r="B56" s="16">
-        <v>5</v>
-      </c>
-      <c r="C56" s="19">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C56" s="16">
+        <v>7</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="E56" s="33">
         <v>30</v>
       </c>
       <c r="F56" s="35">
-        <v>1.0031000000000001</v>
+        <v>5.0987999999999998</v>
       </c>
       <c r="G56" s="39">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29.367591836734693</v>
       </c>
       <c r="H56" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I56" s="33">
         <v>10</v>
       </c>
       <c r="J56" s="2">
-        <v>6.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="K56" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L56" s="3">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>91.36759183673469</v>
       </c>
       <c r="M56" s="26"/>
       <c r="IG56" s="7"/>
@@ -7193,150 +7243,148 @@
       <c r="II56" s="7"/>
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
-      <c r="A57" s="11" t="s">
-        <v>67</v>
+      <c r="A57" s="52" t="s">
+        <v>179</v>
       </c>
       <c r="B57" s="16">
-        <v>10</v>
-      </c>
-      <c r="C57" s="19">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="16">
+        <v>8</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="E57" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F57" s="35">
-        <v>0</v>
+        <v>0.29863000000000001</v>
       </c>
       <c r="G57" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H57" s="33">
         <v>5</v>
       </c>
       <c r="I57" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L57" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>162</v>
-      </c>
+        <v>96.5</v>
+      </c>
+      <c r="M57" s="26"/>
       <c r="IG57" s="7"/>
       <c r="IH57" s="7"/>
       <c r="II57" s="7"/>
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
-      <c r="A58" s="11" t="s">
-        <v>68</v>
+      <c r="A58" s="52" t="s">
+        <v>180</v>
       </c>
       <c r="B58" s="16">
-        <v>8</v>
-      </c>
-      <c r="C58" s="19">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C58" s="16">
+        <v>9</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E58" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F58" s="35">
-        <v>0</v>
+        <v>3.1065</v>
       </c>
       <c r="G58" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.774183673469388</v>
       </c>
       <c r="H58" s="33">
         <v>5</v>
       </c>
       <c r="I58" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
       </c>
       <c r="K58" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>163</v>
-      </c>
+        <v>98.774183673469395</v>
+      </c>
+      <c r="M58" s="26"/>
       <c r="IG58" s="7"/>
       <c r="IH58" s="7"/>
       <c r="II58" s="7"/>
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="18">
-        <v>9</v>
-      </c>
-      <c r="C59" s="18">
-        <v>9</v>
-      </c>
-      <c r="D59" s="18">
+      <c r="A59" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="16">
         <v>8</v>
       </c>
-      <c r="E59" s="38">
+      <c r="C59" s="16">
+        <v>8</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="33">
         <v>30</v>
       </c>
       <c r="F59" s="35">
-        <v>0.92820000000000003</v>
+        <v>15.476000000000001</v>
       </c>
       <c r="G59" s="39">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H59" s="38">
+        <v>27.249795918367347</v>
+      </c>
+      <c r="H59" s="33">
         <v>4.5</v>
       </c>
-      <c r="I59" s="38">
-        <v>10</v>
-      </c>
-      <c r="J59" s="15">
-        <v>0</v>
-      </c>
-      <c r="K59" s="18">
+      <c r="I59" s="33">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <v>4.5</v>
       </c>
       <c r="L59" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M59" s="27"/>
+        <v>82.24979591836734</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
       <c r="II59" s="7"/>
     </row>
     <row r="60" spans="1:243" ht="25" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B60" s="16">
         <v>8</v>
       </c>
-      <c r="C60" s="16">
-        <v>5</v>
+      <c r="C60" s="20">
+        <v>8</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -7345,11 +7393,11 @@
         <v>30</v>
       </c>
       <c r="F60" s="35">
-        <v>79.941000000000003</v>
+        <v>110.16</v>
       </c>
       <c r="G60" s="39">
         <f t="shared" si="1"/>
-        <v>14.093673469387756</v>
+        <v>10</v>
       </c>
       <c r="H60" s="33">
         <v>5</v>
@@ -7358,42 +7406,42 @@
         <v>10</v>
       </c>
       <c r="J60" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="K60" s="4">
         <v>5</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="2"/>
-        <v>82.093673469387753</v>
-      </c>
-      <c r="M60" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="M60" s="27"/>
       <c r="IG60" s="7"/>
       <c r="IH60" s="7"/>
       <c r="II60" s="7"/>
     </row>
     <row r="61" spans="1:243" ht="25" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" s="19">
         <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="33">
         <v>30</v>
       </c>
       <c r="F61" s="35">
-        <v>0</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="G61" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H61" s="33">
         <v>5</v>
@@ -7402,164 +7450,178 @@
         <v>10</v>
       </c>
       <c r="J61" s="2">
-        <v>1.0281439999999999</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K61" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L61" s="3">
         <f t="shared" si="2"/>
-        <v>67.5</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>164</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M61" s="26"/>
       <c r="IG61" s="7"/>
       <c r="IH61" s="7"/>
       <c r="II61" s="7"/>
     </row>
     <row r="62" spans="1:243" ht="25" customHeight="1">
-      <c r="A62" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="21">
-        <v>7</v>
-      </c>
-      <c r="C62" s="21">
-        <v>5</v>
-      </c>
-      <c r="D62" s="21">
-        <v>5</v>
-      </c>
-      <c r="E62" s="38">
-        <v>30</v>
+      <c r="A62" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="16">
+        <v>10</v>
+      </c>
+      <c r="C62" s="19">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10</v>
+      </c>
+      <c r="E62" s="33">
+        <v>0</v>
       </c>
       <c r="F62" s="35">
-        <v>5.9455999999999998</v>
+        <v>0</v>
       </c>
       <c r="G62" s="39">
         <f t="shared" si="1"/>
-        <v>29.194775510204082</v>
-      </c>
-      <c r="H62" s="38">
-        <v>5</v>
-      </c>
-      <c r="I62" s="38">
-        <v>10</v>
-      </c>
-      <c r="J62" s="15">
-        <v>0</v>
-      </c>
-      <c r="K62" s="21">
+        <v>0</v>
+      </c>
+      <c r="H62" s="33">
+        <v>5</v>
+      </c>
+      <c r="I62" s="33">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
         <v>5</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="2"/>
-        <v>96.194775510204082</v>
-      </c>
-      <c r="M62" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
       <c r="II62" s="7"/>
     </row>
     <row r="63" spans="1:243" ht="25" customHeight="1">
       <c r="A63" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="55">
-        <v>27</v>
-      </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="57"/>
+        <v>68</v>
+      </c>
+      <c r="B63" s="16">
+        <v>8</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
       <c r="E63" s="33">
-        <v>30</v>
-      </c>
-      <c r="F63" s="40">
-        <v>83.125</v>
+        <v>0</v>
+      </c>
+      <c r="F63" s="35">
+        <v>0</v>
       </c>
       <c r="G63" s="39">
         <f t="shared" si="1"/>
-        <v>13.443877551020408</v>
+        <v>0</v>
       </c>
       <c r="H63" s="33">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I63" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>0.16397200000000001</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="2"/>
-        <v>89.443877551020407</v>
-      </c>
-      <c r="M63" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
       <c r="II63" s="7"/>
     </row>
     <row r="64" spans="1:243" ht="25" customHeight="1">
-      <c r="A64" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="55">
-        <v>30</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="33">
-        <v>30</v>
-      </c>
-      <c r="F64" s="40">
-        <v>86.150999999999996</v>
+      <c r="A64" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="18">
+        <v>9</v>
+      </c>
+      <c r="C64" s="18">
+        <v>9</v>
+      </c>
+      <c r="D64" s="18">
+        <v>8</v>
+      </c>
+      <c r="E64" s="38">
+        <v>30</v>
+      </c>
+      <c r="F64" s="35">
+        <v>0.92820000000000003</v>
       </c>
       <c r="G64" s="39">
         <f t="shared" si="1"/>
-        <v>12.826326530612246</v>
-      </c>
-      <c r="H64" s="33">
-        <v>5</v>
-      </c>
-      <c r="I64" s="33">
-        <v>10</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0.79987600000000003</v>
-      </c>
-      <c r="K64" s="4">
-        <v>2.5</v>
+        <v>30</v>
+      </c>
+      <c r="H64" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="I64" s="38">
+        <v>10</v>
+      </c>
+      <c r="J64" s="15">
+        <v>0</v>
+      </c>
+      <c r="K64" s="18">
+        <v>4.5</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="2"/>
-        <v>90.326326530612249</v>
-      </c>
-      <c r="M64" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="M64" s="27"/>
       <c r="IG64" s="7"/>
       <c r="IH64" s="7"/>
       <c r="II64" s="7"/>
     </row>
     <row r="65" spans="1:243" ht="25" customHeight="1">
       <c r="A65" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="55">
-        <v>30</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="57"/>
+        <v>69</v>
+      </c>
+      <c r="B65" s="16">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
       <c r="E65" s="33">
         <v>30</v>
       </c>
-      <c r="F65" s="40">
-        <v>11.093</v>
+      <c r="F65" s="35">
+        <v>79.941000000000003</v>
       </c>
       <c r="G65" s="39">
         <f t="shared" si="1"/>
-        <v>28.144285714285715</v>
+        <v>14.093673469387756</v>
       </c>
       <c r="H65" s="33">
         <v>5</v>
@@ -7568,227 +7630,227 @@
         <v>10</v>
       </c>
       <c r="J65" s="2">
-        <v>5.2023E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="K65" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L65" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M65" s="25" t="s">
-        <v>133</v>
-      </c>
+        <v>82.093673469387753</v>
+      </c>
+      <c r="M65" s="26"/>
       <c r="IG65" s="7"/>
       <c r="IH65" s="7"/>
       <c r="II65" s="7"/>
     </row>
     <row r="66" spans="1:243" ht="25" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="55">
-        <v>24</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="57"/>
+        <v>70</v>
+      </c>
+      <c r="B66" s="16">
+        <v>8</v>
+      </c>
+      <c r="C66" s="19">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
       <c r="E66" s="33">
         <v>30</v>
       </c>
-      <c r="F66" s="40">
-        <v>157.71</v>
+      <c r="F66" s="35">
+        <v>0</v>
       </c>
       <c r="G66" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H66" s="33">
         <v>5</v>
       </c>
       <c r="I66" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>1.0281439999999999</v>
       </c>
       <c r="K66" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L66" s="3">
         <f t="shared" si="2"/>
-        <v>71.5</v>
-      </c>
-      <c r="M66" s="26" t="s">
-        <v>134</v>
+        <v>67.5</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
       <c r="II66" s="7"/>
     </row>
     <row r="67" spans="1:243" ht="25" customHeight="1">
-      <c r="A67" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="55">
-        <v>24</v>
-      </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="33">
-        <v>0</v>
-      </c>
-      <c r="F67" s="40">
-        <v>0</v>
+      <c r="A67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="21">
+        <v>7</v>
+      </c>
+      <c r="C67" s="21">
+        <v>5</v>
+      </c>
+      <c r="D67" s="21">
+        <v>5</v>
+      </c>
+      <c r="E67" s="38">
+        <v>30</v>
+      </c>
+      <c r="F67" s="35">
+        <v>5.9455999999999998</v>
       </c>
       <c r="G67" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="I67" s="33">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>2.5</v>
+        <v>29.194775510204082</v>
+      </c>
+      <c r="H67" s="38">
+        <v>5</v>
+      </c>
+      <c r="I67" s="38">
+        <v>10</v>
+      </c>
+      <c r="J67" s="15">
+        <v>0</v>
+      </c>
+      <c r="K67" s="21">
+        <v>5</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>135</v>
-      </c>
+        <v>96.194775510204082</v>
+      </c>
+      <c r="M67" s="26"/>
       <c r="IG67" s="7"/>
       <c r="IH67" s="7"/>
       <c r="II67" s="7"/>
     </row>
     <row r="68" spans="1:243" ht="25" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="55">
-        <v>24</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="B68" s="56">
+        <v>27</v>
+      </c>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68" s="40">
-        <v>0</v>
+        <v>83.125</v>
       </c>
       <c r="G68" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.443877551020408</v>
       </c>
       <c r="H68" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I68" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J68" s="2">
-        <v>1.0291E-2</v>
+        <v>0.16397200000000001</v>
       </c>
       <c r="K68" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M68" s="26" t="s">
-        <v>136</v>
-      </c>
+        <v>89.443877551020407</v>
+      </c>
+      <c r="M68" s="27"/>
       <c r="IG68" s="7"/>
       <c r="IH68" s="7"/>
       <c r="II68" s="7"/>
     </row>
     <row r="69" spans="1:243" ht="25" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="55">
-        <v>21</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="57"/>
+        <v>72</v>
+      </c>
+      <c r="B69" s="56">
+        <v>30</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F69" s="40">
-        <v>0</v>
+        <v>86.150999999999996</v>
       </c>
       <c r="G69" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.826326530612246</v>
       </c>
       <c r="H69" s="33">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I69" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J69" s="2">
-        <v>0</v>
+        <v>0.79987600000000003</v>
       </c>
       <c r="K69" s="4">
         <v>2.5</v>
       </c>
       <c r="L69" s="3">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>137</v>
-      </c>
+        <v>90.326326530612249</v>
+      </c>
+      <c r="M69" s="26"/>
       <c r="IG69" s="7"/>
       <c r="IH69" s="7"/>
       <c r="II69" s="7"/>
     </row>
     <row r="70" spans="1:243" ht="25" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="55">
-        <v>24</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
+        <v>73</v>
+      </c>
+      <c r="B70" s="56">
+        <v>30</v>
+      </c>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="33">
         <v>30</v>
       </c>
       <c r="F70" s="40">
-        <v>82.278999999999996</v>
+        <v>11.093</v>
       </c>
       <c r="G70" s="39">
         <f t="shared" si="1"/>
-        <v>13.616530612244899</v>
+        <v>28.144285714285715</v>
       </c>
       <c r="H70" s="33">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I70" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J70" s="2">
-        <v>3.6273E-2</v>
+        <v>5.2023E-2</v>
       </c>
       <c r="K70" s="4">
         <v>2.5</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="2"/>
-        <v>74.616530612244901</v>
-      </c>
-      <c r="M70" s="26" t="s">
-        <v>138</v>
+        <v>100</v>
+      </c>
+      <c r="M70" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -7796,25 +7858,25 @@
     </row>
     <row r="71" spans="1:243" ht="25" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="55">
-        <v>27</v>
-      </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="57"/>
+        <v>74</v>
+      </c>
+      <c r="B71" s="56">
+        <v>24</v>
+      </c>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="33">
         <v>30</v>
       </c>
       <c r="F71" s="40">
-        <v>85.936999999999998</v>
+        <v>157.71</v>
       </c>
       <c r="G71" s="39">
         <f t="shared" si="1"/>
-        <v>12.870000000000001</v>
+        <v>10</v>
       </c>
       <c r="H71" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71" s="33">
         <v>0</v>
@@ -7827,10 +7889,10 @@
       </c>
       <c r="L71" s="3">
         <f t="shared" si="2"/>
-        <v>76.37</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>139</v>
+        <v>71.5</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>134</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -7838,25 +7900,25 @@
     </row>
     <row r="72" spans="1:243" ht="25" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="55">
+        <v>75</v>
+      </c>
+      <c r="B72" s="56">
         <v>24</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F72" s="40">
-        <v>160.13</v>
+        <v>0</v>
       </c>
       <c r="G72" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H72" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I72" s="33">
         <v>0</v>
@@ -7869,10 +7931,10 @@
       </c>
       <c r="L72" s="3">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="M72" s="26" t="s">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -7880,13 +7942,13 @@
     </row>
     <row r="73" spans="1:243" ht="25" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="55">
-        <v>21</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="57"/>
+        <v>76</v>
+      </c>
+      <c r="B73" s="56">
+        <v>24</v>
+      </c>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="33">
         <v>0</v>
       </c>
@@ -7894,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="39">
-        <f t="shared" ref="G73:G113" si="3">IF(F73&gt;0, IF(F73&lt;2, 30, IF(F73&gt;100, 10, (1-(F73-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H73" s="33">
@@ -7904,17 +7966,17 @@
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>8.7390000000000002E-3</v>
+        <v>1.0291E-2</v>
       </c>
       <c r="K73" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>141</v>
+        <v>29</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -7922,28 +7984,28 @@
     </row>
     <row r="74" spans="1:243" ht="25" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="55">
-        <v>30</v>
-      </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="57"/>
+        <v>77</v>
+      </c>
+      <c r="B74" s="56">
+        <v>21</v>
+      </c>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F74" s="40">
-        <v>22.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="G74" s="39">
-        <f t="shared" si="3"/>
-        <v>25.871632653061226</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H74" s="33">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I74" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -7953,50 +8015,52 @@
       </c>
       <c r="L74" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M74" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>137</v>
+      </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
       <c r="II74" s="7"/>
     </row>
     <row r="75" spans="1:243" ht="25" customHeight="1">
       <c r="A75" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="55">
-        <v>27</v>
-      </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="B75" s="56">
+        <v>24</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F75" s="40">
-        <v>0</v>
+        <v>82.278999999999996</v>
       </c>
       <c r="G75" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13.616530612244899</v>
       </c>
       <c r="H75" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I75" s="33">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>3.6273E-2</v>
+      </c>
+      <c r="K75" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I75" s="33">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2">
-        <v>0.25622400000000001</v>
-      </c>
-      <c r="K75" s="4">
-        <v>4.5</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>135</v>
+        <v>74.616530612244901</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -8004,28 +8068,28 @@
     </row>
     <row r="76" spans="1:243" ht="25" customHeight="1">
       <c r="A76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="55">
-        <v>30</v>
-      </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="57"/>
+        <v>79</v>
+      </c>
+      <c r="B76" s="56">
+        <v>27</v>
+      </c>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="33">
         <v>30</v>
       </c>
       <c r="F76" s="40">
-        <v>22.785</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="G76" s="39">
-        <f t="shared" si="3"/>
-        <v>25.758163265306123</v>
+        <f t="shared" si="1"/>
+        <v>12.870000000000001</v>
       </c>
       <c r="H76" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I76" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -8035,50 +8099,52 @@
       </c>
       <c r="L76" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M76" s="26"/>
+        <v>76.37</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
       <c r="II76" s="7"/>
     </row>
     <row r="77" spans="1:243" ht="25" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="55">
+        <v>80</v>
+      </c>
+      <c r="B77" s="56">
         <v>24</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F77" s="40">
-        <v>0</v>
+        <v>160.13</v>
       </c>
       <c r="G77" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="H77" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I77" s="33">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I77" s="33">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0.25599100000000002</v>
-      </c>
-      <c r="K77" s="4">
-        <v>3.5</v>
       </c>
       <c r="L77" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>142</v>
+        <v>71</v>
+      </c>
+      <c r="M77" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -8086,95 +8152,95 @@
     </row>
     <row r="78" spans="1:243" ht="25" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="55">
-        <v>24</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
+        <v>81</v>
+      </c>
+      <c r="B78" s="56">
+        <v>21</v>
+      </c>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F78" s="40">
-        <v>89.034999999999997</v>
+        <v>0</v>
       </c>
       <c r="G78" s="39">
-        <f t="shared" si="3"/>
-        <v>12.237755102040817</v>
+        <f t="shared" ref="G78:G118" si="3">IF(F78&gt;0, IF(F78&lt;2, 30, IF(F78&gt;100, 10, (1-(F78-2)/(100-2))*20+10)), 0)</f>
+        <v>0</v>
       </c>
       <c r="H78" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I78" s="33">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>8.7390000000000002E-3</v>
+      </c>
+      <c r="K78" s="4">
         <v>4</v>
-      </c>
-      <c r="I78" s="33">
-        <v>10</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
-        <v>2.5</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="2"/>
-        <v>82.737755102040822</v>
-      </c>
-      <c r="M78" s="26"/>
+        <v>27.5</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>141</v>
+      </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
       <c r="II78" s="7"/>
     </row>
     <row r="79" spans="1:243" ht="25" customHeight="1">
       <c r="A79" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="55">
-        <v>27</v>
-      </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="B79" s="56">
+        <v>30</v>
+      </c>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F79" s="40">
-        <v>0</v>
+        <v>22.228999999999999</v>
       </c>
       <c r="G79" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.871632653061226</v>
       </c>
       <c r="H79" s="33">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I79" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J79" s="2">
-        <v>0.11136799999999999</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4">
         <v>2.5</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>142</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M79" s="26"/>
       <c r="IG79" s="7"/>
       <c r="IH79" s="7"/>
       <c r="II79" s="7"/>
     </row>
     <row r="80" spans="1:243" ht="25" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="55">
-        <v>24</v>
-      </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
+        <v>83</v>
+      </c>
+      <c r="B80" s="56">
+        <v>27</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="33">
         <v>0</v>
       </c>
@@ -8192,17 +8258,17 @@
         <v>0</v>
       </c>
       <c r="J80" s="2">
-        <v>0</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="K80" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L80" s="3">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M80" s="26" t="s">
-        <v>143</v>
+        <v>34</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -8210,137 +8276,135 @@
     </row>
     <row r="81" spans="1:243" ht="25" customHeight="1">
       <c r="A81" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="55">
-        <v>21</v>
-      </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="57"/>
+        <v>84</v>
+      </c>
+      <c r="B81" s="56">
+        <v>30</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F81" s="40">
-        <v>0</v>
+        <v>22.785</v>
       </c>
       <c r="G81" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.758163265306123</v>
       </c>
       <c r="H81" s="33">
+        <v>5</v>
+      </c>
+      <c r="I81" s="33">
+        <v>10</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
         <v>2.5</v>
-      </c>
-      <c r="I81" s="33">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2">
-        <v>0.23594999999999999</v>
-      </c>
-      <c r="K81" s="4">
-        <v>3.5</v>
       </c>
       <c r="L81" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>140</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M81" s="26"/>
       <c r="IG81" s="7"/>
       <c r="IH81" s="7"/>
       <c r="II81" s="7"/>
     </row>
     <row r="82" spans="1:243" ht="25" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="55">
+        <v>85</v>
+      </c>
+      <c r="B82" s="56">
         <v>24</v>
       </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
       <c r="E82" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F82" s="40">
-        <v>76.835999999999999</v>
+        <v>0</v>
       </c>
       <c r="G82" s="39">
         <f t="shared" si="3"/>
-        <v>14.72734693877551</v>
+        <v>0</v>
       </c>
       <c r="H82" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I82" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J82" s="2">
-        <v>0</v>
+        <v>0.25599100000000002</v>
       </c>
       <c r="K82" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L82" s="3">
         <f t="shared" si="2"/>
-        <v>85.727346938775511</v>
-      </c>
-      <c r="M82" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>142</v>
+      </c>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
       <c r="II82" s="7"/>
     </row>
     <row r="83" spans="1:243" ht="25" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="55">
-        <v>30</v>
-      </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="57"/>
+        <v>86</v>
+      </c>
+      <c r="B83" s="56">
+        <v>24</v>
+      </c>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F83" s="40">
-        <v>0</v>
+        <v>89.034999999999997</v>
       </c>
       <c r="G83" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.237755102040817</v>
       </c>
       <c r="H83" s="33">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I83" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J83" s="2">
-        <v>1.6031E-2</v>
+        <v>0</v>
       </c>
       <c r="K83" s="4">
         <v>2.5</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>135</v>
-      </c>
+        <v>82.737755102040822</v>
+      </c>
+      <c r="M83" s="26"/>
       <c r="IG83" s="7"/>
       <c r="IH83" s="7"/>
       <c r="II83" s="7"/>
     </row>
     <row r="84" spans="1:243" ht="25" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="55">
-        <v>24</v>
-      </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="57"/>
+        <v>87</v>
+      </c>
+      <c r="B84" s="56">
+        <v>27</v>
+      </c>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="33">
         <v>0</v>
       </c>
@@ -8358,17 +8422,17 @@
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <v>0.36402000000000001</v>
+        <v>0.11136799999999999</v>
       </c>
       <c r="K84" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" ref="L84:L113" si="4">IF(SUM(B84:E84,G84,H84:I84,K84)&lt;100, SUM(B84:E84,G84,H84:I84,K84),  100)</f>
-        <v>30</v>
-      </c>
-      <c r="M84" s="26" t="s">
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
@@ -8376,173 +8440,179 @@
     </row>
     <row r="85" spans="1:243" ht="25" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="55">
-        <v>21</v>
-      </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="57"/>
+        <v>60</v>
+      </c>
+      <c r="B85" s="56">
+        <v>24</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
       <c r="E85" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F85" s="40">
-        <v>76.659000000000006</v>
+        <v>0</v>
       </c>
       <c r="G85" s="39">
         <f t="shared" si="3"/>
-        <v>14.763469387755102</v>
+        <v>0</v>
       </c>
       <c r="H85" s="33">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I85" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2">
-        <v>0.18420700000000001</v>
+        <v>0</v>
       </c>
       <c r="K85" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="4"/>
-        <v>83.763469387755094</v>
-      </c>
-      <c r="M85" s="27"/>
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
       <c r="II85" s="7"/>
     </row>
     <row r="86" spans="1:243" ht="25" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="55">
-        <v>24</v>
-      </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57"/>
+        <v>40</v>
+      </c>
+      <c r="B86" s="56">
+        <v>21</v>
+      </c>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
       <c r="E86" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F86" s="40">
-        <v>75.662000000000006</v>
+        <v>0</v>
       </c>
       <c r="G86" s="39">
         <f t="shared" si="3"/>
-        <v>14.966938775510204</v>
+        <v>0</v>
       </c>
       <c r="H86" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I86" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2">
-        <v>0.29575899999999999</v>
+        <v>0.23594999999999999</v>
       </c>
       <c r="K86" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="4"/>
-        <v>88.466938775510201</v>
-      </c>
-      <c r="M86" s="26"/>
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
       <c r="II86" s="7"/>
     </row>
     <row r="87" spans="1:243" ht="25" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="55">
-        <v>30</v>
-      </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="57"/>
+        <v>59</v>
+      </c>
+      <c r="B87" s="56">
+        <v>24</v>
+      </c>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
       <c r="E87" s="33">
         <v>30</v>
       </c>
       <c r="F87" s="40">
-        <v>18.93</v>
+        <v>76.835999999999999</v>
       </c>
       <c r="G87" s="39">
         <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
+        <v>14.72734693877551</v>
       </c>
       <c r="H87" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I87" s="33">
         <v>10</v>
       </c>
       <c r="J87" s="2">
-        <v>2.3715E-2</v>
+        <v>0</v>
       </c>
       <c r="K87" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="M87" s="27"/>
+        <f t="shared" si="2"/>
+        <v>85.727346938775511</v>
+      </c>
+      <c r="M87" s="26"/>
       <c r="IG87" s="7"/>
       <c r="IH87" s="7"/>
       <c r="II87" s="7"/>
     </row>
     <row r="88" spans="1:243" ht="25" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="55">
-        <v>24</v>
-      </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="57"/>
+        <v>28</v>
+      </c>
+      <c r="B88" s="56">
+        <v>30</v>
+      </c>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
       <c r="E88" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F88" s="40">
-        <v>19.364000000000001</v>
+        <v>0</v>
       </c>
       <c r="G88" s="39">
         <f t="shared" si="3"/>
-        <v>26.456326530612245</v>
+        <v>0</v>
       </c>
       <c r="H88" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I88" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2">
-        <v>0</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="K88" s="4">
         <v>2.5</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="4"/>
-        <v>97.456326530612245</v>
-      </c>
-      <c r="M88" s="26"/>
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
       <c r="II88" s="7"/>
     </row>
     <row r="89" spans="1:243" ht="25" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="55">
-        <v>27</v>
-      </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="57"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="56">
+        <v>24</v>
+      </c>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="33">
         <v>0</v>
       </c>
@@ -8560,17 +8630,17 @@
         <v>0</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>0.36402000000000001</v>
       </c>
       <c r="K89" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>142</v>
+        <f t="shared" ref="L89:L118" si="4">IF(SUM(B89:E89,G89,H89:I89,K89)&lt;100, SUM(B89:E89,G89,H89:I89,K89),  100)</f>
+        <v>30</v>
+      </c>
+      <c r="M89" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -8578,149 +8648,145 @@
     </row>
     <row r="90" spans="1:243" ht="25" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="55">
+        <v>89</v>
+      </c>
+      <c r="B90" s="56">
         <v>21</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F90" s="40">
-        <v>0</v>
+        <v>76.659000000000006</v>
       </c>
       <c r="G90" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.763469387755102</v>
       </c>
       <c r="H90" s="33">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I90" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
-        <v>0</v>
+        <v>0.18420700000000001</v>
       </c>
       <c r="K90" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L90" s="3">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M90" s="26" t="s">
-        <v>135</v>
-      </c>
+        <v>83.763469387755094</v>
+      </c>
+      <c r="M90" s="27"/>
       <c r="IG90" s="7"/>
       <c r="IH90" s="7"/>
       <c r="II90" s="7"/>
     </row>
     <row r="91" spans="1:243" ht="25" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="55">
-        <v>27</v>
-      </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="57"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="56">
+        <v>24</v>
+      </c>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F91" s="40">
-        <v>0</v>
+        <v>75.662000000000006</v>
       </c>
       <c r="G91" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.966938775510204</v>
       </c>
       <c r="H91" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I91" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J91" s="2">
-        <v>0.616757</v>
+        <v>0.29575899999999999</v>
       </c>
       <c r="K91" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>145</v>
-      </c>
+        <v>88.466938775510201</v>
+      </c>
+      <c r="M91" s="26"/>
       <c r="IG91" s="7"/>
       <c r="IH91" s="7"/>
       <c r="II91" s="7"/>
     </row>
     <row r="92" spans="1:243" ht="25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" s="55">
-        <v>30</v>
-      </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="57"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="56">
+        <v>30</v>
+      </c>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
       <c r="E92" s="33">
         <v>30</v>
       </c>
       <c r="F92" s="40">
-        <v>80.263999999999996</v>
+        <v>18.93</v>
       </c>
       <c r="G92" s="39">
         <f t="shared" si="3"/>
-        <v>14.027755102040818</v>
+        <v>26.544897959183672</v>
       </c>
       <c r="H92" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I92" s="33">
         <v>10</v>
       </c>
       <c r="J92" s="2">
-        <v>2.2478000000000001E-2</v>
+        <v>2.3715E-2</v>
       </c>
       <c r="K92" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="4"/>
-        <v>92.027755102040814</v>
-      </c>
-      <c r="M92" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="M92" s="27"/>
       <c r="IG92" s="7"/>
       <c r="IH92" s="7"/>
       <c r="II92" s="7"/>
     </row>
     <row r="93" spans="1:243" ht="25" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="55">
-        <v>21</v>
-      </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="57"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="56">
+        <v>24</v>
+      </c>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
       <c r="E93" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93" s="40">
-        <v>0</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="G93" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.456326530612245</v>
       </c>
       <c r="H93" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I93" s="33">
         <v>10</v>
@@ -8733,24 +8799,22 @@
       </c>
       <c r="L93" s="3">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>146</v>
-      </c>
+        <v>97.456326530612245</v>
+      </c>
+      <c r="M93" s="26"/>
       <c r="IG93" s="7"/>
       <c r="IH93" s="7"/>
       <c r="II93" s="7"/>
     </row>
     <row r="94" spans="1:243" ht="25" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="55">
-        <v>0</v>
-      </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="57"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="56">
+        <v>27</v>
+      </c>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
       <c r="E94" s="33">
         <v>0</v>
       </c>
@@ -8768,17 +8832,17 @@
         <v>0</v>
       </c>
       <c r="J94" s="2">
-        <v>1.7333999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K94" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L94" s="3">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="M94" s="26" t="s">
-        <v>135</v>
+        <v>32</v>
+      </c>
+      <c r="M94" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="IG94" s="7"/>
       <c r="IH94" s="7"/>
@@ -8786,401 +8850,420 @@
     </row>
     <row r="95" spans="1:243" ht="25" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="55">
-        <v>27</v>
-      </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="57"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="56">
+        <v>21</v>
+      </c>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
       <c r="E95" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F95" s="40">
-        <v>20.995999999999999</v>
+        <v>0</v>
       </c>
       <c r="G95" s="39">
         <f t="shared" si="3"/>
-        <v>26.123265306122448</v>
+        <v>0</v>
       </c>
       <c r="H95" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I95" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2">
-        <v>2.4060000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K95" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L95" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="M95" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="M95" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="IG95" s="7"/>
       <c r="IH95" s="7"/>
       <c r="II95" s="7"/>
     </row>
     <row r="96" spans="1:243" ht="25" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="55">
-        <v>21</v>
-      </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="57"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="56">
+        <v>27</v>
+      </c>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F96" s="40">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G96" s="39">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H96" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I96" s="33">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0.616757</v>
+      </c>
+      <c r="K96" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I96" s="33">
-        <v>10</v>
-      </c>
-      <c r="J96" s="2">
-        <v>0.197292</v>
-      </c>
-      <c r="K96" s="4">
-        <v>4</v>
       </c>
       <c r="L96" s="3">
         <f t="shared" si="4"/>
-        <v>79.5</v>
-      </c>
-      <c r="M96" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="M96" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="IG96" s="7"/>
       <c r="IH96" s="7"/>
       <c r="II96" s="7"/>
     </row>
     <row r="97" spans="1:243" ht="25" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="55">
-        <v>24</v>
-      </c>
-      <c r="C97" s="56"/>
-      <c r="D97" s="57"/>
+        <v>31</v>
+      </c>
+      <c r="B97" s="56">
+        <v>30</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
       <c r="E97" s="33">
         <v>30</v>
       </c>
       <c r="F97" s="40">
-        <v>78.983999999999995</v>
+        <v>80.263999999999996</v>
       </c>
       <c r="G97" s="39">
         <f t="shared" si="3"/>
-        <v>14.288979591836737</v>
+        <v>14.027755102040818</v>
       </c>
       <c r="H97" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I97" s="33">
         <v>10</v>
       </c>
       <c r="J97" s="2">
-        <v>2.8327999999999999E-2</v>
+        <v>2.2478000000000001E-2</v>
       </c>
       <c r="K97" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L97" s="3">
         <f t="shared" si="4"/>
-        <v>87.788979591836735</v>
-      </c>
-      <c r="M97" s="27"/>
+        <v>92.027755102040814</v>
+      </c>
+      <c r="M97" s="26"/>
       <c r="IG97" s="7"/>
       <c r="IH97" s="7"/>
       <c r="II97" s="7"/>
     </row>
     <row r="98" spans="1:243" ht="25" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="55">
-        <v>30</v>
-      </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="57"/>
+        <v>61</v>
+      </c>
+      <c r="B98" s="56">
+        <v>21</v>
+      </c>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
       <c r="E98" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F98" s="40">
-        <v>158.24</v>
+        <v>0</v>
       </c>
       <c r="G98" s="39">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H98" s="33">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I98" s="33">
         <v>10</v>
       </c>
       <c r="J98" s="2">
-        <v>0.44423499999999999</v>
+        <v>0</v>
       </c>
       <c r="K98" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L98" s="3">
         <f t="shared" si="4"/>
-        <v>89.5</v>
-      </c>
-      <c r="M98" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="M98" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="IG98" s="7"/>
       <c r="IH98" s="7"/>
       <c r="II98" s="7"/>
     </row>
     <row r="99" spans="1:243" ht="25" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="55">
-        <v>30</v>
-      </c>
-      <c r="C99" s="56"/>
-      <c r="D99" s="57"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="56">
+        <v>0</v>
+      </c>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
       <c r="E99" s="33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F99" s="40">
-        <v>80.319000000000003</v>
+        <v>0</v>
       </c>
       <c r="G99" s="39">
         <f t="shared" si="3"/>
-        <v>14.016530612244898</v>
+        <v>0</v>
       </c>
       <c r="H99" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I99" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2">
-        <v>0.33158300000000002</v>
+        <v>1.7333999999999999E-2</v>
       </c>
       <c r="K99" s="4">
         <v>4.5</v>
       </c>
       <c r="L99" s="3">
         <f t="shared" si="4"/>
-        <v>93.016530612244892</v>
-      </c>
-      <c r="M99" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="M99" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="IG99" s="7"/>
+      <c r="IH99" s="7"/>
+      <c r="II99" s="7"/>
     </row>
     <row r="100" spans="1:243" ht="25" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="55">
-        <v>21</v>
-      </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="57"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="56">
+        <v>27</v>
+      </c>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="33">
         <v>30</v>
       </c>
       <c r="F100" s="40">
-        <v>0</v>
+        <v>20.995999999999999</v>
       </c>
       <c r="G100" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.123265306122448</v>
       </c>
       <c r="H100" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I100" s="33">
         <v>10</v>
       </c>
       <c r="J100" s="2">
-        <v>8.4103999999999998E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="K100" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L100" s="3">
         <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="M100" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="M100" s="27"/>
+      <c r="IG100" s="7"/>
+      <c r="IH100" s="7"/>
+      <c r="II100" s="7"/>
     </row>
     <row r="101" spans="1:243" ht="25" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="55">
+        <v>37</v>
+      </c>
+      <c r="B101" s="56">
         <v>21</v>
       </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
       <c r="E101" s="33">
-        <v>17.751479289940828</v>
+        <v>30</v>
       </c>
       <c r="F101" s="40">
-        <v>152.19</v>
+        <v>156</v>
       </c>
       <c r="G101" s="39">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H101" s="33">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I101" s="33">
         <v>10</v>
       </c>
       <c r="J101" s="2">
-        <v>1.9650999999999998E-2</v>
+        <v>0.197292</v>
       </c>
       <c r="K101" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <f t="shared" si="4"/>
-        <v>63.751479289940832</v>
-      </c>
-      <c r="M101" s="27"/>
+        <v>79.5</v>
+      </c>
+      <c r="M101" s="26"/>
+      <c r="IG101" s="7"/>
+      <c r="IH101" s="7"/>
+      <c r="II101" s="7"/>
     </row>
     <row r="102" spans="1:243" ht="25" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="55">
-        <v>21</v>
-      </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="57"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="56">
+        <v>24</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="33">
-        <v>29.822485207100591</v>
+        <v>30</v>
       </c>
       <c r="F102" s="40">
-        <v>36.862000000000002</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="G102" s="39">
         <f t="shared" si="3"/>
-        <v>22.885306122448981</v>
+        <v>14.288979591836737</v>
       </c>
       <c r="H102" s="33">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I102" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J102" s="2">
-        <v>9.5962000000000006E-2</v>
+        <v>2.8327999999999999E-2</v>
       </c>
       <c r="K102" s="4">
         <v>4.5</v>
       </c>
       <c r="L102" s="3">
         <f t="shared" si="4"/>
-        <v>80.707791329549565</v>
-      </c>
-      <c r="M102" s="26" t="s">
-        <v>147</v>
-      </c>
+        <v>87.788979591836735</v>
+      </c>
+      <c r="M102" s="27"/>
+      <c r="IG102" s="7"/>
+      <c r="IH102" s="7"/>
+      <c r="II102" s="7"/>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="55">
-        <v>24</v>
-      </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="57"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="56">
+        <v>30</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="33">
         <v>30</v>
       </c>
       <c r="F103" s="40">
-        <v>1.0976999999999999</v>
+        <v>158.24</v>
       </c>
       <c r="G103" s="39">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H103" s="33">
+        <v>5</v>
+      </c>
+      <c r="I103" s="33">
+        <v>10</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0.44423499999999999</v>
+      </c>
+      <c r="K103" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I103" s="33">
-        <v>10</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0.11998499999999999</v>
-      </c>
-      <c r="K103" s="4">
-        <v>2.5</v>
       </c>
       <c r="L103" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="M103" s="27"/>
+        <v>89.5</v>
+      </c>
+      <c r="M103" s="26"/>
+      <c r="IG103" s="7"/>
+      <c r="IH103" s="7"/>
+      <c r="II103" s="7"/>
     </row>
     <row r="104" spans="1:243" ht="25" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="55">
-        <v>27</v>
-      </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="57"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="56">
+        <v>30</v>
+      </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="33">
         <v>30</v>
       </c>
       <c r="F104" s="40">
-        <v>83.876000000000005</v>
+        <v>80.319000000000003</v>
       </c>
       <c r="G104" s="39">
         <f t="shared" si="3"/>
-        <v>13.290612244897959</v>
+        <v>14.016530612244898</v>
       </c>
       <c r="H104" s="33">
         <v>4.5</v>
       </c>
       <c r="I104" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J104" s="2">
-        <v>0</v>
+        <v>0.33158300000000002</v>
       </c>
       <c r="K104" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L104" s="3">
         <f t="shared" si="4"/>
-        <v>77.290612244897957</v>
-      </c>
-      <c r="M104" s="26" t="s">
-        <v>139</v>
-      </c>
+        <v>93.016530612244892</v>
+      </c>
+      <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:243" ht="25" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="55">
-        <v>24</v>
-      </c>
-      <c r="C105" s="56"/>
-      <c r="D105" s="57"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="56">
+        <v>21</v>
+      </c>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F105" s="40">
         <v>0</v>
@@ -9193,114 +9276,114 @@
         <v>2.5</v>
       </c>
       <c r="I105" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2">
-        <v>1.952367</v>
+        <v>8.4103999999999998E-2</v>
       </c>
       <c r="K105" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L105" s="3">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="M105" s="27" t="s">
-        <v>148</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M105" s="26"/>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="55">
-        <v>27</v>
-      </c>
-      <c r="C106" s="56"/>
-      <c r="D106" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="56">
+        <v>21</v>
+      </c>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
       <c r="E106" s="33">
-        <v>30</v>
+        <v>17.751479289940828</v>
       </c>
       <c r="F106" s="40">
-        <v>153.26</v>
+        <v>152.19</v>
       </c>
       <c r="G106" s="39">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H106" s="33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I106" s="33">
         <v>10</v>
       </c>
       <c r="J106" s="2">
-        <v>0.29591299999999998</v>
+        <v>1.9650999999999998E-2</v>
       </c>
       <c r="K106" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="M106" s="26"/>
+        <v>63.751479289940832</v>
+      </c>
+      <c r="M106" s="27"/>
     </row>
     <row r="107" spans="1:243" ht="25" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="55">
-        <v>30</v>
-      </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="57"/>
+        <v>103</v>
+      </c>
+      <c r="B107" s="56">
+        <v>21</v>
+      </c>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58"/>
       <c r="E107" s="33">
-        <v>30</v>
+        <v>29.822485207100591</v>
       </c>
       <c r="F107" s="40">
-        <v>74.911000000000001</v>
+        <v>36.862000000000002</v>
       </c>
       <c r="G107" s="39">
         <f t="shared" si="3"/>
-        <v>15.120204081632654</v>
+        <v>22.885306122448981</v>
       </c>
       <c r="H107" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="I107" s="33">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <v>9.5962000000000006E-2</v>
+      </c>
+      <c r="K107" s="4">
         <v>4.5</v>
-      </c>
-      <c r="I107" s="33">
-        <v>10</v>
-      </c>
-      <c r="J107" s="2">
-        <v>1.5566E-2</v>
-      </c>
-      <c r="K107" s="4">
-        <v>4</v>
       </c>
       <c r="L107" s="3">
         <f t="shared" si="4"/>
-        <v>93.62020408163265</v>
-      </c>
-      <c r="M107" s="27"/>
+        <v>80.707791329549565</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="108" spans="1:243" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="55">
-        <v>21</v>
-      </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="57"/>
+        <v>104</v>
+      </c>
+      <c r="B108" s="56">
+        <v>24</v>
+      </c>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="33">
         <v>30</v>
       </c>
       <c r="F108" s="40">
-        <v>11.08</v>
+        <v>1.0976999999999999</v>
       </c>
       <c r="G108" s="39">
         <f t="shared" si="3"/>
-        <v>28.146938775510204</v>
+        <v>30</v>
       </c>
       <c r="H108" s="33">
         <v>4.5</v>
@@ -9309,65 +9392,65 @@
         <v>10</v>
       </c>
       <c r="J108" s="2">
-        <v>7.6779999999999999E-3</v>
+        <v>0.11998499999999999</v>
       </c>
       <c r="K108" s="4">
         <v>2.5</v>
       </c>
       <c r="L108" s="3">
         <f t="shared" si="4"/>
-        <v>96.146938775510208</v>
-      </c>
-      <c r="M108" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="M108" s="27"/>
     </row>
     <row r="109" spans="1:243" ht="25" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="55">
-        <v>24</v>
-      </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="57"/>
+        <v>105</v>
+      </c>
+      <c r="B109" s="56">
+        <v>27</v>
+      </c>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F109" s="40">
-        <v>0</v>
+        <v>83.876000000000005</v>
       </c>
       <c r="G109" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.290612244897959</v>
       </c>
       <c r="H109" s="33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I109" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
       </c>
       <c r="K109" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L109" s="3">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M109" s="27" t="s">
-        <v>165</v>
+        <v>77.290612244897957</v>
+      </c>
+      <c r="M109" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:243" ht="25" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="55">
-        <v>15</v>
-      </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="57"/>
+        <v>106</v>
+      </c>
+      <c r="B110" s="56">
+        <v>24</v>
+      </c>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
       <c r="E110" s="33">
         <v>0</v>
       </c>
@@ -9379,331 +9462,410 @@
         <v>0</v>
       </c>
       <c r="H110" s="33">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I110" s="33">
         <v>0</v>
       </c>
       <c r="J110" s="2">
-        <v>7.175E-3</v>
+        <v>1.952367</v>
       </c>
       <c r="K110" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L110" s="3">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="M110" s="26" t="s">
-        <v>166</v>
+        <v>31</v>
+      </c>
+      <c r="M110" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="55">
-        <v>21</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="57"/>
+        <v>107</v>
+      </c>
+      <c r="B111" s="56">
+        <v>27</v>
+      </c>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58"/>
       <c r="E111" s="33">
         <v>30</v>
       </c>
       <c r="F111" s="40">
-        <v>0</v>
+        <v>153.26</v>
       </c>
       <c r="G111" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H111" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I111" s="33">
         <v>10</v>
       </c>
       <c r="J111" s="2">
-        <v>6.9841E-2</v>
+        <v>0.29591299999999998</v>
       </c>
       <c r="K111" s="4">
-        <v>2.2928994082840237</v>
+        <v>4.5</v>
       </c>
       <c r="L111" s="3">
         <f t="shared" si="4"/>
-        <v>68.292899408284029</v>
-      </c>
-      <c r="M111" s="27" t="s">
-        <v>167</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M111" s="26"/>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="55">
-        <v>21</v>
-      </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="57"/>
+        <v>108</v>
+      </c>
+      <c r="B112" s="56">
+        <v>30</v>
+      </c>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="33">
         <v>30</v>
       </c>
       <c r="F112" s="40">
-        <v>15.122</v>
+        <v>74.911000000000001</v>
       </c>
       <c r="G112" s="39">
         <f t="shared" si="3"/>
-        <v>27.322040816326528</v>
+        <v>15.120204081632654</v>
       </c>
       <c r="H112" s="33">
         <v>4.5</v>
       </c>
       <c r="I112" s="33">
-        <v>9.1715976331360949</v>
+        <v>10</v>
       </c>
       <c r="J112" s="2">
-        <v>2.3165999999999999E-2</v>
+        <v>1.5566E-2</v>
       </c>
       <c r="K112" s="4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L112" s="3">
         <f t="shared" si="4"/>
-        <v>94.493638449462622</v>
-      </c>
-      <c r="M112" s="26"/>
+        <v>93.62020408163265</v>
+      </c>
+      <c r="M112" s="27"/>
     </row>
     <row r="113" spans="1:243" ht="25" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="55">
-        <v>27</v>
-      </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="57"/>
+        <v>109</v>
+      </c>
+      <c r="B113" s="56">
+        <v>21</v>
+      </c>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
       <c r="E113" s="33">
-        <v>29.644970414201186</v>
+        <v>30</v>
       </c>
       <c r="F113" s="40">
-        <v>11.878</v>
+        <v>11.08</v>
       </c>
       <c r="G113" s="39">
         <f t="shared" si="3"/>
-        <v>27.984081632653062</v>
+        <v>28.146938775510204</v>
       </c>
       <c r="H113" s="33">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I113" s="33">
         <v>10</v>
       </c>
       <c r="J113" s="2">
-        <v>0</v>
+        <v>7.6779999999999999E-3</v>
       </c>
       <c r="K113" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L113" s="3">
         <f t="shared" si="4"/>
+        <v>96.146938775510208</v>
+      </c>
+      <c r="M113" s="26"/>
+    </row>
+    <row r="114" spans="1:243" ht="25" customHeight="1">
+      <c r="A114" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="56">
+        <v>24</v>
+      </c>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="33">
+        <v>0</v>
+      </c>
+      <c r="F114" s="40">
+        <v>0</v>
+      </c>
+      <c r="G114" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="33">
+        <v>4</v>
+      </c>
+      <c r="I114" s="33">
+        <v>10</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="3">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="M114" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:243" ht="25" customHeight="1">
+      <c r="A115" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="56">
+        <v>15</v>
+      </c>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="33">
+        <v>0</v>
+      </c>
+      <c r="F115" s="40">
+        <v>0</v>
+      </c>
+      <c r="G115" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="I115" s="33">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <v>7.175E-3</v>
+      </c>
+      <c r="K115" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="M115" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:243" ht="25" customHeight="1">
+      <c r="A116" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="56">
+        <v>21</v>
+      </c>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="33">
+        <v>30</v>
+      </c>
+      <c r="F116" s="40">
+        <v>0</v>
+      </c>
+      <c r="G116" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="33">
+        <v>5</v>
+      </c>
+      <c r="I116" s="33">
+        <v>10</v>
+      </c>
+      <c r="J116" s="2">
+        <v>6.9841E-2</v>
+      </c>
+      <c r="K116" s="4">
+        <v>2.2928994082840237</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" si="4"/>
+        <v>68.292899408284029</v>
+      </c>
+      <c r="M116" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:243" ht="25" customHeight="1">
+      <c r="A117" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="56">
+        <v>21</v>
+      </c>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="33">
+        <v>30</v>
+      </c>
+      <c r="F117" s="40">
+        <v>15.122</v>
+      </c>
+      <c r="G117" s="39">
+        <f t="shared" si="3"/>
+        <v>27.322040816326528</v>
+      </c>
+      <c r="H117" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="I117" s="33">
+        <v>9.1715976331360949</v>
+      </c>
+      <c r="J117" s="2">
+        <v>2.3165999999999999E-2</v>
+      </c>
+      <c r="K117" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L117" s="3">
+        <f t="shared" si="4"/>
+        <v>94.493638449462622</v>
+      </c>
+      <c r="M117" s="26"/>
+    </row>
+    <row r="118" spans="1:243" ht="25" customHeight="1">
+      <c r="A118" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="56">
+        <v>27</v>
+      </c>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="33">
+        <v>29.644970414201186</v>
+      </c>
+      <c r="F118" s="40">
+        <v>11.878</v>
+      </c>
+      <c r="G118" s="39">
+        <f t="shared" si="3"/>
+        <v>27.984081632653062</v>
+      </c>
+      <c r="H118" s="33">
+        <v>5</v>
+      </c>
+      <c r="I118" s="33">
+        <v>10</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <v>5</v>
+      </c>
+      <c r="L118" s="3">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="M113" s="27"/>
-    </row>
-    <row r="114" spans="1:243" ht="25" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-    </row>
-    <row r="115" spans="1:243" ht="25" customHeight="1">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-    </row>
-    <row r="116" spans="1:243" ht="25" customHeight="1">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-    </row>
-    <row r="117" spans="1:243" ht="20">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="33" t="s">
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="1:243" ht="25" customHeight="1">
+      <c r="A119" s="29"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+    </row>
+    <row r="120" spans="1:243" ht="25" customHeight="1">
+      <c r="A120" s="29"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+    </row>
+    <row r="121" spans="1:243" ht="25" customHeight="1">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+    </row>
+    <row r="122" spans="1:243" ht="20">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="35"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="15">
-        <f>SUM(J3:J112)/COUNTIF(J3:J112,"&lt;&gt;0")</f>
+      <c r="F122" s="35"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="15">
+        <f>SUM(J3:J117)/COUNTIF(J3:J117,"&lt;&gt;0")</f>
         <v>0.16565938791030202</v>
       </c>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:243" ht="42">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="45" t="s">
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:243" ht="42">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="46"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-    </row>
-    <row r="119" spans="1:243" ht="25" customHeight="1">
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="45" t="s">
+      <c r="F123" s="46"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+    </row>
+    <row r="124" spans="1:243" ht="25" customHeight="1">
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F119" s="46">
-        <f>COUNTIF(F3:F113, "&gt;0")</f>
-        <v>78</v>
-      </c>
-      <c r="G119" s="45"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="IE119" s="7"/>
-      <c r="IF119" s="7"/>
-      <c r="IG119" s="7"/>
-      <c r="IH119" s="7"/>
-      <c r="II119" s="7"/>
-    </row>
-    <row r="120" spans="1:243" ht="25" customHeight="1">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="35">
-        <v>160.13</v>
-      </c>
-      <c r="G120" s="44"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="IE120" s="7"/>
-      <c r="IF120" s="7"/>
-      <c r="IG120" s="7"/>
-      <c r="IH120" s="7"/>
-      <c r="II120" s="7"/>
-    </row>
-    <row r="121" spans="1:243" ht="25" customHeight="1">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F121" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="44"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="IE121" s="7"/>
-      <c r="IF121" s="7"/>
-      <c r="IG121" s="7"/>
-      <c r="IH121" s="7"/>
-      <c r="II121" s="7"/>
-    </row>
-    <row r="122" spans="1:243" ht="25" customHeight="1">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F122" s="35">
-        <v>30</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="IE122" s="7"/>
-      <c r="IF122" s="7"/>
-      <c r="IG122" s="7"/>
-      <c r="IH122" s="7"/>
-      <c r="II122" s="7"/>
-    </row>
-    <row r="123" spans="1:243" ht="25" customHeight="1">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F123" s="35">
-        <v>10</v>
-      </c>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="IE123" s="7"/>
-      <c r="IF123" s="7"/>
-      <c r="IG123" s="7"/>
-      <c r="IH123" s="7"/>
-      <c r="II123" s="7"/>
-    </row>
-    <row r="124" spans="1:243" ht="25" customHeight="1">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F124" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="F124" s="46">
+        <f>COUNTIF(F3:F118, "&gt;0")</f>
+        <v>82</v>
+      </c>
+      <c r="G124" s="45"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
       <c r="IE124" s="7"/>
       <c r="IF124" s="7"/>
       <c r="IG124" s="7"/>
@@ -9711,16 +9873,21 @@
       <c r="II124" s="7"/>
     </row>
     <row r="125" spans="1:243" ht="25" customHeight="1">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="6"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" s="35">
+        <v>160.13</v>
+      </c>
+      <c r="G125" s="44"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
       <c r="IE125" s="7"/>
       <c r="IF125" s="7"/>
       <c r="IG125" s="7"/>
@@ -9728,11 +9895,21 @@
       <c r="II125" s="7"/>
     </row>
     <row r="126" spans="1:243" ht="25" customHeight="1">
-      <c r="E126" s="33"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="33"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="6"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="44"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
       <c r="IE126" s="7"/>
       <c r="IF126" s="7"/>
       <c r="IG126" s="7"/>
@@ -9740,8 +9917,21 @@
       <c r="II126" s="7"/>
     </row>
     <row r="127" spans="1:243" ht="25" customHeight="1">
-      <c r="K127" s="9"/>
-      <c r="L127" s="6"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F127" s="35">
+        <v>30</v>
+      </c>
+      <c r="G127" s="41"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
       <c r="IE127" s="7"/>
       <c r="IF127" s="7"/>
       <c r="IG127" s="7"/>
@@ -9749,8 +9939,21 @@
       <c r="II127" s="7"/>
     </row>
     <row r="128" spans="1:243" ht="25" customHeight="1">
-      <c r="K128" s="9"/>
-      <c r="L128" s="6"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="35">
+        <v>10</v>
+      </c>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
       <c r="IE128" s="7"/>
       <c r="IF128" s="7"/>
       <c r="IG128" s="7"/>
@@ -9758,8 +9961,21 @@
       <c r="II128" s="7"/>
     </row>
     <row r="129" spans="2:243" ht="25" customHeight="1">
-      <c r="K129" s="9"/>
-      <c r="L129" s="6"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
       <c r="IE129" s="7"/>
       <c r="IF129" s="7"/>
       <c r="IG129" s="7"/>
@@ -9767,6 +9983,14 @@
       <c r="II129" s="7"/>
     </row>
     <row r="130" spans="2:243" ht="25" customHeight="1">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
       <c r="K130" s="9"/>
       <c r="L130" s="6"/>
       <c r="IE130" s="7"/>
@@ -9776,15 +10000,9 @@
       <c r="II130" s="7"/>
     </row>
     <row r="131" spans="2:243" ht="25" customHeight="1">
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="51"/>
-      <c r="F131" s="51"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="51"/>
-      <c r="J131" s="7"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="33"/>
       <c r="K131" s="9"/>
       <c r="L131" s="6"/>
       <c r="IE131" s="7"/>
@@ -9794,15 +10012,6 @@
       <c r="II131" s="7"/>
     </row>
     <row r="132" spans="2:243" ht="25" customHeight="1">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="51"/>
-      <c r="J132" s="7"/>
       <c r="K132" s="9"/>
       <c r="L132" s="6"/>
       <c r="IE132" s="7"/>
@@ -9812,15 +10021,6 @@
       <c r="II132" s="7"/>
     </row>
     <row r="133" spans="2:243" ht="25" customHeight="1">
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="51"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="51"/>
-      <c r="I133" s="51"/>
-      <c r="J133" s="7"/>
       <c r="K133" s="9"/>
       <c r="L133" s="6"/>
       <c r="IE133" s="7"/>
@@ -9830,15 +10030,6 @@
       <c r="II133" s="7"/>
     </row>
     <row r="134" spans="2:243" ht="25" customHeight="1">
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="51"/>
-      <c r="I134" s="51"/>
-      <c r="J134" s="7"/>
       <c r="K134" s="9"/>
       <c r="L134" s="6"/>
       <c r="IE134" s="7"/>
@@ -9847,12 +10038,98 @@
       <c r="IH134" s="7"/>
       <c r="II134" s="7"/>
     </row>
+    <row r="135" spans="2:243" ht="25" customHeight="1">
+      <c r="K135" s="9"/>
+      <c r="L135" s="6"/>
+      <c r="IE135" s="7"/>
+      <c r="IF135" s="7"/>
+      <c r="IG135" s="7"/>
+      <c r="IH135" s="7"/>
+      <c r="II135" s="7"/>
+    </row>
+    <row r="136" spans="2:243" ht="25" customHeight="1">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="6"/>
+      <c r="IE136" s="7"/>
+      <c r="IF136" s="7"/>
+      <c r="IG136" s="7"/>
+      <c r="IH136" s="7"/>
+      <c r="II136" s="7"/>
+    </row>
+    <row r="137" spans="2:243" ht="25" customHeight="1">
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="6"/>
+      <c r="IE137" s="7"/>
+      <c r="IF137" s="7"/>
+      <c r="IG137" s="7"/>
+      <c r="IH137" s="7"/>
+      <c r="II137" s="7"/>
+    </row>
+    <row r="138" spans="2:243" ht="25" customHeight="1">
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="6"/>
+      <c r="IE138" s="7"/>
+      <c r="IF138" s="7"/>
+      <c r="IG138" s="7"/>
+      <c r="IH138" s="7"/>
+      <c r="II138" s="7"/>
+    </row>
+    <row r="139" spans="2:243" ht="25" customHeight="1">
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="6"/>
+      <c r="IE139" s="7"/>
+      <c r="IF139" s="7"/>
+      <c r="IG139" s="7"/>
+      <c r="IH139" s="7"/>
+      <c r="II139" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="B111:D111"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
     <mergeCell ref="B105:D105"/>
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B107:D107"/>
@@ -9893,16 +10170,11 @@
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7B323-8EAB-214F-9B0A-0BC7F7E5063A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D6AD6-688D-A34F-9FCE-095790BDC276}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$118</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$139</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$139</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1343,6 +1343,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1351,15 +1360,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1452,7 +1452,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1544,7 +1544,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1573,7 +1573,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1619,7 +1619,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3972,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:II139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -4000,22 +4000,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -7738,11 +7738,11 @@
       <c r="A68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="53">
         <v>27</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="33">
         <v>30</v>
       </c>
@@ -7778,11 +7778,11 @@
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="56">
-        <v>30</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
+      <c r="B69" s="53">
+        <v>30</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="33">
         <v>30</v>
       </c>
@@ -7818,11 +7818,11 @@
       <c r="A70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="56">
-        <v>30</v>
-      </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
+      <c r="B70" s="53">
+        <v>30</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="33">
         <v>30</v>
       </c>
@@ -7860,11 +7860,11 @@
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="53">
         <v>24</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="33">
         <v>30</v>
       </c>
@@ -7902,11 +7902,11 @@
       <c r="A72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="53">
         <v>24</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="33">
         <v>0</v>
       </c>
@@ -7944,11 +7944,11 @@
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="53">
         <v>24</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="33">
         <v>0</v>
       </c>
@@ -7986,11 +7986,11 @@
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="56">
+      <c r="B74" s="53">
         <v>21</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="33">
         <v>0</v>
       </c>
@@ -8028,11 +8028,11 @@
       <c r="A75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="53">
         <v>24</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="33">
         <v>30</v>
       </c>
@@ -8070,11 +8070,11 @@
       <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="53">
         <v>27</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="33">
         <v>30</v>
       </c>
@@ -8112,11 +8112,11 @@
       <c r="A77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="53">
         <v>24</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="33">
         <v>30</v>
       </c>
@@ -8154,11 +8154,11 @@
       <c r="A78" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="56">
+      <c r="B78" s="53">
         <v>21</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="33">
         <v>0</v>
       </c>
@@ -8196,11 +8196,11 @@
       <c r="A79" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="56">
-        <v>30</v>
-      </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="53">
+        <v>30</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="33">
         <v>30</v>
       </c>
@@ -8236,11 +8236,11 @@
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="56">
+      <c r="B80" s="53">
         <v>27</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="33">
         <v>0</v>
       </c>
@@ -8278,11 +8278,11 @@
       <c r="A81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="56">
-        <v>30</v>
-      </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
+      <c r="B81" s="53">
+        <v>30</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="33">
         <v>30</v>
       </c>
@@ -8318,11 +8318,11 @@
       <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="56">
+      <c r="B82" s="53">
         <v>24</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="33">
         <v>0</v>
       </c>
@@ -8360,11 +8360,11 @@
       <c r="A83" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="53">
         <v>24</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="33">
         <v>30</v>
       </c>
@@ -8400,11 +8400,11 @@
       <c r="A84" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="53">
         <v>27</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="33">
         <v>0</v>
       </c>
@@ -8442,11 +8442,11 @@
       <c r="A85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="53">
         <v>24</v>
       </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="33">
         <v>0</v>
       </c>
@@ -8484,11 +8484,11 @@
       <c r="A86" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="53">
         <v>21</v>
       </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="33">
         <v>0</v>
       </c>
@@ -8526,11 +8526,11 @@
       <c r="A87" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="53">
         <v>24</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="33">
         <v>30</v>
       </c>
@@ -8566,11 +8566,11 @@
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="56">
-        <v>30</v>
-      </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
+      <c r="B88" s="53">
+        <v>30</v>
+      </c>
+      <c r="C88" s="54"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="33">
         <v>0</v>
       </c>
@@ -8608,11 +8608,11 @@
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="53">
         <v>24</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="33">
         <v>0</v>
       </c>
@@ -8650,11 +8650,11 @@
       <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="53">
         <v>21</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="33">
         <v>30</v>
       </c>
@@ -8690,11 +8690,11 @@
       <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="56">
+      <c r="B91" s="53">
         <v>24</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="33">
         <v>30</v>
       </c>
@@ -8730,20 +8730,20 @@
       <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="56">
-        <v>30</v>
-      </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
+      <c r="B92" s="53">
+        <v>30</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="33">
         <v>30</v>
       </c>
       <c r="F92" s="40">
-        <v>18.93</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="G92" s="39">
         <f t="shared" si="3"/>
-        <v>26.544897959183672</v>
+        <v>30</v>
       </c>
       <c r="H92" s="33">
         <v>5</v>
@@ -8770,11 +8770,11 @@
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="56">
+      <c r="B93" s="53">
         <v>24</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="33">
         <v>30</v>
       </c>
@@ -8810,11 +8810,11 @@
       <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="56">
+      <c r="B94" s="53">
         <v>27</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="33">
         <v>0</v>
       </c>
@@ -8852,11 +8852,11 @@
       <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="53">
         <v>21</v>
       </c>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="33">
         <v>0</v>
       </c>
@@ -8894,11 +8894,11 @@
       <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="56">
+      <c r="B96" s="53">
         <v>27</v>
       </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="33">
         <v>0</v>
       </c>
@@ -8936,11 +8936,11 @@
       <c r="A97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="56">
-        <v>30</v>
-      </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
+      <c r="B97" s="53">
+        <v>30</v>
+      </c>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="33">
         <v>30</v>
       </c>
@@ -8976,11 +8976,11 @@
       <c r="A98" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="56">
+      <c r="B98" s="53">
         <v>21</v>
       </c>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="33">
         <v>0</v>
       </c>
@@ -9018,11 +9018,11 @@
       <c r="A99" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="56">
-        <v>0</v>
-      </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
+      <c r="B99" s="53">
+        <v>0</v>
+      </c>
+      <c r="C99" s="54"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="33">
         <v>0</v>
       </c>
@@ -9060,11 +9060,11 @@
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="56">
+      <c r="B100" s="53">
         <v>27</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="33">
         <v>30</v>
       </c>
@@ -9100,11 +9100,11 @@
       <c r="A101" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="56">
+      <c r="B101" s="53">
         <v>21</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="58"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="33">
         <v>30</v>
       </c>
@@ -9140,11 +9140,11 @@
       <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="56">
+      <c r="B102" s="53">
         <v>24</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="33">
         <v>30</v>
       </c>
@@ -9180,11 +9180,11 @@
       <c r="A103" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="56">
-        <v>30</v>
-      </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
+      <c r="B103" s="53">
+        <v>30</v>
+      </c>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="33">
         <v>30</v>
       </c>
@@ -9220,11 +9220,11 @@
       <c r="A104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="56">
-        <v>30</v>
-      </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="58"/>
+      <c r="B104" s="53">
+        <v>30</v>
+      </c>
+      <c r="C104" s="54"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="33">
         <v>30</v>
       </c>
@@ -9257,11 +9257,11 @@
       <c r="A105" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="56">
+      <c r="B105" s="53">
         <v>21</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="33">
         <v>30</v>
       </c>
@@ -9294,11 +9294,11 @@
       <c r="A106" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="56">
+      <c r="B106" s="53">
         <v>21</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="58"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="33">
         <v>17.751479289940828</v>
       </c>
@@ -9331,11 +9331,11 @@
       <c r="A107" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="56">
+      <c r="B107" s="53">
         <v>21</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="58"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="33">
         <v>29.822485207100591</v>
       </c>
@@ -9370,11 +9370,11 @@
       <c r="A108" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="56">
+      <c r="B108" s="53">
         <v>24</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="58"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="33">
         <v>30</v>
       </c>
@@ -9407,11 +9407,11 @@
       <c r="A109" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="53">
         <v>27</v>
       </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="58"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="33">
         <v>30</v>
       </c>
@@ -9446,11 +9446,11 @@
       <c r="A110" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="56">
+      <c r="B110" s="53">
         <v>24</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="58"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="33">
         <v>0</v>
       </c>
@@ -9485,11 +9485,11 @@
       <c r="A111" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="53">
         <v>27</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="58"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="33">
         <v>30</v>
       </c>
@@ -9522,11 +9522,11 @@
       <c r="A112" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="56">
-        <v>30</v>
-      </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="58"/>
+      <c r="B112" s="53">
+        <v>30</v>
+      </c>
+      <c r="C112" s="54"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="33">
         <v>30</v>
       </c>
@@ -9559,11 +9559,11 @@
       <c r="A113" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="56">
+      <c r="B113" s="53">
         <v>21</v>
       </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="58"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="33">
         <v>30</v>
       </c>
@@ -9596,11 +9596,11 @@
       <c r="A114" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="56">
+      <c r="B114" s="53">
         <v>24</v>
       </c>
-      <c r="C114" s="57"/>
-      <c r="D114" s="58"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="33">
         <v>0</v>
       </c>
@@ -9635,11 +9635,11 @@
       <c r="A115" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="56">
+      <c r="B115" s="53">
         <v>15</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="58"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="33">
         <v>0</v>
       </c>
@@ -9674,11 +9674,11 @@
       <c r="A116" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="56">
+      <c r="B116" s="53">
         <v>21</v>
       </c>
-      <c r="C116" s="57"/>
-      <c r="D116" s="58"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="33">
         <v>30</v>
       </c>
@@ -9713,11 +9713,11 @@
       <c r="A117" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="56">
+      <c r="B117" s="53">
         <v>21</v>
       </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="58"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="33">
         <v>30</v>
       </c>
@@ -9750,11 +9750,11 @@
       <c r="A118" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="56">
+      <c r="B118" s="53">
         <v>27</v>
       </c>
-      <c r="C118" s="57"/>
-      <c r="D118" s="58"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="33">
         <v>29.644970414201186</v>
       </c>
@@ -10121,6 +10121,45 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
@@ -10136,45 +10175,6 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D6AD6-688D-A34F-9FCE-095790BDC276}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DB4FB-70A4-6045-8EE6-3F5C1A382EDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$139</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$118</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$118</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="181">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>OpenMP源文件编译失败,CUDA程序没有输出结果，只有自测时间</t>
-  </si>
-  <si>
-    <t>使用cmake，集群无法编译</t>
   </si>
   <si>
     <t>所有程序输出的答案错误</t>
@@ -1343,6 +1340,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1351,15 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1452,7 +1449,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1544,7 +1541,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1573,7 +1570,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1619,7 +1616,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3972,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:II139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -4000,22 +3997,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4225,7 +4222,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1">
@@ -4473,7 +4470,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25" customHeight="1">
@@ -4598,7 +4595,7 @@
         <v>70</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1">
@@ -4969,7 +4966,7 @@
         <v>71</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="25" customHeight="1">
@@ -5053,7 +5050,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="25" customHeight="1">
@@ -5178,7 +5175,7 @@
         <v>65</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="25" customHeight="1">
@@ -5403,11 +5400,11 @@
         <v>25</v>
       </c>
       <c r="F35" s="35">
-        <v>0</v>
+        <v>341.44</v>
       </c>
       <c r="G35" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="33">
         <v>5</v>
@@ -5423,10 +5420,10 @@
       </c>
       <c r="L35" s="3">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:243" ht="25" customHeight="1">
@@ -5633,7 +5630,7 @@
         <v>68</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:243" ht="25" customHeight="1">
@@ -5758,7 +5755,7 @@
         <v>86.932040816326534</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:243" ht="25" customHeight="1">
@@ -5801,7 +5798,7 @@
         <v>62.576530612244895</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:243" ht="25" customHeight="1">
@@ -6388,7 +6385,7 @@
         <v>38</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -6932,7 +6929,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6975,7 +6972,7 @@
         <v>70</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
@@ -7059,7 +7056,7 @@
         <v>20</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
@@ -7108,7 +7105,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="16">
         <v>8</v>
@@ -7117,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" s="33">
         <v>30</v>
@@ -7146,7 +7143,7 @@
         <v>73.858367346938778</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
@@ -7154,7 +7151,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="16">
         <v>9</v>
@@ -7163,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="33">
         <v>0</v>
@@ -7192,7 +7189,7 @@
         <v>27.5</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
@@ -7200,7 +7197,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="16">
         <v>6</v>
@@ -7209,7 +7206,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="33">
         <v>30</v>
@@ -7244,7 +7241,7 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="16">
         <v>9</v>
@@ -7253,7 +7250,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="33">
         <v>30</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="16">
         <v>10</v>
@@ -7297,7 +7294,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E58" s="33">
         <v>30</v>
@@ -7332,7 +7329,7 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="16">
         <v>8</v>
@@ -7341,7 +7338,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="33">
         <v>30</v>
@@ -7370,7 +7367,7 @@
         <v>82.24979591836734</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -7504,7 +7501,7 @@
         <v>40</v>
       </c>
       <c r="M62" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -7550,7 +7547,7 @@
         <v>17</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -7684,7 +7681,7 @@
         <v>67.5</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -7738,11 +7735,11 @@
       <c r="A68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="56">
         <v>27</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="33">
         <v>30</v>
       </c>
@@ -7778,11 +7775,11 @@
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="53">
-        <v>30</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
+      <c r="B69" s="56">
+        <v>30</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="33">
         <v>30</v>
       </c>
@@ -7818,11 +7815,11 @@
       <c r="A70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="53">
-        <v>30</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
+      <c r="B70" s="56">
+        <v>30</v>
+      </c>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="33">
         <v>30</v>
       </c>
@@ -7860,11 +7857,11 @@
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="56">
         <v>24</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="33">
         <v>30</v>
       </c>
@@ -7902,11 +7899,11 @@
       <c r="A72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="53">
+      <c r="B72" s="56">
         <v>24</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="33">
         <v>0</v>
       </c>
@@ -7944,11 +7941,11 @@
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="56">
         <v>24</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="33">
         <v>0</v>
       </c>
@@ -7986,11 +7983,11 @@
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="56">
         <v>21</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="33">
         <v>0</v>
       </c>
@@ -8028,11 +8025,11 @@
       <c r="A75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="53">
+      <c r="B75" s="56">
         <v>24</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="33">
         <v>30</v>
       </c>
@@ -8070,11 +8067,11 @@
       <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="53">
+      <c r="B76" s="56">
         <v>27</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="33">
         <v>30</v>
       </c>
@@ -8112,11 +8109,11 @@
       <c r="A77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="53">
+      <c r="B77" s="56">
         <v>24</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="33">
         <v>30</v>
       </c>
@@ -8154,11 +8151,11 @@
       <c r="A78" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="56">
         <v>21</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="33">
         <v>0</v>
       </c>
@@ -8196,11 +8193,11 @@
       <c r="A79" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="53">
-        <v>30</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
+      <c r="B79" s="56">
+        <v>30</v>
+      </c>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="33">
         <v>30</v>
       </c>
@@ -8236,11 +8233,11 @@
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="56">
         <v>27</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="33">
         <v>0</v>
       </c>
@@ -8278,11 +8275,11 @@
       <c r="A81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="53">
-        <v>30</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
+      <c r="B81" s="56">
+        <v>30</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="33">
         <v>30</v>
       </c>
@@ -8318,26 +8315,26 @@
       <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B82" s="56">
         <v>24</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
       <c r="E82" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F82" s="40">
-        <v>0</v>
+        <v>1.0390999999999999</v>
       </c>
       <c r="G82" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H82" s="33">
         <v>2.5</v>
       </c>
       <c r="I82" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J82" s="2">
         <v>0.25599100000000002</v>
@@ -8347,11 +8344,9 @@
       </c>
       <c r="L82" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>142</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M82" s="27"/>
       <c r="IG82" s="7"/>
       <c r="IH82" s="7"/>
       <c r="II82" s="7"/>
@@ -8360,11 +8355,11 @@
       <c r="A83" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="53">
+      <c r="B83" s="56">
         <v>24</v>
       </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="33">
         <v>30</v>
       </c>
@@ -8400,26 +8395,26 @@
       <c r="A84" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="53">
+      <c r="B84" s="56">
         <v>27</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F84" s="40">
-        <v>0</v>
+        <v>1.0585</v>
       </c>
       <c r="G84" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H84" s="33">
         <v>2.5</v>
       </c>
       <c r="I84" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J84" s="2">
         <v>0.11136799999999999</v>
@@ -8429,11 +8424,9 @@
       </c>
       <c r="L84" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>142</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M84" s="27"/>
       <c r="IG84" s="7"/>
       <c r="IH84" s="7"/>
       <c r="II84" s="7"/>
@@ -8442,11 +8435,11 @@
       <c r="A85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="53">
+      <c r="B85" s="56">
         <v>24</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
       <c r="E85" s="33">
         <v>0</v>
       </c>
@@ -8474,7 +8467,7 @@
         <v>29</v>
       </c>
       <c r="M85" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -8484,11 +8477,11 @@
       <c r="A86" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="53">
+      <c r="B86" s="56">
         <v>21</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
       <c r="E86" s="33">
         <v>0</v>
       </c>
@@ -8526,11 +8519,11 @@
       <c r="A87" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="53">
+      <c r="B87" s="56">
         <v>24</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
       <c r="E87" s="33">
         <v>30</v>
       </c>
@@ -8566,11 +8559,11 @@
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="53">
-        <v>30</v>
-      </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
+      <c r="B88" s="56">
+        <v>30</v>
+      </c>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
       <c r="E88" s="33">
         <v>0</v>
       </c>
@@ -8608,11 +8601,11 @@
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="53">
+      <c r="B89" s="56">
         <v>24</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="33">
         <v>0</v>
       </c>
@@ -8640,7 +8633,7 @@
         <v>30</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -8650,11 +8643,11 @@
       <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="53">
+      <c r="B90" s="56">
         <v>21</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="33">
         <v>30</v>
       </c>
@@ -8690,11 +8683,11 @@
       <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="53">
+      <c r="B91" s="56">
         <v>24</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="55"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="33">
         <v>30</v>
       </c>
@@ -8730,11 +8723,11 @@
       <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="53">
-        <v>30</v>
-      </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="55"/>
+      <c r="B92" s="56">
+        <v>30</v>
+      </c>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
       <c r="E92" s="33">
         <v>30</v>
       </c>
@@ -8770,11 +8763,11 @@
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="53">
+      <c r="B93" s="56">
         <v>24</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
       <c r="E93" s="33">
         <v>30</v>
       </c>
@@ -8810,26 +8803,26 @@
       <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="56">
         <v>27</v>
       </c>
-      <c r="C94" s="54"/>
-      <c r="D94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
       <c r="E94" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F94" s="40">
-        <v>0</v>
+        <v>0.71421999999999997</v>
       </c>
       <c r="G94" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H94" s="33">
         <v>2.5</v>
       </c>
       <c r="I94" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -8839,11 +8832,9 @@
       </c>
       <c r="L94" s="3">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M94" s="27" t="s">
-        <v>142</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M94" s="27"/>
       <c r="IG94" s="7"/>
       <c r="IH94" s="7"/>
       <c r="II94" s="7"/>
@@ -8852,11 +8843,11 @@
       <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="53">
+      <c r="B95" s="56">
         <v>21</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
       <c r="E95" s="33">
         <v>0</v>
       </c>
@@ -8894,11 +8885,11 @@
       <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="53">
+      <c r="B96" s="56">
         <v>27</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="33">
         <v>0</v>
       </c>
@@ -8926,7 +8917,7 @@
         <v>34</v>
       </c>
       <c r="M96" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="IG96" s="7"/>
       <c r="IH96" s="7"/>
@@ -8936,11 +8927,11 @@
       <c r="A97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="53">
-        <v>30</v>
-      </c>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
+      <c r="B97" s="56">
+        <v>30</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
       <c r="E97" s="33">
         <v>30</v>
       </c>
@@ -8976,11 +8967,11 @@
       <c r="A98" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="53">
+      <c r="B98" s="56">
         <v>21</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
       <c r="E98" s="33">
         <v>0</v>
       </c>
@@ -9008,7 +8999,7 @@
         <v>36</v>
       </c>
       <c r="M98" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="IG98" s="7"/>
       <c r="IH98" s="7"/>
@@ -9018,11 +9009,11 @@
       <c r="A99" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="53">
-        <v>0</v>
-      </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="55"/>
+      <c r="B99" s="56">
+        <v>0</v>
+      </c>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
       <c r="E99" s="33">
         <v>0</v>
       </c>
@@ -9060,11 +9051,11 @@
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="53">
+      <c r="B100" s="56">
         <v>27</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="55"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="33">
         <v>30</v>
       </c>
@@ -9100,11 +9091,11 @@
       <c r="A101" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="53">
+      <c r="B101" s="56">
         <v>21</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
       <c r="E101" s="33">
         <v>30</v>
       </c>
@@ -9140,11 +9131,11 @@
       <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="56">
         <v>24</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="33">
         <v>30</v>
       </c>
@@ -9180,11 +9171,11 @@
       <c r="A103" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="53">
-        <v>30</v>
-      </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
+      <c r="B103" s="56">
+        <v>30</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="33">
         <v>30</v>
       </c>
@@ -9220,11 +9211,11 @@
       <c r="A104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="53">
-        <v>30</v>
-      </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="55"/>
+      <c r="B104" s="56">
+        <v>30</v>
+      </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="33">
         <v>30</v>
       </c>
@@ -9257,11 +9248,11 @@
       <c r="A105" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="53">
+      <c r="B105" s="56">
         <v>21</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="55"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="33">
         <v>30</v>
       </c>
@@ -9294,11 +9285,11 @@
       <c r="A106" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="56">
         <v>21</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
       <c r="E106" s="33">
         <v>17.751479289940828</v>
       </c>
@@ -9331,11 +9322,11 @@
       <c r="A107" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="53">
+      <c r="B107" s="56">
         <v>21</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58"/>
       <c r="E107" s="33">
         <v>29.822485207100591</v>
       </c>
@@ -9363,18 +9354,18 @@
         <v>80.707791329549565</v>
       </c>
       <c r="M107" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:243" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="53">
+      <c r="B108" s="56">
         <v>24</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="33">
         <v>30</v>
       </c>
@@ -9407,11 +9398,11 @@
       <c r="A109" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="53">
+      <c r="B109" s="56">
         <v>27</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="55"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="33">
         <v>30</v>
       </c>
@@ -9446,11 +9437,11 @@
       <c r="A110" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="53">
+      <c r="B110" s="56">
         <v>24</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
       <c r="E110" s="33">
         <v>0</v>
       </c>
@@ -9478,18 +9469,18 @@
         <v>31</v>
       </c>
       <c r="M110" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="53">
+      <c r="B111" s="56">
         <v>27</v>
       </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="55"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58"/>
       <c r="E111" s="33">
         <v>30</v>
       </c>
@@ -9522,11 +9513,11 @@
       <c r="A112" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="53">
-        <v>30</v>
-      </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="55"/>
+      <c r="B112" s="56">
+        <v>30</v>
+      </c>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="33">
         <v>30</v>
       </c>
@@ -9559,11 +9550,11 @@
       <c r="A113" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="53">
+      <c r="B113" s="56">
         <v>21</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="55"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
       <c r="E113" s="33">
         <v>30</v>
       </c>
@@ -9596,11 +9587,11 @@
       <c r="A114" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="53">
+      <c r="B114" s="56">
         <v>24</v>
       </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="55"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58"/>
       <c r="E114" s="33">
         <v>0</v>
       </c>
@@ -9628,18 +9619,18 @@
         <v>38</v>
       </c>
       <c r="M114" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:243" ht="25" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="53">
+      <c r="B115" s="56">
         <v>15</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="55"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
       <c r="E115" s="33">
         <v>0</v>
       </c>
@@ -9667,18 +9658,18 @@
         <v>21</v>
       </c>
       <c r="M115" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:243" ht="25" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="53">
+      <c r="B116" s="56">
         <v>21</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="55"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
       <c r="E116" s="33">
         <v>30</v>
       </c>
@@ -9706,18 +9697,18 @@
         <v>68.292899408284029</v>
       </c>
       <c r="M116" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:243" ht="25" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="53">
+      <c r="B117" s="56">
         <v>21</v>
       </c>
-      <c r="C117" s="54"/>
-      <c r="D117" s="55"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58"/>
       <c r="E117" s="33">
         <v>30</v>
       </c>
@@ -9750,11 +9741,11 @@
       <c r="A118" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="53">
+      <c r="B118" s="56">
         <v>27</v>
       </c>
-      <c r="C118" s="54"/>
-      <c r="D118" s="55"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58"/>
       <c r="E118" s="33">
         <v>29.644970414201186</v>
       </c>
@@ -9858,7 +9849,7 @@
       </c>
       <c r="F124" s="46">
         <f>COUNTIF(F3:F118, "&gt;0")</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G124" s="45"/>
       <c r="H124" s="38"/>
@@ -10121,45 +10112,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
@@ -10175,6 +10127,45 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DB4FB-70A4-6045-8EE6-3F5C1A382EDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AFC0EF-CCAF-8F4D-B55C-0C3E5ACF2B78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="180">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,59 +552,6 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>OpenMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>源程序为乱码，集群无法正确编译，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>CUDA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的输出部分被注释掉了，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手动修改后才正确</t>
-    </r>
   </si>
   <si>
     <t>OpenMP无输出</t>
@@ -1340,6 +1287,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1348,15 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3970,7 +3917,7 @@
   <dimension ref="A1:II139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3997,22 +3944,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4222,7 +4169,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1">
@@ -4470,7 +4417,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25" customHeight="1">
@@ -4595,7 +4542,7 @@
         <v>70</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1">
@@ -4966,7 +4913,7 @@
         <v>71</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="25" customHeight="1">
@@ -5050,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="25" customHeight="1">
@@ -5175,7 +5122,7 @@
         <v>65</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="25" customHeight="1">
@@ -5423,7 +5370,7 @@
         <v>72</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:243" ht="25" customHeight="1">
@@ -5630,7 +5577,7 @@
         <v>68</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:243" ht="25" customHeight="1">
@@ -5755,7 +5702,7 @@
         <v>86.932040816326534</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:243" ht="25" customHeight="1">
@@ -5798,7 +5745,7 @@
         <v>62.576530612244895</v>
       </c>
       <c r="M44" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:243" ht="25" customHeight="1">
@@ -6099,7 +6046,7 @@
         <v>4.5</v>
       </c>
       <c r="I46" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -6109,11 +6056,9 @@
       </c>
       <c r="L46" s="3">
         <f t="shared" si="0"/>
-        <v>90.5</v>
-      </c>
-      <c r="M46" s="26" t="s">
-        <v>132</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M46" s="26"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -6385,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -6929,7 +6874,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6972,7 +6917,7 @@
         <v>70</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
@@ -7056,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
@@ -7105,7 +7050,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="16">
         <v>8</v>
@@ -7114,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E54" s="33">
         <v>30</v>
@@ -7143,7 +7088,7 @@
         <v>73.858367346938778</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
@@ -7151,7 +7096,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="16">
         <v>9</v>
@@ -7160,7 +7105,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E55" s="33">
         <v>0</v>
@@ -7189,7 +7134,7 @@
         <v>27.5</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
@@ -7197,7 +7142,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="16">
         <v>6</v>
@@ -7206,7 +7151,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="33">
         <v>30</v>
@@ -7241,7 +7186,7 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="16">
         <v>9</v>
@@ -7250,7 +7195,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E57" s="33">
         <v>30</v>
@@ -7285,7 +7230,7 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="16">
         <v>10</v>
@@ -7294,7 +7239,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E58" s="33">
         <v>30</v>
@@ -7329,7 +7274,7 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" s="16">
         <v>8</v>
@@ -7338,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E59" s="33">
         <v>30</v>
@@ -7367,7 +7312,7 @@
         <v>82.24979591836734</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -7501,7 +7446,7 @@
         <v>40</v>
       </c>
       <c r="M62" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -7547,7 +7492,7 @@
         <v>17</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -7681,7 +7626,7 @@
         <v>67.5</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -7735,11 +7680,11 @@
       <c r="A68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="53">
         <v>27</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="33">
         <v>30</v>
       </c>
@@ -7775,11 +7720,11 @@
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="56">
-        <v>30</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
+      <c r="B69" s="53">
+        <v>30</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="33">
         <v>30</v>
       </c>
@@ -7815,11 +7760,11 @@
       <c r="A70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="56">
-        <v>30</v>
-      </c>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
+      <c r="B70" s="53">
+        <v>30</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="33">
         <v>30</v>
       </c>
@@ -7847,7 +7792,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="IG70" s="7"/>
       <c r="IH70" s="7"/>
@@ -7857,11 +7802,11 @@
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="53">
         <v>24</v>
       </c>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="33">
         <v>30</v>
       </c>
@@ -7889,7 +7834,7 @@
         <v>71.5</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="IG71" s="7"/>
       <c r="IH71" s="7"/>
@@ -7899,11 +7844,11 @@
       <c r="A72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="53">
         <v>24</v>
       </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="33">
         <v>0</v>
       </c>
@@ -7931,7 +7876,7 @@
         <v>29</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG72" s="7"/>
       <c r="IH72" s="7"/>
@@ -7941,11 +7886,11 @@
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="53">
         <v>24</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="33">
         <v>0</v>
       </c>
@@ -7973,7 +7918,7 @@
         <v>29</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="IG73" s="7"/>
       <c r="IH73" s="7"/>
@@ -7983,11 +7928,11 @@
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="56">
+      <c r="B74" s="53">
         <v>21</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="33">
         <v>0</v>
       </c>
@@ -8015,7 +7960,7 @@
         <v>26</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="IG74" s="7"/>
       <c r="IH74" s="7"/>
@@ -8025,11 +7970,11 @@
       <c r="A75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="53">
         <v>24</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="33">
         <v>30</v>
       </c>
@@ -8057,7 +8002,7 @@
         <v>74.616530612244901</v>
       </c>
       <c r="M75" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="IG75" s="7"/>
       <c r="IH75" s="7"/>
@@ -8067,11 +8012,11 @@
       <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="53">
         <v>27</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="33">
         <v>30</v>
       </c>
@@ -8099,7 +8044,7 @@
         <v>76.37</v>
       </c>
       <c r="M76" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="IG76" s="7"/>
       <c r="IH76" s="7"/>
@@ -8109,11 +8054,11 @@
       <c r="A77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="53">
         <v>24</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="33">
         <v>30</v>
       </c>
@@ -8141,7 +8086,7 @@
         <v>71</v>
       </c>
       <c r="M77" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IG77" s="7"/>
       <c r="IH77" s="7"/>
@@ -8151,11 +8096,11 @@
       <c r="A78" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="56">
+      <c r="B78" s="53">
         <v>21</v>
       </c>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="33">
         <v>0</v>
       </c>
@@ -8183,7 +8128,7 @@
         <v>27.5</v>
       </c>
       <c r="M78" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="IG78" s="7"/>
       <c r="IH78" s="7"/>
@@ -8193,11 +8138,11 @@
       <c r="A79" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="56">
-        <v>30</v>
-      </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="53">
+        <v>30</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="33">
         <v>30</v>
       </c>
@@ -8233,11 +8178,11 @@
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="56">
+      <c r="B80" s="53">
         <v>27</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="33">
         <v>0</v>
       </c>
@@ -8265,7 +8210,7 @@
         <v>34</v>
       </c>
       <c r="M80" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG80" s="7"/>
       <c r="IH80" s="7"/>
@@ -8275,11 +8220,11 @@
       <c r="A81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="56">
-        <v>30</v>
-      </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
+      <c r="B81" s="53">
+        <v>30</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="33">
         <v>30</v>
       </c>
@@ -8315,11 +8260,11 @@
       <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="56">
+      <c r="B82" s="53">
         <v>24</v>
       </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="33">
         <v>30</v>
       </c>
@@ -8355,11 +8300,11 @@
       <c r="A83" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="53">
         <v>24</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="33">
         <v>30</v>
       </c>
@@ -8395,11 +8340,11 @@
       <c r="A84" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="53">
         <v>27</v>
       </c>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="33">
         <v>30</v>
       </c>
@@ -8435,11 +8380,11 @@
       <c r="A85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="53">
         <v>24</v>
       </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="33">
         <v>0</v>
       </c>
@@ -8467,7 +8412,7 @@
         <v>29</v>
       </c>
       <c r="M85" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="IG85" s="7"/>
       <c r="IH85" s="7"/>
@@ -8477,11 +8422,11 @@
       <c r="A86" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="53">
         <v>21</v>
       </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="33">
         <v>0</v>
       </c>
@@ -8509,7 +8454,7 @@
         <v>27</v>
       </c>
       <c r="M86" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="IG86" s="7"/>
       <c r="IH86" s="7"/>
@@ -8519,11 +8464,11 @@
       <c r="A87" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="53">
         <v>24</v>
       </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="33">
         <v>30</v>
       </c>
@@ -8559,11 +8504,11 @@
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="56">
-        <v>30</v>
-      </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
+      <c r="B88" s="53">
+        <v>30</v>
+      </c>
+      <c r="C88" s="54"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="33">
         <v>0</v>
       </c>
@@ -8591,7 +8536,7 @@
         <v>35</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG88" s="7"/>
       <c r="IH88" s="7"/>
@@ -8601,11 +8546,11 @@
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="53">
         <v>24</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="33">
         <v>0</v>
       </c>
@@ -8633,7 +8578,7 @@
         <v>30</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="IG89" s="7"/>
       <c r="IH89" s="7"/>
@@ -8643,11 +8588,11 @@
       <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="53">
         <v>21</v>
       </c>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="33">
         <v>30</v>
       </c>
@@ -8683,11 +8628,11 @@
       <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="56">
+      <c r="B91" s="53">
         <v>24</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="33">
         <v>30</v>
       </c>
@@ -8723,11 +8668,11 @@
       <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="56">
-        <v>30</v>
-      </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
+      <c r="B92" s="53">
+        <v>30</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="33">
         <v>30</v>
       </c>
@@ -8763,11 +8708,11 @@
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="56">
+      <c r="B93" s="53">
         <v>24</v>
       </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="33">
         <v>30</v>
       </c>
@@ -8803,11 +8748,11 @@
       <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="56">
+      <c r="B94" s="53">
         <v>27</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="33">
         <v>30</v>
       </c>
@@ -8843,11 +8788,11 @@
       <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="53">
         <v>21</v>
       </c>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="33">
         <v>0</v>
       </c>
@@ -8875,7 +8820,7 @@
         <v>26</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG95" s="7"/>
       <c r="IH95" s="7"/>
@@ -8885,11 +8830,11 @@
       <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="56">
+      <c r="B96" s="53">
         <v>27</v>
       </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="33">
         <v>0</v>
       </c>
@@ -8917,7 +8862,7 @@
         <v>34</v>
       </c>
       <c r="M96" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="IG96" s="7"/>
       <c r="IH96" s="7"/>
@@ -8927,11 +8872,11 @@
       <c r="A97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="56">
-        <v>30</v>
-      </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
+      <c r="B97" s="53">
+        <v>30</v>
+      </c>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="33">
         <v>30</v>
       </c>
@@ -8967,11 +8912,11 @@
       <c r="A98" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="56">
+      <c r="B98" s="53">
         <v>21</v>
       </c>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="33">
         <v>0</v>
       </c>
@@ -8999,7 +8944,7 @@
         <v>36</v>
       </c>
       <c r="M98" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="IG98" s="7"/>
       <c r="IH98" s="7"/>
@@ -9009,11 +8954,11 @@
       <c r="A99" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="56">
-        <v>0</v>
-      </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
+      <c r="B99" s="53">
+        <v>0</v>
+      </c>
+      <c r="C99" s="54"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="33">
         <v>0</v>
       </c>
@@ -9041,7 +8986,7 @@
         <v>7</v>
       </c>
       <c r="M99" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG99" s="7"/>
       <c r="IH99" s="7"/>
@@ -9051,11 +8996,11 @@
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="56">
+      <c r="B100" s="53">
         <v>27</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="33">
         <v>30</v>
       </c>
@@ -9091,11 +9036,11 @@
       <c r="A101" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="56">
+      <c r="B101" s="53">
         <v>21</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="58"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="33">
         <v>30</v>
       </c>
@@ -9131,11 +9076,11 @@
       <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="56">
+      <c r="B102" s="53">
         <v>24</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="33">
         <v>30</v>
       </c>
@@ -9171,11 +9116,11 @@
       <c r="A103" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="56">
-        <v>30</v>
-      </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
+      <c r="B103" s="53">
+        <v>30</v>
+      </c>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="33">
         <v>30</v>
       </c>
@@ -9211,11 +9156,11 @@
       <c r="A104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="56">
-        <v>30</v>
-      </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="58"/>
+      <c r="B104" s="53">
+        <v>30</v>
+      </c>
+      <c r="C104" s="54"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="33">
         <v>30</v>
       </c>
@@ -9248,11 +9193,11 @@
       <c r="A105" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="56">
+      <c r="B105" s="53">
         <v>21</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="33">
         <v>30</v>
       </c>
@@ -9285,11 +9230,11 @@
       <c r="A106" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="56">
+      <c r="B106" s="53">
         <v>21</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="58"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="33">
         <v>17.751479289940828</v>
       </c>
@@ -9322,11 +9267,11 @@
       <c r="A107" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="56">
+      <c r="B107" s="53">
         <v>21</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="58"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="33">
         <v>29.822485207100591</v>
       </c>
@@ -9354,18 +9299,18 @@
         <v>80.707791329549565</v>
       </c>
       <c r="M107" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:243" ht="25" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="56">
+      <c r="B108" s="53">
         <v>24</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="58"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="33">
         <v>30</v>
       </c>
@@ -9398,11 +9343,11 @@
       <c r="A109" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="56">
+      <c r="B109" s="53">
         <v>27</v>
       </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="58"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="33">
         <v>30</v>
       </c>
@@ -9430,18 +9375,18 @@
         <v>77.290612244897957</v>
       </c>
       <c r="M109" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:243" ht="25" customHeight="1">
       <c r="A110" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="56">
+      <c r="B110" s="53">
         <v>24</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="58"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="33">
         <v>0</v>
       </c>
@@ -9469,18 +9414,18 @@
         <v>31</v>
       </c>
       <c r="M110" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="56">
+      <c r="B111" s="53">
         <v>27</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="58"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="33">
         <v>30</v>
       </c>
@@ -9513,11 +9458,11 @@
       <c r="A112" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="56">
-        <v>30</v>
-      </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="58"/>
+      <c r="B112" s="53">
+        <v>30</v>
+      </c>
+      <c r="C112" s="54"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="33">
         <v>30</v>
       </c>
@@ -9550,11 +9495,11 @@
       <c r="A113" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="56">
+      <c r="B113" s="53">
         <v>21</v>
       </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="58"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="33">
         <v>30</v>
       </c>
@@ -9587,11 +9532,11 @@
       <c r="A114" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="56">
+      <c r="B114" s="53">
         <v>24</v>
       </c>
-      <c r="C114" s="57"/>
-      <c r="D114" s="58"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="33">
         <v>0</v>
       </c>
@@ -9619,18 +9564,18 @@
         <v>38</v>
       </c>
       <c r="M114" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:243" ht="25" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="56">
+      <c r="B115" s="53">
         <v>15</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="58"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="33">
         <v>0</v>
       </c>
@@ -9658,18 +9603,18 @@
         <v>21</v>
       </c>
       <c r="M115" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:243" ht="25" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="56">
+      <c r="B116" s="53">
         <v>21</v>
       </c>
-      <c r="C116" s="57"/>
-      <c r="D116" s="58"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="33">
         <v>30</v>
       </c>
@@ -9697,18 +9642,18 @@
         <v>68.292899408284029</v>
       </c>
       <c r="M116" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:243" ht="25" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="56">
+      <c r="B117" s="53">
         <v>21</v>
       </c>
-      <c r="C117" s="57"/>
-      <c r="D117" s="58"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="33">
         <v>30</v>
       </c>
@@ -9741,11 +9686,11 @@
       <c r="A118" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="56">
+      <c r="B118" s="53">
         <v>27</v>
       </c>
-      <c r="C118" s="57"/>
-      <c r="D118" s="58"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="33">
         <v>29.644970414201186</v>
       </c>
@@ -10112,6 +10057,45 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
@@ -10127,45 +10111,6 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AFC0EF-CCAF-8F4D-B55C-0C3E5ACF2B78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861B5FF-F8E3-3E42-99BD-BC4A2A89D13B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,10 +846,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUDA程序和OpenMP程序计算结果错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺少Makefile，无法编译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -956,6 +952,27 @@
   </si>
   <si>
     <t>c94f554a2121ee7fb239f1fadcc398f3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>nvprof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>没有对应核函数时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1287,6 +1304,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1295,15 +1321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3916,8 +3933,8 @@
   </sheetPr>
   <dimension ref="A1:II139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3944,22 +3961,22 @@
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -6304,7 +6321,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F47" s="35">
         <v>0</v>
@@ -6317,7 +6334,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -6327,10 +6344,10 @@
       </c>
       <c r="L47" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>156</v>
+        <v>78</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>179</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -6874,7 +6891,7 @@
         <v>25</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6917,7 +6934,7 @@
         <v>70</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
@@ -7001,7 +7018,7 @@
         <v>20</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
@@ -7050,7 +7067,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="16">
         <v>8</v>
@@ -7059,7 +7076,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" s="33">
         <v>30</v>
@@ -7088,7 +7105,7 @@
         <v>73.858367346938778</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="IG54" s="7"/>
       <c r="IH54" s="7"/>
@@ -7096,7 +7113,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="16">
         <v>9</v>
@@ -7105,7 +7122,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E55" s="33">
         <v>0</v>
@@ -7134,7 +7151,7 @@
         <v>27.5</v>
       </c>
       <c r="M55" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="IG55" s="7"/>
       <c r="IH55" s="7"/>
@@ -7142,7 +7159,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="16">
         <v>6</v>
@@ -7151,7 +7168,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E56" s="33">
         <v>30</v>
@@ -7186,7 +7203,7 @@
     </row>
     <row r="57" spans="1:243" ht="25" customHeight="1">
       <c r="A57" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" s="16">
         <v>9</v>
@@ -7195,7 +7212,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E57" s="33">
         <v>30</v>
@@ -7230,7 +7247,7 @@
     </row>
     <row r="58" spans="1:243" ht="25" customHeight="1">
       <c r="A58" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="16">
         <v>10</v>
@@ -7239,7 +7256,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E58" s="33">
         <v>30</v>
@@ -7274,7 +7291,7 @@
     </row>
     <row r="59" spans="1:243" ht="25" customHeight="1">
       <c r="A59" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59" s="16">
         <v>8</v>
@@ -7283,7 +7300,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" s="33">
         <v>30</v>
@@ -7312,7 +7329,7 @@
         <v>82.24979591836734</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="IG59" s="7"/>
       <c r="IH59" s="7"/>
@@ -7446,7 +7463,7 @@
         <v>40</v>
       </c>
       <c r="M62" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="IG62" s="7"/>
       <c r="IH62" s="7"/>
@@ -7492,7 +7509,7 @@
         <v>17</v>
       </c>
       <c r="M63" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="IG63" s="7"/>
       <c r="IH63" s="7"/>
@@ -7626,7 +7643,7 @@
         <v>67.5</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="IG66" s="7"/>
       <c r="IH66" s="7"/>
@@ -7680,11 +7697,11 @@
       <c r="A68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="56">
         <v>27</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="33">
         <v>30</v>
       </c>
@@ -7720,11 +7737,11 @@
       <c r="A69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="53">
-        <v>30</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
+      <c r="B69" s="56">
+        <v>30</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="33">
         <v>30</v>
       </c>
@@ -7760,11 +7777,11 @@
       <c r="A70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="53">
-        <v>30</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
+      <c r="B70" s="56">
+        <v>30</v>
+      </c>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="33">
         <v>30</v>
       </c>
@@ -7802,11 +7819,11 @@
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="56">
         <v>24</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="33">
         <v>30</v>
       </c>
@@ -7844,11 +7861,11 @@
       <c r="A72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="53">
+      <c r="B72" s="56">
         <v>24</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="33">
         <v>0</v>
       </c>
@@ -7886,11 +7903,11 @@
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="56">
         <v>24</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="33">
         <v>0</v>
       </c>
@@ -7928,11 +7945,11 @@
       <c r="A74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="56">
         <v>21</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="33">
         <v>0</v>
       </c>
@@ -7970,11 +7987,11 @@
       <c r="A75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="53">
+      <c r="B75" s="56">
         <v>24</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="33">
         <v>30</v>
       </c>
@@ -8012,11 +8029,11 @@
       <c r="A76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="53">
+      <c r="B76" s="56">
         <v>27</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="33">
         <v>30</v>
       </c>
@@ -8054,11 +8071,11 @@
       <c r="A77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="53">
+      <c r="B77" s="56">
         <v>24</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="33">
         <v>30</v>
       </c>
@@ -8096,11 +8113,11 @@
       <c r="A78" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="56">
         <v>21</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="33">
         <v>0</v>
       </c>
@@ -8138,11 +8155,11 @@
       <c r="A79" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="53">
-        <v>30</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
+      <c r="B79" s="56">
+        <v>30</v>
+      </c>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="33">
         <v>30</v>
       </c>
@@ -8178,11 +8195,11 @@
       <c r="A80" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="56">
         <v>27</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="33">
         <v>0</v>
       </c>
@@ -8220,11 +8237,11 @@
       <c r="A81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="53">
-        <v>30</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
+      <c r="B81" s="56">
+        <v>30</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="33">
         <v>30</v>
       </c>
@@ -8260,11 +8277,11 @@
       <c r="A82" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B82" s="56">
         <v>24</v>
       </c>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
       <c r="E82" s="33">
         <v>30</v>
       </c>
@@ -8300,11 +8317,11 @@
       <c r="A83" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="53">
+      <c r="B83" s="56">
         <v>24</v>
       </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="33">
         <v>30</v>
       </c>
@@ -8340,11 +8357,11 @@
       <c r="A84" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="53">
+      <c r="B84" s="56">
         <v>27</v>
       </c>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="33">
         <v>30</v>
       </c>
@@ -8380,11 +8397,11 @@
       <c r="A85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="53">
+      <c r="B85" s="56">
         <v>24</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
       <c r="E85" s="33">
         <v>0</v>
       </c>
@@ -8422,11 +8439,11 @@
       <c r="A86" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="53">
+      <c r="B86" s="56">
         <v>21</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
       <c r="E86" s="33">
         <v>0</v>
       </c>
@@ -8464,11 +8481,11 @@
       <c r="A87" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="53">
+      <c r="B87" s="56">
         <v>24</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
       <c r="E87" s="33">
         <v>30</v>
       </c>
@@ -8504,11 +8521,11 @@
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="53">
-        <v>30</v>
-      </c>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
+      <c r="B88" s="56">
+        <v>30</v>
+      </c>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
       <c r="E88" s="33">
         <v>0</v>
       </c>
@@ -8546,11 +8563,11 @@
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="53">
+      <c r="B89" s="56">
         <v>24</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="33">
         <v>0</v>
       </c>
@@ -8588,11 +8605,11 @@
       <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="53">
+      <c r="B90" s="56">
         <v>21</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="33">
         <v>30</v>
       </c>
@@ -8628,11 +8645,11 @@
       <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="53">
+      <c r="B91" s="56">
         <v>24</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="55"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="33">
         <v>30</v>
       </c>
@@ -8668,11 +8685,11 @@
       <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="53">
-        <v>30</v>
-      </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="55"/>
+      <c r="B92" s="56">
+        <v>30</v>
+      </c>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
       <c r="E92" s="33">
         <v>30</v>
       </c>
@@ -8708,11 +8725,11 @@
       <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="53">
+      <c r="B93" s="56">
         <v>24</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
       <c r="E93" s="33">
         <v>30</v>
       </c>
@@ -8748,11 +8765,11 @@
       <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="56">
         <v>27</v>
       </c>
-      <c r="C94" s="54"/>
-      <c r="D94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
       <c r="E94" s="33">
         <v>30</v>
       </c>
@@ -8788,11 +8805,11 @@
       <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="53">
+      <c r="B95" s="56">
         <v>21</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
       <c r="E95" s="33">
         <v>0</v>
       </c>
@@ -8830,11 +8847,11 @@
       <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="53">
+      <c r="B96" s="56">
         <v>27</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="33">
         <v>0</v>
       </c>
@@ -8872,11 +8889,11 @@
       <c r="A97" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="53">
-        <v>30</v>
-      </c>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
+      <c r="B97" s="56">
+        <v>30</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
       <c r="E97" s="33">
         <v>30</v>
       </c>
@@ -8912,11 +8929,11 @@
       <c r="A98" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="53">
+      <c r="B98" s="56">
         <v>21</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
       <c r="E98" s="33">
         <v>0</v>
       </c>
@@ -8954,11 +8971,11 @@
       <c r="A99" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="53">
-        <v>0</v>
-      </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="55"/>
+      <c r="B99" s="56">
+        <v>0</v>
+      </c>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
       <c r="E99" s="33">
         <v>0</v>
       </c>
@@ -8996,11 +9013,11 @@
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="53">
+      <c r="B100" s="56">
         <v>27</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="55"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
       <c r="E100" s="33">
         <v>30</v>
       </c>
@@ -9036,11 +9053,11 @@
       <c r="A101" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="53">
+      <c r="B101" s="56">
         <v>21</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
       <c r="E101" s="33">
         <v>30</v>
       </c>
@@ -9076,11 +9093,11 @@
       <c r="A102" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="56">
         <v>24</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
       <c r="E102" s="33">
         <v>30</v>
       </c>
@@ -9116,11 +9133,11 @@
       <c r="A103" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="53">
-        <v>30</v>
-      </c>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
+      <c r="B103" s="56">
+        <v>30</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
       <c r="E103" s="33">
         <v>30</v>
       </c>
@@ -9156,11 +9173,11 @@
       <c r="A104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="53">
-        <v>30</v>
-      </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="55"/>
+      <c r="B104" s="56">
+        <v>30</v>
+      </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="33">
         <v>30</v>
       </c>
@@ -9193,11 +9210,11 @@
       <c r="A105" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="53">
+      <c r="B105" s="56">
         <v>21</v>
       </c>
-      <c r="C105" s="54"/>
-      <c r="D105" s="55"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="33">
         <v>30</v>
       </c>
@@ -9230,11 +9247,11 @@
       <c r="A106" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="56">
         <v>21</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
       <c r="E106" s="33">
         <v>17.751479289940828</v>
       </c>
@@ -9267,11 +9284,11 @@
       <c r="A107" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="53">
+      <c r="B107" s="56">
         <v>21</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="58"/>
       <c r="E107" s="33">
         <v>29.822485207100591</v>
       </c>
@@ -9306,11 +9323,11 @@
       <c r="A108" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B108" s="53">
+      <c r="B108" s="56">
         <v>24</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="33">
         <v>30</v>
       </c>
@@ -9343,11 +9360,11 @@
       <c r="A109" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="53">
+      <c r="B109" s="56">
         <v>27</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="55"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="33">
         <v>30</v>
       </c>
@@ -9382,11 +9399,11 @@
       <c r="A110" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="53">
+      <c r="B110" s="56">
         <v>24</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="58"/>
       <c r="E110" s="33">
         <v>0</v>
       </c>
@@ -9421,11 +9438,11 @@
       <c r="A111" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="53">
+      <c r="B111" s="56">
         <v>27</v>
       </c>
-      <c r="C111" s="54"/>
-      <c r="D111" s="55"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="58"/>
       <c r="E111" s="33">
         <v>30</v>
       </c>
@@ -9458,11 +9475,11 @@
       <c r="A112" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="53">
-        <v>30</v>
-      </c>
-      <c r="C112" s="54"/>
-      <c r="D112" s="55"/>
+      <c r="B112" s="56">
+        <v>30</v>
+      </c>
+      <c r="C112" s="57"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="33">
         <v>30</v>
       </c>
@@ -9495,11 +9512,11 @@
       <c r="A113" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="53">
+      <c r="B113" s="56">
         <v>21</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="55"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
       <c r="E113" s="33">
         <v>30</v>
       </c>
@@ -9532,11 +9549,11 @@
       <c r="A114" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="53">
+      <c r="B114" s="56">
         <v>24</v>
       </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="55"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="58"/>
       <c r="E114" s="33">
         <v>0</v>
       </c>
@@ -9564,18 +9581,18 @@
         <v>38</v>
       </c>
       <c r="M114" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:243" ht="25" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B115" s="53">
+      <c r="B115" s="56">
         <v>15</v>
       </c>
-      <c r="C115" s="54"/>
-      <c r="D115" s="55"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
       <c r="E115" s="33">
         <v>0</v>
       </c>
@@ -9603,18 +9620,18 @@
         <v>21</v>
       </c>
       <c r="M115" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:243" ht="25" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="53">
+      <c r="B116" s="56">
         <v>21</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="55"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
       <c r="E116" s="33">
         <v>30</v>
       </c>
@@ -9642,18 +9659,18 @@
         <v>68.292899408284029</v>
       </c>
       <c r="M116" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:243" ht="25" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="53">
+      <c r="B117" s="56">
         <v>21</v>
       </c>
-      <c r="C117" s="54"/>
-      <c r="D117" s="55"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="58"/>
       <c r="E117" s="33">
         <v>30</v>
       </c>
@@ -9686,11 +9703,11 @@
       <c r="A118" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B118" s="53">
+      <c r="B118" s="56">
         <v>27</v>
       </c>
-      <c r="C118" s="54"/>
-      <c r="D118" s="55"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="58"/>
       <c r="E118" s="33">
         <v>29.644970414201186</v>
       </c>
@@ -10057,45 +10074,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
@@ -10111,6 +10089,45 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B109:D109"/>
     <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7810E-60BE-D94B-B604-68C4711C2711}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF63797-4C1B-E14E-B5BE-9D323EDD04AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$141</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$142</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,63 +602,6 @@
         <family val="2"/>
       </rPr>
       <t>程序输出多余数字，但计算结果正确</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>CUDA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>程序计算结果正确，但是测试性能时计算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>s=1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>出错；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>OpenMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>程序编译错误</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,30 +780,46 @@
     <t>c94f554a2121ee7fb239f1fadcc398f3</t>
   </si>
   <si>
-    <t>openMP文件错误，无核函数</t>
+    <t>8c8b62ab70cad3ae0587a03a04950d72</t>
+  </si>
+  <si>
+    <t>1cf2df79ecb36504f53422a5ae3401a4</t>
+  </si>
+  <si>
+    <t>66e96e94c7f2471941c67eba4ac7b67b</t>
+  </si>
+  <si>
+    <t>002aa796cb2fbef14674c688cf705e38</t>
+  </si>
+  <si>
+    <t>71f20f1adec1de0e2e5aa430a7908769</t>
+  </si>
+  <si>
+    <t>4074768176044bc89d624401e71f4816</t>
+  </si>
+  <si>
+    <t>OpenMP编译失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无核函数</t>
+    <t>CUDA程序和OpenMP程序都编译失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序输出结果错误</t>
-  </si>
-  <si>
-    <t>8c8b62ab70cad3ae0587a03a04950d72</t>
-  </si>
-  <si>
-    <t>1cf2df79ecb36504f53422a5ae3401a4</t>
-  </si>
-  <si>
-    <t>66e96e94c7f2471941c67eba4ac7b67b</t>
-  </si>
-  <si>
-    <t>002aa796cb2fbef14674c688cf705e38</t>
-  </si>
-  <si>
-    <t>71f20f1adec1de0e2e5aa430a7908769</t>
+    <t>结果全0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不应该输出到文件，扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核的矩阵大小始终按2的输出</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣5分复查分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -873,7 +832,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -948,6 +907,21 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1032,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1111,8 +1085,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1123,6 +1100,15 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1132,14 +1118,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,7 +1212,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1324,7 +1304,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1353,7 +1333,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1399,7 +1379,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3750,10 +3730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II141"/>
+  <dimension ref="A1:II142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3780,22 +3760,22 @@
       <c r="A1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4350,11 +4330,11 @@
         <v>30</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="14">
         <v>5</v>
@@ -4369,11 +4349,10 @@
         <v>5</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1">
@@ -4740,7 +4719,7 @@
         <v>71</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="25" customHeight="1">
@@ -5148,7 +5127,7 @@
         <v>72</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:243" ht="25" customHeight="1">
@@ -5330,11 +5309,11 @@
         <v>29.644970414201186</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="28">
+        <v>95.102999999999994</v>
+      </c>
+      <c r="G39" s="29">
         <f>IF(F39&gt;0, IF(F39&lt;2, 30, IF(F39&gt;100, 10, (1-(F39-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>10.999387755102042</v>
       </c>
       <c r="H39" s="4">
         <v>3</v>
@@ -5350,11 +5329,9 @@
       </c>
       <c r="L39" s="3">
         <f t="shared" si="0"/>
-        <v>73.644970414201183</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>163</v>
-      </c>
+        <v>84.644358169303217</v>
+      </c>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:243" ht="25" customHeight="1">
       <c r="A40" s="25" t="s">
@@ -5477,7 +5454,7 @@
         <v>86.932040816326534</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:243" ht="25" customHeight="1">
@@ -5520,7 +5497,7 @@
         <v>62.576530612244895</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:243" ht="25" customHeight="1">
@@ -6374,7 +6351,7 @@
         <v>70</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:243" ht="25" customHeight="1">
@@ -6432,14 +6409,14 @@
         <v>3</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="28">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="G49" s="29">
         <f>IF(F49&gt;0, IF(F49&lt;2, 30, IF(F49&gt;100, 10, (1-(F49-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H49" s="4">
         <v>3</v>
@@ -6455,10 +6432,10 @@
       </c>
       <c r="L49" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>164</v>
+        <v>80</v>
+      </c>
+      <c r="M49" s="30" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6506,7 +6483,7 @@
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="8">
         <v>8</v>
@@ -6544,7 +6521,7 @@
         <v>78.858367346938778</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="IG51" s="25"/>
       <c r="IH51" s="25"/>
@@ -6552,7 +6529,7 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" s="8">
         <v>9</v>
@@ -6564,20 +6541,20 @@
         <v>9</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="28">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="G52" s="29">
         <f>IF(F52&gt;0, IF(F52&lt;2, 30, IF(F52&gt;100, 10, (1-(F52-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H52" s="4">
         <v>3</v>
       </c>
       <c r="I52" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -6587,18 +6564,16 @@
       </c>
       <c r="L52" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>164</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M52" s="30"/>
       <c r="IG52" s="25"/>
       <c r="IH52" s="25"/>
       <c r="II52" s="25"/>
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="8">
         <v>6</v>
@@ -6641,7 +6616,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="8">
         <v>9</v>
@@ -6684,7 +6659,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="8">
         <v>10</v>
@@ -6727,7 +6702,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="8">
         <v>8</v>
@@ -6765,7 +6740,7 @@
         <v>88.24979591836734</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="IG56" s="25"/>
       <c r="IH56" s="25"/>
@@ -6872,20 +6847,20 @@
         <v>10</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="28">
+        <v>50.435000000000002</v>
+      </c>
+      <c r="G59" s="29">
         <f>IF(F59&gt;0, IF(F59&lt;2, 30, IF(F59&gt;100, 10, (1-(F59-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>20.115306122448978</v>
       </c>
       <c r="H59" s="4">
         <v>3</v>
       </c>
       <c r="I59" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -6894,11 +6869,10 @@
         <v>3</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="IG59" s="25"/>
       <c r="IH59" s="25"/>
@@ -6944,7 +6918,7 @@
         <v>17</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="IG60" s="25"/>
       <c r="IH60" s="25"/>
@@ -7077,7 +7051,7 @@
         <v>67.5</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IG63" s="25"/>
       <c r="IH63" s="25"/>
@@ -7119,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" ref="L64:L118" si="2">IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
+        <f t="shared" ref="L64:L119" si="2">IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
         <v>96.194775510204082</v>
       </c>
       <c r="IG64" s="25"/>
@@ -7130,11 +7104,11 @@
       <c r="A65" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="32">
         <v>27</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="14">
         <v>30</v>
       </c>
@@ -7170,11 +7144,11 @@
       <c r="A66" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="33">
-        <v>30</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="B66" s="32">
+        <v>30</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="14">
         <v>30</v>
       </c>
@@ -7209,11 +7183,11 @@
       <c r="A67" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="33">
-        <v>30</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="B67" s="32">
+        <v>30</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="14">
         <v>30</v>
       </c>
@@ -7240,7 +7214,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="M67" s="26" t="s">
+      <c r="M67" s="11" t="s">
         <v>132</v>
       </c>
       <c r="IG67" s="25"/>
@@ -7251,11 +7225,11 @@
       <c r="A68" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="32">
         <v>24</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="14">
         <v>30</v>
       </c>
@@ -7293,11 +7267,11 @@
       <c r="A69" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="32">
         <v>24</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="14">
         <v>0</v>
       </c>
@@ -7335,18 +7309,18 @@
       <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="34">
         <v>24</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="4">
         <v>29.644970414201186</v>
       </c>
       <c r="F70" s="2">
         <v>1.0271999999999999</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -7374,18 +7348,18 @@
       <c r="A71" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="34">
         <v>21</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="4">
         <v>0</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="29">
         <f>IF(F71&gt;0, IF(F71&lt;2, 30, IF(F71&gt;100, 10, (1-(F71-2)/(100-2))*20+10)), 0)</f>
         <v>0</v>
       </c>
@@ -7405,8 +7379,8 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="M71" s="29" t="s">
-        <v>164</v>
+      <c r="M71" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="IG71" s="25"/>
       <c r="IH71" s="25"/>
@@ -7416,11 +7390,11 @@
       <c r="A72" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="32">
         <v>24</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="14">
         <v>30</v>
       </c>
@@ -7458,11 +7432,11 @@
       <c r="A73" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="32">
         <v>27</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="14">
         <v>30</v>
       </c>
@@ -7500,11 +7474,11 @@
       <c r="A74" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <v>24</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="14">
         <v>30</v>
       </c>
@@ -7542,26 +7516,26 @@
       <c r="A75" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="32">
         <v>21</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
-      </c>
-      <c r="G75" s="28">
+        <v>4.2740999999999998</v>
+      </c>
+      <c r="G75" s="29">
         <f>IF(F75&gt;0, IF(F75&lt;2, 30, IF(F75&gt;100, 10, (1-(F75-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>29.535897959183675</v>
       </c>
       <c r="H75" s="4">
         <v>3</v>
       </c>
       <c r="I75" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J75" s="2">
         <v>0</v>
@@ -7570,11 +7544,10 @@
         <v>3</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M75" s="29" t="s">
-        <v>164</v>
+        <v>91</v>
+      </c>
+      <c r="M75" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="IG75" s="25"/>
       <c r="IH75" s="25"/>
@@ -7584,11 +7557,11 @@
       <c r="A76" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="33">
-        <v>30</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="B76" s="32">
+        <v>30</v>
+      </c>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="14">
         <v>30</v>
       </c>
@@ -7623,11 +7596,11 @@
       <c r="A77" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="32">
         <v>27</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="14">
         <v>0</v>
       </c>
@@ -7663,11 +7636,11 @@
       <c r="A78" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="33">
-        <v>30</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="B78" s="32">
+        <v>30</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="14">
         <v>30</v>
       </c>
@@ -7702,11 +7675,11 @@
       <c r="A79" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="32">
         <v>24</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="14">
         <v>30</v>
       </c>
@@ -7742,11 +7715,11 @@
       <c r="A80" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="32">
         <v>24</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="14">
         <v>30</v>
       </c>
@@ -7781,11 +7754,11 @@
       <c r="A81" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <v>27</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="14">
         <v>30</v>
       </c>
@@ -7821,11 +7794,11 @@
       <c r="A82" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <v>21</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="14">
         <v>0</v>
       </c>
@@ -7863,11 +7836,11 @@
       <c r="A83" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <v>24</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="14">
         <v>30</v>
       </c>
@@ -7902,20 +7875,20 @@
       <c r="A84" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <v>24</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="G84" s="28">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="G84" s="29">
         <f>IF(F84&gt;0, IF(F84&lt;2, 30, IF(F84&gt;100, 10, (1-(F84-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>29.85061224489796</v>
       </c>
       <c r="H84" s="4">
         <v>3</v>
@@ -7924,18 +7897,16 @@
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K84" s="4">
         <v>3</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M84" s="29" t="s">
-        <v>164</v>
-      </c>
+        <v>89.85061224489796</v>
+      </c>
+      <c r="M84" s="30"/>
       <c r="IG84" s="25"/>
       <c r="IH84" s="25"/>
       <c r="II84" s="25"/>
@@ -7944,11 +7915,11 @@
       <c r="A85" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="32">
         <v>21</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="14">
         <v>30</v>
       </c>
@@ -7984,11 +7955,11 @@
       <c r="A86" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <v>24</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="14">
         <v>30</v>
       </c>
@@ -8023,11 +7994,11 @@
       <c r="A87" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="33">
-        <v>30</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="B87" s="32">
+        <v>30</v>
+      </c>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="14">
         <v>30</v>
       </c>
@@ -8063,11 +8034,11 @@
       <c r="A88" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <v>24</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="14">
         <v>30</v>
       </c>
@@ -8102,11 +8073,11 @@
       <c r="A89" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="33">
+      <c r="B89" s="32">
         <v>27</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="14">
         <v>30</v>
       </c>
@@ -8142,26 +8113,26 @@
       <c r="A90" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="34">
         <v>21</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2">
-        <v>0</v>
-      </c>
-      <c r="G90" s="28">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="G90" s="29">
         <f>IF(F90&gt;0, IF(F90&lt;2, 30, IF(F90&gt;100, 10, (1-(F90-2)/(100-2))*20+10)), 0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H90" s="4">
         <v>3</v>
       </c>
       <c r="I90" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -8171,11 +8142,9 @@
       </c>
       <c r="L90" s="3">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M90" s="29" t="s">
-        <v>164</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M90" s="30"/>
       <c r="IG90" s="25"/>
       <c r="IH90" s="25"/>
       <c r="II90" s="25"/>
@@ -8184,18 +8153,18 @@
       <c r="A91" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <v>27</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="29">
         <f>IF(F91&gt;0, IF(F91&lt;2, 30, IF(F91&gt;100, 10, (1-(F91-2)/(100-2))*20+10)), 0)</f>
         <v>0</v>
       </c>
@@ -8215,8 +8184,8 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="M91" s="29" t="s">
-        <v>164</v>
+      <c r="M91" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="IG91" s="25"/>
       <c r="IH91" s="25"/>
@@ -8226,11 +8195,11 @@
       <c r="A92" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="33">
-        <v>30</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="32">
+        <v>30</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="14">
         <v>30</v>
       </c>
@@ -8265,11 +8234,11 @@
       <c r="A93" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="33">
+      <c r="B93" s="32">
         <v>21</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="14">
         <v>0</v>
       </c>
@@ -8307,11 +8276,11 @@
       <c r="A94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="33">
-        <v>0</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="32">
+        <v>0</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="14">
         <v>0</v>
       </c>
@@ -8349,11 +8318,11 @@
       <c r="A95" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="33">
+      <c r="B95" s="32">
         <v>27</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="14">
         <v>30</v>
       </c>
@@ -8389,11 +8358,11 @@
       <c r="A96" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="33">
+      <c r="B96" s="32">
         <v>21</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="14">
         <v>30</v>
       </c>
@@ -8428,11 +8397,11 @@
       <c r="A97" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <v>24</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="14">
         <v>30</v>
       </c>
@@ -8468,11 +8437,11 @@
       <c r="A98" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="33">
-        <v>30</v>
-      </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="B98" s="32">
+        <v>30</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="14">
         <v>30</v>
       </c>
@@ -8507,11 +8476,11 @@
       <c r="A99" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="33">
-        <v>30</v>
-      </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="32">
+        <v>30</v>
+      </c>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="14">
         <v>30</v>
       </c>
@@ -8544,11 +8513,11 @@
       <c r="A100" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>21</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="14">
         <v>30</v>
       </c>
@@ -8580,11 +8549,11 @@
       <c r="A101" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B101" s="32">
         <v>21</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="14">
         <v>17.751479289940828</v>
       </c>
@@ -8617,11 +8586,11 @@
       <c r="A102" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="33">
+      <c r="B102" s="32">
         <v>21</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="14">
         <v>29.822485207100591</v>
       </c>
@@ -8656,11 +8625,11 @@
       <c r="A103" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <v>24</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="14">
         <v>30</v>
       </c>
@@ -8693,11 +8662,11 @@
       <c r="A104" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="33">
+      <c r="B104" s="32">
         <v>27</v>
       </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="14">
         <v>30</v>
       </c>
@@ -8732,11 +8701,11 @@
       <c r="A105" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="32">
         <v>24</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="14">
         <v>0</v>
       </c>
@@ -8771,11 +8740,11 @@
       <c r="A106" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="32">
         <v>27</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="14">
         <v>30</v>
       </c>
@@ -8807,11 +8776,11 @@
       <c r="A107" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="33">
-        <v>30</v>
-      </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="32">
+        <v>30</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="14">
         <v>30</v>
       </c>
@@ -8844,11 +8813,11 @@
       <c r="A108" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="33">
+      <c r="B108" s="32">
         <v>21</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="14">
         <v>30</v>
       </c>
@@ -8880,11 +8849,11 @@
       <c r="A109" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="33">
+      <c r="B109" s="32">
         <v>24</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="14">
         <v>0</v>
       </c>
@@ -8912,18 +8881,18 @@
         <v>38</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:243" ht="25" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="33">
+      <c r="B110" s="32">
         <v>15</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="14">
         <v>0</v>
       </c>
@@ -8951,18 +8920,18 @@
         <v>21</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="33">
+      <c r="B111" s="32">
         <v>21</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
       <c r="E111" s="14">
         <v>30</v>
       </c>
@@ -8990,18 +8959,18 @@
         <v>68.292899408284029</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
       <c r="A112" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="33">
+      <c r="B112" s="32">
         <v>21</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
       <c r="E112" s="14">
         <v>30</v>
       </c>
@@ -9033,11 +9002,11 @@
       <c r="A113" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="33">
+      <c r="B113" s="32">
         <v>27</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
       <c r="E113" s="14">
         <v>29.644970414201186</v>
       </c>
@@ -9068,7 +9037,7 @@
     </row>
     <row r="114" spans="1:243" ht="25" customHeight="1">
       <c r="A114" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B114" s="24">
         <v>6</v>
@@ -9085,8 +9054,8 @@
       <c r="F114" s="2">
         <v>5.843</v>
       </c>
-      <c r="G114" s="28">
-        <f t="shared" ref="G114:G118" si="4">IF(F114&gt;0, IF(F114&lt;2, 30, IF(F114&gt;100, 10, (1-(F114-2)/(100-2))*20+10)), 0)</f>
+      <c r="G114" s="29">
+        <f t="shared" ref="G114:G119" si="4">IF(F114&gt;0, IF(F114&lt;2, 30, IF(F114&gt;100, 10, (1-(F114-2)/(100-2))*20+10)), 0)</f>
         <v>29.215714285714284</v>
       </c>
       <c r="H114" s="4">
@@ -9105,186 +9074,446 @@
         <f t="shared" si="2"/>
         <v>82.860684699915467</v>
       </c>
-      <c r="M114" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:243" ht="25" customHeight="1">
-      <c r="A115" s="25" t="s">
+      <c r="M114" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:243" s="27" customFormat="1" ht="25" customHeight="1">
+      <c r="A115" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B115" s="26">
+        <v>10</v>
+      </c>
+      <c r="C115" s="26">
+        <v>7</v>
+      </c>
+      <c r="D115" s="26">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>30</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G115" s="29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H115" s="4">
+        <v>5</v>
+      </c>
+      <c r="I115" s="4">
+        <v>10</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <v>5</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="M115" s="30"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+      <c r="S115" s="26"/>
+      <c r="T115" s="26"/>
+      <c r="U115" s="26"/>
+      <c r="V115" s="26"/>
+      <c r="W115" s="26"/>
+      <c r="X115" s="26"/>
+      <c r="Y115" s="26"/>
+      <c r="Z115" s="26"/>
+      <c r="AA115" s="26"/>
+      <c r="AB115" s="26"/>
+      <c r="AC115" s="26"/>
+      <c r="AD115" s="26"/>
+      <c r="AE115" s="26"/>
+      <c r="AF115" s="26"/>
+      <c r="AG115" s="26"/>
+      <c r="AH115" s="26"/>
+      <c r="AI115" s="26"/>
+      <c r="AJ115" s="26"/>
+      <c r="AK115" s="26"/>
+      <c r="AL115" s="26"/>
+      <c r="AM115" s="26"/>
+      <c r="AN115" s="26"/>
+      <c r="AO115" s="26"/>
+      <c r="AP115" s="26"/>
+      <c r="AQ115" s="26"/>
+      <c r="AR115" s="26"/>
+      <c r="AS115" s="26"/>
+      <c r="AT115" s="26"/>
+      <c r="AU115" s="26"/>
+      <c r="AV115" s="26"/>
+      <c r="AW115" s="26"/>
+      <c r="AX115" s="26"/>
+      <c r="AY115" s="26"/>
+      <c r="AZ115" s="26"/>
+      <c r="BA115" s="26"/>
+      <c r="BB115" s="26"/>
+      <c r="BC115" s="26"/>
+      <c r="BD115" s="26"/>
+      <c r="BE115" s="26"/>
+      <c r="BF115" s="26"/>
+      <c r="BG115" s="26"/>
+      <c r="BH115" s="26"/>
+      <c r="BI115" s="26"/>
+      <c r="BJ115" s="26"/>
+      <c r="BK115" s="26"/>
+      <c r="BL115" s="26"/>
+      <c r="BM115" s="26"/>
+      <c r="BN115" s="26"/>
+      <c r="BO115" s="26"/>
+      <c r="BP115" s="26"/>
+      <c r="BQ115" s="26"/>
+      <c r="BR115" s="26"/>
+      <c r="BS115" s="26"/>
+      <c r="BT115" s="26"/>
+      <c r="BU115" s="26"/>
+      <c r="BV115" s="26"/>
+      <c r="BW115" s="26"/>
+      <c r="BX115" s="26"/>
+      <c r="BY115" s="26"/>
+      <c r="BZ115" s="26"/>
+      <c r="CA115" s="26"/>
+      <c r="CB115" s="26"/>
+      <c r="CC115" s="26"/>
+      <c r="CD115" s="26"/>
+      <c r="CE115" s="26"/>
+      <c r="CF115" s="26"/>
+      <c r="CG115" s="26"/>
+      <c r="CH115" s="26"/>
+      <c r="CI115" s="26"/>
+      <c r="CJ115" s="26"/>
+      <c r="CK115" s="26"/>
+      <c r="CL115" s="26"/>
+      <c r="CM115" s="26"/>
+      <c r="CN115" s="26"/>
+      <c r="CO115" s="26"/>
+      <c r="CP115" s="26"/>
+      <c r="CQ115" s="26"/>
+      <c r="CR115" s="26"/>
+      <c r="CS115" s="26"/>
+      <c r="CT115" s="26"/>
+      <c r="CU115" s="26"/>
+      <c r="CV115" s="26"/>
+      <c r="CW115" s="26"/>
+      <c r="CX115" s="26"/>
+      <c r="CY115" s="26"/>
+      <c r="CZ115" s="26"/>
+      <c r="DA115" s="26"/>
+      <c r="DB115" s="26"/>
+      <c r="DC115" s="26"/>
+      <c r="DD115" s="26"/>
+      <c r="DE115" s="26"/>
+      <c r="DF115" s="26"/>
+      <c r="DG115" s="26"/>
+      <c r="DH115" s="26"/>
+      <c r="DI115" s="26"/>
+      <c r="DJ115" s="26"/>
+      <c r="DK115" s="26"/>
+      <c r="DL115" s="26"/>
+      <c r="DM115" s="26"/>
+      <c r="DN115" s="26"/>
+      <c r="DO115" s="26"/>
+      <c r="DP115" s="26"/>
+      <c r="DQ115" s="26"/>
+      <c r="DR115" s="26"/>
+      <c r="DS115" s="26"/>
+      <c r="DT115" s="26"/>
+      <c r="DU115" s="26"/>
+      <c r="DV115" s="26"/>
+      <c r="DW115" s="26"/>
+      <c r="DX115" s="26"/>
+      <c r="DY115" s="26"/>
+      <c r="DZ115" s="26"/>
+      <c r="EA115" s="26"/>
+      <c r="EB115" s="26"/>
+      <c r="EC115" s="26"/>
+      <c r="ED115" s="26"/>
+      <c r="EE115" s="26"/>
+      <c r="EF115" s="26"/>
+      <c r="EG115" s="26"/>
+      <c r="EH115" s="26"/>
+      <c r="EI115" s="26"/>
+      <c r="EJ115" s="26"/>
+      <c r="EK115" s="26"/>
+      <c r="EL115" s="26"/>
+      <c r="EM115" s="26"/>
+      <c r="EN115" s="26"/>
+      <c r="EO115" s="26"/>
+      <c r="EP115" s="26"/>
+      <c r="EQ115" s="26"/>
+      <c r="ER115" s="26"/>
+      <c r="ES115" s="26"/>
+      <c r="ET115" s="26"/>
+      <c r="EU115" s="26"/>
+      <c r="EV115" s="26"/>
+      <c r="EW115" s="26"/>
+      <c r="EX115" s="26"/>
+      <c r="EY115" s="26"/>
+      <c r="EZ115" s="26"/>
+      <c r="FA115" s="26"/>
+      <c r="FB115" s="26"/>
+      <c r="FC115" s="26"/>
+      <c r="FD115" s="26"/>
+      <c r="FE115" s="26"/>
+      <c r="FF115" s="26"/>
+      <c r="FG115" s="26"/>
+      <c r="FH115" s="26"/>
+      <c r="FI115" s="26"/>
+      <c r="FJ115" s="26"/>
+      <c r="FK115" s="26"/>
+      <c r="FL115" s="26"/>
+      <c r="FM115" s="26"/>
+      <c r="FN115" s="26"/>
+      <c r="FO115" s="26"/>
+      <c r="FP115" s="26"/>
+      <c r="FQ115" s="26"/>
+      <c r="FR115" s="26"/>
+      <c r="FS115" s="26"/>
+      <c r="FT115" s="26"/>
+      <c r="FU115" s="26"/>
+      <c r="FV115" s="26"/>
+      <c r="FW115" s="26"/>
+      <c r="FX115" s="26"/>
+      <c r="FY115" s="26"/>
+      <c r="FZ115" s="26"/>
+      <c r="GA115" s="26"/>
+      <c r="GB115" s="26"/>
+      <c r="GC115" s="26"/>
+      <c r="GD115" s="26"/>
+      <c r="GE115" s="26"/>
+      <c r="GF115" s="26"/>
+      <c r="GG115" s="26"/>
+      <c r="GH115" s="26"/>
+      <c r="GI115" s="26"/>
+      <c r="GJ115" s="26"/>
+      <c r="GK115" s="26"/>
+      <c r="GL115" s="26"/>
+      <c r="GM115" s="26"/>
+      <c r="GN115" s="26"/>
+      <c r="GO115" s="26"/>
+      <c r="GP115" s="26"/>
+      <c r="GQ115" s="26"/>
+      <c r="GR115" s="26"/>
+      <c r="GS115" s="26"/>
+      <c r="GT115" s="26"/>
+      <c r="GU115" s="26"/>
+      <c r="GV115" s="26"/>
+      <c r="GW115" s="26"/>
+      <c r="GX115" s="26"/>
+      <c r="GY115" s="26"/>
+      <c r="GZ115" s="26"/>
+      <c r="HA115" s="26"/>
+      <c r="HB115" s="26"/>
+      <c r="HC115" s="26"/>
+      <c r="HD115" s="26"/>
+      <c r="HE115" s="26"/>
+      <c r="HF115" s="26"/>
+      <c r="HG115" s="26"/>
+      <c r="HH115" s="26"/>
+      <c r="HI115" s="26"/>
+      <c r="HJ115" s="26"/>
+      <c r="HK115" s="26"/>
+      <c r="HL115" s="26"/>
+      <c r="HM115" s="26"/>
+      <c r="HN115" s="26"/>
+      <c r="HO115" s="26"/>
+      <c r="HP115" s="26"/>
+      <c r="HQ115" s="26"/>
+      <c r="HR115" s="26"/>
+      <c r="HS115" s="26"/>
+      <c r="HT115" s="26"/>
+      <c r="HU115" s="26"/>
+      <c r="HV115" s="26"/>
+      <c r="HW115" s="26"/>
+      <c r="HX115" s="26"/>
+      <c r="HY115" s="26"/>
+      <c r="HZ115" s="26"/>
+      <c r="IA115" s="26"/>
+      <c r="IB115" s="26"/>
+      <c r="IC115" s="26"/>
+      <c r="ID115" s="26"/>
+      <c r="IE115" s="26"/>
+      <c r="IF115" s="26"/>
+      <c r="IG115" s="26"/>
+      <c r="IH115" s="26"/>
+      <c r="II115" s="26"/>
+    </row>
+    <row r="116" spans="1:243" ht="25" customHeight="1">
+      <c r="A116" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="24">
         <v>6</v>
       </c>
-      <c r="C115" s="24">
+      <c r="C116" s="24">
         <v>6</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D116" s="24">
         <v>6</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E116" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F116" s="2">
         <v>4.7919999999999998</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G116" s="29">
         <f t="shared" si="4"/>
         <v>29.430204081632652</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H116" s="4">
         <v>3</v>
       </c>
-      <c r="I115" s="4">
-        <v>10</v>
-      </c>
-      <c r="J115" s="2">
-        <v>0</v>
-      </c>
-      <c r="K115" s="4">
+      <c r="I116" s="4">
+        <v>10</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
         <v>3</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L116" s="3">
         <f t="shared" si="2"/>
         <v>93.075174495833835</v>
       </c>
-      <c r="M115" s="11"/>
-    </row>
-    <row r="116" spans="1:243" ht="25" customHeight="1">
-      <c r="A116" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B116" s="24">
+      <c r="M116" s="11"/>
+    </row>
+    <row r="117" spans="1:243" ht="25" customHeight="1">
+      <c r="A117" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" s="24">
         <v>6</v>
       </c>
-      <c r="C116" s="24">
+      <c r="C117" s="24">
         <v>6</v>
       </c>
-      <c r="D116" s="24">
+      <c r="D117" s="24">
         <v>6</v>
       </c>
-      <c r="E116" s="4">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0</v>
-      </c>
-      <c r="G116" s="28">
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H117" s="4">
         <v>3</v>
       </c>
-      <c r="I116" s="4">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2">
-        <v>0</v>
-      </c>
-      <c r="K116" s="4">
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
         <v>3</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L117" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M116" s="29" t="s">
+      <c r="M117" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:243" ht="25" customHeight="1">
+      <c r="A118" s="25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="117" spans="1:243" ht="25" customHeight="1">
-      <c r="A117" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" s="24">
+      <c r="B118" s="24">
         <v>6</v>
       </c>
-      <c r="C117" s="24">
+      <c r="C118" s="24">
         <v>6</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D118" s="24">
         <v>6</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E118" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F118" s="2">
         <v>4.1759000000000004</v>
       </c>
-      <c r="G117" s="28">
+      <c r="G118" s="29">
         <f t="shared" si="4"/>
         <v>29.555938775510203</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H118" s="4">
         <v>3</v>
       </c>
-      <c r="I117" s="4">
-        <v>10</v>
-      </c>
-      <c r="J117" s="2">
-        <v>0</v>
-      </c>
-      <c r="K117" s="4">
+      <c r="I118" s="4">
+        <v>10</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
         <v>3</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L118" s="3">
         <f t="shared" si="2"/>
         <v>93.200909189711382</v>
       </c>
-      <c r="M117" s="11"/>
-    </row>
-    <row r="118" spans="1:243" ht="25" customHeight="1">
-      <c r="A118" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="24">
+      <c r="M118" s="11"/>
+    </row>
+    <row r="119" spans="1:243" ht="25" customHeight="1">
+      <c r="A119" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="24">
         <v>6</v>
       </c>
-      <c r="C118" s="24">
+      <c r="C119" s="24">
         <v>6</v>
       </c>
-      <c r="D118" s="24">
+      <c r="D119" s="24">
         <v>6</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E119" s="4">
         <v>29.644970414201186</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F119" s="2">
         <v>1.8727</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G119" s="29">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H119" s="4">
         <v>3</v>
       </c>
-      <c r="I118" s="4">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2">
-        <v>0</v>
-      </c>
-      <c r="K118" s="4">
+      <c r="I119" s="4">
+        <v>10</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
         <v>3</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L119" s="3">
         <f t="shared" si="2"/>
-        <v>83.644970414201183</v>
-      </c>
-      <c r="M118" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="IE118" s="25"/>
-      <c r="IF118" s="25"/>
-      <c r="IG118" s="25"/>
-      <c r="IH118" s="25"/>
-      <c r="II118" s="25"/>
-    </row>
-    <row r="119" spans="1:243" ht="25" customHeight="1">
-      <c r="G119" s="19"/>
-      <c r="H119" s="14"/>
+        <v>93.644970414201183</v>
+      </c>
+      <c r="M119" s="30"/>
       <c r="IE119" s="25"/>
       <c r="IF119" s="25"/>
       <c r="IG119" s="25"/>
@@ -9328,16 +9557,8 @@
       <c r="II123" s="25"/>
     </row>
     <row r="124" spans="1:243" ht="25" customHeight="1">
-      <c r="E124" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I124" s="23"/>
-      <c r="J124" s="7">
-        <f>SUM(J3:J112)/COUNTIF(J3:J112,"&lt;&gt;0")</f>
-        <v>0.16263453209661666</v>
-      </c>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="14"/>
       <c r="IE124" s="25"/>
       <c r="IF124" s="25"/>
       <c r="IG124" s="25"/>
@@ -9345,13 +9566,14 @@
       <c r="II124" s="25"/>
     </row>
     <row r="125" spans="1:243" ht="25" customHeight="1">
-      <c r="E125" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="22"/>
-      <c r="G125" s="17"/>
+      <c r="E125" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="I125" s="23"/>
-      <c r="J125" s="24"/>
+      <c r="J125" s="7">
+        <f>SUM(J3:J112)/COUNTIF(J3:J112,"&lt;&gt;0")</f>
+        <v>0.31878319031730512</v>
+      </c>
       <c r="K125" s="24"/>
       <c r="L125" s="24"/>
       <c r="IE125" s="25"/>
@@ -9362,25 +9584,29 @@
     </row>
     <row r="126" spans="1:243" ht="25" customHeight="1">
       <c r="E126" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F126" s="22">
-        <f>COUNTIF(F3:F113, "&gt;0")</f>
-        <v>87</v>
-      </c>
-      <c r="G126" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="F126" s="22"/>
+      <c r="G126" s="17"/>
       <c r="I126" s="23"/>
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
       <c r="L126" s="24"/>
+      <c r="IE126" s="25"/>
+      <c r="IF126" s="25"/>
+      <c r="IG126" s="25"/>
+      <c r="IH126" s="25"/>
+      <c r="II126" s="25"/>
     </row>
     <row r="127" spans="1:243" ht="25" customHeight="1">
-      <c r="E127" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F127" s="16">
-        <v>160.13</v>
-      </c>
+      <c r="E127" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="22">
+        <f>COUNTIF(F3:F113, "&gt;0")</f>
+        <v>95</v>
+      </c>
+      <c r="G127" s="21"/>
       <c r="I127" s="23"/>
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
@@ -9388,27 +9614,24 @@
     </row>
     <row r="128" spans="1:243" ht="25" customHeight="1">
       <c r="E128" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" s="16">
+        <v>160.13</v>
+      </c>
+      <c r="I128" s="23"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+    </row>
+    <row r="129" spans="2:12" ht="25" customHeight="1">
+      <c r="E129" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F129" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="23"/>
-      <c r="J128" s="4"/>
-      <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="2:12" ht="25" customHeight="1">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F129" s="16">
-        <v>30</v>
-      </c>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
+      <c r="I129" s="23"/>
       <c r="J129" s="4"/>
       <c r="L129" s="4"/>
     </row>
@@ -9417,10 +9640,10 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F130" s="16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
@@ -9432,10 +9655,10 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="F131" s="16">
+        <v>10</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -9445,19 +9668,24 @@
     <row r="132" spans="2:12" ht="25" customHeight="1">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="24"/>
+      <c r="J132" s="4"/>
+      <c r="L132" s="4"/>
     </row>
     <row r="133" spans="2:12" ht="25" customHeight="1">
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="2"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
       <c r="K133" s="3"/>
       <c r="L133" s="24"/>
     </row>
@@ -9502,9 +9730,6 @@
       <c r="L137" s="24"/>
     </row>
     <row r="138" spans="2:12" ht="25" customHeight="1">
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
@@ -9544,55 +9769,30 @@
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
       <c r="J141" s="25"/>
       <c r="K141" s="3"/>
       <c r="L141" s="24"/>
     </row>
+    <row r="142" spans="2:12" ht="25" customHeight="1">
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B70:D70"/>
@@ -9607,6 +9807,44 @@
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF63797-4C1B-E14E-B5BE-9D323EDD04AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C985794-22E9-8E4A-AD2C-DF0D76540689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="178">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,13 +572,7 @@
     <t>OpenMP源文件编译失败</t>
   </si>
   <si>
-    <t>Makefile中未包含CUDA编译指令，且CUDA源文件使用了多文件</t>
-  </si>
-  <si>
     <t>输出的性能评测影响了结果评测程序</t>
-  </si>
-  <si>
-    <t>OpenMP源文件编译失败,CUDA输出结果错误</t>
   </si>
   <si>
     <t>OpenMP程序编译错误</t>
@@ -752,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序运行出现段错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交的作业命名有问题，需要手动修改名称后才能正常运行</t>
   </si>
   <si>
@@ -802,10 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUDA程序和OpenMP程序都编译失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结果全0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,6 +806,58 @@
   <si>
     <t>扣5分复查分</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA编译失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCB3394FD061765DF70A2DF028DA4846</t>
+  </si>
+  <si>
+    <t>复查扣5分</t>
+  </si>
+  <si>
+    <r>
+      <t>复查扣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+  </si>
+  <si>
+    <t>08E341365F1EC38623460434A89FE2B7</t>
+  </si>
+  <si>
+    <t>OpenMP输出错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA测试性能无反应；OMP编译未通过,复查扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA测试性能无反应，复查扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2CB562202765E68DED86A99A7BAC9C1</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1100,14 +1138,11 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1118,8 +1153,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3732,8 +3779,8 @@
   </sheetPr>
   <dimension ref="A1:II142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:D100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3760,22 +3807,22 @@
       <c r="A1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4030,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1">
@@ -4229,7 +4276,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25" customHeight="1">
@@ -4352,7 +4399,7 @@
         <v>95</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1">
@@ -4719,7 +4766,7 @@
         <v>71</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="25" customHeight="1">
@@ -5127,7 +5174,7 @@
         <v>72</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:243" ht="25" customHeight="1">
@@ -5454,7 +5501,7 @@
         <v>86.932040816326534</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:243" ht="25" customHeight="1">
@@ -5497,7 +5544,7 @@
         <v>62.576530612244895</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:243" ht="25" customHeight="1">
@@ -6351,7 +6398,7 @@
         <v>70</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:243" ht="25" customHeight="1">
@@ -6435,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6483,7 +6530,7 @@
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B51" s="8">
         <v>8</v>
@@ -6521,7 +6568,7 @@
         <v>78.858367346938778</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="IG51" s="25"/>
       <c r="IH51" s="25"/>
@@ -6529,7 +6576,7 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B52" s="8">
         <v>9</v>
@@ -6573,7 +6620,7 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B53" s="8">
         <v>6</v>
@@ -6616,7 +6663,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54" s="8">
         <v>9</v>
@@ -6659,7 +6706,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B55" s="8">
         <v>10</v>
@@ -6702,7 +6749,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B56" s="8">
         <v>8</v>
@@ -6740,7 +6787,7 @@
         <v>88.24979591836734</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="IG56" s="25"/>
       <c r="IH56" s="25"/>
@@ -6872,7 +6919,7 @@
         <v>91</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="IG59" s="25"/>
       <c r="IH59" s="25"/>
@@ -6918,7 +6965,7 @@
         <v>17</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="IG60" s="25"/>
       <c r="IH60" s="25"/>
@@ -7051,7 +7098,7 @@
         <v>67.5</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="IG63" s="25"/>
       <c r="IH63" s="25"/>
@@ -7093,7 +7140,7 @@
         <v>5</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" ref="L64:L119" si="2">IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
+        <f t="shared" ref="L64:L116" si="2">IF(SUM(B64:E64,G64,H64:I64,K64)&lt;100, SUM(B64:E64,G64,H64:I64,K64),  100)</f>
         <v>96.194775510204082</v>
       </c>
       <c r="IG64" s="25"/>
@@ -7104,11 +7151,11 @@
       <c r="A65" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="36">
         <v>27</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="14">
         <v>30</v>
       </c>
@@ -7144,11 +7191,11 @@
       <c r="A66" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="32">
-        <v>30</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="B66" s="36">
+        <v>30</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="14">
         <v>30</v>
       </c>
@@ -7183,11 +7230,11 @@
       <c r="A67" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="32">
-        <v>30</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
+      <c r="B67" s="36">
+        <v>30</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="14">
         <v>30</v>
       </c>
@@ -7225,11 +7272,11 @@
       <c r="A68" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="36">
         <v>24</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="14">
         <v>30</v>
       </c>
@@ -7267,13 +7314,13 @@
       <c r="A69" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="36">
         <v>24</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F69" s="16">
         <v>0</v>
@@ -7295,11 +7342,10 @@
         <v>2.5</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>134</v>
+        <v>54</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="IG69" s="25"/>
       <c r="IH69" s="25"/>
@@ -7309,11 +7355,11 @@
       <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="34">
+      <c r="B70" s="33">
         <v>24</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7348,11 +7394,11 @@
       <c r="A71" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <v>21</v>
       </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="4">
         <v>0</v>
       </c>
@@ -7380,7 +7426,7 @@
         <v>27</v>
       </c>
       <c r="M71" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="IG71" s="25"/>
       <c r="IH71" s="25"/>
@@ -7390,11 +7436,11 @@
       <c r="A72" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="36">
         <v>24</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="14">
         <v>30</v>
       </c>
@@ -7432,11 +7478,11 @@
       <c r="A73" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <v>27</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="14">
         <v>30</v>
       </c>
@@ -7474,11 +7520,11 @@
       <c r="A74" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="36">
         <v>24</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="14">
         <v>30</v>
       </c>
@@ -7516,11 +7562,11 @@
       <c r="A75" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="36">
         <v>21</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="4">
         <v>30</v>
       </c>
@@ -7547,7 +7593,7 @@
         <v>91</v>
       </c>
       <c r="M75" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="IG75" s="25"/>
       <c r="IH75" s="25"/>
@@ -7557,11 +7603,11 @@
       <c r="A76" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="32">
-        <v>30</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="B76" s="36">
+        <v>30</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
       <c r="E76" s="14">
         <v>30</v>
       </c>
@@ -7596,11 +7642,11 @@
       <c r="A77" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="36">
         <v>27</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="14">
         <v>0</v>
       </c>
@@ -7636,11 +7682,11 @@
       <c r="A78" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="32">
-        <v>30</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+      <c r="B78" s="36">
+        <v>30</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="14">
         <v>30</v>
       </c>
@@ -7675,11 +7721,11 @@
       <c r="A79" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="36">
         <v>24</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="14">
         <v>30</v>
       </c>
@@ -7715,11 +7761,11 @@
       <c r="A80" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="36">
         <v>24</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="14">
         <v>30</v>
       </c>
@@ -7754,11 +7800,11 @@
       <c r="A81" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="36">
         <v>27</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="14">
         <v>30</v>
       </c>
@@ -7794,11 +7840,11 @@
       <c r="A82" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="36">
         <v>21</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="14">
         <v>0</v>
       </c>
@@ -7836,11 +7882,11 @@
       <c r="A83" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="32">
+      <c r="B83" s="36">
         <v>24</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
       <c r="E83" s="14">
         <v>30</v>
       </c>
@@ -7875,11 +7921,11 @@
       <c r="A84" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="32">
+      <c r="B84" s="36">
         <v>24</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
@@ -7915,11 +7961,11 @@
       <c r="A85" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="32">
+      <c r="B85" s="36">
         <v>21</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="14">
         <v>30</v>
       </c>
@@ -7955,11 +8001,11 @@
       <c r="A86" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="32">
+      <c r="B86" s="36">
         <v>24</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="14">
         <v>30</v>
       </c>
@@ -7994,11 +8040,11 @@
       <c r="A87" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="32">
-        <v>30</v>
-      </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="36">
+        <v>30</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="14">
         <v>30</v>
       </c>
@@ -8034,11 +8080,11 @@
       <c r="A88" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="36">
         <v>24</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="14">
         <v>30</v>
       </c>
@@ -8073,11 +8119,11 @@
       <c r="A89" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="32">
+      <c r="B89" s="36">
         <v>27</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
       <c r="E89" s="14">
         <v>30</v>
       </c>
@@ -8113,11 +8159,11 @@
       <c r="A90" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="33">
         <v>21</v>
       </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
@@ -8153,11 +8199,11 @@
       <c r="A91" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="32">
+      <c r="B91" s="36">
         <v>27</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
@@ -8184,8 +8230,8 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="M91" s="37" t="s">
-        <v>171</v>
+      <c r="M91" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="IG91" s="25"/>
       <c r="IH91" s="25"/>
@@ -8195,11 +8241,11 @@
       <c r="A92" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="32">
-        <v>30</v>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="B92" s="36">
+        <v>30</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="14">
         <v>30</v>
       </c>
@@ -8234,13 +8280,13 @@
       <c r="A93" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="32">
+      <c r="B93" s="36">
         <v>21</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93" s="16">
         <v>0</v>
@@ -8262,11 +8308,10 @@
         <v>2.5</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>138</v>
+        <v>61</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="IG93" s="25"/>
       <c r="IH93" s="25"/>
@@ -8276,11 +8321,11 @@
       <c r="A94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="32">
-        <v>0</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
+      <c r="B94" s="36">
+        <v>0</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="14">
         <v>0</v>
       </c>
@@ -8318,11 +8363,11 @@
       <c r="A95" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="32">
+      <c r="B95" s="36">
         <v>27</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="14">
         <v>30</v>
       </c>
@@ -8358,11 +8403,11 @@
       <c r="A96" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="32">
+      <c r="B96" s="36">
         <v>21</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="14">
         <v>30</v>
       </c>
@@ -8397,11 +8442,11 @@
       <c r="A97" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="36">
         <v>24</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="14">
         <v>30</v>
       </c>
@@ -8437,11 +8482,11 @@
       <c r="A98" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="32">
-        <v>30</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="B98" s="36">
+        <v>30</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="14">
         <v>30</v>
       </c>
@@ -8476,11 +8521,11 @@
       <c r="A99" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="32">
-        <v>30</v>
-      </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="B99" s="36">
+        <v>30</v>
+      </c>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="14">
         <v>30</v>
       </c>
@@ -8513,11 +8558,11 @@
       <c r="A100" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="36">
         <v>21</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="14">
         <v>30</v>
       </c>
@@ -8549,11 +8594,11 @@
       <c r="A101" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="36">
         <v>21</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="14">
         <v>17.751479289940828</v>
       </c>
@@ -8586,11 +8631,11 @@
       <c r="A102" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="36">
         <v>21</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="14">
         <v>29.822485207100591</v>
       </c>
@@ -8618,18 +8663,18 @@
         <v>80.707791329549565</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="36">
         <v>24</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="14">
         <v>30</v>
       </c>
@@ -8662,11 +8707,11 @@
       <c r="A104" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="36">
         <v>27</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="14">
         <v>30</v>
       </c>
@@ -8701,26 +8746,26 @@
       <c r="A105" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="32">
+      <c r="B105" s="36">
         <v>24</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F105" s="16">
-        <v>0</v>
+        <v>7.3570000000000002</v>
       </c>
       <c r="G105" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.906734693877553</v>
       </c>
       <c r="H105" s="14">
         <v>2.5</v>
       </c>
       <c r="I105" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J105" s="2">
         <v>1.952367</v>
@@ -8729,22 +8774,21 @@
         <v>4.5</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="M105" s="11" t="s">
-        <v>140</v>
+        <v>94</v>
+      </c>
+      <c r="M105" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="32">
+      <c r="B106" s="36">
         <v>27</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="14">
         <v>30</v>
       </c>
@@ -8776,11 +8820,11 @@
       <c r="A107" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="32">
-        <v>30</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
+      <c r="B107" s="36">
+        <v>30</v>
+      </c>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="14">
         <v>30</v>
       </c>
@@ -8813,11 +8857,11 @@
       <c r="A108" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="36">
         <v>21</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="14">
         <v>30</v>
       </c>
@@ -8849,11 +8893,11 @@
       <c r="A109" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="32">
+      <c r="B109" s="36">
         <v>24</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="14">
         <v>0</v>
       </c>
@@ -8881,18 +8925,18 @@
         <v>38</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:243" ht="25" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="36">
         <v>15</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
       <c r="E110" s="14">
         <v>0</v>
       </c>
@@ -8920,27 +8964,27 @@
         <v>21</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="36">
         <v>21</v>
       </c>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
       <c r="E111" s="14">
         <v>30</v>
       </c>
       <c r="F111" s="16">
-        <v>0</v>
+        <v>14.209</v>
       </c>
       <c r="G111" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.508367346938776</v>
       </c>
       <c r="H111" s="14">
         <v>5</v>
@@ -8955,22 +8999,21 @@
         <v>2.2928994082840237</v>
       </c>
       <c r="L111" s="3">
-        <f t="shared" si="2"/>
-        <v>68.292899408284029</v>
-      </c>
-      <c r="M111" s="11" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="M111" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
       <c r="A112" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="32">
+      <c r="B112" s="36">
         <v>21</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="14">
         <v>30</v>
       </c>
@@ -9002,11 +9045,11 @@
       <c r="A113" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="32">
+      <c r="B113" s="36">
         <v>27</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
       <c r="E113" s="14">
         <v>29.644970414201186</v>
       </c>
@@ -9037,7 +9080,7 @@
     </row>
     <row r="114" spans="1:243" ht="25" customHeight="1">
       <c r="A114" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B114" s="24">
         <v>6</v>
@@ -9055,7 +9098,7 @@
         <v>5.843</v>
       </c>
       <c r="G114" s="29">
-        <f t="shared" ref="G114:G119" si="4">IF(F114&gt;0, IF(F114&lt;2, 30, IF(F114&gt;100, 10, (1-(F114-2)/(100-2))*20+10)), 0)</f>
+        <f t="shared" ref="G114:G122" si="4">IF(F114&gt;0, IF(F114&lt;2, 30, IF(F114&gt;100, 10, (1-(F114-2)/(100-2))*20+10)), 0)</f>
         <v>29.215714285714284</v>
       </c>
       <c r="H114" s="4">
@@ -9075,12 +9118,12 @@
         <v>82.860684699915467</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:243" s="27" customFormat="1" ht="25" customHeight="1">
       <c r="A115" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B115" s="26">
         <v>10</v>
@@ -9351,7 +9394,7 @@
     </row>
     <row r="116" spans="1:243" ht="25" customHeight="1">
       <c r="A116" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B116" s="24">
         <v>6</v>
@@ -9392,7 +9435,7 @@
     </row>
     <row r="117" spans="1:243" ht="25" customHeight="1">
       <c r="A117" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B117" s="24">
         <v>6</v>
@@ -9404,20 +9447,20 @@
         <v>6</v>
       </c>
       <c r="E117" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F117" s="2">
-        <v>0</v>
+        <v>1.8776999999999999</v>
       </c>
       <c r="G117" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H117" s="4">
         <v>3</v>
       </c>
       <c r="I117" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J117" s="2">
         <v>0</v>
@@ -9426,16 +9469,15 @@
         <v>3</v>
       </c>
       <c r="L117" s="3">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:243" ht="25" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B118" s="24">
         <v>6</v>
@@ -9469,14 +9511,14 @@
         <v>3</v>
       </c>
       <c r="L118" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B118:E118,G118,H118:I118,K118)&lt;100, SUM(B118:E118,G118,H118:I118,K118),  100)</f>
         <v>93.200909189711382</v>
       </c>
       <c r="M118" s="11"/>
     </row>
     <row r="119" spans="1:243" ht="25" customHeight="1">
       <c r="A119" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B119" s="24">
         <v>6</v>
@@ -9510,7 +9552,7 @@
         <v>3</v>
       </c>
       <c r="L119" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(SUM(B119:E119,G119,H119:I119,K119)&lt;100, SUM(B119:E119,G119,H119:I119,K119),  100)</f>
         <v>93.644970414201183</v>
       </c>
       <c r="M119" s="30"/>
@@ -9521,8 +9563,47 @@
       <c r="II119" s="25"/>
     </row>
     <row r="120" spans="1:243" ht="25" customHeight="1">
-      <c r="G120" s="19"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="31">
+        <v>6</v>
+      </c>
+      <c r="C120" s="24">
+        <v>6</v>
+      </c>
+      <c r="D120" s="24">
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
+        <v>0</v>
+      </c>
+      <c r="F120" s="16">
+        <v>0</v>
+      </c>
+      <c r="G120" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>4</v>
+      </c>
+      <c r="I120" s="14">
+        <v>10</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="4">
+        <v>4</v>
+      </c>
+      <c r="L120" s="3">
+        <f>IF(SUM(B120:E120,G120,H120:I120,K120)&lt;100, SUM(B120:E120,G120,H120:I120,K120),  100)</f>
+        <v>30</v>
+      </c>
+      <c r="M120" s="39" t="s">
+        <v>169</v>
+      </c>
       <c r="IE120" s="25"/>
       <c r="IF120" s="25"/>
       <c r="IG120" s="25"/>
@@ -9530,8 +9611,44 @@
       <c r="II120" s="25"/>
     </row>
     <row r="121" spans="1:243" ht="25" customHeight="1">
-      <c r="G121" s="19"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="24">
+        <v>6</v>
+      </c>
+      <c r="C121" s="24">
+        <v>6</v>
+      </c>
+      <c r="D121" s="24">
+        <v>8</v>
+      </c>
+      <c r="E121" s="14">
+        <v>30</v>
+      </c>
+      <c r="F121" s="16">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G121" s="29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H121" s="14">
+        <v>4</v>
+      </c>
+      <c r="I121" s="14">
+        <v>10</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="4">
+        <v>4</v>
+      </c>
+      <c r="L121" s="3">
+        <f>IF(SUM(B121:E121,G121,H121:I121,K121)&lt;100, SUM(B121:E121,G121,H121:I121,K121),  100)</f>
+        <v>98</v>
+      </c>
       <c r="IE121" s="25"/>
       <c r="IF121" s="25"/>
       <c r="IG121" s="25"/>
@@ -9539,8 +9656,44 @@
       <c r="II121" s="25"/>
     </row>
     <row r="122" spans="1:243" ht="25" customHeight="1">
-      <c r="G122" s="19"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="24">
+        <v>6</v>
+      </c>
+      <c r="C122" s="24">
+        <v>6</v>
+      </c>
+      <c r="D122" s="24">
+        <v>5</v>
+      </c>
+      <c r="E122" s="14">
+        <v>30</v>
+      </c>
+      <c r="F122" s="16">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="G122" s="29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H122" s="14">
+        <v>4</v>
+      </c>
+      <c r="I122" s="14">
+        <v>10</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="4">
+        <v>4</v>
+      </c>
+      <c r="L122" s="3">
+        <f>IF(SUM(B122:E122,G122,H122:I122,K122)&lt;100, SUM(B122:E122,G122,H122:I122,K122),  100)</f>
+        <v>95</v>
+      </c>
       <c r="IE122" s="25"/>
       <c r="IF122" s="25"/>
       <c r="IG122" s="25"/>
@@ -9604,7 +9757,7 @@
       </c>
       <c r="F127" s="22">
         <f>COUNTIF(F3:F113, "&gt;0")</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G127" s="21"/>
       <c r="I127" s="23"/>
@@ -9793,6 +9946,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B70:D70"/>
@@ -9807,44 +9998,6 @@
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C985794-22E9-8E4A-AD2C-DF0D76540689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830C679-2F60-9F41-92FE-185D4F0FDDB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,17 @@
     <sheet name="Sheet 1 - res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$L$2:$L$142</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$F$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1 - res'!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1 - res'!$F$3:$F$113</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1 - res'!$L$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1 - res'!$L$2:$L$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
   <si>
     <t>实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,6 +858,10 @@
   </si>
   <si>
     <t>C2CB562202765E68DED86A99A7BAC9C1</t>
+  </si>
+  <si>
+    <t>复查扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1144,6 +1148,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1152,21 +1171,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1259,7 +1263,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1351,7 +1355,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{1030102B-0947-CA47-9ED9-857AE3CBF761}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>时间（ms）</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1380,7 +1384,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1426,7 +1430,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{782EC41C-AD7D-E542-8EB7-0E8059F39A56}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>总分</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3779,8 +3783,8 @@
   </sheetPr>
   <dimension ref="A1:II142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3807,17 +3811,17 @@
       <c r="A1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
@@ -7355,11 +7359,11 @@
       <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="38">
         <v>24</v>
       </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7394,11 +7398,11 @@
       <c r="A71" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="38">
         <v>21</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="4">
         <v>0</v>
       </c>
@@ -7648,20 +7652,20 @@
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F77" s="16">
-        <v>0</v>
+        <v>10.811999999999999</v>
       </c>
       <c r="G77" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.201632653061225</v>
       </c>
       <c r="H77" s="14">
         <v>2.5</v>
       </c>
       <c r="I77" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J77" s="2">
         <v>0.25622400000000001</v>
@@ -7670,10 +7674,11 @@
         <v>4.5</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M77" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="IG77" s="25"/>
       <c r="IH77" s="25"/>
       <c r="II77" s="25"/>
@@ -8159,11 +8164,11 @@
       <c r="A90" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="33">
+      <c r="B90" s="38">
         <v>21</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
@@ -8310,7 +8315,7 @@
       <c r="L93" s="3">
         <v>61</v>
       </c>
-      <c r="M93" s="40" t="s">
+      <c r="M93" s="34" t="s">
         <v>176</v>
       </c>
       <c r="IG93" s="25"/>
@@ -9601,7 +9606,7 @@
         <f>IF(SUM(B120:E120,G120,H120:I120,K120)&lt;100, SUM(B120:E120,G120,H120:I120,K120),  100)</f>
         <v>30</v>
       </c>
-      <c r="M120" s="39" t="s">
+      <c r="M120" s="33" t="s">
         <v>169</v>
       </c>
       <c r="IE120" s="25"/>
@@ -9757,7 +9762,7 @@
       </c>
       <c r="F127" s="22">
         <f>COUNTIF(F3:F113, "&gt;0")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G127" s="21"/>
       <c r="I127" s="23"/>
@@ -9946,16 +9951,33 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
@@ -9965,39 +9987,22 @@
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Supplements/homework-01-final-grade.xlsx
+++ b/Supplements/homework-01-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/homework-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830C679-2F60-9F41-92FE-185D4F0FDDB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF72EC7-26AC-6C4F-9E7E-134D73540E0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>OpenMP输出多了一个数</t>
-  </si>
-  <si>
-    <t>编译未通过，makefile与文件对不上号</t>
   </si>
   <si>
     <t>makefile书写错误，无OpenMP可执行文件</t>
@@ -861,6 +858,27 @@
   </si>
   <si>
     <t>复查扣5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>omp程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>编译失败</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,14 +1172,8 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1171,6 +1183,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3783,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:II142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="25" customHeight="1"/>
@@ -3811,22 +3829,22 @@
       <c r="A1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>89</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1">
@@ -4280,7 +4298,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25" customHeight="1">
@@ -4403,7 +4421,7 @@
         <v>95</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1">
@@ -4770,7 +4788,7 @@
         <v>71</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="25" customHeight="1">
@@ -5178,7 +5196,7 @@
         <v>72</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:243" ht="25" customHeight="1">
@@ -5505,7 +5523,7 @@
         <v>86.932040816326534</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:243" ht="25" customHeight="1">
@@ -5548,7 +5566,7 @@
         <v>62.576530612244895</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:243" ht="25" customHeight="1">
@@ -6402,7 +6420,7 @@
         <v>70</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:243" ht="25" customHeight="1">
@@ -6486,7 +6504,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:243" ht="25" customHeight="1">
@@ -6534,7 +6552,7 @@
     </row>
     <row r="51" spans="1:243" ht="25" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" s="8">
         <v>8</v>
@@ -6572,7 +6590,7 @@
         <v>78.858367346938778</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="IG51" s="25"/>
       <c r="IH51" s="25"/>
@@ -6580,7 +6598,7 @@
     </row>
     <row r="52" spans="1:243" ht="25" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="8">
         <v>9</v>
@@ -6624,7 +6642,7 @@
     </row>
     <row r="53" spans="1:243" ht="25" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="8">
         <v>6</v>
@@ -6667,7 +6685,7 @@
     </row>
     <row r="54" spans="1:243" ht="25" customHeight="1">
       <c r="A54" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="8">
         <v>9</v>
@@ -6710,7 +6728,7 @@
     </row>
     <row r="55" spans="1:243" ht="25" customHeight="1">
       <c r="A55" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="8">
         <v>10</v>
@@ -6753,7 +6771,7 @@
     </row>
     <row r="56" spans="1:243" ht="25" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="8">
         <v>8</v>
@@ -6791,7 +6809,7 @@
         <v>88.24979591836734</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="IG56" s="25"/>
       <c r="IH56" s="25"/>
@@ -6923,7 +6941,7 @@
         <v>91</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="IG59" s="25"/>
       <c r="IH59" s="25"/>
@@ -6969,7 +6987,7 @@
         <v>17</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="IG60" s="25"/>
       <c r="IH60" s="25"/>
@@ -7102,7 +7120,7 @@
         <v>67.5</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="IG63" s="25"/>
       <c r="IH63" s="25"/>
@@ -7155,11 +7173,11 @@
       <c r="A65" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="35">
         <v>27</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="14">
         <v>30</v>
       </c>
@@ -7195,11 +7213,11 @@
       <c r="A66" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="36">
-        <v>30</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
+      <c r="B66" s="35">
+        <v>30</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="14">
         <v>30</v>
       </c>
@@ -7234,11 +7252,11 @@
       <c r="A67" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="36">
-        <v>30</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
+      <c r="B67" s="35">
+        <v>30</v>
+      </c>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="14">
         <v>30</v>
       </c>
@@ -7276,11 +7294,11 @@
       <c r="A68" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="35">
         <v>24</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="14">
         <v>30</v>
       </c>
@@ -7318,11 +7336,11 @@
       <c r="A69" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="35">
         <v>24</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="14">
         <v>30</v>
       </c>
@@ -7349,7 +7367,7 @@
         <v>54</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="IG69" s="25"/>
       <c r="IH69" s="25"/>
@@ -7359,11 +7377,11 @@
       <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70" s="36">
         <v>24</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="4">
         <v>29.644970414201186</v>
       </c>
@@ -7398,11 +7416,11 @@
       <c r="A71" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="36">
         <v>21</v>
       </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="4">
         <v>0</v>
       </c>
@@ -7430,7 +7448,7 @@
         <v>27</v>
       </c>
       <c r="M71" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="IG71" s="25"/>
       <c r="IH71" s="25"/>
@@ -7440,11 +7458,11 @@
       <c r="A72" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="35">
         <v>24</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="14">
         <v>30</v>
       </c>
@@ -7472,7 +7490,7 @@
         <v>74.616530612244901</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="IG72" s="25"/>
       <c r="IH72" s="25"/>
@@ -7482,11 +7500,11 @@
       <c r="A73" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="35">
         <v>27</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="14">
         <v>30</v>
       </c>
@@ -7514,7 +7532,7 @@
         <v>76.37</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="IG73" s="25"/>
       <c r="IH73" s="25"/>
@@ -7524,11 +7542,11 @@
       <c r="A74" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="35">
         <v>24</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="14">
         <v>30</v>
       </c>
@@ -7556,7 +7574,7 @@
         <v>71</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="IG74" s="25"/>
       <c r="IH74" s="25"/>
@@ -7566,11 +7584,11 @@
       <c r="A75" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="35">
         <v>21</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="4">
         <v>30</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>91</v>
       </c>
       <c r="M75" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="IG75" s="25"/>
       <c r="IH75" s="25"/>
@@ -7607,11 +7625,11 @@
       <c r="A76" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="36">
-        <v>30</v>
-      </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="B76" s="35">
+        <v>30</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="14">
         <v>30</v>
       </c>
@@ -7646,11 +7664,11 @@
       <c r="A77" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="35">
         <v>27</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="14">
         <v>30</v>
       </c>
@@ -7677,7 +7695,7 @@
         <v>95</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="IG77" s="25"/>
       <c r="IH77" s="25"/>
@@ -7687,11 +7705,11 @@
       <c r="A78" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="36">
-        <v>30</v>
-      </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
+      <c r="B78" s="35">
+        <v>30</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="14">
         <v>30</v>
       </c>
@@ -7726,11 +7744,11 @@
       <c r="A79" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="35">
         <v>24</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="14">
         <v>30</v>
       </c>
@@ -7766,11 +7784,11 @@
       <c r="A80" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="35">
         <v>24</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="14">
         <v>30</v>
       </c>
@@ -7805,11 +7823,11 @@
       <c r="A81" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="35">
         <v>27</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="14">
         <v>30</v>
       </c>
@@ -7845,11 +7863,11 @@
       <c r="A82" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="35">
         <v>21</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="14">
         <v>0</v>
       </c>
@@ -7877,7 +7895,7 @@
         <v>27</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="IG82" s="25"/>
       <c r="IH82" s="25"/>
@@ -7887,11 +7905,11 @@
       <c r="A83" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="35">
         <v>24</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="14">
         <v>30</v>
       </c>
@@ -7926,11 +7944,11 @@
       <c r="A84" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="35">
         <v>24</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="4">
         <v>30</v>
       </c>
@@ -7966,11 +7984,11 @@
       <c r="A85" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="35">
         <v>21</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="14">
         <v>30</v>
       </c>
@@ -8006,11 +8024,11 @@
       <c r="A86" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="36">
+      <c r="B86" s="35">
         <v>24</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="14">
         <v>30</v>
       </c>
@@ -8045,11 +8063,11 @@
       <c r="A87" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="36">
-        <v>30</v>
-      </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
+      <c r="B87" s="35">
+        <v>30</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="14">
         <v>30</v>
       </c>
@@ -8085,11 +8103,11 @@
       <c r="A88" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="36">
+      <c r="B88" s="35">
         <v>24</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="14">
         <v>30</v>
       </c>
@@ -8124,11 +8142,11 @@
       <c r="A89" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="35">
         <v>27</v>
       </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="14">
         <v>30</v>
       </c>
@@ -8164,11 +8182,11 @@
       <c r="A90" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="38">
+      <c r="B90" s="36">
         <v>21</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
       <c r="E90" s="4">
         <v>30</v>
       </c>
@@ -8204,11 +8222,11 @@
       <c r="A91" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="35">
         <v>27</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="4">
         <v>0</v>
       </c>
@@ -8236,7 +8254,7 @@
         <v>33</v>
       </c>
       <c r="M91" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="IG91" s="25"/>
       <c r="IH91" s="25"/>
@@ -8246,11 +8264,11 @@
       <c r="A92" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="36">
-        <v>30</v>
-      </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
+      <c r="B92" s="35">
+        <v>30</v>
+      </c>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="14">
         <v>30</v>
       </c>
@@ -8285,11 +8303,11 @@
       <c r="A93" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="35">
         <v>21</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="14">
         <v>30</v>
       </c>
@@ -8316,7 +8334,7 @@
         <v>61</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="IG93" s="25"/>
       <c r="IH93" s="25"/>
@@ -8326,20 +8344,20 @@
       <c r="A94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="36">
-        <v>0</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
+      <c r="B94" s="35">
+        <v>24</v>
+      </c>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F94" s="16">
-        <v>0</v>
+        <v>24.128</v>
       </c>
       <c r="G94" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25.484081632653062</v>
       </c>
       <c r="H94" s="14">
         <v>2.5</v>
@@ -8355,10 +8373,10 @@
       </c>
       <c r="L94" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M94" s="10" t="s">
-        <v>134</v>
+        <v>86.484081632653059</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="IG94" s="25"/>
       <c r="IH94" s="25"/>
@@ -8368,11 +8386,11 @@
       <c r="A95" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="35">
         <v>27</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="14">
         <v>30</v>
       </c>
@@ -8408,11 +8426,11 @@
       <c r="A96" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="35">
         <v>21</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="14">
         <v>30</v>
       </c>
@@ -8447,11 +8465,11 @@
       <c r="A97" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="36">
+      <c r="B97" s="35">
         <v>24</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="14">
         <v>30</v>
       </c>
@@ -8487,11 +8505,11 @@
       <c r="A98" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="36">
-        <v>30</v>
-      </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
+      <c r="B98" s="35">
+        <v>30</v>
+      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="14">
         <v>30</v>
       </c>
@@ -8526,11 +8544,11 @@
       <c r="A99" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="36">
-        <v>30</v>
-      </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
+      <c r="B99" s="35">
+        <v>30</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="14">
         <v>30</v>
       </c>
@@ -8563,11 +8581,11 @@
       <c r="A100" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="35">
         <v>21</v>
       </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="14">
         <v>30</v>
       </c>
@@ -8599,11 +8617,11 @@
       <c r="A101" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="36">
+      <c r="B101" s="35">
         <v>21</v>
       </c>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="14">
         <v>17.751479289940828</v>
       </c>
@@ -8636,11 +8654,11 @@
       <c r="A102" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="36">
+      <c r="B102" s="35">
         <v>21</v>
       </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="14">
         <v>29.822485207100591</v>
       </c>
@@ -8668,18 +8686,18 @@
         <v>80.707791329549565</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:243" ht="25" customHeight="1">
       <c r="A103" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="36">
+      <c r="B103" s="35">
         <v>24</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="14">
         <v>30</v>
       </c>
@@ -8712,11 +8730,11 @@
       <c r="A104" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="35">
         <v>27</v>
       </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="14">
         <v>30</v>
       </c>
@@ -8744,18 +8762,18 @@
         <v>77.290612244897957</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:243" ht="25" customHeight="1">
       <c r="A105" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="36">
+      <c r="B105" s="35">
         <v>24</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="14">
         <v>30</v>
       </c>
@@ -8782,18 +8800,18 @@
         <v>94</v>
       </c>
       <c r="M105" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:243" ht="25" customHeight="1">
       <c r="A106" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="36">
+      <c r="B106" s="35">
         <v>27</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="14">
         <v>30</v>
       </c>
@@ -8825,11 +8843,11 @@
       <c r="A107" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="36">
-        <v>30</v>
-      </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
+      <c r="B107" s="35">
+        <v>30</v>
+      </c>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="14">
         <v>30</v>
       </c>
@@ -8862,11 +8880,11 @@
       <c r="A108" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="36">
+      <c r="B108" s="35">
         <v>21</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="14">
         <v>30</v>
       </c>
@@ -8898,11 +8916,11 @@
       <c r="A109" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="36">
+      <c r="B109" s="35">
         <v>24</v>
       </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="14">
         <v>0</v>
       </c>
@@ -8930,18 +8948,18 @@
         <v>38</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:243" ht="25" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="36">
+      <c r="B110" s="35">
         <v>15</v>
       </c>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="14">
         <v>0</v>
       </c>
@@ -8969,18 +8987,18 @@
         <v>21</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:243" ht="25" customHeight="1">
       <c r="A111" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="35">
         <v>21</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="14">
         <v>30</v>
       </c>
@@ -9007,18 +9025,18 @@
         <v>90</v>
       </c>
       <c r="M111" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:243" ht="25" customHeight="1">
       <c r="A112" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="36">
+      <c r="B112" s="35">
         <v>21</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="14">
         <v>30</v>
       </c>
@@ -9050,11 +9068,11 @@
       <c r="A113" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="36">
+      <c r="B113" s="35">
         <v>27</v>
       </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="14">
         <v>29.644970414201186</v>
       </c>
@@ -9085,7 +9103,7 @@
     </row>
     <row r="114" spans="1:243" ht="25" customHeight="1">
       <c r="A114" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" s="24">
         <v>6</v>
@@ -9123,12 +9141,12 @@
         <v>82.860684699915467</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:243" s="27" customFormat="1" ht="25" customHeight="1">
       <c r="A115" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B115" s="26">
         <v>10</v>
@@ -9399,7 +9417,7 @@
     </row>
     <row r="116" spans="1:243" ht="25" customHeight="1">
       <c r="A116" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B116" s="24">
         <v>6</v>
@@ -9440,7 +9458,7 @@
     </row>
     <row r="117" spans="1:243" ht="25" customHeight="1">
       <c r="A117" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B117" s="24">
         <v>6</v>
@@ -9477,12 +9495,12 @@
         <v>89</v>
       </c>
       <c r="M117" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:243" ht="25" customHeight="1">
       <c r="A118" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" s="24">
         <v>6</v>
@@ -9523,7 +9541,7 @@
     </row>
     <row r="119" spans="1:243" ht="25" customHeight="1">
       <c r="A119" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B119" s="24">
         <v>6</v>
@@ -9569,7 +9587,7 @@
     </row>
     <row r="120" spans="1:243" ht="25" customHeight="1">
       <c r="A120" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B120" s="31">
         <v>6</v>
@@ -9607,7 +9625,7 @@
         <v>30</v>
       </c>
       <c r="M120" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="IE120" s="25"/>
       <c r="IF120" s="25"/>
@@ -9617,7 +9635,7 @@
     </row>
     <row r="121" spans="1:243" ht="25" customHeight="1">
       <c r="A121" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" s="24">
         <v>6</v>
@@ -9662,7 +9680,7 @@
     </row>
     <row r="122" spans="1:243" ht="25" customHeight="1">
       <c r="A122" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B122" s="24">
         <v>6</v>
@@ -9762,7 +9780,7 @@
       </c>
       <c r="F127" s="22">
         <f>COUNTIF(F3:F113, "&gt;0")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G127" s="21"/>
       <c r="I127" s="23"/>
@@ -9951,33 +9969,21 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
@@ -9988,21 +9994,33 @@
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
